--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #05  MAYO  2022/BALANCE    ZAVALETA   MAYO    2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #05  MAYO  2022/BALANCE    ZAVALETA   MAYO    2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3690" yWindow="0" windowWidth="16605" windowHeight="10920" firstSheet="14" activeTab="17"/>
+    <workbookView xWindow="3690" yWindow="0" windowWidth="16605" windowHeight="10920" firstSheet="14" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="OCTUBRE      2 0 2 1     " sheetId="1" r:id="rId1"/>
@@ -27,9 +27,11 @@
     <sheet name="     A B R I L     2 0 2 2     " sheetId="16" r:id="rId13"/>
     <sheet name="   COMPRAS    ABRIL    2 02 2 2" sheetId="9" r:id="rId14"/>
     <sheet name="DEPOSITOS A NLP" sheetId="17" r:id="rId15"/>
-    <sheet name="Hoja2" sheetId="18" r:id="rId16"/>
-    <sheet name="Hoja1" sheetId="19" r:id="rId17"/>
-    <sheet name="Hoja3" sheetId="20" r:id="rId18"/>
+    <sheet name="    MAYO     2022    " sheetId="18" r:id="rId16"/>
+    <sheet name="COMPRAS     MAYO   2022   " sheetId="21" r:id="rId17"/>
+    <sheet name="Hoja5" sheetId="22" r:id="rId18"/>
+    <sheet name="Hoja1" sheetId="19" r:id="rId19"/>
+    <sheet name="Hoja3" sheetId="20" r:id="rId20"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -542,8 +544,90 @@
 </comments>
 </file>
 
+<file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>ROUSS</author>
+  </authors>
+  <commentList>
+    <comment ref="J23" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>ROUSS:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J25" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>ROUSS:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J43" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>ROUSS:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1397" uniqueCount="768">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1450" uniqueCount="774">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -2847,6 +2931,24 @@
   </si>
   <si>
     <t>ERIKA</t>
+  </si>
+  <si>
+    <t>BALANCE      ABASTO 4 CARNES    Z A V A L E T A      M A Y O           2 0 2 2</t>
+  </si>
+  <si>
+    <t>chorizo-pollo-quesos-papas</t>
+  </si>
+  <si>
+    <t>pollo-quesos-jamon-chorizo-lengua-pavo-roas beef</t>
+  </si>
+  <si>
+    <t>jamon-pollo-quesos-chistorra-longaniza</t>
+  </si>
+  <si>
+    <t>ayuntamiento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POLLO   </t>
   </si>
 </sst>
 </file>
@@ -2862,7 +2964,7 @@
     <numFmt numFmtId="167" formatCode="[$$-80A]#,##0.00;\-[$$-80A]#,##0.00"/>
     <numFmt numFmtId="168" formatCode="[$-C0A]d\-mmm\-yyyy;@"/>
   </numFmts>
-  <fonts count="63" x14ac:knownFonts="1">
+  <fonts count="66" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3365,6 +3467,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="23">
     <fill>
@@ -3500,7 +3625,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="99">
+  <borders count="102">
     <border>
       <left/>
       <right/>
@@ -4712,12 +4837,51 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="669">
+  <cellXfs count="717">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -5807,6 +5971,140 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="16" fillId="6" borderId="63" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="64" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="64" fillId="0" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="64" fillId="0" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="64" fillId="0" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="55" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="99" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="100" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="100" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="100" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="101" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="99" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="100" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="100" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="20" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="20" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="20" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5879,76 +6177,10 @@
     <xf numFmtId="44" fontId="12" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="1" fontId="43" fillId="6" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="43" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="33" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="33" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="14" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="14" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="33" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="13" fillId="0" borderId="57" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5992,6 +6224,39 @@
     </xf>
     <xf numFmtId="44" fontId="41" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="33" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="33" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="14" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="14" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="33" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="3" fillId="3" borderId="74" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -6179,6 +6444,21 @@
     <xf numFmtId="165" fontId="11" fillId="0" borderId="96" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -6188,16 +6468,16 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF0000FF"/>
+      <color rgb="FFCC99FF"/>
       <color rgb="FFFFCCFF"/>
       <color rgb="FFFF00FF"/>
       <color rgb="FF00FF99"/>
       <color rgb="FF66FFFF"/>
-      <color rgb="FF0000FF"/>
       <color rgb="FFCCFF66"/>
       <color rgb="FF00FF00"/>
       <color rgb="FFCC3399"/>
       <color rgb="FF990033"/>
-      <color rgb="FF99CCFF"/>
     </mruColors>
   </colors>
   <extLst>
@@ -6609,6 +6889,432 @@
         <a:xfrm flipV="1">
           <a:off x="5029200" y="11344275"/>
           <a:ext cx="923925" cy="1038225"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>200024</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="2" name="2 Conector recto de flecha">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2012060D-6A0F-41D2-A832-74F72EF945FB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="4895850" y="12239624"/>
+          <a:ext cx="85725" cy="123825"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1143000</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="1 Conector recto de flecha">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C84F863B-1E69-40C9-AAA6-E150E727BC58}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4857750" y="11744325"/>
+          <a:ext cx="419100" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>200024</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="2 Conector recto de flecha">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F282856-1683-4627-996E-9F4AD530C284}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="4895850" y="12239624"/>
+          <a:ext cx="85725" cy="123825"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Conector recto de flecha 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC19A0EA-B603-496A-8B2F-50F1F36E5D63}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2143125" y="11725275"/>
+          <a:ext cx="1781175" cy="447675"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>695325</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>47623</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>133352</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Abrir llave 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97978218-9641-42D3-AAF9-C49E03D3CF46}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="7481888" y="10863260"/>
+          <a:ext cx="200026" cy="2228852"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftBrace">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 8333"/>
+            <a:gd name="adj2" fmla="val 52985"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-MX" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>64250</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1323990" cy="419708"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Rectángulo 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81AED0B7-5349-49AD-8D5B-E24B093B3905}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="18916712">
+          <a:off x="0" y="12542000"/>
+          <a:ext cx="1323990" cy="419708"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1400" b="1" cap="none" spc="0">
+              <a:ln w="6600">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="accent2"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>Rosy</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1400" b="1" cap="none" spc="0" baseline="0">
+              <a:ln w="6600">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="accent2"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t> Tellez</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-ES" sz="1400" b="1" cap="none" spc="0">
+            <a:ln w="6600">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="0000FF"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                <a:schemeClr val="accent2"/>
+              </a:outerShdw>
+            </a:effectLst>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1152525</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>695325</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Conector recto de flecha 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE3DEEAA-4813-4B55-9D28-E8AF250AE061}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4857750" y="12563475"/>
+          <a:ext cx="819150" cy="1038225"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -9702,23 +10408,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="569"/>
-      <c r="C1" s="571" t="s">
+      <c r="B1" s="588"/>
+      <c r="C1" s="590" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="572"/>
-      <c r="E1" s="572"/>
-      <c r="F1" s="572"/>
-      <c r="G1" s="572"/>
-      <c r="H1" s="572"/>
-      <c r="I1" s="572"/>
-      <c r="J1" s="572"/>
-      <c r="K1" s="572"/>
-      <c r="L1" s="572"/>
-      <c r="M1" s="572"/>
+      <c r="D1" s="591"/>
+      <c r="E1" s="591"/>
+      <c r="F1" s="591"/>
+      <c r="G1" s="591"/>
+      <c r="H1" s="591"/>
+      <c r="I1" s="591"/>
+      <c r="J1" s="591"/>
+      <c r="K1" s="591"/>
+      <c r="L1" s="591"/>
+      <c r="M1" s="591"/>
     </row>
     <row r="2" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="570"/>
+      <c r="B2" s="589"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -9728,17 +10434,17 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:19" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="573" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="574"/>
+      <c r="B3" s="592" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="593"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="575" t="s">
+      <c r="H3" s="594" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="575"/>
+      <c r="I3" s="594"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
@@ -9752,14 +10458,14 @@
         <v>0</v>
       </c>
       <c r="D4" s="18"/>
-      <c r="E4" s="576" t="s">
+      <c r="E4" s="595" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="577"/>
-      <c r="H4" s="578" t="s">
+      <c r="F4" s="596"/>
+      <c r="H4" s="597" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="579"/>
+      <c r="I4" s="598"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -9769,10 +10475,10 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="550" t="s">
+      <c r="P4" s="604" t="s">
         <v>6</v>
       </c>
-      <c r="Q4" s="551"/>
+      <c r="Q4" s="605"/>
     </row>
     <row r="5" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -11213,11 +11919,11 @@
       <c r="J39" s="60"/>
       <c r="K39" s="177"/>
       <c r="L39" s="61"/>
-      <c r="M39" s="552">
+      <c r="M39" s="606">
         <f>SUM(M5:M38)</f>
         <v>247061</v>
       </c>
-      <c r="N39" s="554">
+      <c r="N39" s="608">
         <f>SUM(N5:N38)</f>
         <v>172863</v>
       </c>
@@ -11243,8 +11949,8 @@
       <c r="J40" s="60"/>
       <c r="K40" s="41"/>
       <c r="L40" s="61"/>
-      <c r="M40" s="553"/>
-      <c r="N40" s="555"/>
+      <c r="M40" s="607"/>
+      <c r="N40" s="609"/>
       <c r="P40" s="34"/>
       <c r="Q40" s="9"/>
     </row>
@@ -11459,29 +12165,29 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="556" t="s">
+      <c r="H52" s="610" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="557"/>
+      <c r="I52" s="611"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="558">
+      <c r="K52" s="612">
         <f>I50+L50</f>
         <v>53873.49</v>
       </c>
-      <c r="L52" s="559"/>
-      <c r="M52" s="560">
+      <c r="L52" s="613"/>
+      <c r="M52" s="614">
         <f>N39+M39</f>
         <v>419924</v>
       </c>
-      <c r="N52" s="561"/>
+      <c r="N52" s="615"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D53" s="562" t="s">
+      <c r="D53" s="616" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="562"/>
+      <c r="E53" s="616"/>
       <c r="F53" s="101">
         <f>F50-K52-C50</f>
         <v>471038.61</v>
@@ -11492,22 +12198,22 @@
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="562" t="s">
+      <c r="D54" s="616" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="562"/>
+      <c r="E54" s="616"/>
       <c r="F54" s="96">
         <v>-549976.4</v>
       </c>
-      <c r="I54" s="563" t="s">
+      <c r="I54" s="617" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="564"/>
-      <c r="K54" s="565">
+      <c r="J54" s="618"/>
+      <c r="K54" s="619">
         <f>F56+F57+F58</f>
         <v>-24577.400000000023</v>
       </c>
-      <c r="L54" s="566"/>
+      <c r="L54" s="620"/>
       <c r="P54" s="34"/>
       <c r="Q54" s="9"/>
     </row>
@@ -11540,11 +12246,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="567">
+      <c r="K56" s="621">
         <f>-C4</f>
         <v>0</v>
       </c>
-      <c r="L56" s="568"/>
+      <c r="L56" s="622"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -11561,22 +12267,22 @@
       <c r="C58" s="112">
         <v>44507</v>
       </c>
-      <c r="D58" s="545" t="s">
+      <c r="D58" s="599" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="546"/>
+      <c r="E58" s="600"/>
       <c r="F58" s="113">
         <v>567389.35</v>
       </c>
-      <c r="I58" s="547" t="s">
+      <c r="I58" s="601" t="s">
         <v>97</v>
       </c>
-      <c r="J58" s="548"/>
-      <c r="K58" s="549">
+      <c r="J58" s="602"/>
+      <c r="K58" s="603">
         <f>K54+K56</f>
         <v>-24577.400000000023</v>
       </c>
-      <c r="L58" s="549"/>
+      <c r="L58" s="603"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -11720,12 +12426,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
     <mergeCell ref="D58:E58"/>
     <mergeCell ref="I58:J58"/>
     <mergeCell ref="K58:L58"/>
@@ -11740,6 +12440,12 @@
     <mergeCell ref="I54:J54"/>
     <mergeCell ref="K54:L54"/>
     <mergeCell ref="K56:L56"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.15748031496062992" top="0.35433070866141736" bottom="0.31496062992125984" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="75" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -14200,10 +14906,10 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I76" s="641" t="s">
+      <c r="I76" s="684" t="s">
         <v>597</v>
       </c>
-      <c r="J76" s="642"/>
+      <c r="J76" s="685"/>
       <c r="K76" s="69"/>
       <c r="L76" s="148"/>
       <c r="M76" s="69"/>
@@ -14222,8 +14928,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I77" s="643"/>
-      <c r="J77" s="644"/>
+      <c r="I77" s="686"/>
+      <c r="J77" s="687"/>
       <c r="K77" s="69"/>
       <c r="L77" s="148"/>
       <c r="M77" s="69"/>
@@ -14290,7 +14996,7 @@
       <c r="C80" s="214"/>
       <c r="D80" s="256"/>
       <c r="E80" s="3"/>
-      <c r="F80" s="607" t="s">
+      <c r="F80" s="650" t="s">
         <v>207</v>
       </c>
       <c r="K80" s="1"/>
@@ -14305,7 +15011,7 @@
       <c r="C81" s="463"/>
       <c r="D81" s="464"/>
       <c r="E81" s="3"/>
-      <c r="F81" s="608"/>
+      <c r="F81" s="651"/>
       <c r="K81" s="1"/>
       <c r="L81" s="97"/>
       <c r="M81" s="3"/>
@@ -14313,10 +15019,10 @@
     </row>
     <row r="82" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A82" s="435"/>
-      <c r="B82" s="640" t="s">
+      <c r="B82" s="683" t="s">
         <v>595</v>
       </c>
-      <c r="C82" s="640"/>
+      <c r="C82" s="683"/>
       <c r="I82"/>
       <c r="J82" s="194"/>
     </row>
@@ -14598,23 +15304,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="569"/>
-      <c r="C1" s="611" t="s">
+      <c r="B1" s="588"/>
+      <c r="C1" s="654" t="s">
         <v>451</v>
       </c>
-      <c r="D1" s="612"/>
-      <c r="E1" s="612"/>
-      <c r="F1" s="612"/>
-      <c r="G1" s="612"/>
-      <c r="H1" s="612"/>
-      <c r="I1" s="612"/>
-      <c r="J1" s="612"/>
-      <c r="K1" s="612"/>
-      <c r="L1" s="612"/>
-      <c r="M1" s="612"/>
+      <c r="D1" s="655"/>
+      <c r="E1" s="655"/>
+      <c r="F1" s="655"/>
+      <c r="G1" s="655"/>
+      <c r="H1" s="655"/>
+      <c r="I1" s="655"/>
+      <c r="J1" s="655"/>
+      <c r="K1" s="655"/>
+      <c r="L1" s="655"/>
+      <c r="M1" s="655"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="570"/>
+      <c r="B2" s="589"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -14624,24 +15330,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="573" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="574"/>
+      <c r="B3" s="592" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="593"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="575" t="s">
+      <c r="H3" s="594" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="575"/>
+      <c r="I3" s="594"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="599" t="s">
+      <c r="P3" s="631" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="609" t="s">
+      <c r="R3" s="652" t="s">
         <v>216</v>
       </c>
     </row>
@@ -14656,14 +15362,14 @@
       <c r="D4" s="18">
         <v>44619</v>
       </c>
-      <c r="E4" s="576" t="s">
+      <c r="E4" s="595" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="577"/>
-      <c r="H4" s="578" t="s">
+      <c r="F4" s="596"/>
+      <c r="H4" s="597" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="579"/>
+      <c r="I4" s="598"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -14673,15 +15379,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="600"/>
+      <c r="P4" s="632"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="610"/>
-      <c r="W4" s="582" t="s">
+      <c r="R4" s="653"/>
+      <c r="W4" s="641" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="582"/>
+      <c r="X4" s="641"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -14732,8 +15438,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="324"/>
-      <c r="W5" s="582"/>
-      <c r="X5" s="582"/>
+      <c r="W5" s="641"/>
+      <c r="X5" s="641"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -15496,7 +16202,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="586">
+      <c r="W19" s="645">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -15548,7 +16254,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="587"/>
+      <c r="W20" s="646"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -15597,8 +16303,8 @@
         <v>0</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="588"/>
-      <c r="X21" s="588"/>
+      <c r="W21" s="647"/>
+      <c r="X21" s="647"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -15698,8 +16404,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="589"/>
-      <c r="X23" s="589"/>
+      <c r="W23" s="648"/>
+      <c r="X23" s="648"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -15754,8 +16460,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="589"/>
-      <c r="X24" s="589"/>
+      <c r="W24" s="648"/>
+      <c r="X24" s="648"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -15803,8 +16509,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="590"/>
-      <c r="X25" s="590"/>
+      <c r="W25" s="649"/>
+      <c r="X25" s="649"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -15853,8 +16559,8 @@
       <c r="R26" s="319">
         <v>0</v>
       </c>
-      <c r="W26" s="590"/>
-      <c r="X26" s="590"/>
+      <c r="W26" s="649"/>
+      <c r="X26" s="649"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -15902,9 +16608,9 @@
       <c r="R27" s="388">
         <v>170</v>
       </c>
-      <c r="W27" s="583"/>
-      <c r="X27" s="584"/>
-      <c r="Y27" s="585"/>
+      <c r="W27" s="642"/>
+      <c r="X27" s="643"/>
+      <c r="Y27" s="644"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -15952,9 +16658,9 @@
       <c r="R28" s="388">
         <v>37374.36</v>
       </c>
-      <c r="W28" s="584"/>
-      <c r="X28" s="584"/>
-      <c r="Y28" s="585"/>
+      <c r="W28" s="643"/>
+      <c r="X28" s="643"/>
+      <c r="Y28" s="644"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -16286,11 +16992,11 @@
       <c r="J36" s="266"/>
       <c r="K36" s="250"/>
       <c r="L36" s="44"/>
-      <c r="M36" s="601">
+      <c r="M36" s="633">
         <f>SUM(M5:M35)</f>
         <v>2220612.02</v>
       </c>
-      <c r="N36" s="603">
+      <c r="N36" s="635">
         <f>SUM(N5:N35)</f>
         <v>833865</v>
       </c>
@@ -16298,7 +17004,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="636">
+      <c r="Q36" s="679">
         <f>SUM(Q5:Q35)</f>
         <v>8.3000000000320142</v>
       </c>
@@ -16323,13 +17029,13 @@
       <c r="J37" s="60"/>
       <c r="K37" s="41"/>
       <c r="L37" s="61"/>
-      <c r="M37" s="602"/>
-      <c r="N37" s="604"/>
+      <c r="M37" s="634"/>
+      <c r="N37" s="636"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="637"/>
+      <c r="Q37" s="680"/>
       <c r="R37" s="227" t="s">
         <v>7</v>
       </c>
@@ -16374,11 +17080,11 @@
       <c r="J39" s="60"/>
       <c r="K39" s="177"/>
       <c r="L39" s="61"/>
-      <c r="M39" s="638">
+      <c r="M39" s="681">
         <f>M36+N36</f>
         <v>3054477.02</v>
       </c>
-      <c r="N39" s="639"/>
+      <c r="N39" s="682"/>
       <c r="P39" s="34">
         <f>SUM(P5:P38)</f>
         <v>3627989.66</v>
@@ -16638,26 +17344,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="556" t="s">
+      <c r="H52" s="610" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="557"/>
+      <c r="I52" s="611"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="558">
+      <c r="K52" s="612">
         <f>I50+L50</f>
         <v>217159.4</v>
       </c>
-      <c r="L52" s="591"/>
+      <c r="L52" s="639"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="562" t="s">
+      <c r="D53" s="616" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="562"/>
+      <c r="E53" s="616"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
         <v>1453241.94</v>
@@ -16666,22 +17372,22 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="592" t="s">
+      <c r="D54" s="640" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="592"/>
+      <c r="E54" s="640"/>
       <c r="F54" s="111">
         <v>-1360260.32</v>
       </c>
-      <c r="I54" s="563" t="s">
+      <c r="I54" s="617" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="564"/>
-      <c r="K54" s="565">
+      <c r="J54" s="618"/>
+      <c r="K54" s="619">
         <f>F56+F57+F58</f>
         <v>1797288.1999999997</v>
       </c>
-      <c r="L54" s="565"/>
+      <c r="L54" s="619"/>
       <c r="M54" s="404"/>
       <c r="N54" s="404"/>
       <c r="O54" s="404"/>
@@ -16722,11 +17428,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="567">
+      <c r="K56" s="621">
         <f>-C4</f>
         <v>-1266568.45</v>
       </c>
-      <c r="L56" s="568"/>
+      <c r="L56" s="622"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -16743,22 +17449,22 @@
       <c r="C58" s="112">
         <v>44647</v>
       </c>
-      <c r="D58" s="545" t="s">
+      <c r="D58" s="599" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="546"/>
+      <c r="E58" s="600"/>
       <c r="F58" s="113">
         <v>1792817.68</v>
       </c>
-      <c r="I58" s="547" t="s">
+      <c r="I58" s="601" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="548"/>
-      <c r="K58" s="549">
+      <c r="J58" s="602"/>
+      <c r="K58" s="603">
         <f>K54+K56</f>
         <v>530719.74999999977</v>
       </c>
-      <c r="L58" s="549"/>
+      <c r="L58" s="603"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -16902,21 +17608,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="K52:L52"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="K54:L54"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="N36:N37"/>
-    <mergeCell ref="Q36:Q37"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="M39:N39"/>
     <mergeCell ref="W26:X26"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="W27:X28"/>
@@ -16932,6 +17623,21 @@
     <mergeCell ref="W21:X21"/>
     <mergeCell ref="W23:X24"/>
     <mergeCell ref="W25:X25"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="Q36:Q37"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="K52:L52"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="K54:L54"/>
   </mergeCells>
   <pageMargins left="0.27559055118110237" right="0.15748031496062992" top="0.39370078740157483" bottom="0.27559055118110237" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="80" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -16947,7 +17653,7 @@
   </sheetPr>
   <dimension ref="A1:N115"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
@@ -19199,7 +19905,7 @@
       <c r="C80" s="214"/>
       <c r="D80" s="256"/>
       <c r="E80" s="3"/>
-      <c r="F80" s="607" t="s">
+      <c r="F80" s="650" t="s">
         <v>207</v>
       </c>
       <c r="K80" s="1"/>
@@ -19212,7 +19918,7 @@
       <c r="C81" s="1"/>
       <c r="D81" s="256"/>
       <c r="E81" s="3"/>
-      <c r="F81" s="608"/>
+      <c r="F81" s="651"/>
       <c r="K81" s="1"/>
       <c r="L81" s="97"/>
       <c r="M81" s="3"/>
@@ -19232,10 +19938,10 @@
     <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" s="456"/>
       <c r="B83" s="442"/>
-      <c r="I83" s="645" t="s">
+      <c r="I83" s="688" t="s">
         <v>594</v>
       </c>
-      <c r="J83" s="646"/>
+      <c r="J83" s="689"/>
     </row>
     <row r="84" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="518" t="s">
@@ -19244,8 +19950,8 @@
       <c r="B84" s="519"/>
       <c r="C84" s="520"/>
       <c r="D84" s="492"/>
-      <c r="I84" s="647"/>
-      <c r="J84" s="648"/>
+      <c r="I84" s="690"/>
+      <c r="J84" s="691"/>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" s="456"/>
@@ -19487,8 +20193,8 @@
   </sheetPr>
   <dimension ref="A1:Z80"/>
   <sheetViews>
-    <sheetView topLeftCell="J19" workbookViewId="0">
-      <selection activeCell="Q44" sqref="Q44"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -19517,23 +20223,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="569"/>
-      <c r="C1" s="611" t="s">
+      <c r="B1" s="588"/>
+      <c r="C1" s="654" t="s">
         <v>620</v>
       </c>
-      <c r="D1" s="612"/>
-      <c r="E1" s="612"/>
-      <c r="F1" s="612"/>
-      <c r="G1" s="612"/>
-      <c r="H1" s="612"/>
-      <c r="I1" s="612"/>
-      <c r="J1" s="612"/>
-      <c r="K1" s="612"/>
-      <c r="L1" s="612"/>
-      <c r="M1" s="612"/>
+      <c r="D1" s="655"/>
+      <c r="E1" s="655"/>
+      <c r="F1" s="655"/>
+      <c r="G1" s="655"/>
+      <c r="H1" s="655"/>
+      <c r="I1" s="655"/>
+      <c r="J1" s="655"/>
+      <c r="K1" s="655"/>
+      <c r="L1" s="655"/>
+      <c r="M1" s="655"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="570"/>
+      <c r="B2" s="589"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -19543,24 +20249,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="573" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="574"/>
+      <c r="B3" s="592" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="593"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="575" t="s">
+      <c r="H3" s="594" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="575"/>
+      <c r="I3" s="594"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="599" t="s">
+      <c r="P3" s="631" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="609" t="s">
+      <c r="R3" s="652" t="s">
         <v>216</v>
       </c>
     </row>
@@ -19575,14 +20281,14 @@
       <c r="D4" s="18">
         <v>44647</v>
       </c>
-      <c r="E4" s="576" t="s">
+      <c r="E4" s="595" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="577"/>
-      <c r="H4" s="578" t="s">
+      <c r="F4" s="596"/>
+      <c r="H4" s="597" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="579"/>
+      <c r="I4" s="598"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -19592,15 +20298,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="600"/>
+      <c r="P4" s="632"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="610"/>
-      <c r="W4" s="582" t="s">
+      <c r="R4" s="653"/>
+      <c r="W4" s="641" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="582"/>
+      <c r="X4" s="641"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -19651,8 +20357,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="324"/>
-      <c r="W5" s="582"/>
-      <c r="X5" s="582"/>
+      <c r="W5" s="641"/>
+      <c r="X5" s="641"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -20411,7 +21117,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="586">
+      <c r="W19" s="645">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -20463,7 +21169,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="587"/>
+      <c r="W20" s="646"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -20512,8 +21218,8 @@
         <v>0</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="588"/>
-      <c r="X21" s="588"/>
+      <c r="W21" s="647"/>
+      <c r="X21" s="647"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -20610,8 +21316,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="589"/>
-      <c r="X23" s="589"/>
+      <c r="W23" s="648"/>
+      <c r="X23" s="648"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -20666,8 +21372,8 @@
         <v>642</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="589"/>
-      <c r="X24" s="589"/>
+      <c r="W24" s="648"/>
+      <c r="X24" s="648"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -20713,8 +21419,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="590"/>
-      <c r="X25" s="590"/>
+      <c r="W25" s="649"/>
+      <c r="X25" s="649"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -20765,8 +21471,8 @@
       <c r="R26" s="388">
         <v>73524.61</v>
       </c>
-      <c r="W26" s="590"/>
-      <c r="X26" s="590"/>
+      <c r="W26" s="649"/>
+      <c r="X26" s="649"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -20817,9 +21523,9 @@
       <c r="R27" s="319">
         <v>0</v>
       </c>
-      <c r="W27" s="583"/>
-      <c r="X27" s="584"/>
-      <c r="Y27" s="585"/>
+      <c r="W27" s="642"/>
+      <c r="X27" s="643"/>
+      <c r="Y27" s="644"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -20869,9 +21575,9 @@
       <c r="R28" s="319">
         <v>0</v>
       </c>
-      <c r="W28" s="584"/>
-      <c r="X28" s="584"/>
-      <c r="Y28" s="585"/>
+      <c r="W28" s="643"/>
+      <c r="X28" s="643"/>
+      <c r="Y28" s="644"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -21470,11 +22176,11 @@
       <c r="L41" s="61">
         <v>15798.5</v>
       </c>
-      <c r="M41" s="601">
+      <c r="M41" s="633">
         <f>SUM(M5:M40)</f>
         <v>2479230.6100000003</v>
       </c>
-      <c r="N41" s="601">
+      <c r="N41" s="633">
         <f>SUM(N5:N40)</f>
         <v>1195667</v>
       </c>
@@ -21482,7 +22188,7 @@
         <f>SUM(P5:P40)</f>
         <v>4355189.74</v>
       </c>
-      <c r="Q41" s="649">
+      <c r="Q41" s="692">
         <f>SUM(Q5:Q40)</f>
         <v>69741.629999999976</v>
       </c>
@@ -21506,10 +22212,10 @@
       <c r="L42" s="52">
         <v>15298.5</v>
       </c>
-      <c r="M42" s="602"/>
-      <c r="N42" s="602"/>
+      <c r="M42" s="634"/>
+      <c r="N42" s="634"/>
       <c r="P42" s="34"/>
-      <c r="Q42" s="650"/>
+      <c r="Q42" s="693"/>
     </row>
     <row r="43" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="23"/>
@@ -21579,11 +22285,11 @@
       <c r="L45" s="61">
         <v>18269.490000000002</v>
       </c>
-      <c r="M45" s="651">
+      <c r="M45" s="694">
         <f>M41+N41</f>
         <v>3674897.6100000003</v>
       </c>
-      <c r="N45" s="652"/>
+      <c r="N45" s="695"/>
       <c r="P45" s="34"/>
       <c r="Q45" s="13"/>
     </row>
@@ -21708,26 +22414,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="556" t="s">
+      <c r="H52" s="610" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="557"/>
+      <c r="I52" s="611"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="558">
+      <c r="K52" s="612">
         <f>I50+L50</f>
         <v>289121.83</v>
       </c>
-      <c r="L52" s="591"/>
+      <c r="L52" s="639"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="562" t="s">
+      <c r="D53" s="616" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="562"/>
+      <c r="E53" s="616"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
         <v>3402894.67</v>
@@ -21736,22 +22442,22 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="592" t="s">
+      <c r="D54" s="640" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="592"/>
+      <c r="E54" s="640"/>
       <c r="F54" s="111">
         <v>-1884975.46</v>
       </c>
-      <c r="I54" s="563" t="s">
+      <c r="I54" s="617" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="564"/>
-      <c r="K54" s="565">
+      <c r="J54" s="618"/>
+      <c r="K54" s="619">
         <f>F56+F57+F58</f>
         <v>3549636.8899999997</v>
       </c>
-      <c r="L54" s="565"/>
+      <c r="L54" s="619"/>
       <c r="M54" s="404"/>
       <c r="N54" s="404"/>
       <c r="O54" s="404"/>
@@ -21792,11 +22498,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="567">
+      <c r="K56" s="621">
         <f>-C4</f>
         <v>-1792817.68</v>
       </c>
-      <c r="L56" s="568"/>
+      <c r="L56" s="622"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -21813,22 +22519,22 @@
       <c r="C58" s="112">
         <v>44682</v>
       </c>
-      <c r="D58" s="545" t="s">
+      <c r="D58" s="599" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="546"/>
+      <c r="E58" s="600"/>
       <c r="F58" s="113">
         <v>2112071.92</v>
       </c>
-      <c r="I58" s="547" t="s">
+      <c r="I58" s="601" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="548"/>
-      <c r="K58" s="549">
+      <c r="J58" s="602"/>
+      <c r="K58" s="603">
         <f>K54+K56</f>
         <v>1756819.2099999997</v>
       </c>
-      <c r="L58" s="549"/>
+      <c r="L58" s="603"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -21972,21 +22678,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="K52:L52"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="K54:L54"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="M41:M42"/>
-    <mergeCell ref="N41:N42"/>
-    <mergeCell ref="Q41:Q42"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="M45:N45"/>
     <mergeCell ref="W26:X26"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="W27:X28"/>
@@ -22002,6 +22693,21 @@
     <mergeCell ref="W21:X21"/>
     <mergeCell ref="W23:X24"/>
     <mergeCell ref="W25:X25"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="M41:M42"/>
+    <mergeCell ref="N41:N42"/>
+    <mergeCell ref="Q41:Q42"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="K52:L52"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="K54:L54"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.39370078740157483" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="85" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -22019,7 +22725,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P53" sqref="P53"/>
+      <selection pane="bottomLeft" activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24560,7 +25266,7 @@
       <c r="C90" s="214"/>
       <c r="D90" s="256"/>
       <c r="E90" s="3"/>
-      <c r="F90" s="607" t="s">
+      <c r="F90" s="650" t="s">
         <v>207</v>
       </c>
       <c r="K90" s="1"/>
@@ -24573,7 +25279,7 @@
       <c r="C91" s="1"/>
       <c r="D91" s="256"/>
       <c r="E91" s="3"/>
-      <c r="F91" s="608"/>
+      <c r="F91" s="651"/>
       <c r="K91" s="1"/>
       <c r="L91" s="97"/>
       <c r="M91" s="3"/>
@@ -24592,10 +25298,10 @@
     <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93" s="456"/>
       <c r="B93" s="442"/>
-      <c r="I93" s="645" t="s">
+      <c r="I93" s="688" t="s">
         <v>594</v>
       </c>
-      <c r="J93" s="646"/>
+      <c r="J93" s="689"/>
     </row>
     <row r="94" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="456"/>
@@ -24605,8 +25311,8 @@
       <c r="C94" s="522"/>
       <c r="D94" s="523"/>
       <c r="E94" s="524"/>
-      <c r="I94" s="647"/>
-      <c r="J94" s="648"/>
+      <c r="I94" s="690"/>
+      <c r="J94" s="691"/>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" s="456"/>
@@ -24862,21 +25568,21 @@
   <sheetData>
     <row r="1" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F2" s="657" t="s">
+      <c r="F2" s="700" t="s">
         <v>765</v>
       </c>
-      <c r="G2" s="658"/>
-      <c r="H2" s="659"/>
+      <c r="G2" s="701"/>
+      <c r="H2" s="702"/>
     </row>
     <row r="3" spans="2:8" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="654" t="s">
+      <c r="B3" s="697" t="s">
         <v>761</v>
       </c>
-      <c r="C3" s="655"/>
-      <c r="D3" s="656"/>
-      <c r="F3" s="660"/>
-      <c r="G3" s="661"/>
-      <c r="H3" s="662"/>
+      <c r="C3" s="698"/>
+      <c r="D3" s="699"/>
+      <c r="F3" s="703"/>
+      <c r="G3" s="704"/>
+      <c r="H3" s="705"/>
     </row>
     <row r="4" spans="2:8" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="530" t="s">
@@ -25021,11 +25727,11 @@
         <f>SUM(D5:D10)</f>
         <v>264460</v>
       </c>
-      <c r="G11" s="663">
+      <c r="G11" s="706">
         <f>SUM(H5:H10)</f>
         <v>334337</v>
       </c>
-      <c r="H11" s="664"/>
+      <c r="H11" s="707"/>
     </row>
     <row r="13" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B13" s="536" t="s">
@@ -25042,23 +25748,23 @@
       <c r="C14" s="536"/>
     </row>
     <row r="15" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="667" t="s">
+      <c r="C15" s="710" t="s">
         <v>763</v>
       </c>
-      <c r="D15" s="665">
+      <c r="D15" s="708">
         <f>D11-D13</f>
         <v>-69877</v>
       </c>
     </row>
     <row r="16" spans="2:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="668"/>
-      <c r="D16" s="666"/>
+      <c r="C16" s="711"/>
+      <c r="D16" s="709"/>
     </row>
     <row r="17" spans="3:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C17" s="653" t="s">
+      <c r="C17" s="696" t="s">
         <v>766</v>
       </c>
-      <c r="D17" s="653"/>
+      <c r="D17" s="696"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -25076,6 +25782,4314 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFCC99FF"/>
+  </sheetPr>
+  <dimension ref="A1:Z80"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="4" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="R8" sqref="R8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.85546875" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" style="566" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" style="567"/>
+    <col min="6" max="6" width="15.28515625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="1.85546875" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" style="567" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" style="4" customWidth="1"/>
+    <col min="10" max="10" width="11.7109375" style="12" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="576" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="3" customWidth="1"/>
+    <col min="13" max="13" width="17.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.85546875" customWidth="1"/>
+    <col min="17" max="17" width="21.28515625" style="225" customWidth="1"/>
+    <col min="18" max="18" width="15.28515625" style="227" customWidth="1"/>
+    <col min="19" max="20" width="11.42578125" customWidth="1"/>
+    <col min="21" max="21" width="15.85546875" style="1" customWidth="1"/>
+    <col min="23" max="23" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="17.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B1" s="588"/>
+      <c r="C1" s="654" t="s">
+        <v>768</v>
+      </c>
+      <c r="D1" s="655"/>
+      <c r="E1" s="655"/>
+      <c r="F1" s="655"/>
+      <c r="G1" s="655"/>
+      <c r="H1" s="655"/>
+      <c r="I1" s="655"/>
+      <c r="J1" s="655"/>
+      <c r="K1" s="655"/>
+      <c r="L1" s="655"/>
+      <c r="M1" s="655"/>
+    </row>
+    <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="589"/>
+      <c r="C2" s="3"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="7"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="9"/>
+    </row>
+    <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="592" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="593"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="568"/>
+      <c r="F3" s="11"/>
+      <c r="H3" s="594" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="594"/>
+      <c r="K3" s="165"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="14"/>
+      <c r="P3" s="631" t="s">
+        <v>6</v>
+      </c>
+      <c r="R3" s="652" t="s">
+        <v>216</v>
+      </c>
+      <c r="U3" s="34"/>
+      <c r="V3" s="128"/>
+      <c r="W3" s="128"/>
+      <c r="X3" s="128"/>
+    </row>
+    <row r="4" spans="1:25" ht="32.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="16"/>
+      <c r="C4" s="17">
+        <v>2112071.92</v>
+      </c>
+      <c r="D4" s="18">
+        <v>44682</v>
+      </c>
+      <c r="E4" s="595" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="596"/>
+      <c r="H4" s="597" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="598"/>
+      <c r="J4" s="571"/>
+      <c r="K4" s="577"/>
+      <c r="L4" s="578"/>
+      <c r="M4" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="N4" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="P4" s="632"/>
+      <c r="Q4" s="322" t="s">
+        <v>217</v>
+      </c>
+      <c r="R4" s="653"/>
+      <c r="U4" s="34"/>
+      <c r="V4" s="128"/>
+      <c r="W4" s="712"/>
+      <c r="X4" s="712"/>
+      <c r="Y4" s="227"/>
+    </row>
+    <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="24">
+        <v>44683</v>
+      </c>
+      <c r="C5" s="25">
+        <v>17249</v>
+      </c>
+      <c r="D5" s="26" t="s">
+        <v>769</v>
+      </c>
+      <c r="E5" s="27">
+        <v>44683</v>
+      </c>
+      <c r="F5" s="28">
+        <v>112678</v>
+      </c>
+      <c r="G5" s="546"/>
+      <c r="H5" s="29">
+        <v>44683</v>
+      </c>
+      <c r="I5" s="30">
+        <v>1858.5</v>
+      </c>
+      <c r="J5" s="37"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="32">
+        <f>61008.5+2210</f>
+        <v>63218.5</v>
+      </c>
+      <c r="N5" s="33">
+        <v>30352</v>
+      </c>
+      <c r="O5" s="318"/>
+      <c r="P5" s="34">
+        <f>N5+M5+L5+I5+C5</f>
+        <v>112678</v>
+      </c>
+      <c r="Q5" s="325">
+        <f>P5-F5</f>
+        <v>0</v>
+      </c>
+      <c r="R5" s="379">
+        <v>0</v>
+      </c>
+      <c r="S5" s="324"/>
+      <c r="U5" s="34"/>
+      <c r="V5" s="128"/>
+      <c r="W5" s="712"/>
+      <c r="X5" s="712"/>
+      <c r="Y5" s="233"/>
+    </row>
+    <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="23"/>
+      <c r="B6" s="24">
+        <v>44684</v>
+      </c>
+      <c r="C6" s="25">
+        <v>26350</v>
+      </c>
+      <c r="D6" s="35" t="s">
+        <v>770</v>
+      </c>
+      <c r="E6" s="27">
+        <v>44684</v>
+      </c>
+      <c r="F6" s="28">
+        <v>99636</v>
+      </c>
+      <c r="G6" s="546"/>
+      <c r="H6" s="29">
+        <v>44684</v>
+      </c>
+      <c r="I6" s="30">
+        <v>3791</v>
+      </c>
+      <c r="J6" s="37"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="39"/>
+      <c r="M6" s="32">
+        <v>39813</v>
+      </c>
+      <c r="N6" s="33">
+        <v>29682</v>
+      </c>
+      <c r="O6" s="2"/>
+      <c r="P6" s="39">
+        <f>N6+M6+L6+I6+C6</f>
+        <v>99636</v>
+      </c>
+      <c r="Q6" s="325">
+        <f t="shared" ref="Q6:Q35" si="0">P6-F6</f>
+        <v>0</v>
+      </c>
+      <c r="R6" s="319">
+        <v>0</v>
+      </c>
+      <c r="S6" s="147"/>
+      <c r="T6" s="128"/>
+      <c r="U6" s="380"/>
+      <c r="V6" s="128"/>
+      <c r="W6" s="233"/>
+      <c r="X6" s="239"/>
+      <c r="Y6" s="13"/>
+    </row>
+    <row r="7" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="23"/>
+      <c r="B7" s="24">
+        <v>44685</v>
+      </c>
+      <c r="C7" s="25">
+        <v>17460</v>
+      </c>
+      <c r="D7" s="40" t="s">
+        <v>771</v>
+      </c>
+      <c r="E7" s="27">
+        <v>44685</v>
+      </c>
+      <c r="F7" s="28">
+        <v>102561</v>
+      </c>
+      <c r="G7" s="546"/>
+      <c r="H7" s="29">
+        <v>44685</v>
+      </c>
+      <c r="I7" s="30">
+        <v>4268</v>
+      </c>
+      <c r="J7" s="37">
+        <v>44685</v>
+      </c>
+      <c r="K7" s="38" t="s">
+        <v>772</v>
+      </c>
+      <c r="L7" s="39">
+        <v>20000</v>
+      </c>
+      <c r="M7" s="32">
+        <v>28729</v>
+      </c>
+      <c r="N7" s="33">
+        <v>33550</v>
+      </c>
+      <c r="O7" s="224"/>
+      <c r="P7" s="39">
+        <f>N7+M7+L7+I7+C7</f>
+        <v>104007</v>
+      </c>
+      <c r="Q7" s="325">
+        <v>0</v>
+      </c>
+      <c r="R7" s="388">
+        <v>1446</v>
+      </c>
+      <c r="S7" s="147"/>
+      <c r="T7" s="128"/>
+      <c r="U7" s="34"/>
+      <c r="V7" s="128"/>
+      <c r="W7" s="233"/>
+      <c r="X7" s="239"/>
+      <c r="Y7" s="13"/>
+    </row>
+    <row r="8" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="23"/>
+      <c r="B8" s="24">
+        <v>44686</v>
+      </c>
+      <c r="C8" s="25">
+        <v>2552</v>
+      </c>
+      <c r="D8" s="42" t="s">
+        <v>773</v>
+      </c>
+      <c r="E8" s="27">
+        <v>44686</v>
+      </c>
+      <c r="F8" s="28">
+        <v>99057</v>
+      </c>
+      <c r="G8" s="546"/>
+      <c r="H8" s="29">
+        <v>44686</v>
+      </c>
+      <c r="I8" s="30">
+        <v>2665</v>
+      </c>
+      <c r="J8" s="43"/>
+      <c r="K8" s="38"/>
+      <c r="L8" s="39"/>
+      <c r="M8" s="32">
+        <v>54686</v>
+      </c>
+      <c r="N8" s="33">
+        <v>39154</v>
+      </c>
+      <c r="O8" s="2"/>
+      <c r="P8" s="39">
+        <f t="shared" ref="P8:P40" si="1">N8+M8+L8+I8+C8</f>
+        <v>99057</v>
+      </c>
+      <c r="Q8" s="325">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R8" s="319">
+        <v>0</v>
+      </c>
+      <c r="S8" s="147"/>
+      <c r="T8" s="128"/>
+      <c r="U8" s="34"/>
+      <c r="V8" s="128"/>
+      <c r="W8" s="233"/>
+      <c r="X8" s="239"/>
+      <c r="Y8" s="13"/>
+    </row>
+    <row r="9" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="23"/>
+      <c r="B9" s="24">
+        <v>44687</v>
+      </c>
+      <c r="C9" s="25"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="27">
+        <v>44687</v>
+      </c>
+      <c r="F9" s="28"/>
+      <c r="G9" s="546"/>
+      <c r="H9" s="29">
+        <v>44687</v>
+      </c>
+      <c r="I9" s="30"/>
+      <c r="J9" s="37"/>
+      <c r="K9" s="223"/>
+      <c r="L9" s="39"/>
+      <c r="M9" s="32">
+        <v>0</v>
+      </c>
+      <c r="N9" s="33">
+        <v>0</v>
+      </c>
+      <c r="O9" s="2"/>
+      <c r="P9" s="39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q9" s="325">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R9" s="319">
+        <v>0</v>
+      </c>
+      <c r="S9" s="147"/>
+      <c r="T9" s="128"/>
+      <c r="U9" s="34"/>
+      <c r="V9" s="128"/>
+      <c r="W9" s="233"/>
+      <c r="X9" s="239"/>
+      <c r="Y9" s="13"/>
+    </row>
+    <row r="10" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="23"/>
+      <c r="B10" s="24">
+        <v>44688</v>
+      </c>
+      <c r="C10" s="25"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="27">
+        <v>44688</v>
+      </c>
+      <c r="F10" s="28"/>
+      <c r="G10" s="546"/>
+      <c r="H10" s="29">
+        <v>44688</v>
+      </c>
+      <c r="I10" s="30"/>
+      <c r="J10" s="37"/>
+      <c r="K10" s="167"/>
+      <c r="L10" s="45"/>
+      <c r="M10" s="32">
+        <v>0</v>
+      </c>
+      <c r="N10" s="33">
+        <v>0</v>
+      </c>
+      <c r="O10" s="2"/>
+      <c r="P10" s="39">
+        <f>N10+M10+L10+I10+C10</f>
+        <v>0</v>
+      </c>
+      <c r="Q10" s="325">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R10" s="319">
+        <v>0</v>
+      </c>
+      <c r="S10" s="147"/>
+      <c r="T10" s="128"/>
+      <c r="U10" s="34"/>
+      <c r="V10" s="128"/>
+      <c r="W10" s="233"/>
+      <c r="X10" s="239"/>
+      <c r="Y10" s="13"/>
+    </row>
+    <row r="11" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="23"/>
+      <c r="B11" s="24">
+        <v>44689</v>
+      </c>
+      <c r="C11" s="25"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="27">
+        <v>44689</v>
+      </c>
+      <c r="F11" s="28"/>
+      <c r="G11" s="546"/>
+      <c r="H11" s="29">
+        <v>44689</v>
+      </c>
+      <c r="I11" s="30"/>
+      <c r="J11" s="43"/>
+      <c r="K11" s="168"/>
+      <c r="L11" s="39"/>
+      <c r="M11" s="32">
+        <v>0</v>
+      </c>
+      <c r="N11" s="33">
+        <v>0</v>
+      </c>
+      <c r="O11" s="2"/>
+      <c r="P11" s="39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q11" s="325">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R11" s="319">
+        <v>0</v>
+      </c>
+      <c r="S11" s="147"/>
+      <c r="T11" s="128"/>
+      <c r="U11" s="34"/>
+      <c r="V11" s="128"/>
+      <c r="W11" s="233"/>
+      <c r="X11" s="239"/>
+      <c r="Y11" s="13"/>
+    </row>
+    <row r="12" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="23"/>
+      <c r="B12" s="24">
+        <v>44690</v>
+      </c>
+      <c r="C12" s="25"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="27">
+        <v>44690</v>
+      </c>
+      <c r="F12" s="28"/>
+      <c r="G12" s="546"/>
+      <c r="H12" s="29">
+        <v>44690</v>
+      </c>
+      <c r="I12" s="30"/>
+      <c r="J12" s="37"/>
+      <c r="K12" s="169"/>
+      <c r="L12" s="39"/>
+      <c r="M12" s="32">
+        <v>0</v>
+      </c>
+      <c r="N12" s="33">
+        <v>0</v>
+      </c>
+      <c r="O12" s="328"/>
+      <c r="P12" s="39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q12" s="325">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R12" s="319">
+        <v>0</v>
+      </c>
+      <c r="S12" s="147"/>
+      <c r="T12" s="128"/>
+      <c r="U12" s="34"/>
+      <c r="V12" s="128"/>
+      <c r="W12" s="233"/>
+      <c r="X12" s="239"/>
+      <c r="Y12" s="13"/>
+    </row>
+    <row r="13" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="23"/>
+      <c r="B13" s="24">
+        <v>44691</v>
+      </c>
+      <c r="C13" s="25"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="27">
+        <v>44691</v>
+      </c>
+      <c r="F13" s="28"/>
+      <c r="G13" s="546"/>
+      <c r="H13" s="29">
+        <v>44691</v>
+      </c>
+      <c r="I13" s="30"/>
+      <c r="J13" s="37"/>
+      <c r="K13" s="38"/>
+      <c r="L13" s="39"/>
+      <c r="M13" s="32">
+        <v>0</v>
+      </c>
+      <c r="N13" s="33">
+        <v>0</v>
+      </c>
+      <c r="O13" s="2"/>
+      <c r="P13" s="39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q13" s="325">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R13" s="319">
+        <v>0</v>
+      </c>
+      <c r="S13" s="381"/>
+      <c r="T13" s="128"/>
+      <c r="U13" s="34"/>
+      <c r="V13" s="128"/>
+      <c r="W13" s="233"/>
+      <c r="X13" s="239"/>
+      <c r="Y13" s="13"/>
+    </row>
+    <row r="14" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="23"/>
+      <c r="B14" s="24">
+        <v>44692</v>
+      </c>
+      <c r="C14" s="25"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="27">
+        <v>44692</v>
+      </c>
+      <c r="F14" s="28"/>
+      <c r="G14" s="546"/>
+      <c r="H14" s="29">
+        <v>44692</v>
+      </c>
+      <c r="I14" s="30"/>
+      <c r="J14" s="37"/>
+      <c r="K14" s="38"/>
+      <c r="L14" s="39"/>
+      <c r="M14" s="32">
+        <v>0</v>
+      </c>
+      <c r="N14" s="33">
+        <v>0</v>
+      </c>
+      <c r="O14" s="2"/>
+      <c r="P14" s="39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q14" s="325">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R14" s="319">
+        <v>0</v>
+      </c>
+      <c r="S14" s="147"/>
+      <c r="U14" s="34"/>
+      <c r="V14" s="128"/>
+      <c r="W14" s="233"/>
+      <c r="X14" s="239"/>
+      <c r="Y14" s="13"/>
+    </row>
+    <row r="15" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="23"/>
+      <c r="B15" s="24">
+        <v>44693</v>
+      </c>
+      <c r="C15" s="25"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="27">
+        <v>44693</v>
+      </c>
+      <c r="F15" s="28"/>
+      <c r="G15" s="546"/>
+      <c r="H15" s="29">
+        <v>44693</v>
+      </c>
+      <c r="I15" s="30"/>
+      <c r="J15" s="37"/>
+      <c r="K15" s="38"/>
+      <c r="L15" s="39"/>
+      <c r="M15" s="32">
+        <v>0</v>
+      </c>
+      <c r="N15" s="33">
+        <v>0</v>
+      </c>
+      <c r="P15" s="39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q15" s="325">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R15" s="319">
+        <v>0</v>
+      </c>
+      <c r="S15" s="147"/>
+      <c r="U15" s="34"/>
+      <c r="V15" s="128"/>
+      <c r="W15" s="233"/>
+      <c r="X15" s="239"/>
+      <c r="Y15" s="13"/>
+    </row>
+    <row r="16" spans="1:25" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="23"/>
+      <c r="B16" s="24">
+        <v>44694</v>
+      </c>
+      <c r="C16" s="25"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="27">
+        <v>44694</v>
+      </c>
+      <c r="F16" s="28"/>
+      <c r="G16" s="546"/>
+      <c r="H16" s="29">
+        <v>44694</v>
+      </c>
+      <c r="I16" s="30"/>
+      <c r="J16" s="37"/>
+      <c r="K16" s="169"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="32">
+        <v>0</v>
+      </c>
+      <c r="N16" s="33">
+        <v>0</v>
+      </c>
+      <c r="O16" s="330"/>
+      <c r="P16" s="39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q16" s="325">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R16" s="319">
+        <v>0</v>
+      </c>
+      <c r="S16" s="331"/>
+      <c r="U16" s="34"/>
+      <c r="V16" s="128"/>
+      <c r="W16" s="233"/>
+      <c r="X16" s="239"/>
+      <c r="Y16" s="233"/>
+    </row>
+    <row r="17" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="23"/>
+      <c r="B17" s="24">
+        <v>44695</v>
+      </c>
+      <c r="C17" s="25"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="27">
+        <v>44695</v>
+      </c>
+      <c r="F17" s="28"/>
+      <c r="G17" s="546"/>
+      <c r="H17" s="29">
+        <v>44695</v>
+      </c>
+      <c r="I17" s="30"/>
+      <c r="J17" s="37"/>
+      <c r="K17" s="38"/>
+      <c r="L17" s="45"/>
+      <c r="M17" s="32">
+        <v>0</v>
+      </c>
+      <c r="N17" s="33">
+        <v>0</v>
+      </c>
+      <c r="P17" s="39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q17" s="325">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R17" s="319">
+        <v>0</v>
+      </c>
+      <c r="S17" s="147"/>
+      <c r="U17" s="34"/>
+      <c r="V17" s="128"/>
+      <c r="W17" s="233"/>
+      <c r="X17" s="239"/>
+      <c r="Y17" s="233"/>
+    </row>
+    <row r="18" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="23"/>
+      <c r="B18" s="24">
+        <v>44696</v>
+      </c>
+      <c r="C18" s="25"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="27">
+        <v>44696</v>
+      </c>
+      <c r="F18" s="28"/>
+      <c r="G18" s="546"/>
+      <c r="H18" s="29">
+        <v>44696</v>
+      </c>
+      <c r="I18" s="30"/>
+      <c r="J18" s="37"/>
+      <c r="K18" s="579"/>
+      <c r="L18" s="39"/>
+      <c r="M18" s="32">
+        <v>0</v>
+      </c>
+      <c r="N18" s="33">
+        <v>0</v>
+      </c>
+      <c r="O18" s="2"/>
+      <c r="P18" s="39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q18" s="325">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R18" s="319" t="s">
+        <v>7</v>
+      </c>
+      <c r="S18" s="147"/>
+      <c r="U18" s="34"/>
+      <c r="V18" s="128"/>
+      <c r="W18" s="233"/>
+      <c r="X18" s="552"/>
+      <c r="Y18" s="233"/>
+    </row>
+    <row r="19" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="23"/>
+      <c r="B19" s="24">
+        <v>44697</v>
+      </c>
+      <c r="C19" s="25"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="27">
+        <v>44697</v>
+      </c>
+      <c r="F19" s="28"/>
+      <c r="G19" s="546"/>
+      <c r="H19" s="29">
+        <v>44697</v>
+      </c>
+      <c r="I19" s="30"/>
+      <c r="J19" s="37"/>
+      <c r="K19" s="46"/>
+      <c r="L19" s="47"/>
+      <c r="M19" s="32">
+        <v>0</v>
+      </c>
+      <c r="N19" s="33">
+        <v>0</v>
+      </c>
+      <c r="O19" s="2"/>
+      <c r="P19" s="39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q19" s="325">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R19" s="319">
+        <v>0</v>
+      </c>
+      <c r="S19" s="147"/>
+      <c r="U19" s="34"/>
+      <c r="V19" s="128"/>
+      <c r="W19" s="713"/>
+      <c r="X19" s="552"/>
+      <c r="Y19" s="233"/>
+    </row>
+    <row r="20" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="23"/>
+      <c r="B20" s="24">
+        <v>44698</v>
+      </c>
+      <c r="C20" s="25"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="27">
+        <v>44698</v>
+      </c>
+      <c r="F20" s="28"/>
+      <c r="G20" s="546"/>
+      <c r="H20" s="29">
+        <v>44698</v>
+      </c>
+      <c r="I20" s="30"/>
+      <c r="J20" s="37"/>
+      <c r="K20" s="171"/>
+      <c r="L20" s="45"/>
+      <c r="M20" s="32">
+        <v>0</v>
+      </c>
+      <c r="N20" s="33">
+        <v>0</v>
+      </c>
+      <c r="O20" s="2"/>
+      <c r="P20" s="39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q20" s="325">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R20" s="319">
+        <v>0</v>
+      </c>
+      <c r="S20" s="147"/>
+      <c r="U20" s="34"/>
+      <c r="V20" s="128"/>
+      <c r="W20" s="713"/>
+      <c r="X20" s="34"/>
+      <c r="Y20" s="233"/>
+    </row>
+    <row r="21" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="23"/>
+      <c r="B21" s="24">
+        <v>44699</v>
+      </c>
+      <c r="C21" s="25"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="27">
+        <v>44699</v>
+      </c>
+      <c r="F21" s="28"/>
+      <c r="G21" s="546"/>
+      <c r="H21" s="29">
+        <v>44699</v>
+      </c>
+      <c r="I21" s="30"/>
+      <c r="J21" s="37"/>
+      <c r="K21" s="580"/>
+      <c r="L21" s="45"/>
+      <c r="M21" s="32">
+        <v>0</v>
+      </c>
+      <c r="N21" s="33">
+        <v>0</v>
+      </c>
+      <c r="O21" s="2"/>
+      <c r="P21" s="39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q21" s="325">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R21" s="319">
+        <v>0</v>
+      </c>
+      <c r="S21" s="147"/>
+      <c r="U21" s="34"/>
+      <c r="V21" s="128"/>
+      <c r="W21" s="647"/>
+      <c r="X21" s="647"/>
+      <c r="Y21" s="233"/>
+      <c r="Z21" s="128"/>
+    </row>
+    <row r="22" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="23"/>
+      <c r="B22" s="24">
+        <v>44700</v>
+      </c>
+      <c r="C22" s="25"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="27">
+        <v>44700</v>
+      </c>
+      <c r="F22" s="28"/>
+      <c r="G22" s="546"/>
+      <c r="H22" s="29">
+        <v>44700</v>
+      </c>
+      <c r="I22" s="30"/>
+      <c r="J22" s="37"/>
+      <c r="K22" s="31"/>
+      <c r="L22" s="49"/>
+      <c r="M22" s="32">
+        <v>0</v>
+      </c>
+      <c r="N22" s="33">
+        <v>0</v>
+      </c>
+      <c r="O22" s="2"/>
+      <c r="P22" s="39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q22" s="325">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R22" s="319">
+        <v>0</v>
+      </c>
+      <c r="S22" s="147"/>
+      <c r="U22" s="34"/>
+      <c r="V22" s="128"/>
+      <c r="W22" s="34"/>
+      <c r="X22" s="34"/>
+      <c r="Y22" s="233"/>
+      <c r="Z22" s="128"/>
+    </row>
+    <row r="23" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="23"/>
+      <c r="B23" s="24">
+        <v>44701</v>
+      </c>
+      <c r="C23" s="25"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="27">
+        <v>44701</v>
+      </c>
+      <c r="F23" s="28"/>
+      <c r="G23" s="546"/>
+      <c r="H23" s="29">
+        <v>44701</v>
+      </c>
+      <c r="I23" s="30"/>
+      <c r="J23" s="50"/>
+      <c r="K23" s="172"/>
+      <c r="L23" s="45"/>
+      <c r="M23" s="32">
+        <v>0</v>
+      </c>
+      <c r="N23" s="33">
+        <v>0</v>
+      </c>
+      <c r="O23" s="2"/>
+      <c r="P23" s="39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q23" s="325">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R23" s="319">
+        <v>0</v>
+      </c>
+      <c r="S23" s="147"/>
+      <c r="U23" s="34"/>
+      <c r="V23" s="128"/>
+      <c r="W23" s="648"/>
+      <c r="X23" s="648"/>
+      <c r="Y23" s="233"/>
+      <c r="Z23" s="128"/>
+    </row>
+    <row r="24" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="23"/>
+      <c r="B24" s="24">
+        <v>44702</v>
+      </c>
+      <c r="C24" s="25"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="27">
+        <v>44702</v>
+      </c>
+      <c r="F24" s="28"/>
+      <c r="G24" s="546"/>
+      <c r="H24" s="29">
+        <v>44702</v>
+      </c>
+      <c r="I24" s="30"/>
+      <c r="J24" s="51"/>
+      <c r="K24" s="173"/>
+      <c r="L24" s="52"/>
+      <c r="M24" s="32">
+        <v>0</v>
+      </c>
+      <c r="N24" s="33">
+        <v>0</v>
+      </c>
+      <c r="O24" s="2"/>
+      <c r="P24" s="39">
+        <f>N24+M24+L24+I24+C24</f>
+        <v>0</v>
+      </c>
+      <c r="Q24" s="325">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R24" s="319">
+        <v>0</v>
+      </c>
+      <c r="S24" s="147"/>
+      <c r="U24" s="34"/>
+      <c r="V24" s="128"/>
+      <c r="W24" s="648"/>
+      <c r="X24" s="648"/>
+      <c r="Y24" s="233"/>
+      <c r="Z24" s="128"/>
+    </row>
+    <row r="25" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="23"/>
+      <c r="B25" s="24">
+        <v>44703</v>
+      </c>
+      <c r="C25" s="25"/>
+      <c r="D25" s="35"/>
+      <c r="E25" s="27">
+        <v>44703</v>
+      </c>
+      <c r="F25" s="28"/>
+      <c r="G25" s="546"/>
+      <c r="H25" s="29">
+        <v>44703</v>
+      </c>
+      <c r="I25" s="30"/>
+      <c r="J25" s="50"/>
+      <c r="K25" s="38"/>
+      <c r="L25" s="54"/>
+      <c r="M25" s="32">
+        <v>0</v>
+      </c>
+      <c r="N25" s="33">
+        <v>0</v>
+      </c>
+      <c r="O25" s="2"/>
+      <c r="P25" s="283">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q25" s="325">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R25" s="319">
+        <v>0</v>
+      </c>
+      <c r="U25" s="34"/>
+      <c r="V25" s="128"/>
+      <c r="W25" s="649"/>
+      <c r="X25" s="649"/>
+      <c r="Y25" s="233"/>
+      <c r="Z25" s="128"/>
+    </row>
+    <row r="26" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="23"/>
+      <c r="B26" s="24">
+        <v>44704</v>
+      </c>
+      <c r="C26" s="25"/>
+      <c r="D26" s="35"/>
+      <c r="E26" s="27">
+        <v>44704</v>
+      </c>
+      <c r="F26" s="28"/>
+      <c r="G26" s="546"/>
+      <c r="H26" s="29">
+        <v>44704</v>
+      </c>
+      <c r="I26" s="30"/>
+      <c r="J26" s="37"/>
+      <c r="K26" s="173"/>
+      <c r="L26" s="45"/>
+      <c r="M26" s="32">
+        <v>0</v>
+      </c>
+      <c r="N26" s="33">
+        <v>0</v>
+      </c>
+      <c r="O26" s="14"/>
+      <c r="P26" s="284">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q26" s="325">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R26" s="553">
+        <v>0</v>
+      </c>
+      <c r="S26" s="128"/>
+      <c r="T26" s="128"/>
+      <c r="U26" s="34"/>
+      <c r="V26" s="128"/>
+      <c r="W26" s="649"/>
+      <c r="X26" s="649"/>
+      <c r="Y26" s="233"/>
+      <c r="Z26" s="128"/>
+    </row>
+    <row r="27" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="23"/>
+      <c r="B27" s="24">
+        <v>44705</v>
+      </c>
+      <c r="C27" s="25"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="27">
+        <v>44705</v>
+      </c>
+      <c r="F27" s="28"/>
+      <c r="G27" s="546"/>
+      <c r="H27" s="29">
+        <v>44705</v>
+      </c>
+      <c r="I27" s="30"/>
+      <c r="J27" s="55"/>
+      <c r="K27" s="174"/>
+      <c r="L27" s="54"/>
+      <c r="M27" s="32">
+        <v>0</v>
+      </c>
+      <c r="N27" s="33">
+        <v>0</v>
+      </c>
+      <c r="O27" s="14"/>
+      <c r="P27" s="39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q27" s="325">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R27" s="553">
+        <v>0</v>
+      </c>
+      <c r="S27" s="128"/>
+      <c r="T27" s="128"/>
+      <c r="U27" s="34"/>
+      <c r="V27" s="128"/>
+      <c r="W27" s="642"/>
+      <c r="X27" s="643"/>
+      <c r="Y27" s="644"/>
+      <c r="Z27" s="128"/>
+    </row>
+    <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="23"/>
+      <c r="B28" s="24">
+        <v>44706</v>
+      </c>
+      <c r="C28" s="25"/>
+      <c r="D28" s="42"/>
+      <c r="E28" s="27">
+        <v>44706</v>
+      </c>
+      <c r="F28" s="28"/>
+      <c r="G28" s="546"/>
+      <c r="H28" s="29">
+        <v>44706</v>
+      </c>
+      <c r="I28" s="30"/>
+      <c r="J28" s="56"/>
+      <c r="K28" s="57"/>
+      <c r="L28" s="54"/>
+      <c r="M28" s="32">
+        <v>0</v>
+      </c>
+      <c r="N28" s="33">
+        <v>0</v>
+      </c>
+      <c r="O28" s="14"/>
+      <c r="P28" s="34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q28" s="325">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R28" s="553">
+        <v>0</v>
+      </c>
+      <c r="S28" s="128"/>
+      <c r="T28" s="128"/>
+      <c r="U28" s="34"/>
+      <c r="V28" s="128"/>
+      <c r="W28" s="643"/>
+      <c r="X28" s="643"/>
+      <c r="Y28" s="644"/>
+      <c r="Z28" s="128"/>
+    </row>
+    <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="23"/>
+      <c r="B29" s="24">
+        <v>44707</v>
+      </c>
+      <c r="C29" s="25"/>
+      <c r="D29" s="58"/>
+      <c r="E29" s="27">
+        <v>44707</v>
+      </c>
+      <c r="F29" s="28"/>
+      <c r="G29" s="546"/>
+      <c r="H29" s="29">
+        <v>44707</v>
+      </c>
+      <c r="I29" s="30"/>
+      <c r="J29" s="59"/>
+      <c r="K29" s="175"/>
+      <c r="L29" s="54"/>
+      <c r="M29" s="32">
+        <v>0</v>
+      </c>
+      <c r="N29" s="33">
+        <v>0</v>
+      </c>
+      <c r="O29" s="550"/>
+      <c r="P29" s="34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q29" s="325">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R29" s="553">
+        <v>0</v>
+      </c>
+      <c r="S29" s="128"/>
+      <c r="T29" s="34"/>
+      <c r="U29" s="34"/>
+      <c r="V29" s="128"/>
+      <c r="W29" s="128"/>
+      <c r="X29" s="310"/>
+      <c r="Y29" s="311"/>
+      <c r="Z29" s="128"/>
+    </row>
+    <row r="30" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="23"/>
+      <c r="B30" s="24">
+        <v>44708</v>
+      </c>
+      <c r="C30" s="25"/>
+      <c r="D30" s="58"/>
+      <c r="E30" s="27">
+        <v>44708</v>
+      </c>
+      <c r="F30" s="28"/>
+      <c r="G30" s="546"/>
+      <c r="H30" s="29">
+        <v>44708</v>
+      </c>
+      <c r="I30" s="30"/>
+      <c r="J30" s="56"/>
+      <c r="K30" s="38"/>
+      <c r="L30" s="39"/>
+      <c r="M30" s="32">
+        <v>0</v>
+      </c>
+      <c r="N30" s="33">
+        <v>0</v>
+      </c>
+      <c r="O30" s="426"/>
+      <c r="P30" s="34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q30" s="325">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R30" s="553">
+        <v>0</v>
+      </c>
+      <c r="S30" s="128"/>
+      <c r="T30" s="34"/>
+      <c r="U30" s="34"/>
+      <c r="V30" s="128"/>
+      <c r="W30" s="128"/>
+      <c r="X30" s="310"/>
+      <c r="Y30" s="227"/>
+    </row>
+    <row r="31" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="23"/>
+      <c r="B31" s="24">
+        <v>44709</v>
+      </c>
+      <c r="C31" s="25"/>
+      <c r="D31" s="67"/>
+      <c r="E31" s="27">
+        <v>44709</v>
+      </c>
+      <c r="F31" s="28"/>
+      <c r="G31" s="546"/>
+      <c r="H31" s="29">
+        <v>44709</v>
+      </c>
+      <c r="I31" s="30"/>
+      <c r="J31" s="56"/>
+      <c r="K31" s="581"/>
+      <c r="L31" s="54"/>
+      <c r="M31" s="32">
+        <v>0</v>
+      </c>
+      <c r="N31" s="33">
+        <v>0</v>
+      </c>
+      <c r="O31" s="425"/>
+      <c r="P31" s="34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q31" s="325">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R31" s="553">
+        <v>0</v>
+      </c>
+      <c r="S31" s="128"/>
+      <c r="T31" s="34"/>
+      <c r="U31" s="34"/>
+      <c r="V31" s="128"/>
+      <c r="W31" s="128"/>
+      <c r="X31" s="128"/>
+    </row>
+    <row r="32" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="23"/>
+      <c r="B32" s="24">
+        <v>44710</v>
+      </c>
+      <c r="C32" s="25"/>
+      <c r="D32" s="64"/>
+      <c r="E32" s="27">
+        <v>44710</v>
+      </c>
+      <c r="F32" s="28"/>
+      <c r="G32" s="546"/>
+      <c r="H32" s="29">
+        <v>44710</v>
+      </c>
+      <c r="I32" s="30"/>
+      <c r="J32" s="56"/>
+      <c r="K32" s="38"/>
+      <c r="L32" s="39"/>
+      <c r="M32" s="32">
+        <v>0</v>
+      </c>
+      <c r="N32" s="33">
+        <v>0</v>
+      </c>
+      <c r="O32" s="2"/>
+      <c r="P32" s="34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q32" s="325">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R32" s="553">
+        <v>0</v>
+      </c>
+      <c r="S32" s="128"/>
+      <c r="T32" s="34"/>
+      <c r="U32" s="34"/>
+      <c r="V32" s="128"/>
+      <c r="W32" s="128"/>
+      <c r="X32" s="128"/>
+    </row>
+    <row r="33" spans="1:24" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="23"/>
+      <c r="B33" s="24"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="65"/>
+      <c r="E33" s="27"/>
+      <c r="F33" s="28"/>
+      <c r="G33" s="546"/>
+      <c r="H33" s="36"/>
+      <c r="I33" s="30"/>
+      <c r="J33" s="56"/>
+      <c r="K33" s="223"/>
+      <c r="L33" s="69"/>
+      <c r="M33" s="32">
+        <v>0</v>
+      </c>
+      <c r="N33" s="33">
+        <v>0</v>
+      </c>
+      <c r="O33" s="2"/>
+      <c r="P33" s="34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q33" s="325">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R33" s="553">
+        <v>0</v>
+      </c>
+      <c r="S33" s="128"/>
+      <c r="T33" s="554"/>
+      <c r="U33" s="34"/>
+      <c r="V33" s="128"/>
+      <c r="W33" s="128"/>
+      <c r="X33" s="128"/>
+    </row>
+    <row r="34" spans="1:24" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="23"/>
+      <c r="B34" s="24"/>
+      <c r="C34" s="25"/>
+      <c r="D34" s="64"/>
+      <c r="E34" s="27"/>
+      <c r="F34" s="545"/>
+      <c r="G34" s="546"/>
+      <c r="H34" s="36"/>
+      <c r="I34" s="30"/>
+      <c r="J34" s="572"/>
+      <c r="K34" s="582"/>
+      <c r="L34" s="9"/>
+      <c r="M34" s="32">
+        <v>0</v>
+      </c>
+      <c r="N34" s="33">
+        <v>0</v>
+      </c>
+      <c r="O34" s="2"/>
+      <c r="P34" s="34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q34" s="325">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R34" s="553">
+        <v>0</v>
+      </c>
+      <c r="S34" s="128"/>
+      <c r="T34" s="128"/>
+      <c r="U34" s="34"/>
+      <c r="V34" s="128"/>
+      <c r="W34" s="128"/>
+      <c r="X34" s="128"/>
+    </row>
+    <row r="35" spans="1:24" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="23"/>
+      <c r="B35" s="24"/>
+      <c r="C35" s="25"/>
+      <c r="D35" s="65"/>
+      <c r="E35" s="27"/>
+      <c r="F35" s="545"/>
+      <c r="G35" s="546"/>
+      <c r="H35" s="36"/>
+      <c r="I35" s="547"/>
+      <c r="J35" s="572"/>
+      <c r="K35" s="583"/>
+      <c r="L35" s="69"/>
+      <c r="M35" s="32">
+        <v>0</v>
+      </c>
+      <c r="N35" s="33">
+        <v>0</v>
+      </c>
+      <c r="P35" s="34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q35" s="325">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R35" s="553">
+        <v>0</v>
+      </c>
+      <c r="S35" s="128"/>
+      <c r="T35" s="128"/>
+      <c r="U35" s="34"/>
+      <c r="V35" s="128"/>
+      <c r="W35" s="128"/>
+      <c r="X35" s="128"/>
+    </row>
+    <row r="36" spans="1:24" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="23"/>
+      <c r="B36" s="24"/>
+      <c r="C36" s="25"/>
+      <c r="D36" s="67"/>
+      <c r="E36" s="27"/>
+      <c r="F36" s="545"/>
+      <c r="G36" s="546"/>
+      <c r="H36" s="36"/>
+      <c r="I36" s="547"/>
+      <c r="J36" s="572"/>
+      <c r="K36" s="584"/>
+      <c r="L36" s="9"/>
+      <c r="M36" s="32">
+        <v>0</v>
+      </c>
+      <c r="N36" s="33">
+        <v>0</v>
+      </c>
+      <c r="O36" s="276"/>
+      <c r="P36" s="34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q36" s="111">
+        <f t="shared" ref="Q36:Q40" si="2">P36-F36</f>
+        <v>0</v>
+      </c>
+      <c r="R36" s="319">
+        <v>0</v>
+      </c>
+      <c r="S36" s="551"/>
+      <c r="U36" s="34"/>
+      <c r="V36" s="128"/>
+      <c r="W36" s="128"/>
+      <c r="X36" s="128"/>
+    </row>
+    <row r="37" spans="1:24" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="23"/>
+      <c r="B37" s="24"/>
+      <c r="C37" s="25"/>
+      <c r="D37" s="64"/>
+      <c r="E37" s="27"/>
+      <c r="F37" s="545"/>
+      <c r="G37" s="546"/>
+      <c r="H37" s="36"/>
+      <c r="I37" s="547"/>
+      <c r="J37" s="56"/>
+      <c r="K37" s="38"/>
+      <c r="L37" s="39"/>
+      <c r="M37" s="32">
+        <v>0</v>
+      </c>
+      <c r="N37" s="33">
+        <v>0</v>
+      </c>
+      <c r="O37" s="276"/>
+      <c r="P37" s="34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q37" s="111">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R37" s="319">
+        <v>0</v>
+      </c>
+      <c r="U37" s="34"/>
+      <c r="V37" s="128"/>
+      <c r="W37" s="128"/>
+      <c r="X37" s="128"/>
+    </row>
+    <row r="38" spans="1:24" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="23"/>
+      <c r="B38" s="24"/>
+      <c r="C38" s="25"/>
+      <c r="D38" s="511"/>
+      <c r="E38" s="27"/>
+      <c r="F38" s="545"/>
+      <c r="G38" s="546"/>
+      <c r="H38" s="36"/>
+      <c r="I38" s="547"/>
+      <c r="J38" s="56"/>
+      <c r="K38" s="585"/>
+      <c r="L38" s="39"/>
+      <c r="M38" s="32">
+        <v>0</v>
+      </c>
+      <c r="N38" s="33">
+        <v>0</v>
+      </c>
+      <c r="P38" s="34">
+        <f>N38+M38+L38+I38+C38</f>
+        <v>0</v>
+      </c>
+      <c r="Q38" s="111">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R38" s="319">
+        <v>0</v>
+      </c>
+      <c r="U38" s="34"/>
+      <c r="V38" s="128"/>
+      <c r="W38" s="128"/>
+      <c r="X38" s="128"/>
+    </row>
+    <row r="39" spans="1:24" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="23"/>
+      <c r="B39" s="24"/>
+      <c r="C39" s="69"/>
+      <c r="D39" s="511"/>
+      <c r="E39" s="27"/>
+      <c r="F39" s="548"/>
+      <c r="G39" s="546"/>
+      <c r="H39" s="36"/>
+      <c r="I39" s="549"/>
+      <c r="J39" s="56"/>
+      <c r="K39" s="585"/>
+      <c r="L39" s="39"/>
+      <c r="M39" s="32">
+        <v>0</v>
+      </c>
+      <c r="N39" s="33">
+        <v>0</v>
+      </c>
+      <c r="P39" s="34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q39" s="111">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R39" s="319">
+        <v>0</v>
+      </c>
+      <c r="U39" s="34"/>
+      <c r="V39" s="128"/>
+      <c r="W39" s="128"/>
+      <c r="X39" s="128"/>
+    </row>
+    <row r="40" spans="1:24" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="23"/>
+      <c r="B40" s="24"/>
+      <c r="C40" s="69"/>
+      <c r="D40" s="511"/>
+      <c r="E40" s="27"/>
+      <c r="F40" s="70"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="36"/>
+      <c r="I40" s="71"/>
+      <c r="J40" s="56"/>
+      <c r="K40" s="38"/>
+      <c r="L40" s="39"/>
+      <c r="M40" s="267">
+        <v>0</v>
+      </c>
+      <c r="N40" s="268">
+        <v>0</v>
+      </c>
+      <c r="P40" s="34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q40" s="111">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R40" s="319">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="23"/>
+      <c r="B41" s="24"/>
+      <c r="C41" s="72"/>
+      <c r="D41" s="512"/>
+      <c r="E41" s="74"/>
+      <c r="F41" s="75"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="76"/>
+      <c r="I41" s="77"/>
+      <c r="J41" s="56"/>
+      <c r="K41" s="38"/>
+      <c r="L41" s="39"/>
+      <c r="M41" s="633">
+        <f>SUM(M5:M40)</f>
+        <v>186446.5</v>
+      </c>
+      <c r="N41" s="633">
+        <f>SUM(N5:N40)</f>
+        <v>132738</v>
+      </c>
+      <c r="P41" s="509">
+        <f>SUM(P5:P40)</f>
+        <v>415378</v>
+      </c>
+      <c r="Q41" s="692">
+        <f>SUM(Q5:Q40)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="23"/>
+      <c r="B42" s="24"/>
+      <c r="C42" s="72"/>
+      <c r="D42" s="512"/>
+      <c r="E42" s="74"/>
+      <c r="F42" s="75"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="76"/>
+      <c r="I42" s="77"/>
+      <c r="J42" s="51"/>
+      <c r="K42" s="173"/>
+      <c r="L42" s="52"/>
+      <c r="M42" s="634"/>
+      <c r="N42" s="634"/>
+      <c r="P42" s="34"/>
+      <c r="Q42" s="693"/>
+    </row>
+    <row r="43" spans="1:24" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="23"/>
+      <c r="B43" s="24"/>
+      <c r="C43" s="72"/>
+      <c r="D43" s="512"/>
+      <c r="E43" s="74"/>
+      <c r="F43" s="75"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="76"/>
+      <c r="I43" s="77"/>
+      <c r="J43" s="50"/>
+      <c r="K43" s="38"/>
+      <c r="L43" s="54"/>
+      <c r="M43" s="269"/>
+      <c r="N43" s="269"/>
+      <c r="P43" s="34"/>
+      <c r="Q43" s="13"/>
+    </row>
+    <row r="44" spans="1:24" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="23"/>
+      <c r="B44" s="24"/>
+      <c r="C44" s="72"/>
+      <c r="D44" s="512"/>
+      <c r="E44" s="74"/>
+      <c r="F44" s="75"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="76"/>
+      <c r="I44" s="77"/>
+      <c r="J44" s="56"/>
+      <c r="K44" s="586"/>
+      <c r="L44" s="39"/>
+      <c r="M44" s="269"/>
+      <c r="N44" s="269"/>
+      <c r="P44" s="34"/>
+      <c r="Q44" s="13"/>
+    </row>
+    <row r="45" spans="1:24" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="23"/>
+      <c r="B45" s="24"/>
+      <c r="C45" s="72"/>
+      <c r="D45" s="512"/>
+      <c r="E45" s="74"/>
+      <c r="F45" s="75"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="76"/>
+      <c r="I45" s="77"/>
+      <c r="J45" s="56"/>
+      <c r="K45" s="38"/>
+      <c r="L45" s="39"/>
+      <c r="M45" s="694">
+        <f>M41+N41</f>
+        <v>319184.5</v>
+      </c>
+      <c r="N45" s="695"/>
+      <c r="P45" s="34"/>
+      <c r="Q45" s="13"/>
+    </row>
+    <row r="46" spans="1:24" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="23"/>
+      <c r="B46" s="24"/>
+      <c r="C46" s="72"/>
+      <c r="D46" s="512"/>
+      <c r="E46" s="74"/>
+      <c r="F46" s="75"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="76"/>
+      <c r="I46" s="77"/>
+      <c r="J46" s="56"/>
+      <c r="K46" s="38"/>
+      <c r="L46" s="39"/>
+      <c r="M46" s="269"/>
+      <c r="N46" s="269"/>
+      <c r="P46" s="34"/>
+      <c r="Q46" s="13"/>
+    </row>
+    <row r="47" spans="1:24" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="23"/>
+      <c r="B47" s="24"/>
+      <c r="C47" s="72"/>
+      <c r="D47" s="512"/>
+      <c r="E47" s="74"/>
+      <c r="F47" s="75"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="76"/>
+      <c r="I47" s="77"/>
+      <c r="J47" s="56"/>
+      <c r="K47" s="38"/>
+      <c r="L47" s="39"/>
+      <c r="M47" s="269"/>
+      <c r="N47" s="269"/>
+      <c r="P47" s="34"/>
+      <c r="Q47" s="13"/>
+    </row>
+    <row r="48" spans="1:24" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="23"/>
+      <c r="B48" s="24"/>
+      <c r="C48" s="72"/>
+      <c r="D48" s="73"/>
+      <c r="E48" s="74"/>
+      <c r="F48" s="75"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="76"/>
+      <c r="I48" s="77"/>
+      <c r="J48" s="56"/>
+      <c r="K48" s="38"/>
+      <c r="L48" s="39"/>
+      <c r="M48" s="269"/>
+      <c r="N48" s="269"/>
+      <c r="P48" s="34"/>
+      <c r="Q48" s="13"/>
+    </row>
+    <row r="49" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="23"/>
+      <c r="B49" s="80"/>
+      <c r="C49" s="25">
+        <v>0</v>
+      </c>
+      <c r="D49" s="81"/>
+      <c r="E49" s="82"/>
+      <c r="F49" s="72"/>
+      <c r="H49" s="83"/>
+      <c r="I49" s="77"/>
+      <c r="J49" s="573"/>
+      <c r="K49" s="164"/>
+      <c r="L49" s="9"/>
+      <c r="M49" s="34"/>
+      <c r="N49" s="34"/>
+      <c r="P49" s="34"/>
+      <c r="Q49" s="13"/>
+    </row>
+    <row r="50" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="565" t="s">
+        <v>8</v>
+      </c>
+      <c r="C50" s="87">
+        <f>SUM(C5:C49)</f>
+        <v>63611</v>
+      </c>
+      <c r="D50" s="88"/>
+      <c r="E50" s="91" t="s">
+        <v>8</v>
+      </c>
+      <c r="F50" s="90">
+        <f>SUM(F5:F49)</f>
+        <v>413932</v>
+      </c>
+      <c r="G50" s="88"/>
+      <c r="H50" s="91" t="s">
+        <v>9</v>
+      </c>
+      <c r="I50" s="92">
+        <f>SUM(I5:I49)</f>
+        <v>12582.5</v>
+      </c>
+      <c r="J50" s="93"/>
+      <c r="K50" s="94" t="s">
+        <v>10</v>
+      </c>
+      <c r="L50" s="95">
+        <f>SUM(L5:L49)</f>
+        <v>20000</v>
+      </c>
+      <c r="M50" s="96"/>
+      <c r="N50" s="96"/>
+      <c r="P50" s="34"/>
+      <c r="Q50" s="13"/>
+    </row>
+    <row r="51" spans="1:17" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="C51" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="P51" s="34"/>
+      <c r="Q51" s="13"/>
+    </row>
+    <row r="52" spans="1:17" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A52" s="98"/>
+      <c r="B52" s="99"/>
+      <c r="C52" s="1"/>
+      <c r="H52" s="610" t="s">
+        <v>11</v>
+      </c>
+      <c r="I52" s="611"/>
+      <c r="J52" s="574"/>
+      <c r="K52" s="715">
+        <f>I50+L50</f>
+        <v>32582.5</v>
+      </c>
+      <c r="L52" s="716"/>
+      <c r="M52" s="272"/>
+      <c r="N52" s="272"/>
+      <c r="P52" s="34"/>
+      <c r="Q52" s="13"/>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D53" s="616" t="s">
+        <v>12</v>
+      </c>
+      <c r="E53" s="616"/>
+      <c r="F53" s="312">
+        <f>F50-K52-C50</f>
+        <v>317738.5</v>
+      </c>
+      <c r="I53" s="102"/>
+      <c r="J53" s="575"/>
+    </row>
+    <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D54" s="640" t="s">
+        <v>95</v>
+      </c>
+      <c r="E54" s="640"/>
+      <c r="F54" s="111">
+        <v>0</v>
+      </c>
+      <c r="I54" s="617" t="s">
+        <v>13</v>
+      </c>
+      <c r="J54" s="618"/>
+      <c r="K54" s="619">
+        <f>F56+F57+F58</f>
+        <v>317738.5</v>
+      </c>
+      <c r="L54" s="619"/>
+      <c r="M54" s="404"/>
+      <c r="N54" s="404"/>
+      <c r="O54" s="404"/>
+      <c r="P54" s="404"/>
+      <c r="Q54" s="404"/>
+    </row>
+    <row r="55" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D55" s="313" t="s">
+        <v>94</v>
+      </c>
+      <c r="E55" s="314"/>
+      <c r="F55" s="315">
+        <v>0</v>
+      </c>
+      <c r="I55" s="105"/>
+      <c r="J55" s="106"/>
+      <c r="K55" s="587"/>
+      <c r="L55" s="154"/>
+      <c r="M55" s="404"/>
+      <c r="N55" s="404"/>
+      <c r="O55" s="404"/>
+      <c r="P55" s="404"/>
+      <c r="Q55" s="404"/>
+    </row>
+    <row r="56" spans="1:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="C56" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E56" s="98" t="s">
+        <v>14</v>
+      </c>
+      <c r="F56" s="96">
+        <f>SUM(F53:F55)</f>
+        <v>317738.5</v>
+      </c>
+      <c r="H56" s="570"/>
+      <c r="I56" s="108" t="s">
+        <v>15</v>
+      </c>
+      <c r="J56" s="109"/>
+      <c r="K56" s="714">
+        <f>-C4</f>
+        <v>-2112071.92</v>
+      </c>
+      <c r="L56" s="619"/>
+    </row>
+    <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D57" s="110" t="s">
+        <v>16</v>
+      </c>
+      <c r="E57" s="98" t="s">
+        <v>17</v>
+      </c>
+      <c r="F57" s="111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C58" s="112"/>
+      <c r="D58" s="599" t="s">
+        <v>18</v>
+      </c>
+      <c r="E58" s="600"/>
+      <c r="F58" s="113">
+        <v>0</v>
+      </c>
+      <c r="I58" s="601" t="s">
+        <v>198</v>
+      </c>
+      <c r="J58" s="602"/>
+      <c r="K58" s="603">
+        <f>K54+K56</f>
+        <v>-1794333.42</v>
+      </c>
+      <c r="L58" s="603"/>
+    </row>
+    <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="C59" s="114"/>
+      <c r="D59" s="115"/>
+      <c r="E59" s="98"/>
+      <c r="F59" s="117"/>
+      <c r="J59" s="118"/>
+    </row>
+    <row r="60" spans="1:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I60" s="119"/>
+      <c r="J60" s="119"/>
+      <c r="K60" s="179"/>
+      <c r="L60" s="120"/>
+    </row>
+    <row r="61" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="121"/>
+      <c r="C61" s="122"/>
+      <c r="D61" s="123"/>
+      <c r="E61" s="34"/>
+      <c r="I61" s="119"/>
+      <c r="J61" s="119"/>
+      <c r="K61" s="179"/>
+      <c r="L61" s="120"/>
+      <c r="M61" s="124"/>
+      <c r="N61" s="98"/>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B62" s="121"/>
+      <c r="C62" s="125"/>
+      <c r="E62" s="34"/>
+      <c r="M62" s="124"/>
+      <c r="N62" s="98"/>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B63" s="121"/>
+      <c r="C63" s="125"/>
+      <c r="E63" s="34"/>
+      <c r="F63" s="126"/>
+      <c r="L63" s="127"/>
+      <c r="M63" s="1"/>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B64" s="121"/>
+      <c r="C64" s="125"/>
+      <c r="E64" s="34"/>
+      <c r="M64" s="1"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B65" s="121"/>
+      <c r="C65" s="125"/>
+      <c r="D65" s="128"/>
+      <c r="E65" s="34"/>
+      <c r="F65" s="129"/>
+      <c r="M65" s="1"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D66" s="128"/>
+      <c r="E66" s="130"/>
+      <c r="F66" s="34"/>
+      <c r="M66" s="1"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D67" s="128"/>
+      <c r="E67" s="130"/>
+      <c r="F67" s="34"/>
+      <c r="M67" s="1"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D68" s="128"/>
+      <c r="E68" s="130"/>
+      <c r="F68" s="34"/>
+      <c r="M68" s="1"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D69" s="128"/>
+      <c r="E69" s="130"/>
+      <c r="F69" s="34"/>
+      <c r="M69" s="1"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D70" s="128"/>
+      <c r="E70" s="130"/>
+      <c r="F70" s="34"/>
+      <c r="M70" s="1"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D71" s="128"/>
+      <c r="E71" s="130"/>
+      <c r="F71" s="34"/>
+      <c r="M71" s="1"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D72" s="128"/>
+      <c r="E72" s="130"/>
+      <c r="F72" s="34"/>
+      <c r="M72" s="1"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D73" s="128"/>
+      <c r="E73" s="130"/>
+      <c r="F73" s="34"/>
+      <c r="M73" s="1"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D74" s="128"/>
+      <c r="E74" s="130"/>
+      <c r="F74" s="34"/>
+      <c r="M74" s="1"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D75" s="128"/>
+      <c r="E75" s="130"/>
+      <c r="F75" s="34"/>
+      <c r="M75" s="1"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D76" s="128"/>
+      <c r="E76" s="130"/>
+      <c r="F76" s="34"/>
+      <c r="M76" s="1"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D77" s="128"/>
+      <c r="E77" s="130"/>
+      <c r="F77" s="34"/>
+    </row>
+    <row r="78" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D78" s="128"/>
+      <c r="E78" s="569"/>
+      <c r="F78" s="129"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D79" s="128"/>
+      <c r="E79" s="569"/>
+      <c r="F79" s="129"/>
+    </row>
+    <row r="80" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D80" s="128"/>
+      <c r="E80" s="569"/>
+      <c r="F80" s="129"/>
+    </row>
+  </sheetData>
+  <mergeCells count="30">
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="K52:L52"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="M41:M42"/>
+    <mergeCell ref="N41:N42"/>
+    <mergeCell ref="Q41:Q42"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="W4:X5"/>
+    <mergeCell ref="W19:W20"/>
+    <mergeCell ref="W21:X21"/>
+    <mergeCell ref="W23:X24"/>
+    <mergeCell ref="W25:X25"/>
+    <mergeCell ref="W26:X26"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="W27:X28"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
+  </mergeCells>
+  <pageMargins left="0.28000000000000003" right="0.19" top="0.33" bottom="0.33" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFCC99FF"/>
+  </sheetPr>
+  <dimension ref="A1:N125"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.42578125" style="455" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" style="162" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" style="257" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" style="98" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="116" customWidth="1"/>
+    <col min="11" max="11" width="17.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.42578125" style="456" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.5703125" style="3" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="43.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="450" t="s">
+        <v>317</v>
+      </c>
+      <c r="B1" s="436"/>
+      <c r="C1" s="292"/>
+      <c r="D1" s="371"/>
+      <c r="E1" s="292"/>
+      <c r="F1" s="378" t="s">
+        <v>314</v>
+      </c>
+      <c r="I1" s="301" t="s">
+        <v>318</v>
+      </c>
+      <c r="J1" s="302"/>
+      <c r="K1" s="303"/>
+      <c r="L1" s="472"/>
+      <c r="M1" s="303"/>
+      <c r="N1" s="377" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="21.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="556" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="557" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="558" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="559" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="560" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="289" t="s">
+        <v>210</v>
+      </c>
+      <c r="I2" s="561" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="562" t="s">
+        <v>265</v>
+      </c>
+      <c r="K2" s="558" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="563" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" s="558" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" s="309" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="454"/>
+      <c r="B3" s="246"/>
+      <c r="C3" s="111"/>
+      <c r="D3" s="412"/>
+      <c r="E3" s="111"/>
+      <c r="F3" s="410">
+        <f>C3-E3</f>
+        <v>0</v>
+      </c>
+      <c r="I3" s="245"/>
+      <c r="J3" s="564"/>
+      <c r="K3" s="111"/>
+      <c r="L3" s="245"/>
+      <c r="M3" s="111"/>
+      <c r="N3" s="183">
+        <f>K3-M3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="454"/>
+      <c r="B4" s="246"/>
+      <c r="C4" s="111"/>
+      <c r="D4" s="412"/>
+      <c r="E4" s="111"/>
+      <c r="F4" s="555">
+        <f t="shared" ref="F4:F67" si="0">C4-E4</f>
+        <v>0</v>
+      </c>
+      <c r="G4" s="138"/>
+      <c r="I4" s="245"/>
+      <c r="J4" s="564"/>
+      <c r="K4" s="111"/>
+      <c r="L4" s="245"/>
+      <c r="M4" s="111"/>
+      <c r="N4" s="137">
+        <f>N3+K4-M4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="454"/>
+      <c r="B5" s="246"/>
+      <c r="C5" s="111"/>
+      <c r="D5" s="412"/>
+      <c r="E5" s="111"/>
+      <c r="F5" s="555">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I5" s="245"/>
+      <c r="J5" s="564"/>
+      <c r="K5" s="111"/>
+      <c r="L5" s="245"/>
+      <c r="M5" s="111"/>
+      <c r="N5" s="137">
+        <f t="shared" ref="N5:N68" si="1">N4+K5-M5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="454"/>
+      <c r="B6" s="246"/>
+      <c r="C6" s="111"/>
+      <c r="D6" s="412"/>
+      <c r="E6" s="111"/>
+      <c r="F6" s="555">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I6" s="245"/>
+      <c r="J6" s="564"/>
+      <c r="K6" s="111"/>
+      <c r="L6" s="245"/>
+      <c r="M6" s="111"/>
+      <c r="N6" s="137">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="454"/>
+      <c r="B7" s="246"/>
+      <c r="C7" s="111"/>
+      <c r="D7" s="412"/>
+      <c r="E7" s="111"/>
+      <c r="F7" s="555">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I7" s="245"/>
+      <c r="J7" s="57"/>
+      <c r="K7" s="111"/>
+      <c r="L7" s="245"/>
+      <c r="M7" s="111"/>
+      <c r="N7" s="137">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="245"/>
+      <c r="B8" s="246"/>
+      <c r="C8" s="111"/>
+      <c r="D8" s="412"/>
+      <c r="E8" s="111"/>
+      <c r="F8" s="555">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I8" s="245"/>
+      <c r="J8" s="57"/>
+      <c r="K8" s="111"/>
+      <c r="L8" s="245"/>
+      <c r="M8" s="111"/>
+      <c r="N8" s="137">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="245"/>
+      <c r="B9" s="246"/>
+      <c r="C9" s="111"/>
+      <c r="D9" s="412"/>
+      <c r="E9" s="111"/>
+      <c r="F9" s="555">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I9" s="245"/>
+      <c r="J9" s="57"/>
+      <c r="K9" s="111"/>
+      <c r="L9" s="245"/>
+      <c r="M9" s="111"/>
+      <c r="N9" s="137">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A10" s="245"/>
+      <c r="B10" s="246"/>
+      <c r="C10" s="111"/>
+      <c r="D10" s="412"/>
+      <c r="E10" s="111"/>
+      <c r="F10" s="555">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G10" s="138"/>
+      <c r="I10" s="245"/>
+      <c r="J10" s="57"/>
+      <c r="K10" s="111"/>
+      <c r="L10" s="245"/>
+      <c r="M10" s="111"/>
+      <c r="N10" s="137">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="245"/>
+      <c r="B11" s="246"/>
+      <c r="C11" s="111"/>
+      <c r="D11" s="412"/>
+      <c r="E11" s="111"/>
+      <c r="F11" s="555">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I11" s="245"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="111"/>
+      <c r="L11" s="245"/>
+      <c r="M11" s="111"/>
+      <c r="N11" s="137">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="245"/>
+      <c r="B12" s="246"/>
+      <c r="C12" s="111"/>
+      <c r="D12" s="412"/>
+      <c r="E12" s="111"/>
+      <c r="F12" s="555">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I12" s="245"/>
+      <c r="J12" s="57"/>
+      <c r="K12" s="111"/>
+      <c r="L12" s="245"/>
+      <c r="M12" s="111"/>
+      <c r="N12" s="137">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="245"/>
+      <c r="B13" s="246"/>
+      <c r="C13" s="111"/>
+      <c r="D13" s="412"/>
+      <c r="E13" s="111"/>
+      <c r="F13" s="555">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I13" s="245"/>
+      <c r="J13" s="57"/>
+      <c r="K13" s="111"/>
+      <c r="L13" s="245"/>
+      <c r="M13" s="111"/>
+      <c r="N13" s="137">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="245"/>
+      <c r="B14" s="246"/>
+      <c r="C14" s="111"/>
+      <c r="D14" s="412"/>
+      <c r="E14" s="111"/>
+      <c r="F14" s="555">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I14" s="245"/>
+      <c r="J14" s="57"/>
+      <c r="K14" s="111"/>
+      <c r="L14" s="245"/>
+      <c r="M14" s="111"/>
+      <c r="N14" s="137">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="245"/>
+      <c r="B15" s="246"/>
+      <c r="C15" s="111"/>
+      <c r="D15" s="412"/>
+      <c r="E15" s="111"/>
+      <c r="F15" s="555">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I15" s="245"/>
+      <c r="J15" s="57"/>
+      <c r="K15" s="111"/>
+      <c r="L15" s="245"/>
+      <c r="M15" s="111"/>
+      <c r="N15" s="137">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="245"/>
+      <c r="B16" s="246"/>
+      <c r="C16" s="111"/>
+      <c r="D16" s="412"/>
+      <c r="E16" s="111"/>
+      <c r="F16" s="555">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I16" s="245"/>
+      <c r="J16" s="57"/>
+      <c r="K16" s="111"/>
+      <c r="L16" s="245"/>
+      <c r="M16" s="111"/>
+      <c r="N16" s="137">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="245"/>
+      <c r="B17" s="246"/>
+      <c r="C17" s="111"/>
+      <c r="D17" s="412"/>
+      <c r="E17" s="111"/>
+      <c r="F17" s="555">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I17" s="245"/>
+      <c r="J17" s="57"/>
+      <c r="K17" s="111"/>
+      <c r="L17" s="245"/>
+      <c r="M17" s="111"/>
+      <c r="N17" s="137">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="245"/>
+      <c r="B18" s="246"/>
+      <c r="C18" s="111"/>
+      <c r="D18" s="412"/>
+      <c r="E18" s="111"/>
+      <c r="F18" s="555">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I18" s="245"/>
+      <c r="J18" s="57"/>
+      <c r="K18" s="111"/>
+      <c r="L18" s="245"/>
+      <c r="M18" s="111"/>
+      <c r="N18" s="137">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="245"/>
+      <c r="B19" s="246"/>
+      <c r="C19" s="111"/>
+      <c r="D19" s="412"/>
+      <c r="E19" s="111"/>
+      <c r="F19" s="555">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I19" s="245"/>
+      <c r="J19" s="57"/>
+      <c r="K19" s="111"/>
+      <c r="L19" s="245"/>
+      <c r="M19" s="111"/>
+      <c r="N19" s="137">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="245"/>
+      <c r="B20" s="246"/>
+      <c r="C20" s="111"/>
+      <c r="D20" s="412"/>
+      <c r="E20" s="111"/>
+      <c r="F20" s="555">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I20" s="245"/>
+      <c r="J20" s="57"/>
+      <c r="K20" s="111"/>
+      <c r="L20" s="245"/>
+      <c r="M20" s="111"/>
+      <c r="N20" s="137">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="245"/>
+      <c r="B21" s="246"/>
+      <c r="C21" s="111"/>
+      <c r="D21" s="412"/>
+      <c r="E21" s="111"/>
+      <c r="F21" s="555">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I21" s="245"/>
+      <c r="J21" s="57"/>
+      <c r="K21" s="111"/>
+      <c r="L21" s="245"/>
+      <c r="M21" s="111"/>
+      <c r="N21" s="137">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A22" s="245"/>
+      <c r="B22" s="246"/>
+      <c r="C22" s="111"/>
+      <c r="D22" s="412"/>
+      <c r="E22" s="111"/>
+      <c r="F22" s="555">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G22" s="138"/>
+      <c r="I22" s="245"/>
+      <c r="J22" s="57"/>
+      <c r="K22" s="111"/>
+      <c r="L22" s="245"/>
+      <c r="M22" s="111"/>
+      <c r="N22" s="137">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="245"/>
+      <c r="B23" s="246"/>
+      <c r="C23" s="111"/>
+      <c r="D23" s="412"/>
+      <c r="E23" s="111"/>
+      <c r="F23" s="555">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I23" s="245"/>
+      <c r="J23" s="57"/>
+      <c r="K23" s="111"/>
+      <c r="L23" s="245"/>
+      <c r="M23" s="111"/>
+      <c r="N23" s="137">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="245"/>
+      <c r="B24" s="246"/>
+      <c r="C24" s="111"/>
+      <c r="D24" s="412"/>
+      <c r="E24" s="111"/>
+      <c r="F24" s="555">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I24" s="245"/>
+      <c r="J24" s="57"/>
+      <c r="K24" s="111"/>
+      <c r="L24" s="245"/>
+      <c r="M24" s="111"/>
+      <c r="N24" s="137">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="245"/>
+      <c r="B25" s="246"/>
+      <c r="C25" s="111"/>
+      <c r="D25" s="412"/>
+      <c r="E25" s="111"/>
+      <c r="F25" s="555">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I25" s="245"/>
+      <c r="J25" s="57"/>
+      <c r="K25" s="111"/>
+      <c r="L25" s="245"/>
+      <c r="M25" s="111"/>
+      <c r="N25" s="137">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="245"/>
+      <c r="B26" s="246"/>
+      <c r="C26" s="111"/>
+      <c r="D26" s="412"/>
+      <c r="E26" s="111"/>
+      <c r="F26" s="555">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I26" s="245"/>
+      <c r="J26" s="57"/>
+      <c r="K26" s="111"/>
+      <c r="L26" s="245"/>
+      <c r="M26" s="111"/>
+      <c r="N26" s="137">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="245"/>
+      <c r="B27" s="246"/>
+      <c r="C27" s="111"/>
+      <c r="D27" s="506"/>
+      <c r="E27" s="111"/>
+      <c r="F27" s="555">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I27" s="245"/>
+      <c r="J27" s="57"/>
+      <c r="K27" s="111"/>
+      <c r="L27" s="245"/>
+      <c r="M27" s="111"/>
+      <c r="N27" s="137">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="245"/>
+      <c r="B28" s="246"/>
+      <c r="C28" s="111"/>
+      <c r="D28" s="412"/>
+      <c r="E28" s="111"/>
+      <c r="F28" s="555">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I28" s="245"/>
+      <c r="J28" s="57"/>
+      <c r="K28" s="111"/>
+      <c r="L28" s="245"/>
+      <c r="M28" s="111"/>
+      <c r="N28" s="137">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="245"/>
+      <c r="B29" s="246"/>
+      <c r="C29" s="111"/>
+      <c r="D29" s="412"/>
+      <c r="E29" s="111"/>
+      <c r="F29" s="555">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I29" s="245"/>
+      <c r="J29" s="57"/>
+      <c r="K29" s="111"/>
+      <c r="L29" s="245"/>
+      <c r="M29" s="111"/>
+      <c r="N29" s="137">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A30" s="245"/>
+      <c r="B30" s="246"/>
+      <c r="C30" s="111"/>
+      <c r="D30" s="412"/>
+      <c r="E30" s="111"/>
+      <c r="F30" s="555">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G30" s="138"/>
+      <c r="I30" s="245"/>
+      <c r="J30" s="57"/>
+      <c r="K30" s="111"/>
+      <c r="L30" s="245"/>
+      <c r="M30" s="111"/>
+      <c r="N30" s="137">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="245"/>
+      <c r="B31" s="246"/>
+      <c r="C31" s="111"/>
+      <c r="D31" s="412"/>
+      <c r="E31" s="111"/>
+      <c r="F31" s="555">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I31" s="245"/>
+      <c r="J31" s="57"/>
+      <c r="K31" s="111"/>
+      <c r="L31" s="245"/>
+      <c r="M31" s="111"/>
+      <c r="N31" s="137">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="245"/>
+      <c r="B32" s="246"/>
+      <c r="C32" s="111"/>
+      <c r="D32" s="412"/>
+      <c r="E32" s="111"/>
+      <c r="F32" s="555">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I32" s="245"/>
+      <c r="J32" s="57"/>
+      <c r="K32" s="111"/>
+      <c r="L32" s="245"/>
+      <c r="M32" s="111"/>
+      <c r="N32" s="137">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="245"/>
+      <c r="B33" s="246"/>
+      <c r="C33" s="111"/>
+      <c r="D33" s="412"/>
+      <c r="E33" s="111"/>
+      <c r="F33" s="555">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I33" s="245"/>
+      <c r="J33" s="57"/>
+      <c r="K33" s="111"/>
+      <c r="L33" s="245"/>
+      <c r="M33" s="111"/>
+      <c r="N33" s="137">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="245"/>
+      <c r="B34" s="246"/>
+      <c r="C34" s="111"/>
+      <c r="D34" s="412"/>
+      <c r="E34" s="111"/>
+      <c r="F34" s="555">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I34" s="245"/>
+      <c r="J34" s="57"/>
+      <c r="K34" s="111"/>
+      <c r="L34" s="245"/>
+      <c r="M34" s="111"/>
+      <c r="N34" s="137">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="245"/>
+      <c r="B35" s="246"/>
+      <c r="C35" s="111"/>
+      <c r="D35" s="412"/>
+      <c r="E35" s="111"/>
+      <c r="F35" s="555">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I35" s="245"/>
+      <c r="J35" s="57"/>
+      <c r="K35" s="111"/>
+      <c r="L35" s="245"/>
+      <c r="M35" s="111"/>
+      <c r="N35" s="137">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="245"/>
+      <c r="B36" s="246"/>
+      <c r="C36" s="111"/>
+      <c r="D36" s="412"/>
+      <c r="E36" s="111"/>
+      <c r="F36" s="555">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I36" s="245"/>
+      <c r="J36" s="57"/>
+      <c r="K36" s="111"/>
+      <c r="L36" s="245"/>
+      <c r="M36" s="111"/>
+      <c r="N36" s="137">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="245"/>
+      <c r="B37" s="246"/>
+      <c r="C37" s="111"/>
+      <c r="D37" s="412"/>
+      <c r="E37" s="111"/>
+      <c r="F37" s="555">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I37" s="245"/>
+      <c r="J37" s="57"/>
+      <c r="K37" s="111"/>
+      <c r="L37" s="245"/>
+      <c r="M37" s="111"/>
+      <c r="N37" s="137">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="245"/>
+      <c r="B38" s="246"/>
+      <c r="C38" s="111"/>
+      <c r="D38" s="412"/>
+      <c r="E38" s="111"/>
+      <c r="F38" s="555">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I38" s="245"/>
+      <c r="J38" s="57"/>
+      <c r="K38" s="111"/>
+      <c r="L38" s="245"/>
+      <c r="M38" s="111"/>
+      <c r="N38" s="137">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="245"/>
+      <c r="B39" s="246"/>
+      <c r="C39" s="111"/>
+      <c r="D39" s="412"/>
+      <c r="E39" s="111"/>
+      <c r="F39" s="555">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I39" s="245"/>
+      <c r="J39" s="57"/>
+      <c r="K39" s="111"/>
+      <c r="L39" s="245"/>
+      <c r="M39" s="111"/>
+      <c r="N39" s="137">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="245"/>
+      <c r="B40" s="246"/>
+      <c r="C40" s="111"/>
+      <c r="D40" s="412"/>
+      <c r="E40" s="111"/>
+      <c r="F40" s="555">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I40" s="245"/>
+      <c r="J40" s="57"/>
+      <c r="K40" s="111"/>
+      <c r="L40" s="245"/>
+      <c r="M40" s="111"/>
+      <c r="N40" s="137">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="245"/>
+      <c r="B41" s="246"/>
+      <c r="C41" s="111"/>
+      <c r="D41" s="412"/>
+      <c r="E41" s="111"/>
+      <c r="F41" s="555">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I41" s="245"/>
+      <c r="J41" s="57"/>
+      <c r="K41" s="111"/>
+      <c r="L41" s="245"/>
+      <c r="M41" s="111"/>
+      <c r="N41" s="137">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="245"/>
+      <c r="B42" s="246"/>
+      <c r="C42" s="111"/>
+      <c r="D42" s="253"/>
+      <c r="E42" s="69"/>
+      <c r="F42" s="555">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I42" s="245"/>
+      <c r="J42" s="57"/>
+      <c r="K42" s="111"/>
+      <c r="L42" s="245"/>
+      <c r="M42" s="111"/>
+      <c r="N42" s="137">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="245"/>
+      <c r="B43" s="246"/>
+      <c r="C43" s="111"/>
+      <c r="D43" s="413"/>
+      <c r="E43" s="413"/>
+      <c r="F43" s="555">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I43" s="288"/>
+      <c r="J43" s="57"/>
+      <c r="K43" s="111"/>
+      <c r="L43" s="476"/>
+      <c r="M43" s="69"/>
+      <c r="N43" s="137">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="245"/>
+      <c r="B44" s="246"/>
+      <c r="C44" s="111"/>
+      <c r="D44" s="413"/>
+      <c r="E44" s="413"/>
+      <c r="F44" s="555">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I44" s="288"/>
+      <c r="J44" s="57"/>
+      <c r="K44" s="111"/>
+      <c r="L44" s="476"/>
+      <c r="M44" s="69"/>
+      <c r="N44" s="137"/>
+    </row>
+    <row r="45" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="245"/>
+      <c r="B45" s="246"/>
+      <c r="C45" s="111"/>
+      <c r="D45" s="413"/>
+      <c r="E45" s="413"/>
+      <c r="F45" s="555">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I45" s="288"/>
+      <c r="J45" s="57"/>
+      <c r="K45" s="111"/>
+      <c r="L45" s="476"/>
+      <c r="M45" s="69"/>
+      <c r="N45" s="137"/>
+    </row>
+    <row r="46" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A46" s="245"/>
+      <c r="B46" s="246"/>
+      <c r="C46" s="111"/>
+      <c r="D46" s="413"/>
+      <c r="E46" s="413"/>
+      <c r="F46" s="555">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I46" s="288"/>
+      <c r="J46" s="57"/>
+      <c r="K46" s="111"/>
+      <c r="L46" s="476"/>
+      <c r="M46" s="69"/>
+      <c r="N46" s="137"/>
+    </row>
+    <row r="47" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A47" s="245"/>
+      <c r="B47" s="246"/>
+      <c r="C47" s="111"/>
+      <c r="D47" s="413"/>
+      <c r="E47" s="413"/>
+      <c r="F47" s="555">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I47" s="288"/>
+      <c r="J47" s="57"/>
+      <c r="K47" s="111"/>
+      <c r="L47" s="476"/>
+      <c r="M47" s="69"/>
+      <c r="N47" s="137"/>
+    </row>
+    <row r="48" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A48" s="245"/>
+      <c r="B48" s="246"/>
+      <c r="C48" s="111"/>
+      <c r="D48" s="413"/>
+      <c r="E48" s="413"/>
+      <c r="F48" s="555">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I48" s="288"/>
+      <c r="J48" s="57"/>
+      <c r="K48" s="111"/>
+      <c r="L48" s="476"/>
+      <c r="M48" s="69"/>
+      <c r="N48" s="137"/>
+    </row>
+    <row r="49" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A49" s="245"/>
+      <c r="B49" s="246"/>
+      <c r="C49" s="111"/>
+      <c r="D49" s="413"/>
+      <c r="E49" s="413"/>
+      <c r="F49" s="555">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I49" s="288"/>
+      <c r="J49" s="57"/>
+      <c r="K49" s="111"/>
+      <c r="L49" s="476"/>
+      <c r="M49" s="69"/>
+      <c r="N49" s="137"/>
+    </row>
+    <row r="50" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A50" s="454"/>
+      <c r="B50" s="439"/>
+      <c r="C50" s="413"/>
+      <c r="D50" s="413"/>
+      <c r="E50" s="413"/>
+      <c r="F50" s="555">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I50" s="288"/>
+      <c r="J50" s="57"/>
+      <c r="K50" s="111"/>
+      <c r="L50" s="476"/>
+      <c r="M50" s="69"/>
+      <c r="N50" s="137"/>
+    </row>
+    <row r="51" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A51" s="454"/>
+      <c r="B51" s="439"/>
+      <c r="C51" s="413"/>
+      <c r="D51" s="413"/>
+      <c r="E51" s="413"/>
+      <c r="F51" s="111">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I51" s="288"/>
+      <c r="J51" s="57"/>
+      <c r="K51" s="111"/>
+      <c r="L51" s="476"/>
+      <c r="M51" s="69"/>
+      <c r="N51" s="137"/>
+    </row>
+    <row r="52" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A52" s="454"/>
+      <c r="B52" s="439"/>
+      <c r="C52" s="413"/>
+      <c r="D52" s="413"/>
+      <c r="E52" s="413"/>
+      <c r="F52" s="111">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I52" s="288"/>
+      <c r="J52" s="57"/>
+      <c r="K52" s="111"/>
+      <c r="L52" s="476"/>
+      <c r="M52" s="69"/>
+      <c r="N52" s="137"/>
+    </row>
+    <row r="53" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A53" s="454"/>
+      <c r="B53" s="439"/>
+      <c r="C53" s="413"/>
+      <c r="D53" s="413"/>
+      <c r="E53" s="413"/>
+      <c r="F53" s="111">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I53" s="288"/>
+      <c r="J53" s="57"/>
+      <c r="K53" s="111"/>
+      <c r="L53" s="476"/>
+      <c r="M53" s="69"/>
+      <c r="N53" s="137"/>
+    </row>
+    <row r="54" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A54" s="454"/>
+      <c r="B54" s="439"/>
+      <c r="C54" s="413"/>
+      <c r="D54" s="413"/>
+      <c r="E54" s="413"/>
+      <c r="F54" s="111">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I54" s="288"/>
+      <c r="J54" s="57"/>
+      <c r="K54" s="111"/>
+      <c r="L54" s="476"/>
+      <c r="M54" s="69"/>
+      <c r="N54" s="137"/>
+    </row>
+    <row r="55" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A55" s="454"/>
+      <c r="B55" s="439"/>
+      <c r="C55" s="413"/>
+      <c r="D55" s="413"/>
+      <c r="E55" s="413"/>
+      <c r="F55" s="111">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I55" s="288"/>
+      <c r="J55" s="57"/>
+      <c r="K55" s="111"/>
+      <c r="L55" s="476"/>
+      <c r="M55" s="69"/>
+      <c r="N55" s="137"/>
+    </row>
+    <row r="56" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A56" s="454"/>
+      <c r="B56" s="439"/>
+      <c r="C56" s="413"/>
+      <c r="D56" s="413"/>
+      <c r="E56" s="413"/>
+      <c r="F56" s="111">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I56" s="288"/>
+      <c r="J56" s="57"/>
+      <c r="K56" s="111"/>
+      <c r="L56" s="476"/>
+      <c r="M56" s="69"/>
+      <c r="N56" s="137"/>
+    </row>
+    <row r="57" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A57" s="454"/>
+      <c r="B57" s="439"/>
+      <c r="C57" s="413"/>
+      <c r="D57" s="413"/>
+      <c r="E57" s="413"/>
+      <c r="F57" s="111">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I57" s="288"/>
+      <c r="J57" s="57"/>
+      <c r="K57" s="111"/>
+      <c r="L57" s="476"/>
+      <c r="M57" s="69"/>
+      <c r="N57" s="137"/>
+    </row>
+    <row r="58" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A58" s="454"/>
+      <c r="B58" s="439"/>
+      <c r="C58" s="413"/>
+      <c r="D58" s="413"/>
+      <c r="E58" s="413"/>
+      <c r="F58" s="111">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I58" s="288"/>
+      <c r="J58" s="57"/>
+      <c r="K58" s="111"/>
+      <c r="L58" s="476"/>
+      <c r="M58" s="69"/>
+      <c r="N58" s="137"/>
+    </row>
+    <row r="59" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A59" s="454"/>
+      <c r="B59" s="439"/>
+      <c r="C59" s="413"/>
+      <c r="D59" s="413"/>
+      <c r="E59" s="413"/>
+      <c r="F59" s="111">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I59" s="288"/>
+      <c r="J59" s="57"/>
+      <c r="K59" s="111"/>
+      <c r="L59" s="476"/>
+      <c r="M59" s="69"/>
+      <c r="N59" s="137"/>
+    </row>
+    <row r="60" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A60" s="454"/>
+      <c r="B60" s="439"/>
+      <c r="C60" s="413"/>
+      <c r="D60" s="413"/>
+      <c r="E60" s="413"/>
+      <c r="F60" s="111">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I60" s="288"/>
+      <c r="J60" s="57"/>
+      <c r="K60" s="111"/>
+      <c r="L60" s="476"/>
+      <c r="M60" s="69"/>
+      <c r="N60" s="137"/>
+    </row>
+    <row r="61" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="134"/>
+      <c r="B61" s="139"/>
+      <c r="C61" s="69"/>
+      <c r="D61" s="253"/>
+      <c r="E61" s="69"/>
+      <c r="F61" s="111">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I61" s="134"/>
+      <c r="J61" s="139"/>
+      <c r="K61" s="69"/>
+      <c r="L61" s="140"/>
+      <c r="M61" s="69"/>
+      <c r="N61" s="137" t="e">
+        <f>#REF!+K61-M61</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="134"/>
+      <c r="B62" s="139"/>
+      <c r="C62" s="69"/>
+      <c r="D62" s="253"/>
+      <c r="E62" s="69"/>
+      <c r="F62" s="111">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I62" s="134"/>
+      <c r="J62" s="139"/>
+      <c r="K62" s="69"/>
+      <c r="L62" s="140"/>
+      <c r="M62" s="69"/>
+      <c r="N62" s="137" t="e">
+        <f t="shared" si="1"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="134"/>
+      <c r="B63" s="139"/>
+      <c r="C63" s="69"/>
+      <c r="D63" s="253"/>
+      <c r="E63" s="69"/>
+      <c r="F63" s="111">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I63" s="134"/>
+      <c r="J63" s="139"/>
+      <c r="K63" s="69"/>
+      <c r="L63" s="140"/>
+      <c r="M63" s="69"/>
+      <c r="N63" s="137" t="e">
+        <f t="shared" si="1"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="134"/>
+      <c r="B64" s="139"/>
+      <c r="C64" s="69"/>
+      <c r="D64" s="253"/>
+      <c r="E64" s="69"/>
+      <c r="F64" s="111">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I64" s="134"/>
+      <c r="J64" s="139"/>
+      <c r="K64" s="69"/>
+      <c r="L64" s="140"/>
+      <c r="M64" s="69"/>
+      <c r="N64" s="137" t="e">
+        <f t="shared" si="1"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="134"/>
+      <c r="B65" s="139"/>
+      <c r="C65" s="69"/>
+      <c r="D65" s="253"/>
+      <c r="E65" s="69"/>
+      <c r="F65" s="111">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I65" s="134"/>
+      <c r="J65" s="139"/>
+      <c r="K65" s="69"/>
+      <c r="L65" s="140"/>
+      <c r="M65" s="69"/>
+      <c r="N65" s="137" t="e">
+        <f t="shared" si="1"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="134"/>
+      <c r="B66" s="139"/>
+      <c r="C66" s="69"/>
+      <c r="D66" s="253"/>
+      <c r="E66" s="69"/>
+      <c r="F66" s="111">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I66" s="134"/>
+      <c r="J66" s="139"/>
+      <c r="K66" s="69"/>
+      <c r="L66" s="140"/>
+      <c r="M66" s="69"/>
+      <c r="N66" s="137" t="e">
+        <f t="shared" si="1"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="134"/>
+      <c r="B67" s="139"/>
+      <c r="C67" s="69"/>
+      <c r="D67" s="253"/>
+      <c r="E67" s="69"/>
+      <c r="F67" s="111">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I67" s="134"/>
+      <c r="J67" s="139"/>
+      <c r="K67" s="69"/>
+      <c r="L67" s="140"/>
+      <c r="M67" s="69"/>
+      <c r="N67" s="137" t="e">
+        <f t="shared" si="1"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="134"/>
+      <c r="B68" s="139"/>
+      <c r="C68" s="69"/>
+      <c r="D68" s="253"/>
+      <c r="E68" s="69"/>
+      <c r="F68" s="111">
+        <f t="shared" ref="F68:F87" si="2">C68-E68</f>
+        <v>0</v>
+      </c>
+      <c r="I68" s="134"/>
+      <c r="J68" s="139"/>
+      <c r="K68" s="69"/>
+      <c r="L68" s="140"/>
+      <c r="M68" s="69"/>
+      <c r="N68" s="137" t="e">
+        <f t="shared" si="1"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="134"/>
+      <c r="B69" s="139"/>
+      <c r="C69" s="69"/>
+      <c r="D69" s="253"/>
+      <c r="E69" s="69"/>
+      <c r="F69" s="111">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I69" s="134"/>
+      <c r="J69" s="139"/>
+      <c r="K69" s="69"/>
+      <c r="L69" s="140"/>
+      <c r="M69" s="69"/>
+      <c r="N69" s="137" t="e">
+        <f t="shared" ref="N69:N87" si="3">N68+K69-M69</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="134"/>
+      <c r="B70" s="139"/>
+      <c r="C70" s="69"/>
+      <c r="D70" s="253"/>
+      <c r="E70" s="69"/>
+      <c r="F70" s="111">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I70" s="134"/>
+      <c r="J70" s="139"/>
+      <c r="K70" s="69"/>
+      <c r="L70" s="140"/>
+      <c r="M70" s="69"/>
+      <c r="N70" s="137" t="e">
+        <f t="shared" si="3"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="134"/>
+      <c r="B71" s="139"/>
+      <c r="C71" s="69"/>
+      <c r="D71" s="253"/>
+      <c r="E71" s="69"/>
+      <c r="F71" s="111">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I71" s="134"/>
+      <c r="J71" s="139"/>
+      <c r="K71" s="69"/>
+      <c r="L71" s="140"/>
+      <c r="M71" s="69"/>
+      <c r="N71" s="137" t="e">
+        <f t="shared" si="3"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="134"/>
+      <c r="B72" s="139"/>
+      <c r="C72" s="69"/>
+      <c r="D72" s="254"/>
+      <c r="E72" s="69"/>
+      <c r="F72" s="111">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I72" s="356"/>
+      <c r="J72" s="357"/>
+      <c r="K72" s="34"/>
+      <c r="L72" s="147"/>
+      <c r="M72" s="34"/>
+      <c r="N72" s="137" t="e">
+        <f t="shared" si="3"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="134"/>
+      <c r="B73" s="139"/>
+      <c r="C73" s="69"/>
+      <c r="D73" s="254"/>
+      <c r="E73" s="69"/>
+      <c r="F73" s="111">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I73" s="356"/>
+      <c r="J73" s="357"/>
+      <c r="K73" s="34"/>
+      <c r="L73" s="147"/>
+      <c r="M73" s="34"/>
+      <c r="N73" s="137" t="e">
+        <f t="shared" si="3"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="134"/>
+      <c r="B74" s="139"/>
+      <c r="C74" s="69"/>
+      <c r="D74" s="254"/>
+      <c r="E74" s="69"/>
+      <c r="F74" s="111">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I74" s="356"/>
+      <c r="J74" s="357"/>
+      <c r="K74" s="34"/>
+      <c r="L74" s="147"/>
+      <c r="M74" s="34"/>
+      <c r="N74" s="137" t="e">
+        <f t="shared" si="3"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="134"/>
+      <c r="B75" s="139"/>
+      <c r="C75" s="69"/>
+      <c r="D75" s="254"/>
+      <c r="E75" s="69"/>
+      <c r="F75" s="111">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I75" s="356"/>
+      <c r="J75" s="357"/>
+      <c r="K75" s="34"/>
+      <c r="L75" s="147"/>
+      <c r="M75" s="34"/>
+      <c r="N75" s="137" t="e">
+        <f t="shared" si="3"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="134"/>
+      <c r="B76" s="139"/>
+      <c r="C76" s="69"/>
+      <c r="D76" s="254"/>
+      <c r="E76" s="69"/>
+      <c r="F76" s="111">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I76" s="356"/>
+      <c r="J76" s="357"/>
+      <c r="K76" s="34"/>
+      <c r="L76" s="147"/>
+      <c r="M76" s="34"/>
+      <c r="N76" s="137" t="e">
+        <f t="shared" si="3"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="356"/>
+      <c r="B77" s="357"/>
+      <c r="C77" s="34"/>
+      <c r="D77" s="118"/>
+      <c r="E77" s="34"/>
+      <c r="F77" s="111">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I77" s="356"/>
+      <c r="J77" s="357"/>
+      <c r="K77" s="34"/>
+      <c r="L77" s="147"/>
+      <c r="M77" s="34"/>
+      <c r="N77" s="137" t="e">
+        <f t="shared" si="3"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="134"/>
+      <c r="B78" s="139"/>
+      <c r="C78" s="69"/>
+      <c r="D78" s="254"/>
+      <c r="E78" s="69"/>
+      <c r="F78" s="111">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I78" s="134"/>
+      <c r="J78" s="139"/>
+      <c r="K78" s="69"/>
+      <c r="L78" s="148"/>
+      <c r="M78" s="69"/>
+      <c r="N78" s="137" t="e">
+        <f t="shared" si="3"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="134"/>
+      <c r="B79" s="139"/>
+      <c r="C79" s="69"/>
+      <c r="D79" s="254"/>
+      <c r="E79" s="69"/>
+      <c r="F79" s="111">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I79" s="134"/>
+      <c r="J79" s="139"/>
+      <c r="K79" s="69"/>
+      <c r="L79" s="148"/>
+      <c r="M79" s="69"/>
+      <c r="N79" s="137" t="e">
+        <f t="shared" si="3"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="134"/>
+      <c r="B80" s="139"/>
+      <c r="C80" s="69"/>
+      <c r="D80" s="254"/>
+      <c r="E80" s="69"/>
+      <c r="F80" s="111">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I80" s="134"/>
+      <c r="J80" s="139"/>
+      <c r="K80" s="69"/>
+      <c r="L80" s="148"/>
+      <c r="M80" s="69"/>
+      <c r="N80" s="137" t="e">
+        <f t="shared" si="3"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="134"/>
+      <c r="B81" s="139"/>
+      <c r="C81" s="69"/>
+      <c r="D81" s="254"/>
+      <c r="E81" s="69"/>
+      <c r="F81" s="111">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I81" s="134"/>
+      <c r="J81" s="139"/>
+      <c r="K81" s="69"/>
+      <c r="L81" s="148"/>
+      <c r="M81" s="69"/>
+      <c r="N81" s="137" t="e">
+        <f t="shared" si="3"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="134"/>
+      <c r="B82" s="139"/>
+      <c r="C82" s="69"/>
+      <c r="D82" s="254"/>
+      <c r="E82" s="69"/>
+      <c r="F82" s="111">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I82" s="134"/>
+      <c r="J82" s="139"/>
+      <c r="K82" s="69"/>
+      <c r="L82" s="148"/>
+      <c r="M82" s="69"/>
+      <c r="N82" s="137" t="e">
+        <f t="shared" si="3"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="134"/>
+      <c r="B83" s="139"/>
+      <c r="C83" s="69"/>
+      <c r="D83" s="254"/>
+      <c r="E83" s="69"/>
+      <c r="F83" s="111">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I83" s="134"/>
+      <c r="J83" s="139"/>
+      <c r="K83" s="69"/>
+      <c r="L83" s="148"/>
+      <c r="M83" s="69"/>
+      <c r="N83" s="137" t="e">
+        <f t="shared" si="3"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="134"/>
+      <c r="B84" s="139"/>
+      <c r="C84" s="69"/>
+      <c r="D84" s="254"/>
+      <c r="E84" s="69"/>
+      <c r="F84" s="111">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I84" s="134"/>
+      <c r="J84" s="139"/>
+      <c r="K84" s="69"/>
+      <c r="L84" s="148"/>
+      <c r="M84" s="69"/>
+      <c r="N84" s="137" t="e">
+        <f t="shared" si="3"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="134"/>
+      <c r="B85" s="139"/>
+      <c r="C85" s="69"/>
+      <c r="D85" s="254"/>
+      <c r="E85" s="69"/>
+      <c r="F85" s="111">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I85" s="134"/>
+      <c r="J85" s="139"/>
+      <c r="K85" s="69"/>
+      <c r="L85" s="148"/>
+      <c r="M85" s="69"/>
+      <c r="N85" s="137" t="e">
+        <f t="shared" si="3"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="134"/>
+      <c r="B86" s="139"/>
+      <c r="C86" s="69"/>
+      <c r="D86" s="254"/>
+      <c r="E86" s="69"/>
+      <c r="F86" s="111">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I86" s="134"/>
+      <c r="J86" s="139"/>
+      <c r="K86" s="69"/>
+      <c r="L86" s="148"/>
+      <c r="M86" s="69"/>
+      <c r="N86" s="137" t="e">
+        <f t="shared" si="3"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="134"/>
+      <c r="B87" s="139"/>
+      <c r="C87" s="69"/>
+      <c r="D87" s="254"/>
+      <c r="E87" s="69"/>
+      <c r="F87" s="111">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I87" s="134"/>
+      <c r="J87" s="139"/>
+      <c r="K87" s="69"/>
+      <c r="L87" s="148"/>
+      <c r="M87" s="69"/>
+      <c r="N87" s="137" t="e">
+        <f t="shared" si="3"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="149"/>
+      <c r="B88" s="210"/>
+      <c r="C88" s="34">
+        <v>0</v>
+      </c>
+      <c r="D88" s="255"/>
+      <c r="E88" s="151"/>
+      <c r="F88" s="137">
+        <v>0</v>
+      </c>
+      <c r="I88" s="149"/>
+      <c r="J88" s="150"/>
+      <c r="K88" s="151">
+        <v>0</v>
+      </c>
+      <c r="L88" s="152"/>
+      <c r="M88" s="151"/>
+      <c r="N88" s="137"/>
+    </row>
+    <row r="89" spans="1:14" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B89" s="440"/>
+      <c r="C89" s="212">
+        <f>SUM(C3:C88)</f>
+        <v>0</v>
+      </c>
+      <c r="D89" s="407"/>
+      <c r="E89" s="395">
+        <f>SUM(E3:E88)</f>
+        <v>0</v>
+      </c>
+      <c r="F89" s="153">
+        <f>SUM(F3:F88)</f>
+        <v>0</v>
+      </c>
+      <c r="K89" s="529">
+        <f>SUM(K3:K88)</f>
+        <v>0</v>
+      </c>
+      <c r="L89" s="478"/>
+      <c r="M89" s="209">
+        <f>SUM(M3:M88)</f>
+        <v>0</v>
+      </c>
+      <c r="N89" s="153">
+        <f>N88</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B90" s="441"/>
+      <c r="C90" s="214"/>
+      <c r="D90" s="256"/>
+      <c r="E90" s="3"/>
+      <c r="F90" s="650" t="s">
+        <v>207</v>
+      </c>
+      <c r="K90" s="1"/>
+      <c r="L90" s="97"/>
+      <c r="M90" s="3"/>
+      <c r="N90" s="1"/>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B91" s="163"/>
+      <c r="C91" s="1"/>
+      <c r="D91" s="256"/>
+      <c r="E91" s="3"/>
+      <c r="F91" s="651"/>
+      <c r="K91" s="1"/>
+      <c r="L91" s="97"/>
+      <c r="M91" s="3"/>
+      <c r="N91" s="1"/>
+    </row>
+    <row r="92" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="456"/>
+      <c r="B92" s="442"/>
+      <c r="H92" s="2"/>
+      <c r="I92" s="14"/>
+      <c r="J92" s="504"/>
+      <c r="K92" s="6"/>
+      <c r="L92" s="505"/>
+      <c r="M92" s="6"/>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A93" s="456"/>
+      <c r="B93" s="442"/>
+      <c r="I93" s="688" t="s">
+        <v>594</v>
+      </c>
+      <c r="J93" s="689"/>
+    </row>
+    <row r="94" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A94" s="456"/>
+      <c r="B94" s="521"/>
+      <c r="C94" s="522"/>
+      <c r="D94" s="523"/>
+      <c r="E94" s="524"/>
+      <c r="I94" s="690"/>
+      <c r="J94" s="691"/>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A95" s="456"/>
+      <c r="B95" s="442"/>
+      <c r="F95"/>
+      <c r="I95"/>
+      <c r="J95" s="194"/>
+      <c r="N95"/>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A96" s="456"/>
+      <c r="B96" s="442"/>
+      <c r="F96"/>
+      <c r="I96"/>
+      <c r="J96" s="194"/>
+      <c r="N96"/>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A97" s="514"/>
+      <c r="B97" s="515"/>
+      <c r="C97" s="129"/>
+      <c r="F97"/>
+      <c r="I97"/>
+      <c r="J97" s="194"/>
+      <c r="N97"/>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A98" s="514"/>
+      <c r="B98" s="515"/>
+      <c r="C98" s="129"/>
+      <c r="F98"/>
+      <c r="I98"/>
+      <c r="J98" s="194"/>
+      <c r="N98"/>
+    </row>
+    <row r="99" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A99" s="516"/>
+      <c r="B99" s="517"/>
+      <c r="C99" s="233"/>
+      <c r="F99"/>
+      <c r="I99"/>
+      <c r="J99" s="194"/>
+      <c r="N99"/>
+    </row>
+    <row r="100" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A100" s="516"/>
+      <c r="B100" s="517"/>
+      <c r="C100" s="233"/>
+      <c r="F100"/>
+      <c r="I100"/>
+      <c r="J100" s="194"/>
+      <c r="N100"/>
+    </row>
+    <row r="101" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A101" s="516"/>
+      <c r="B101" s="517"/>
+      <c r="C101" s="233"/>
+      <c r="F101"/>
+      <c r="I101"/>
+      <c r="J101" s="194"/>
+      <c r="N101"/>
+    </row>
+    <row r="102" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A102" s="516"/>
+      <c r="B102" s="517"/>
+      <c r="C102" s="233"/>
+      <c r="F102"/>
+      <c r="I102"/>
+      <c r="J102" s="194"/>
+      <c r="N102"/>
+    </row>
+    <row r="103" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A103" s="516"/>
+      <c r="B103" s="517"/>
+      <c r="C103" s="233"/>
+      <c r="F103"/>
+      <c r="I103"/>
+      <c r="J103" s="194"/>
+      <c r="N103"/>
+    </row>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A104" s="514"/>
+      <c r="B104" s="515"/>
+      <c r="C104" s="129"/>
+      <c r="E104"/>
+      <c r="F104"/>
+      <c r="I104"/>
+      <c r="J104" s="194"/>
+      <c r="M104"/>
+      <c r="N104"/>
+    </row>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A105" s="456"/>
+      <c r="B105" s="442"/>
+      <c r="E105"/>
+      <c r="F105"/>
+      <c r="I105"/>
+      <c r="J105" s="194"/>
+      <c r="M105"/>
+      <c r="N105"/>
+    </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A106" s="456"/>
+      <c r="B106" s="442"/>
+      <c r="E106"/>
+      <c r="F106"/>
+      <c r="I106"/>
+      <c r="J106" s="194"/>
+      <c r="M106"/>
+      <c r="N106"/>
+    </row>
+    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A107" s="456"/>
+      <c r="B107" s="442"/>
+      <c r="E107"/>
+      <c r="F107"/>
+      <c r="I107"/>
+      <c r="J107" s="194"/>
+      <c r="M107"/>
+      <c r="N107"/>
+    </row>
+    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A108" s="456"/>
+      <c r="B108" s="442"/>
+      <c r="E108"/>
+      <c r="F108"/>
+      <c r="I108"/>
+      <c r="J108" s="194"/>
+      <c r="M108"/>
+      <c r="N108"/>
+    </row>
+    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A109" s="456"/>
+      <c r="B109" s="442"/>
+      <c r="E109"/>
+      <c r="F109"/>
+      <c r="I109"/>
+      <c r="J109" s="194"/>
+      <c r="M109"/>
+      <c r="N109"/>
+    </row>
+    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B110" s="442"/>
+      <c r="E110"/>
+      <c r="J110" s="194"/>
+      <c r="M110"/>
+    </row>
+    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B111" s="442"/>
+      <c r="E111"/>
+      <c r="J111" s="194"/>
+      <c r="M111"/>
+    </row>
+    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B112" s="442"/>
+      <c r="E112"/>
+      <c r="J112" s="194"/>
+      <c r="M112"/>
+    </row>
+    <row r="113" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B113" s="442"/>
+      <c r="E113"/>
+      <c r="J113" s="194"/>
+      <c r="M113"/>
+    </row>
+    <row r="114" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B114" s="442"/>
+      <c r="E114"/>
+      <c r="J114" s="194"/>
+      <c r="M114"/>
+    </row>
+    <row r="115" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B115" s="442"/>
+      <c r="E115"/>
+      <c r="J115" s="194"/>
+      <c r="M115"/>
+    </row>
+    <row r="116" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B116" s="442"/>
+      <c r="E116"/>
+      <c r="J116" s="194"/>
+      <c r="M116"/>
+    </row>
+    <row r="117" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B117" s="442"/>
+      <c r="E117"/>
+      <c r="J117" s="194"/>
+      <c r="M117"/>
+    </row>
+    <row r="118" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B118" s="442"/>
+      <c r="E118"/>
+      <c r="J118" s="194"/>
+      <c r="M118"/>
+    </row>
+    <row r="119" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B119" s="442"/>
+      <c r="J119" s="194"/>
+    </row>
+    <row r="120" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B120" s="442"/>
+      <c r="J120" s="194"/>
+    </row>
+    <row r="121" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B121" s="442"/>
+      <c r="J121" s="194"/>
+    </row>
+    <row r="122" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B122" s="442"/>
+      <c r="J122" s="194"/>
+    </row>
+    <row r="123" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B123" s="442"/>
+      <c r="J123" s="194"/>
+    </row>
+    <row r="124" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B124" s="442"/>
+      <c r="J124" s="194"/>
+    </row>
+    <row r="125" spans="2:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C125" s="154"/>
+      <c r="K125" s="154"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="F90:F91"/>
+    <mergeCell ref="I93:J94"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -25087,23 +30101,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
@@ -26443,7 +31445,7 @@
       <c r="A41" s="140">
         <v>44507</v>
       </c>
-      <c r="B41" s="580" t="s">
+      <c r="B41" s="623" t="s">
         <v>92</v>
       </c>
       <c r="C41" s="190">
@@ -26475,7 +31477,7 @@
       <c r="A42" s="140" t="s">
         <v>93</v>
       </c>
-      <c r="B42" s="581"/>
+      <c r="B42" s="624"/>
       <c r="C42" s="143">
         <v>0</v>
       </c>
@@ -28032,6 +33034,18 @@
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.11811023622047245" top="0.31496062992125984" bottom="0.23622047244094491" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="90" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -28071,23 +33085,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="569"/>
-      <c r="C1" s="571" t="s">
+      <c r="B1" s="588"/>
+      <c r="C1" s="590" t="s">
         <v>208</v>
       </c>
-      <c r="D1" s="572"/>
-      <c r="E1" s="572"/>
-      <c r="F1" s="572"/>
-      <c r="G1" s="572"/>
-      <c r="H1" s="572"/>
-      <c r="I1" s="572"/>
-      <c r="J1" s="572"/>
-      <c r="K1" s="572"/>
-      <c r="L1" s="572"/>
-      <c r="M1" s="572"/>
+      <c r="D1" s="591"/>
+      <c r="E1" s="591"/>
+      <c r="F1" s="591"/>
+      <c r="G1" s="591"/>
+      <c r="H1" s="591"/>
+      <c r="I1" s="591"/>
+      <c r="J1" s="591"/>
+      <c r="K1" s="591"/>
+      <c r="L1" s="591"/>
+      <c r="M1" s="591"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="570"/>
+      <c r="B2" s="589"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -28097,21 +33111,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="573" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="574"/>
+      <c r="B3" s="592" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="593"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="575" t="s">
+      <c r="H3" s="594" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="575"/>
+      <c r="I3" s="594"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="599" t="s">
+      <c r="P3" s="631" t="s">
         <v>6</v>
       </c>
     </row>
@@ -28126,14 +33140,14 @@
       <c r="D4" s="18">
         <v>44507</v>
       </c>
-      <c r="E4" s="576" t="s">
+      <c r="E4" s="595" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="577"/>
-      <c r="H4" s="578" t="s">
+      <c r="F4" s="596"/>
+      <c r="H4" s="597" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="579"/>
+      <c r="I4" s="598"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -28143,14 +33157,14 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="600"/>
+      <c r="P4" s="632"/>
       <c r="Q4" s="286" t="s">
         <v>209</v>
       </c>
-      <c r="W4" s="582" t="s">
+      <c r="W4" s="641" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="582"/>
+      <c r="X4" s="641"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -28201,8 +33215,8 @@
         <f>20000+7936</f>
         <v>27936</v>
       </c>
-      <c r="W5" s="582"/>
-      <c r="X5" s="582"/>
+      <c r="W5" s="641"/>
+      <c r="X5" s="641"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -28973,7 +33987,7 @@
         <v>26370</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="586">
+      <c r="W19" s="645">
         <f>SUM(W6:W18)</f>
         <v>935136</v>
       </c>
@@ -29025,7 +34039,7 @@
         <v>16395.830000000002</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="587"/>
+      <c r="W20" s="646"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -29074,8 +34088,8 @@
         <v>19188.82</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="588"/>
-      <c r="X21" s="588"/>
+      <c r="W21" s="647"/>
+      <c r="X21" s="647"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -29176,8 +34190,8 @@
         <v>45217.29</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="589"/>
-      <c r="X23" s="589"/>
+      <c r="W23" s="648"/>
+      <c r="X23" s="648"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -29231,8 +34245,8 @@
         <v>23159.17</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="589"/>
-      <c r="X24" s="589"/>
+      <c r="W24" s="648"/>
+      <c r="X24" s="648"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -29278,8 +34292,8 @@
       <c r="R25" s="285">
         <v>28952</v>
       </c>
-      <c r="W25" s="590"/>
-      <c r="X25" s="590"/>
+      <c r="W25" s="649"/>
+      <c r="X25" s="649"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -29330,8 +34344,8 @@
       <c r="R26" s="285">
         <v>21771.5</v>
       </c>
-      <c r="W26" s="590"/>
-      <c r="X26" s="590"/>
+      <c r="W26" s="649"/>
+      <c r="X26" s="649"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -29379,9 +34393,9 @@
       <c r="R27" s="285">
         <v>14637</v>
       </c>
-      <c r="W27" s="583"/>
-      <c r="X27" s="584"/>
-      <c r="Y27" s="585"/>
+      <c r="W27" s="642"/>
+      <c r="X27" s="643"/>
+      <c r="Y27" s="644"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -29431,9 +34445,9 @@
       <c r="R28" s="285">
         <v>0</v>
       </c>
-      <c r="W28" s="584"/>
-      <c r="X28" s="584"/>
-      <c r="Y28" s="585"/>
+      <c r="W28" s="643"/>
+      <c r="X28" s="643"/>
+      <c r="Y28" s="644"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -29768,11 +34782,11 @@
       <c r="L36" s="44">
         <v>5940</v>
       </c>
-      <c r="M36" s="601">
+      <c r="M36" s="633">
         <f>SUM(M5:M35)</f>
         <v>321168.83</v>
       </c>
-      <c r="N36" s="603">
+      <c r="N36" s="635">
         <f>SUM(N5:N35)</f>
         <v>467016</v>
       </c>
@@ -29780,7 +34794,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="605">
+      <c r="Q36" s="637">
         <f>SUM(Q5:Q35)</f>
         <v>-637069.14000000013</v>
       </c>
@@ -29815,13 +34829,13 @@
       <c r="L37" s="61">
         <v>7929.62</v>
       </c>
-      <c r="M37" s="602"/>
-      <c r="N37" s="604"/>
+      <c r="M37" s="634"/>
+      <c r="N37" s="636"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="606"/>
+      <c r="Q37" s="638"/>
     </row>
     <row r="38" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="23"/>
@@ -30111,26 +35125,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="556" t="s">
+      <c r="H52" s="610" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="557"/>
+      <c r="I52" s="611"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="558">
+      <c r="K52" s="612">
         <f>I50+L50</f>
         <v>71911.59</v>
       </c>
-      <c r="L52" s="591"/>
+      <c r="L52" s="639"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D53" s="562" t="s">
+      <c r="D53" s="616" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="562"/>
+      <c r="E53" s="616"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
         <v>-25952.549999999814</v>
@@ -30139,29 +35153,29 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="592" t="s">
+      <c r="D54" s="640" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="592"/>
+      <c r="E54" s="640"/>
       <c r="F54" s="111">
         <v>-706888.38</v>
       </c>
-      <c r="I54" s="563" t="s">
+      <c r="I54" s="617" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="564"/>
-      <c r="K54" s="565">
+      <c r="J54" s="618"/>
+      <c r="K54" s="619">
         <f>F56+F57+F58</f>
         <v>1308778.3500000003</v>
       </c>
-      <c r="L54" s="565"/>
-      <c r="M54" s="593" t="s">
+      <c r="L54" s="619"/>
+      <c r="M54" s="625" t="s">
         <v>211</v>
       </c>
-      <c r="N54" s="594"/>
-      <c r="O54" s="594"/>
-      <c r="P54" s="594"/>
-      <c r="Q54" s="595"/>
+      <c r="N54" s="626"/>
+      <c r="O54" s="626"/>
+      <c r="P54" s="626"/>
+      <c r="Q54" s="627"/>
     </row>
     <row r="55" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D55" s="313" t="s">
@@ -30175,11 +35189,11 @@
       <c r="J55" s="106"/>
       <c r="K55" s="178"/>
       <c r="L55" s="107"/>
-      <c r="M55" s="596"/>
-      <c r="N55" s="597"/>
-      <c r="O55" s="597"/>
-      <c r="P55" s="597"/>
-      <c r="Q55" s="598"/>
+      <c r="M55" s="628"/>
+      <c r="N55" s="629"/>
+      <c r="O55" s="629"/>
+      <c r="P55" s="629"/>
+      <c r="Q55" s="630"/>
     </row>
     <row r="56" spans="1:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C56" s="4" t="s">
@@ -30197,11 +35211,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="567">
+      <c r="K56" s="621">
         <f>-C4</f>
         <v>-567389.35</v>
       </c>
-      <c r="L56" s="568"/>
+      <c r="L56" s="622"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -30218,22 +35232,22 @@
       <c r="C58" s="112">
         <v>44535</v>
       </c>
-      <c r="D58" s="545" t="s">
+      <c r="D58" s="599" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="546"/>
+      <c r="E58" s="600"/>
       <c r="F58" s="113">
         <v>2142307.62</v>
       </c>
-      <c r="I58" s="547" t="s">
+      <c r="I58" s="601" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="548"/>
-      <c r="K58" s="549">
+      <c r="J58" s="602"/>
+      <c r="K58" s="603">
         <f>K54+K56</f>
         <v>741389.00000000035</v>
       </c>
-      <c r="L58" s="549"/>
+      <c r="L58" s="603"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -30377,17 +35391,14 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="M54:Q55"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="N36:N37"/>
-    <mergeCell ref="Q36:Q37"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="W4:X5"/>
+    <mergeCell ref="W27:X28"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="W19:W20"/>
+    <mergeCell ref="W21:X21"/>
+    <mergeCell ref="W23:X24"/>
+    <mergeCell ref="W25:X25"/>
+    <mergeCell ref="W26:X26"/>
     <mergeCell ref="D58:E58"/>
     <mergeCell ref="I58:J58"/>
     <mergeCell ref="K58:L58"/>
@@ -30398,14 +35409,17 @@
     <mergeCell ref="I54:J54"/>
     <mergeCell ref="K54:L54"/>
     <mergeCell ref="K56:L56"/>
-    <mergeCell ref="W4:X5"/>
-    <mergeCell ref="W27:X28"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="W19:W20"/>
-    <mergeCell ref="W21:X21"/>
-    <mergeCell ref="W23:X24"/>
-    <mergeCell ref="W25:X25"/>
-    <mergeCell ref="W26:X26"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="M54:Q55"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="Q36:Q37"/>
   </mergeCells>
   <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.27559055118110237" bottom="0.27559055118110237" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="68" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -32823,7 +37837,7 @@
       <c r="C87" s="214"/>
       <c r="D87" s="97"/>
       <c r="E87" s="3"/>
-      <c r="F87" s="607" t="s">
+      <c r="F87" s="650" t="s">
         <v>207</v>
       </c>
       <c r="K87" s="1"/>
@@ -32836,7 +37850,7 @@
       <c r="C88" s="1"/>
       <c r="D88" s="97"/>
       <c r="E88" s="3"/>
-      <c r="F88" s="608"/>
+      <c r="F88" s="651"/>
       <c r="K88" s="1"/>
       <c r="L88" s="256"/>
       <c r="M88" s="3"/>
@@ -33148,23 +38162,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="569"/>
-      <c r="C1" s="571" t="s">
+      <c r="B1" s="588"/>
+      <c r="C1" s="590" t="s">
         <v>208</v>
       </c>
-      <c r="D1" s="572"/>
-      <c r="E1" s="572"/>
-      <c r="F1" s="572"/>
-      <c r="G1" s="572"/>
-      <c r="H1" s="572"/>
-      <c r="I1" s="572"/>
-      <c r="J1" s="572"/>
-      <c r="K1" s="572"/>
-      <c r="L1" s="572"/>
-      <c r="M1" s="572"/>
+      <c r="D1" s="591"/>
+      <c r="E1" s="591"/>
+      <c r="F1" s="591"/>
+      <c r="G1" s="591"/>
+      <c r="H1" s="591"/>
+      <c r="I1" s="591"/>
+      <c r="J1" s="591"/>
+      <c r="K1" s="591"/>
+      <c r="L1" s="591"/>
+      <c r="M1" s="591"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="570"/>
+      <c r="B2" s="589"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -33174,24 +38188,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="573" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="574"/>
+      <c r="B3" s="592" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="593"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="575" t="s">
+      <c r="H3" s="594" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="575"/>
+      <c r="I3" s="594"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="599" t="s">
+      <c r="P3" s="631" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="609" t="s">
+      <c r="R3" s="652" t="s">
         <v>216</v>
       </c>
     </row>
@@ -33206,14 +38220,14 @@
       <c r="D4" s="18">
         <v>44507</v>
       </c>
-      <c r="E4" s="576" t="s">
+      <c r="E4" s="595" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="577"/>
-      <c r="H4" s="578" t="s">
+      <c r="F4" s="596"/>
+      <c r="H4" s="597" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="579"/>
+      <c r="I4" s="598"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -33223,15 +38237,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="600"/>
+      <c r="P4" s="632"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="610"/>
-      <c r="W4" s="582" t="s">
+      <c r="R4" s="653"/>
+      <c r="W4" s="641" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="582"/>
+      <c r="X4" s="641"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -33292,8 +38306,8 @@
       <c r="S5" s="324" t="s">
         <v>213</v>
       </c>
-      <c r="W5" s="582"/>
-      <c r="X5" s="582"/>
+      <c r="W5" s="641"/>
+      <c r="X5" s="641"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -34050,7 +39064,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="586">
+      <c r="W19" s="645">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -34102,7 +39116,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="587"/>
+      <c r="W20" s="646"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -34151,8 +39165,8 @@
         <v>0</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="588"/>
-      <c r="X21" s="588"/>
+      <c r="W21" s="647"/>
+      <c r="X21" s="647"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -34253,8 +39267,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="589"/>
-      <c r="X23" s="589"/>
+      <c r="W23" s="648"/>
+      <c r="X23" s="648"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -34305,8 +39319,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="589"/>
-      <c r="X24" s="589"/>
+      <c r="W24" s="648"/>
+      <c r="X24" s="648"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -34352,8 +39366,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="590"/>
-      <c r="X25" s="590"/>
+      <c r="W25" s="649"/>
+      <c r="X25" s="649"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -34401,8 +39415,8 @@
       <c r="R26" s="319">
         <v>0</v>
       </c>
-      <c r="W26" s="590"/>
-      <c r="X26" s="590"/>
+      <c r="W26" s="649"/>
+      <c r="X26" s="649"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -34462,9 +39476,9 @@
       <c r="V27" t="s">
         <v>240</v>
       </c>
-      <c r="W27" s="583"/>
-      <c r="X27" s="584"/>
-      <c r="Y27" s="585"/>
+      <c r="W27" s="642"/>
+      <c r="X27" s="643"/>
+      <c r="Y27" s="644"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -34518,9 +39532,9 @@
       <c r="V28" t="s">
         <v>240</v>
       </c>
-      <c r="W28" s="584"/>
-      <c r="X28" s="584"/>
-      <c r="Y28" s="585"/>
+      <c r="W28" s="643"/>
+      <c r="X28" s="643"/>
+      <c r="Y28" s="644"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -34836,11 +39850,11 @@
       <c r="J36" s="266"/>
       <c r="K36" s="250"/>
       <c r="L36" s="44"/>
-      <c r="M36" s="601">
+      <c r="M36" s="633">
         <f>SUM(M5:M35)</f>
         <v>1077791.3</v>
       </c>
-      <c r="N36" s="603">
+      <c r="N36" s="635">
         <f>SUM(N5:N35)</f>
         <v>936398</v>
       </c>
@@ -34848,7 +39862,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="605">
+      <c r="Q36" s="637">
         <f>SUM(Q5:Q35)</f>
         <v>-14262.940000000002</v>
       </c>
@@ -34867,13 +39881,13 @@
       <c r="J37" s="60"/>
       <c r="K37" s="41"/>
       <c r="L37" s="61"/>
-      <c r="M37" s="602"/>
-      <c r="N37" s="604"/>
+      <c r="M37" s="634"/>
+      <c r="N37" s="636"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="606"/>
+      <c r="Q37" s="638"/>
     </row>
     <row r="38" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="23"/>
@@ -35147,26 +40161,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="556" t="s">
+      <c r="H52" s="610" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="557"/>
+      <c r="I52" s="611"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="558">
+      <c r="K52" s="612">
         <f>I50+L50</f>
         <v>90750.75</v>
       </c>
-      <c r="L52" s="591"/>
+      <c r="L52" s="639"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D53" s="562" t="s">
+      <c r="D53" s="616" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="562"/>
+      <c r="E53" s="616"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
         <v>1739855.03</v>
@@ -35175,29 +40189,29 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="592" t="s">
+      <c r="D54" s="640" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="592"/>
+      <c r="E54" s="640"/>
       <c r="F54" s="111">
         <v>-1567070.66</v>
       </c>
-      <c r="I54" s="563" t="s">
+      <c r="I54" s="617" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="564"/>
-      <c r="K54" s="565">
+      <c r="J54" s="618"/>
+      <c r="K54" s="619">
         <f>F56+F57+F58</f>
         <v>703192.8600000001</v>
       </c>
-      <c r="L54" s="565"/>
-      <c r="M54" s="593" t="s">
+      <c r="L54" s="619"/>
+      <c r="M54" s="625" t="s">
         <v>211</v>
       </c>
-      <c r="N54" s="594"/>
-      <c r="O54" s="594"/>
-      <c r="P54" s="594"/>
-      <c r="Q54" s="595"/>
+      <c r="N54" s="626"/>
+      <c r="O54" s="626"/>
+      <c r="P54" s="626"/>
+      <c r="Q54" s="627"/>
     </row>
     <row r="55" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D55" s="313" t="s">
@@ -35211,11 +40225,11 @@
       <c r="J55" s="106"/>
       <c r="K55" s="178"/>
       <c r="L55" s="107"/>
-      <c r="M55" s="596"/>
-      <c r="N55" s="597"/>
-      <c r="O55" s="597"/>
-      <c r="P55" s="597"/>
-      <c r="Q55" s="598"/>
+      <c r="M55" s="628"/>
+      <c r="N55" s="629"/>
+      <c r="O55" s="629"/>
+      <c r="P55" s="629"/>
+      <c r="Q55" s="630"/>
     </row>
     <row r="56" spans="1:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C56" s="4" t="s">
@@ -35233,11 +40247,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="567">
+      <c r="K56" s="621">
         <f>-C4</f>
         <v>-567389.35</v>
       </c>
-      <c r="L56" s="568"/>
+      <c r="L56" s="622"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -35254,22 +40268,22 @@
       <c r="C58" s="112">
         <v>44563</v>
       </c>
-      <c r="D58" s="545" t="s">
+      <c r="D58" s="599" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="546"/>
+      <c r="E58" s="600"/>
       <c r="F58" s="113">
         <v>754143.23</v>
       </c>
-      <c r="I58" s="547" t="s">
+      <c r="I58" s="601" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="548"/>
-      <c r="K58" s="549">
+      <c r="J58" s="602"/>
+      <c r="K58" s="603">
         <f>K54+K56</f>
         <v>135803.51000000013</v>
       </c>
-      <c r="L58" s="549"/>
+      <c r="L58" s="603"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -35413,13 +40427,20 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="M54:Q55"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="W27:X28"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="Q36:Q37"/>
     <mergeCell ref="H52:I52"/>
     <mergeCell ref="K52:L52"/>
     <mergeCell ref="W4:X5"/>
@@ -35429,20 +40450,13 @@
     <mergeCell ref="W25:X25"/>
     <mergeCell ref="W26:X26"/>
     <mergeCell ref="R3:R4"/>
-    <mergeCell ref="M54:Q55"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="W27:X28"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="N36:N37"/>
-    <mergeCell ref="Q36:Q37"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -37832,7 +42846,7 @@
       <c r="C75" s="214"/>
       <c r="D75" s="256"/>
       <c r="E75" s="3"/>
-      <c r="F75" s="607" t="s">
+      <c r="F75" s="650" t="s">
         <v>207</v>
       </c>
       <c r="K75" s="1"/>
@@ -37845,7 +42859,7 @@
       <c r="C76" s="1"/>
       <c r="D76" s="256"/>
       <c r="E76" s="3"/>
-      <c r="F76" s="608"/>
+      <c r="F76" s="651"/>
       <c r="K76" s="1"/>
       <c r="L76" s="256"/>
       <c r="M76" s="3"/>
@@ -38137,23 +43151,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="569"/>
-      <c r="C1" s="611" t="s">
+      <c r="B1" s="588"/>
+      <c r="C1" s="654" t="s">
         <v>316</v>
       </c>
-      <c r="D1" s="612"/>
-      <c r="E1" s="612"/>
-      <c r="F1" s="612"/>
-      <c r="G1" s="612"/>
-      <c r="H1" s="612"/>
-      <c r="I1" s="612"/>
-      <c r="J1" s="612"/>
-      <c r="K1" s="612"/>
-      <c r="L1" s="612"/>
-      <c r="M1" s="612"/>
+      <c r="D1" s="655"/>
+      <c r="E1" s="655"/>
+      <c r="F1" s="655"/>
+      <c r="G1" s="655"/>
+      <c r="H1" s="655"/>
+      <c r="I1" s="655"/>
+      <c r="J1" s="655"/>
+      <c r="K1" s="655"/>
+      <c r="L1" s="655"/>
+      <c r="M1" s="655"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="570"/>
+      <c r="B2" s="589"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -38163,24 +43177,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="573" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="574"/>
+      <c r="B3" s="592" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="593"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="575" t="s">
+      <c r="H3" s="594" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="575"/>
+      <c r="I3" s="594"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="599" t="s">
+      <c r="P3" s="631" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="609" t="s">
+      <c r="R3" s="652" t="s">
         <v>216</v>
       </c>
     </row>
@@ -38195,14 +43209,14 @@
       <c r="D4" s="18">
         <v>44563</v>
       </c>
-      <c r="E4" s="576" t="s">
+      <c r="E4" s="595" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="577"/>
-      <c r="H4" s="578" t="s">
+      <c r="F4" s="596"/>
+      <c r="H4" s="597" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="579"/>
+      <c r="I4" s="598"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -38212,15 +43226,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="600"/>
+      <c r="P4" s="632"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="610"/>
-      <c r="W4" s="582" t="s">
+      <c r="R4" s="653"/>
+      <c r="W4" s="641" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="582"/>
+      <c r="X4" s="641"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -38271,8 +43285,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="324"/>
-      <c r="W5" s="582"/>
-      <c r="X5" s="582"/>
+      <c r="W5" s="641"/>
+      <c r="X5" s="641"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -39036,7 +44050,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="586">
+      <c r="W19" s="645">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -39089,7 +44103,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="587"/>
+      <c r="W20" s="646"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -39138,8 +44152,8 @@
         <v>377273.87</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="588"/>
-      <c r="X21" s="588"/>
+      <c r="W21" s="647"/>
+      <c r="X21" s="647"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -39239,8 +44253,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="589"/>
-      <c r="X23" s="589"/>
+      <c r="W23" s="648"/>
+      <c r="X23" s="648"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -39295,8 +44309,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="589"/>
-      <c r="X24" s="589"/>
+      <c r="W24" s="648"/>
+      <c r="X24" s="648"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -39341,8 +44355,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="590"/>
-      <c r="X25" s="590"/>
+      <c r="W25" s="649"/>
+      <c r="X25" s="649"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -39390,8 +44404,8 @@
       <c r="R26" s="319">
         <v>0</v>
       </c>
-      <c r="W26" s="590"/>
-      <c r="X26" s="590"/>
+      <c r="W26" s="649"/>
+      <c r="X26" s="649"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -39445,9 +44459,9 @@
       <c r="V27" t="s">
         <v>240</v>
       </c>
-      <c r="W27" s="583"/>
-      <c r="X27" s="584"/>
-      <c r="Y27" s="585"/>
+      <c r="W27" s="642"/>
+      <c r="X27" s="643"/>
+      <c r="Y27" s="644"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -39501,9 +44515,9 @@
       <c r="V28" t="s">
         <v>240</v>
       </c>
-      <c r="W28" s="584"/>
-      <c r="X28" s="584"/>
-      <c r="Y28" s="585"/>
+      <c r="W28" s="643"/>
+      <c r="X28" s="643"/>
+      <c r="Y28" s="644"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -39814,11 +44828,11 @@
       <c r="L36" s="44">
         <v>13275.84</v>
       </c>
-      <c r="M36" s="601">
+      <c r="M36" s="633">
         <f>SUM(M5:M35)</f>
         <v>1818445.73</v>
       </c>
-      <c r="N36" s="603">
+      <c r="N36" s="635">
         <f>SUM(N5:N35)</f>
         <v>739014</v>
       </c>
@@ -39826,7 +44840,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="605">
+      <c r="Q36" s="637">
         <f>SUM(Q5:Q35)</f>
         <v>-7.2800000000133878</v>
       </c>
@@ -39851,13 +44865,13 @@
       <c r="L37" s="61">
         <v>15060.32</v>
       </c>
-      <c r="M37" s="602"/>
-      <c r="N37" s="604"/>
+      <c r="M37" s="634"/>
+      <c r="N37" s="636"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="606"/>
+      <c r="Q37" s="638"/>
       <c r="R37" s="227" t="s">
         <v>7</v>
       </c>
@@ -40150,26 +45164,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="556" t="s">
+      <c r="H52" s="610" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="557"/>
+      <c r="I52" s="611"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="558">
+      <c r="K52" s="612">
         <f>I50+L50</f>
         <v>158798.12</v>
       </c>
-      <c r="L52" s="591"/>
+      <c r="L52" s="639"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="562" t="s">
+      <c r="D53" s="616" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="562"/>
+      <c r="E53" s="616"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
         <v>2078470.75</v>
@@ -40178,22 +45192,22 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="592" t="s">
+      <c r="D54" s="640" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="592"/>
+      <c r="E54" s="640"/>
       <c r="F54" s="111">
         <v>-1448401.2</v>
       </c>
-      <c r="I54" s="563" t="s">
+      <c r="I54" s="617" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="564"/>
-      <c r="K54" s="565">
+      <c r="J54" s="618"/>
+      <c r="K54" s="619">
         <f>F56+F57+F58</f>
         <v>1025960.7</v>
       </c>
-      <c r="L54" s="565"/>
+      <c r="L54" s="619"/>
       <c r="M54" s="404"/>
       <c r="N54" s="404"/>
       <c r="O54" s="404"/>
@@ -40234,11 +45248,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="567">
+      <c r="K56" s="621">
         <f>-C4</f>
         <v>-754143.23</v>
       </c>
-      <c r="L56" s="568"/>
+      <c r="L56" s="622"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -40255,22 +45269,22 @@
       <c r="C58" s="112">
         <v>44591</v>
       </c>
-      <c r="D58" s="545" t="s">
+      <c r="D58" s="599" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="546"/>
+      <c r="E58" s="600"/>
       <c r="F58" s="113">
         <v>1149740.4099999999</v>
       </c>
-      <c r="I58" s="547" t="s">
+      <c r="I58" s="601" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="548"/>
-      <c r="K58" s="549">
+      <c r="J58" s="602"/>
+      <c r="K58" s="603">
         <f>K54+K56</f>
         <v>271817.46999999997</v>
       </c>
-      <c r="L58" s="549"/>
+      <c r="L58" s="603"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -40414,6 +45428,20 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="Q36:Q37"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="K52:L52"/>
     <mergeCell ref="W26:X26"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="W27:X28"/>
@@ -40429,20 +45457,6 @@
     <mergeCell ref="W21:X21"/>
     <mergeCell ref="W23:X24"/>
     <mergeCell ref="W25:X25"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="N36:N37"/>
-    <mergeCell ref="Q36:Q37"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="K54:L54"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="K52:L52"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -42139,12 +47153,12 @@
     </row>
     <row r="43" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="245"/>
-      <c r="B43" s="613" t="s">
+      <c r="B43" s="656" t="s">
         <v>413</v>
       </c>
-      <c r="C43" s="614"/>
-      <c r="D43" s="614"/>
-      <c r="E43" s="615"/>
+      <c r="C43" s="657"/>
+      <c r="D43" s="657"/>
+      <c r="E43" s="658"/>
       <c r="F43" s="392">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -42172,10 +47186,10 @@
     </row>
     <row r="44" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="245"/>
-      <c r="B44" s="616"/>
-      <c r="C44" s="617"/>
-      <c r="D44" s="617"/>
-      <c r="E44" s="618"/>
+      <c r="B44" s="659"/>
+      <c r="C44" s="660"/>
+      <c r="D44" s="660"/>
+      <c r="E44" s="661"/>
       <c r="F44" s="392">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -42203,10 +47217,10 @@
     </row>
     <row r="45" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="245"/>
-      <c r="B45" s="619"/>
-      <c r="C45" s="620"/>
-      <c r="D45" s="620"/>
-      <c r="E45" s="621"/>
+      <c r="B45" s="662"/>
+      <c r="C45" s="663"/>
+      <c r="D45" s="663"/>
+      <c r="E45" s="664"/>
       <c r="F45" s="392">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -42249,10 +47263,10 @@
     </row>
     <row r="47" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="245"/>
-      <c r="B47" s="628" t="s">
+      <c r="B47" s="671" t="s">
         <v>593</v>
       </c>
-      <c r="C47" s="629"/>
+      <c r="C47" s="672"/>
       <c r="D47" s="253"/>
       <c r="E47" s="69"/>
       <c r="F47" s="137">
@@ -42274,8 +47288,8 @@
     </row>
     <row r="48" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="245"/>
-      <c r="B48" s="630"/>
-      <c r="C48" s="631"/>
+      <c r="B48" s="673"/>
+      <c r="C48" s="674"/>
       <c r="D48" s="253"/>
       <c r="E48" s="69"/>
       <c r="F48" s="137">
@@ -42283,11 +47297,11 @@
         <v>0</v>
       </c>
       <c r="I48" s="348"/>
-      <c r="J48" s="622" t="s">
+      <c r="J48" s="665" t="s">
         <v>414</v>
       </c>
-      <c r="K48" s="623"/>
-      <c r="L48" s="624"/>
+      <c r="K48" s="666"/>
+      <c r="L48" s="667"/>
       <c r="M48" s="206"/>
       <c r="N48" s="137">
         <f>N47+K48-M48</f>
@@ -42305,9 +47319,9 @@
         <v>0</v>
       </c>
       <c r="I49" s="348"/>
-      <c r="J49" s="625"/>
-      <c r="K49" s="626"/>
-      <c r="L49" s="627"/>
+      <c r="J49" s="668"/>
+      <c r="K49" s="669"/>
+      <c r="L49" s="670"/>
       <c r="M49" s="206"/>
       <c r="N49" s="137">
         <f t="shared" si="1"/>
@@ -42324,10 +47338,10 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I50" s="632" t="s">
+      <c r="I50" s="675" t="s">
         <v>594</v>
       </c>
-      <c r="J50" s="633"/>
+      <c r="J50" s="676"/>
       <c r="K50" s="215">
         <v>0</v>
       </c>
@@ -42348,8 +47362,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I51" s="632"/>
-      <c r="J51" s="633"/>
+      <c r="I51" s="675"/>
+      <c r="J51" s="676"/>
       <c r="K51" s="69"/>
       <c r="L51" s="253"/>
       <c r="M51" s="69"/>
@@ -42368,8 +47382,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I52" s="632"/>
-      <c r="J52" s="633"/>
+      <c r="I52" s="675"/>
+      <c r="J52" s="676"/>
       <c r="K52" s="69"/>
       <c r="L52" s="253"/>
       <c r="M52" s="69"/>
@@ -42388,8 +47402,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I53" s="632"/>
-      <c r="J53" s="633"/>
+      <c r="I53" s="675"/>
+      <c r="J53" s="676"/>
       <c r="K53" s="69"/>
       <c r="L53" s="253"/>
       <c r="M53" s="69"/>
@@ -42408,8 +47422,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I54" s="632"/>
-      <c r="J54" s="633"/>
+      <c r="I54" s="675"/>
+      <c r="J54" s="676"/>
       <c r="K54" s="69"/>
       <c r="L54" s="253"/>
       <c r="M54" s="69"/>
@@ -42428,8 +47442,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I55" s="632"/>
-      <c r="J55" s="633"/>
+      <c r="I55" s="675"/>
+      <c r="J55" s="676"/>
       <c r="K55" s="69"/>
       <c r="L55" s="253"/>
       <c r="M55" s="69"/>
@@ -42448,8 +47462,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I56" s="632"/>
-      <c r="J56" s="633"/>
+      <c r="I56" s="675"/>
+      <c r="J56" s="676"/>
       <c r="K56" s="69"/>
       <c r="L56" s="253"/>
       <c r="M56" s="69"/>
@@ -42468,8 +47482,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I57" s="632"/>
-      <c r="J57" s="633"/>
+      <c r="I57" s="675"/>
+      <c r="J57" s="676"/>
       <c r="K57" s="69"/>
       <c r="L57" s="253"/>
       <c r="M57" s="69"/>
@@ -42488,8 +47502,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I58" s="632"/>
-      <c r="J58" s="633"/>
+      <c r="I58" s="675"/>
+      <c r="J58" s="676"/>
       <c r="K58" s="69"/>
       <c r="L58" s="253"/>
       <c r="M58" s="69"/>
@@ -42508,8 +47522,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I59" s="632"/>
-      <c r="J59" s="633"/>
+      <c r="I59" s="675"/>
+      <c r="J59" s="676"/>
       <c r="K59" s="69"/>
       <c r="L59" s="253"/>
       <c r="M59" s="69"/>
@@ -42528,8 +47542,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I60" s="632"/>
-      <c r="J60" s="633"/>
+      <c r="I60" s="675"/>
+      <c r="J60" s="676"/>
       <c r="K60" s="69"/>
       <c r="L60" s="253"/>
       <c r="M60" s="69"/>
@@ -42548,8 +47562,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I61" s="632"/>
-      <c r="J61" s="633"/>
+      <c r="I61" s="675"/>
+      <c r="J61" s="676"/>
       <c r="K61" s="69"/>
       <c r="L61" s="253"/>
       <c r="M61" s="69"/>
@@ -42568,8 +47582,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I62" s="632"/>
-      <c r="J62" s="633"/>
+      <c r="I62" s="675"/>
+      <c r="J62" s="676"/>
       <c r="K62" s="34"/>
       <c r="L62" s="118"/>
       <c r="M62" s="34"/>
@@ -42588,8 +47602,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I63" s="632"/>
-      <c r="J63" s="633"/>
+      <c r="I63" s="675"/>
+      <c r="J63" s="676"/>
       <c r="K63" s="34"/>
       <c r="L63" s="118"/>
       <c r="M63" s="34"/>
@@ -42608,8 +47622,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I64" s="632"/>
-      <c r="J64" s="633"/>
+      <c r="I64" s="675"/>
+      <c r="J64" s="676"/>
       <c r="K64" s="34"/>
       <c r="L64" s="118"/>
       <c r="M64" s="34"/>
@@ -42628,8 +47642,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I65" s="632"/>
-      <c r="J65" s="633"/>
+      <c r="I65" s="675"/>
+      <c r="J65" s="676"/>
       <c r="K65" s="34"/>
       <c r="L65" s="118"/>
       <c r="M65" s="34"/>
@@ -42648,8 +47662,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I66" s="632"/>
-      <c r="J66" s="633"/>
+      <c r="I66" s="675"/>
+      <c r="J66" s="676"/>
       <c r="K66" s="34"/>
       <c r="L66" s="118"/>
       <c r="M66" s="34"/>
@@ -42668,8 +47682,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I67" s="632"/>
-      <c r="J67" s="633"/>
+      <c r="I67" s="675"/>
+      <c r="J67" s="676"/>
       <c r="K67" s="34"/>
       <c r="L67" s="118"/>
       <c r="M67" s="34"/>
@@ -42688,8 +47702,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I68" s="632"/>
-      <c r="J68" s="633"/>
+      <c r="I68" s="675"/>
+      <c r="J68" s="676"/>
       <c r="K68" s="69"/>
       <c r="L68" s="254"/>
       <c r="M68" s="69"/>
@@ -42708,8 +47722,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I69" s="632"/>
-      <c r="J69" s="633"/>
+      <c r="I69" s="675"/>
+      <c r="J69" s="676"/>
       <c r="K69" s="69"/>
       <c r="L69" s="254"/>
       <c r="M69" s="69"/>
@@ -42728,8 +47742,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I70" s="632"/>
-      <c r="J70" s="633"/>
+      <c r="I70" s="675"/>
+      <c r="J70" s="676"/>
       <c r="K70" s="69"/>
       <c r="L70" s="254"/>
       <c r="M70" s="69"/>
@@ -42748,8 +47762,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I71" s="632"/>
-      <c r="J71" s="633"/>
+      <c r="I71" s="675"/>
+      <c r="J71" s="676"/>
       <c r="K71" s="69"/>
       <c r="L71" s="254"/>
       <c r="M71" s="69"/>
@@ -42768,8 +47782,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I72" s="632"/>
-      <c r="J72" s="633"/>
+      <c r="I72" s="675"/>
+      <c r="J72" s="676"/>
       <c r="K72" s="69"/>
       <c r="L72" s="254"/>
       <c r="M72" s="69"/>
@@ -42788,8 +47802,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I73" s="632"/>
-      <c r="J73" s="633"/>
+      <c r="I73" s="675"/>
+      <c r="J73" s="676"/>
       <c r="K73" s="69"/>
       <c r="L73" s="254"/>
       <c r="M73" s="69"/>
@@ -42808,8 +47822,8 @@
         <f>F73+C74-E74</f>
         <v>0</v>
       </c>
-      <c r="I74" s="632"/>
-      <c r="J74" s="633"/>
+      <c r="I74" s="675"/>
+      <c r="J74" s="676"/>
       <c r="K74" s="69"/>
       <c r="L74" s="254"/>
       <c r="M74" s="69"/>
@@ -42828,8 +47842,8 @@
         <f>F74+C75-E75</f>
         <v>0</v>
       </c>
-      <c r="I75" s="632"/>
-      <c r="J75" s="633"/>
+      <c r="I75" s="675"/>
+      <c r="J75" s="676"/>
       <c r="K75" s="69"/>
       <c r="L75" s="254"/>
       <c r="M75" s="69"/>
@@ -42848,8 +47862,8 @@
         <f>F75+C76-E76</f>
         <v>0</v>
       </c>
-      <c r="I76" s="632"/>
-      <c r="J76" s="633"/>
+      <c r="I76" s="675"/>
+      <c r="J76" s="676"/>
       <c r="K76" s="69"/>
       <c r="L76" s="254"/>
       <c r="M76" s="69"/>
@@ -42868,8 +47882,8 @@
         <f>F76+C77-E77</f>
         <v>0</v>
       </c>
-      <c r="I77" s="632"/>
-      <c r="J77" s="633"/>
+      <c r="I77" s="675"/>
+      <c r="J77" s="676"/>
       <c r="K77" s="69"/>
       <c r="L77" s="254"/>
       <c r="M77" s="69"/>
@@ -42890,8 +47904,8 @@
         <f>F77+C78-E78</f>
         <v>0</v>
       </c>
-      <c r="I78" s="634"/>
-      <c r="J78" s="635"/>
+      <c r="I78" s="677"/>
+      <c r="J78" s="678"/>
       <c r="K78" s="151">
         <v>0</v>
       </c>
@@ -42936,7 +47950,7 @@
       <c r="C80" s="214"/>
       <c r="D80" s="256"/>
       <c r="E80" s="3"/>
-      <c r="F80" s="607" t="s">
+      <c r="F80" s="650" t="s">
         <v>207</v>
       </c>
       <c r="K80" s="1"/>
@@ -42948,7 +47962,7 @@
       <c r="C81" s="1"/>
       <c r="D81" s="256"/>
       <c r="E81" s="3"/>
-      <c r="F81" s="608"/>
+      <c r="F81" s="651"/>
       <c r="K81" s="1"/>
       <c r="M81" s="3"/>
       <c r="N81" s="1"/>
@@ -43236,23 +48250,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="569"/>
-      <c r="C1" s="611" t="s">
+      <c r="B1" s="588"/>
+      <c r="C1" s="654" t="s">
         <v>646</v>
       </c>
-      <c r="D1" s="612"/>
-      <c r="E1" s="612"/>
-      <c r="F1" s="612"/>
-      <c r="G1" s="612"/>
-      <c r="H1" s="612"/>
-      <c r="I1" s="612"/>
-      <c r="J1" s="612"/>
-      <c r="K1" s="612"/>
-      <c r="L1" s="612"/>
-      <c r="M1" s="612"/>
+      <c r="D1" s="655"/>
+      <c r="E1" s="655"/>
+      <c r="F1" s="655"/>
+      <c r="G1" s="655"/>
+      <c r="H1" s="655"/>
+      <c r="I1" s="655"/>
+      <c r="J1" s="655"/>
+      <c r="K1" s="655"/>
+      <c r="L1" s="655"/>
+      <c r="M1" s="655"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="570"/>
+      <c r="B2" s="589"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -43262,24 +48276,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="573" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="574"/>
+      <c r="B3" s="592" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="593"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="575" t="s">
+      <c r="H3" s="594" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="575"/>
+      <c r="I3" s="594"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="599" t="s">
+      <c r="P3" s="631" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="609" t="s">
+      <c r="R3" s="652" t="s">
         <v>216</v>
       </c>
     </row>
@@ -43294,14 +48308,14 @@
       <c r="D4" s="18">
         <v>44591</v>
       </c>
-      <c r="E4" s="576" t="s">
+      <c r="E4" s="595" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="577"/>
-      <c r="H4" s="578" t="s">
+      <c r="F4" s="596"/>
+      <c r="H4" s="597" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="579"/>
+      <c r="I4" s="598"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -43311,15 +48325,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="600"/>
+      <c r="P4" s="632"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="610"/>
-      <c r="W4" s="582" t="s">
+      <c r="R4" s="653"/>
+      <c r="W4" s="641" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="582"/>
+      <c r="X4" s="641"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -43370,8 +48384,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="324"/>
-      <c r="W5" s="582"/>
-      <c r="X5" s="582"/>
+      <c r="W5" s="641"/>
+      <c r="X5" s="641"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -44132,7 +49146,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="586">
+      <c r="W19" s="645">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -44184,7 +49198,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="587"/>
+      <c r="W20" s="646"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -44233,8 +49247,8 @@
         <v>18072</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="588"/>
-      <c r="X21" s="588"/>
+      <c r="W21" s="647"/>
+      <c r="X21" s="647"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -44333,8 +49347,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="589"/>
-      <c r="X23" s="589"/>
+      <c r="W23" s="648"/>
+      <c r="X23" s="648"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -44389,8 +49403,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="589"/>
-      <c r="X24" s="589"/>
+      <c r="W24" s="648"/>
+      <c r="X24" s="648"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -44438,8 +49452,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="590"/>
-      <c r="X25" s="590"/>
+      <c r="W25" s="649"/>
+      <c r="X25" s="649"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -44487,8 +49501,8 @@
       <c r="R26" s="319">
         <v>0</v>
       </c>
-      <c r="W26" s="590"/>
-      <c r="X26" s="590"/>
+      <c r="W26" s="649"/>
+      <c r="X26" s="649"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -44536,9 +49550,9 @@
       <c r="R27" s="319">
         <v>0</v>
       </c>
-      <c r="W27" s="583"/>
-      <c r="X27" s="584"/>
-      <c r="Y27" s="585"/>
+      <c r="W27" s="642"/>
+      <c r="X27" s="643"/>
+      <c r="Y27" s="644"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -44586,9 +49600,9 @@
       <c r="R28" s="319">
         <v>0</v>
       </c>
-      <c r="W28" s="584"/>
-      <c r="X28" s="584"/>
-      <c r="Y28" s="585"/>
+      <c r="W28" s="643"/>
+      <c r="X28" s="643"/>
+      <c r="Y28" s="644"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -44929,11 +49943,11 @@
       <c r="J36" s="266"/>
       <c r="K36" s="250"/>
       <c r="L36" s="44"/>
-      <c r="M36" s="601">
+      <c r="M36" s="633">
         <f>SUM(M5:M35)</f>
         <v>2143864.4900000002</v>
       </c>
-      <c r="N36" s="603">
+      <c r="N36" s="635">
         <f>SUM(N5:N35)</f>
         <v>791108</v>
       </c>
@@ -44941,7 +49955,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="636">
+      <c r="Q36" s="679">
         <f>SUM(Q5:Q35)</f>
         <v>111.43999999999505</v>
       </c>
@@ -44966,13 +49980,13 @@
       <c r="L37" s="61">
         <v>16518.78</v>
       </c>
-      <c r="M37" s="602"/>
-      <c r="N37" s="604"/>
+      <c r="M37" s="634"/>
+      <c r="N37" s="636"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="637"/>
+      <c r="Q37" s="680"/>
       <c r="R37" s="227" t="s">
         <v>7</v>
       </c>
@@ -45022,11 +50036,11 @@
       <c r="L39" s="61">
         <v>14981.03</v>
       </c>
-      <c r="M39" s="638">
+      <c r="M39" s="681">
         <f>M36+N36</f>
         <v>2934972.49</v>
       </c>
-      <c r="N39" s="639"/>
+      <c r="N39" s="682"/>
       <c r="P39" s="34">
         <f>SUM(P5:P38)</f>
         <v>3450079.65</v>
@@ -45274,26 +50288,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="556" t="s">
+      <c r="H52" s="610" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="557"/>
+      <c r="I52" s="611"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="558">
+      <c r="K52" s="612">
         <f>I50+L50</f>
         <v>197471.8</v>
       </c>
-      <c r="L52" s="591"/>
+      <c r="L52" s="639"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="562" t="s">
+      <c r="D53" s="616" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="562"/>
+      <c r="E53" s="616"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
         <v>2057786.11</v>
@@ -45302,22 +50316,22 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="592" t="s">
+      <c r="D54" s="640" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="592"/>
+      <c r="E54" s="640"/>
       <c r="F54" s="111">
         <v>-1702928.14</v>
       </c>
-      <c r="I54" s="563" t="s">
+      <c r="I54" s="617" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="564"/>
-      <c r="K54" s="565">
+      <c r="J54" s="618"/>
+      <c r="K54" s="619">
         <f>F56+F57+F58</f>
         <v>1147965.3400000003</v>
       </c>
-      <c r="L54" s="565"/>
+      <c r="L54" s="619"/>
       <c r="M54" s="404"/>
       <c r="N54" s="404"/>
       <c r="O54" s="404"/>
@@ -45358,11 +50372,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="567">
+      <c r="K56" s="621">
         <f>-C4</f>
         <v>-1149740.4099999999</v>
       </c>
-      <c r="L56" s="568"/>
+      <c r="L56" s="622"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -45379,22 +50393,22 @@
       <c r="C58" s="112">
         <v>44619</v>
       </c>
-      <c r="D58" s="545" t="s">
+      <c r="D58" s="599" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="546"/>
+      <c r="E58" s="600"/>
       <c r="F58" s="113">
         <v>1266568.45</v>
       </c>
-      <c r="I58" s="547" t="s">
+      <c r="I58" s="601" t="s">
         <v>97</v>
       </c>
-      <c r="J58" s="548"/>
-      <c r="K58" s="549">
+      <c r="J58" s="602"/>
+      <c r="K58" s="603">
         <f>K54+K56</f>
         <v>-1775.0699999995995</v>
       </c>
-      <c r="L58" s="549"/>
+      <c r="L58" s="603"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -45538,20 +50552,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="W26:X26"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="W4:X5"/>
-    <mergeCell ref="W19:W20"/>
-    <mergeCell ref="W21:X21"/>
-    <mergeCell ref="W23:X24"/>
-    <mergeCell ref="W25:X25"/>
     <mergeCell ref="D58:E58"/>
     <mergeCell ref="I58:J58"/>
     <mergeCell ref="K58:L58"/>
@@ -45568,6 +50568,20 @@
     <mergeCell ref="K54:L54"/>
     <mergeCell ref="K56:L56"/>
     <mergeCell ref="M39:N39"/>
+    <mergeCell ref="W26:X26"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="W4:X5"/>
+    <mergeCell ref="W19:W20"/>
+    <mergeCell ref="W21:X21"/>
+    <mergeCell ref="W23:X24"/>
+    <mergeCell ref="W25:X25"/>
   </mergeCells>
   <pageMargins left="0.23" right="0.23" top="0.4" bottom="0.28000000000000003" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #05  MAYO  2022/BALANCE    ZAVALETA   MAYO    2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #05  MAYO  2022/BALANCE    ZAVALETA   MAYO    2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3690" yWindow="0" windowWidth="16605" windowHeight="10920" firstSheet="14" activeTab="15"/>
+    <workbookView xWindow="3690" yWindow="0" windowWidth="16605" windowHeight="10920" firstSheet="13" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="OCTUBRE      2 0 2 1     " sheetId="1" r:id="rId1"/>
@@ -627,7 +627,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1450" uniqueCount="774">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1463" uniqueCount="784">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -2930,9 +2930,6 @@
     <t>DEBE ZAVALETA</t>
   </si>
   <si>
-    <t>ERIKA</t>
-  </si>
-  <si>
     <t>BALANCE      ABASTO 4 CARNES    Z A V A L E T A      M A Y O           2 0 2 2</t>
   </si>
   <si>
@@ -2949,6 +2946,39 @@
   </si>
   <si>
     <t xml:space="preserve">POLLO   </t>
+  </si>
+  <si>
+    <t>pollo--Longaniza-quesos</t>
+  </si>
+  <si>
+    <t>jamones-Pollo-quesos</t>
+  </si>
+  <si>
+    <t>NOMINA #  19</t>
+  </si>
+  <si>
+    <t>NOMINA # 19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QUESOS-SALCHICHONERIA </t>
+  </si>
+  <si>
+    <t>SALCHICHONERIA-POLLO-CREMA-QUESOS-ROASBEEF-SALSAS</t>
+  </si>
+  <si>
+    <t>ODELPA</t>
+  </si>
+  <si>
+    <t>SALCHICHA-CHORIZO</t>
+  </si>
+  <si>
+    <t>QUESOS-POLLO-LONGANIZA-JAMONES-CHORIZO</t>
+  </si>
+  <si>
+    <t>ARABE-POLLO-QUESOS</t>
+  </si>
+  <si>
+    <t>QUESOS--SALSAS--POLLO</t>
   </si>
 </sst>
 </file>
@@ -3468,13 +3498,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
@@ -3486,6 +3509,13 @@
       <b/>
       <sz val="8"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -4881,7 +4911,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="717">
+  <cellXfs count="722">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -5904,7 +5934,6 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="47" fillId="6" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="17" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5967,18 +5996,12 @@
     <xf numFmtId="44" fontId="16" fillId="16" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="44" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="61" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="63" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="63" fillId="0" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="63" fillId="0" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="16" fillId="6" borderId="63" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="64" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="44" fontId="64" fillId="0" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="64" fillId="0" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="64" fillId="0" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="63" fillId="0" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -6066,11 +6089,31 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="166" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -6468,6 +6511,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF99CCFF"/>
       <color rgb="FF0000FF"/>
       <color rgb="FFCC99FF"/>
       <color rgb="FFFFCCFF"/>
@@ -6477,7 +6521,6 @@
       <color rgb="FFCCFF66"/>
       <color rgb="FF00FF00"/>
       <color rgb="FFCC3399"/>
-      <color rgb="FF990033"/>
     </mruColors>
   </colors>
   <extLst>
@@ -10408,23 +10451,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="588"/>
-      <c r="C1" s="590" t="s">
+      <c r="B1" s="593"/>
+      <c r="C1" s="595" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="591"/>
-      <c r="E1" s="591"/>
-      <c r="F1" s="591"/>
-      <c r="G1" s="591"/>
-      <c r="H1" s="591"/>
-      <c r="I1" s="591"/>
-      <c r="J1" s="591"/>
-      <c r="K1" s="591"/>
-      <c r="L1" s="591"/>
-      <c r="M1" s="591"/>
+      <c r="D1" s="596"/>
+      <c r="E1" s="596"/>
+      <c r="F1" s="596"/>
+      <c r="G1" s="596"/>
+      <c r="H1" s="596"/>
+      <c r="I1" s="596"/>
+      <c r="J1" s="596"/>
+      <c r="K1" s="596"/>
+      <c r="L1" s="596"/>
+      <c r="M1" s="596"/>
     </row>
     <row r="2" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="589"/>
+      <c r="B2" s="594"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -10434,17 +10477,17 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:19" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="592" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="593"/>
+      <c r="B3" s="597" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="598"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="594" t="s">
+      <c r="H3" s="599" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="594"/>
+      <c r="I3" s="599"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
@@ -10458,14 +10501,14 @@
         <v>0</v>
       </c>
       <c r="D4" s="18"/>
-      <c r="E4" s="595" t="s">
+      <c r="E4" s="600" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="596"/>
-      <c r="H4" s="597" t="s">
+      <c r="F4" s="601"/>
+      <c r="H4" s="602" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="598"/>
+      <c r="I4" s="603"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -10475,10 +10518,10 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="604" t="s">
+      <c r="P4" s="609" t="s">
         <v>6</v>
       </c>
-      <c r="Q4" s="605"/>
+      <c r="Q4" s="610"/>
     </row>
     <row r="5" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -11919,11 +11962,11 @@
       <c r="J39" s="60"/>
       <c r="K39" s="177"/>
       <c r="L39" s="61"/>
-      <c r="M39" s="606">
+      <c r="M39" s="611">
         <f>SUM(M5:M38)</f>
         <v>247061</v>
       </c>
-      <c r="N39" s="608">
+      <c r="N39" s="613">
         <f>SUM(N5:N38)</f>
         <v>172863</v>
       </c>
@@ -11949,8 +11992,8 @@
       <c r="J40" s="60"/>
       <c r="K40" s="41"/>
       <c r="L40" s="61"/>
-      <c r="M40" s="607"/>
-      <c r="N40" s="609"/>
+      <c r="M40" s="612"/>
+      <c r="N40" s="614"/>
       <c r="P40" s="34"/>
       <c r="Q40" s="9"/>
     </row>
@@ -12165,29 +12208,29 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="610" t="s">
+      <c r="H52" s="615" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="611"/>
+      <c r="I52" s="616"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="612">
+      <c r="K52" s="617">
         <f>I50+L50</f>
         <v>53873.49</v>
       </c>
-      <c r="L52" s="613"/>
-      <c r="M52" s="614">
+      <c r="L52" s="618"/>
+      <c r="M52" s="619">
         <f>N39+M39</f>
         <v>419924</v>
       </c>
-      <c r="N52" s="615"/>
+      <c r="N52" s="620"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D53" s="616" t="s">
+      <c r="D53" s="621" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="616"/>
+      <c r="E53" s="621"/>
       <c r="F53" s="101">
         <f>F50-K52-C50</f>
         <v>471038.61</v>
@@ -12198,22 +12241,22 @@
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="616" t="s">
+      <c r="D54" s="621" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="616"/>
+      <c r="E54" s="621"/>
       <c r="F54" s="96">
         <v>-549976.4</v>
       </c>
-      <c r="I54" s="617" t="s">
+      <c r="I54" s="622" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="618"/>
-      <c r="K54" s="619">
+      <c r="J54" s="623"/>
+      <c r="K54" s="624">
         <f>F56+F57+F58</f>
         <v>-24577.400000000023</v>
       </c>
-      <c r="L54" s="620"/>
+      <c r="L54" s="625"/>
       <c r="P54" s="34"/>
       <c r="Q54" s="9"/>
     </row>
@@ -12246,11 +12289,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="621">
+      <c r="K56" s="626">
         <f>-C4</f>
         <v>0</v>
       </c>
-      <c r="L56" s="622"/>
+      <c r="L56" s="627"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -12267,22 +12310,22 @@
       <c r="C58" s="112">
         <v>44507</v>
       </c>
-      <c r="D58" s="599" t="s">
+      <c r="D58" s="604" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="600"/>
+      <c r="E58" s="605"/>
       <c r="F58" s="113">
         <v>567389.35</v>
       </c>
-      <c r="I58" s="601" t="s">
+      <c r="I58" s="606" t="s">
         <v>97</v>
       </c>
-      <c r="J58" s="602"/>
-      <c r="K58" s="603">
+      <c r="J58" s="607"/>
+      <c r="K58" s="608">
         <f>K54+K56</f>
         <v>-24577.400000000023</v>
       </c>
-      <c r="L58" s="603"/>
+      <c r="L58" s="608"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -14906,10 +14949,10 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I76" s="684" t="s">
+      <c r="I76" s="689" t="s">
         <v>597</v>
       </c>
-      <c r="J76" s="685"/>
+      <c r="J76" s="690"/>
       <c r="K76" s="69"/>
       <c r="L76" s="148"/>
       <c r="M76" s="69"/>
@@ -14928,8 +14971,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I77" s="686"/>
-      <c r="J77" s="687"/>
+      <c r="I77" s="691"/>
+      <c r="J77" s="692"/>
       <c r="K77" s="69"/>
       <c r="L77" s="148"/>
       <c r="M77" s="69"/>
@@ -14996,7 +15039,7 @@
       <c r="C80" s="214"/>
       <c r="D80" s="256"/>
       <c r="E80" s="3"/>
-      <c r="F80" s="650" t="s">
+      <c r="F80" s="655" t="s">
         <v>207</v>
       </c>
       <c r="K80" s="1"/>
@@ -15011,7 +15054,7 @@
       <c r="C81" s="463"/>
       <c r="D81" s="464"/>
       <c r="E81" s="3"/>
-      <c r="F81" s="651"/>
+      <c r="F81" s="656"/>
       <c r="K81" s="1"/>
       <c r="L81" s="97"/>
       <c r="M81" s="3"/>
@@ -15019,10 +15062,10 @@
     </row>
     <row r="82" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A82" s="435"/>
-      <c r="B82" s="683" t="s">
+      <c r="B82" s="688" t="s">
         <v>595</v>
       </c>
-      <c r="C82" s="683"/>
+      <c r="C82" s="688"/>
       <c r="I82"/>
       <c r="J82" s="194"/>
     </row>
@@ -15304,23 +15347,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="588"/>
-      <c r="C1" s="654" t="s">
+      <c r="B1" s="593"/>
+      <c r="C1" s="659" t="s">
         <v>451</v>
       </c>
-      <c r="D1" s="655"/>
-      <c r="E1" s="655"/>
-      <c r="F1" s="655"/>
-      <c r="G1" s="655"/>
-      <c r="H1" s="655"/>
-      <c r="I1" s="655"/>
-      <c r="J1" s="655"/>
-      <c r="K1" s="655"/>
-      <c r="L1" s="655"/>
-      <c r="M1" s="655"/>
+      <c r="D1" s="660"/>
+      <c r="E1" s="660"/>
+      <c r="F1" s="660"/>
+      <c r="G1" s="660"/>
+      <c r="H1" s="660"/>
+      <c r="I1" s="660"/>
+      <c r="J1" s="660"/>
+      <c r="K1" s="660"/>
+      <c r="L1" s="660"/>
+      <c r="M1" s="660"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="589"/>
+      <c r="B2" s="594"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -15330,24 +15373,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="592" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="593"/>
+      <c r="B3" s="597" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="598"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="594" t="s">
+      <c r="H3" s="599" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="594"/>
+      <c r="I3" s="599"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="631" t="s">
+      <c r="P3" s="636" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="652" t="s">
+      <c r="R3" s="657" t="s">
         <v>216</v>
       </c>
     </row>
@@ -15362,14 +15405,14 @@
       <c r="D4" s="18">
         <v>44619</v>
       </c>
-      <c r="E4" s="595" t="s">
+      <c r="E4" s="600" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="596"/>
-      <c r="H4" s="597" t="s">
+      <c r="F4" s="601"/>
+      <c r="H4" s="602" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="598"/>
+      <c r="I4" s="603"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -15379,15 +15422,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="632"/>
+      <c r="P4" s="637"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="653"/>
-      <c r="W4" s="641" t="s">
+      <c r="R4" s="658"/>
+      <c r="W4" s="646" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="641"/>
+      <c r="X4" s="646"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -15438,8 +15481,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="324"/>
-      <c r="W5" s="641"/>
-      <c r="X5" s="641"/>
+      <c r="W5" s="646"/>
+      <c r="X5" s="646"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -16202,7 +16245,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="645">
+      <c r="W19" s="650">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -16254,7 +16297,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="646"/>
+      <c r="W20" s="651"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -16303,8 +16346,8 @@
         <v>0</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="647"/>
-      <c r="X21" s="647"/>
+      <c r="W21" s="652"/>
+      <c r="X21" s="652"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -16404,8 +16447,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="648"/>
-      <c r="X23" s="648"/>
+      <c r="W23" s="653"/>
+      <c r="X23" s="653"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -16460,8 +16503,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="648"/>
-      <c r="X24" s="648"/>
+      <c r="W24" s="653"/>
+      <c r="X24" s="653"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -16509,8 +16552,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="649"/>
-      <c r="X25" s="649"/>
+      <c r="W25" s="654"/>
+      <c r="X25" s="654"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -16559,8 +16602,8 @@
       <c r="R26" s="319">
         <v>0</v>
       </c>
-      <c r="W26" s="649"/>
-      <c r="X26" s="649"/>
+      <c r="W26" s="654"/>
+      <c r="X26" s="654"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -16608,9 +16651,9 @@
       <c r="R27" s="388">
         <v>170</v>
       </c>
-      <c r="W27" s="642"/>
-      <c r="X27" s="643"/>
-      <c r="Y27" s="644"/>
+      <c r="W27" s="647"/>
+      <c r="X27" s="648"/>
+      <c r="Y27" s="649"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -16658,9 +16701,9 @@
       <c r="R28" s="388">
         <v>37374.36</v>
       </c>
-      <c r="W28" s="643"/>
-      <c r="X28" s="643"/>
-      <c r="Y28" s="644"/>
+      <c r="W28" s="648"/>
+      <c r="X28" s="648"/>
+      <c r="Y28" s="649"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -16992,11 +17035,11 @@
       <c r="J36" s="266"/>
       <c r="K36" s="250"/>
       <c r="L36" s="44"/>
-      <c r="M36" s="633">
+      <c r="M36" s="638">
         <f>SUM(M5:M35)</f>
         <v>2220612.02</v>
       </c>
-      <c r="N36" s="635">
+      <c r="N36" s="640">
         <f>SUM(N5:N35)</f>
         <v>833865</v>
       </c>
@@ -17004,7 +17047,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="679">
+      <c r="Q36" s="684">
         <f>SUM(Q5:Q35)</f>
         <v>8.3000000000320142</v>
       </c>
@@ -17029,13 +17072,13 @@
       <c r="J37" s="60"/>
       <c r="K37" s="41"/>
       <c r="L37" s="61"/>
-      <c r="M37" s="634"/>
-      <c r="N37" s="636"/>
+      <c r="M37" s="639"/>
+      <c r="N37" s="641"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="680"/>
+      <c r="Q37" s="685"/>
       <c r="R37" s="227" t="s">
         <v>7</v>
       </c>
@@ -17080,11 +17123,11 @@
       <c r="J39" s="60"/>
       <c r="K39" s="177"/>
       <c r="L39" s="61"/>
-      <c r="M39" s="681">
+      <c r="M39" s="686">
         <f>M36+N36</f>
         <v>3054477.02</v>
       </c>
-      <c r="N39" s="682"/>
+      <c r="N39" s="687"/>
       <c r="P39" s="34">
         <f>SUM(P5:P38)</f>
         <v>3627989.66</v>
@@ -17344,26 +17387,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="610" t="s">
+      <c r="H52" s="615" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="611"/>
+      <c r="I52" s="616"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="612">
+      <c r="K52" s="617">
         <f>I50+L50</f>
         <v>217159.4</v>
       </c>
-      <c r="L52" s="639"/>
+      <c r="L52" s="644"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="616" t="s">
+      <c r="D53" s="621" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="616"/>
+      <c r="E53" s="621"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
         <v>1453241.94</v>
@@ -17372,22 +17415,22 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="640" t="s">
+      <c r="D54" s="645" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="640"/>
+      <c r="E54" s="645"/>
       <c r="F54" s="111">
         <v>-1360260.32</v>
       </c>
-      <c r="I54" s="617" t="s">
+      <c r="I54" s="622" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="618"/>
-      <c r="K54" s="619">
+      <c r="J54" s="623"/>
+      <c r="K54" s="624">
         <f>F56+F57+F58</f>
         <v>1797288.1999999997</v>
       </c>
-      <c r="L54" s="619"/>
+      <c r="L54" s="624"/>
       <c r="M54" s="404"/>
       <c r="N54" s="404"/>
       <c r="O54" s="404"/>
@@ -17428,11 +17471,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="621">
+      <c r="K56" s="626">
         <f>-C4</f>
         <v>-1266568.45</v>
       </c>
-      <c r="L56" s="622"/>
+      <c r="L56" s="627"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -17449,22 +17492,22 @@
       <c r="C58" s="112">
         <v>44647</v>
       </c>
-      <c r="D58" s="599" t="s">
+      <c r="D58" s="604" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="600"/>
+      <c r="E58" s="605"/>
       <c r="F58" s="113">
         <v>1792817.68</v>
       </c>
-      <c r="I58" s="601" t="s">
+      <c r="I58" s="606" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="602"/>
-      <c r="K58" s="603">
+      <c r="J58" s="607"/>
+      <c r="K58" s="608">
         <f>K54+K56</f>
         <v>530719.74999999977</v>
       </c>
-      <c r="L58" s="603"/>
+      <c r="L58" s="608"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -19905,7 +19948,7 @@
       <c r="C80" s="214"/>
       <c r="D80" s="256"/>
       <c r="E80" s="3"/>
-      <c r="F80" s="650" t="s">
+      <c r="F80" s="655" t="s">
         <v>207</v>
       </c>
       <c r="K80" s="1"/>
@@ -19918,7 +19961,7 @@
       <c r="C81" s="1"/>
       <c r="D81" s="256"/>
       <c r="E81" s="3"/>
-      <c r="F81" s="651"/>
+      <c r="F81" s="656"/>
       <c r="K81" s="1"/>
       <c r="L81" s="97"/>
       <c r="M81" s="3"/>
@@ -19938,20 +19981,20 @@
     <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" s="456"/>
       <c r="B83" s="442"/>
-      <c r="I83" s="688" t="s">
+      <c r="I83" s="693" t="s">
         <v>594</v>
       </c>
-      <c r="J83" s="689"/>
+      <c r="J83" s="694"/>
     </row>
     <row r="84" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="518" t="s">
+      <c r="A84" s="517" t="s">
         <v>598</v>
       </c>
-      <c r="B84" s="519"/>
-      <c r="C84" s="520"/>
+      <c r="B84" s="518"/>
+      <c r="C84" s="519"/>
       <c r="D84" s="492"/>
-      <c r="I84" s="690"/>
-      <c r="J84" s="691"/>
+      <c r="I84" s="695"/>
+      <c r="J84" s="696"/>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" s="456"/>
@@ -19970,8 +20013,8 @@
       <c r="N86"/>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A87" s="514"/>
-      <c r="B87" s="515"/>
+      <c r="A87" s="513"/>
+      <c r="B87" s="514"/>
       <c r="C87" s="129"/>
       <c r="F87"/>
       <c r="I87"/>
@@ -19979,8 +20022,8 @@
       <c r="N87"/>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A88" s="514"/>
-      <c r="B88" s="515"/>
+      <c r="A88" s="513"/>
+      <c r="B88" s="514"/>
       <c r="C88" s="129"/>
       <c r="F88"/>
       <c r="I88"/>
@@ -19988,8 +20031,8 @@
       <c r="N88"/>
     </row>
     <row r="89" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A89" s="516"/>
-      <c r="B89" s="517"/>
+      <c r="A89" s="515"/>
+      <c r="B89" s="516"/>
       <c r="C89" s="233"/>
       <c r="F89"/>
       <c r="I89"/>
@@ -19997,8 +20040,8 @@
       <c r="N89"/>
     </row>
     <row r="90" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A90" s="516"/>
-      <c r="B90" s="517"/>
+      <c r="A90" s="515"/>
+      <c r="B90" s="516"/>
       <c r="C90" s="233"/>
       <c r="F90"/>
       <c r="I90"/>
@@ -20006,8 +20049,8 @@
       <c r="N90"/>
     </row>
     <row r="91" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A91" s="516"/>
-      <c r="B91" s="517"/>
+      <c r="A91" s="515"/>
+      <c r="B91" s="516"/>
       <c r="C91" s="233"/>
       <c r="F91"/>
       <c r="I91"/>
@@ -20015,8 +20058,8 @@
       <c r="N91"/>
     </row>
     <row r="92" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A92" s="516"/>
-      <c r="B92" s="517"/>
+      <c r="A92" s="515"/>
+      <c r="B92" s="516"/>
       <c r="C92" s="233"/>
       <c r="F92"/>
       <c r="I92"/>
@@ -20024,8 +20067,8 @@
       <c r="N92"/>
     </row>
     <row r="93" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A93" s="516"/>
-      <c r="B93" s="517"/>
+      <c r="A93" s="515"/>
+      <c r="B93" s="516"/>
       <c r="C93" s="233"/>
       <c r="F93"/>
       <c r="I93"/>
@@ -20033,8 +20076,8 @@
       <c r="N93"/>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A94" s="514"/>
-      <c r="B94" s="515"/>
+      <c r="A94" s="513"/>
+      <c r="B94" s="514"/>
       <c r="C94" s="129"/>
       <c r="E94"/>
       <c r="F94"/>
@@ -20044,8 +20087,8 @@
       <c r="N94"/>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A95" s="514"/>
-      <c r="B95" s="515"/>
+      <c r="A95" s="513"/>
+      <c r="B95" s="514"/>
       <c r="C95" s="129"/>
       <c r="E95"/>
       <c r="F95"/>
@@ -20193,8 +20236,8 @@
   </sheetPr>
   <dimension ref="A1:Z80"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView topLeftCell="G19" workbookViewId="0">
+      <selection activeCell="P44" sqref="P44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -20223,23 +20266,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="588"/>
-      <c r="C1" s="654" t="s">
+      <c r="B1" s="593"/>
+      <c r="C1" s="659" t="s">
         <v>620</v>
       </c>
-      <c r="D1" s="655"/>
-      <c r="E1" s="655"/>
-      <c r="F1" s="655"/>
-      <c r="G1" s="655"/>
-      <c r="H1" s="655"/>
-      <c r="I1" s="655"/>
-      <c r="J1" s="655"/>
-      <c r="K1" s="655"/>
-      <c r="L1" s="655"/>
-      <c r="M1" s="655"/>
+      <c r="D1" s="660"/>
+      <c r="E1" s="660"/>
+      <c r="F1" s="660"/>
+      <c r="G1" s="660"/>
+      <c r="H1" s="660"/>
+      <c r="I1" s="660"/>
+      <c r="J1" s="660"/>
+      <c r="K1" s="660"/>
+      <c r="L1" s="660"/>
+      <c r="M1" s="660"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="589"/>
+      <c r="B2" s="594"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -20249,24 +20292,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="592" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="593"/>
+      <c r="B3" s="597" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="598"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="594" t="s">
+      <c r="H3" s="599" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="594"/>
+      <c r="I3" s="599"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="631" t="s">
+      <c r="P3" s="636" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="652" t="s">
+      <c r="R3" s="657" t="s">
         <v>216</v>
       </c>
     </row>
@@ -20281,14 +20324,14 @@
       <c r="D4" s="18">
         <v>44647</v>
       </c>
-      <c r="E4" s="595" t="s">
+      <c r="E4" s="600" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="596"/>
-      <c r="H4" s="597" t="s">
+      <c r="F4" s="601"/>
+      <c r="H4" s="602" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="598"/>
+      <c r="I4" s="603"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -20298,15 +20341,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="632"/>
+      <c r="P4" s="637"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="653"/>
-      <c r="W4" s="641" t="s">
+      <c r="R4" s="658"/>
+      <c r="W4" s="646" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="641"/>
+      <c r="X4" s="646"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -20357,8 +20400,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="324"/>
-      <c r="W5" s="641"/>
-      <c r="X5" s="641"/>
+      <c r="W5" s="646"/>
+      <c r="X5" s="646"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -21117,7 +21160,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="645">
+      <c r="W19" s="650">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -21169,7 +21212,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="646"/>
+      <c r="W20" s="651"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -21218,8 +21261,8 @@
         <v>0</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="647"/>
-      <c r="X21" s="647"/>
+      <c r="W21" s="652"/>
+      <c r="X21" s="652"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -21316,8 +21359,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="648"/>
-      <c r="X23" s="648"/>
+      <c r="W23" s="653"/>
+      <c r="X23" s="653"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -21372,8 +21415,8 @@
         <v>642</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="648"/>
-      <c r="X24" s="648"/>
+      <c r="W24" s="653"/>
+      <c r="X24" s="653"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -21419,8 +21462,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="649"/>
-      <c r="X25" s="649"/>
+      <c r="W25" s="654"/>
+      <c r="X25" s="654"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -21451,14 +21494,14 @@
       <c r="J26" s="37"/>
       <c r="K26" s="173"/>
       <c r="L26" s="45"/>
-      <c r="M26" s="540">
+      <c r="M26" s="539">
         <f>51054.31+554929.3</f>
         <v>605983.6100000001</v>
       </c>
       <c r="N26" s="33">
         <v>57122</v>
       </c>
-      <c r="O26" s="541" t="s">
+      <c r="O26" s="540" t="s">
         <v>758</v>
       </c>
       <c r="P26" s="284">
@@ -21471,8 +21514,8 @@
       <c r="R26" s="388">
         <v>73524.61</v>
       </c>
-      <c r="W26" s="649"/>
-      <c r="X26" s="649"/>
+      <c r="W26" s="654"/>
+      <c r="X26" s="654"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -21503,13 +21546,13 @@
       <c r="J27" s="55"/>
       <c r="K27" s="174"/>
       <c r="L27" s="54"/>
-      <c r="M27" s="540">
+      <c r="M27" s="539">
         <v>0</v>
       </c>
       <c r="N27" s="33">
         <v>24965</v>
       </c>
-      <c r="O27" s="541" t="s">
+      <c r="O27" s="540" t="s">
         <v>758</v>
       </c>
       <c r="P27" s="39">
@@ -21523,9 +21566,9 @@
       <c r="R27" s="319">
         <v>0</v>
       </c>
-      <c r="W27" s="642"/>
-      <c r="X27" s="643"/>
-      <c r="Y27" s="644"/>
+      <c r="W27" s="647"/>
+      <c r="X27" s="648"/>
+      <c r="Y27" s="649"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -21555,13 +21598,13 @@
       <c r="J28" s="56"/>
       <c r="K28" s="57"/>
       <c r="L28" s="54"/>
-      <c r="M28" s="540">
+      <c r="M28" s="539">
         <v>0</v>
       </c>
       <c r="N28" s="33">
         <v>27562</v>
       </c>
-      <c r="O28" s="541" t="s">
+      <c r="O28" s="540" t="s">
         <v>758</v>
       </c>
       <c r="P28" s="34">
@@ -21575,9 +21618,9 @@
       <c r="R28" s="319">
         <v>0</v>
       </c>
-      <c r="W28" s="643"/>
-      <c r="X28" s="643"/>
-      <c r="Y28" s="644"/>
+      <c r="W28" s="648"/>
+      <c r="X28" s="648"/>
+      <c r="Y28" s="649"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -21607,13 +21650,13 @@
       <c r="J29" s="59"/>
       <c r="K29" s="175"/>
       <c r="L29" s="54"/>
-      <c r="M29" s="540">
+      <c r="M29" s="539">
         <v>0</v>
       </c>
       <c r="N29" s="33">
         <v>22200</v>
       </c>
-      <c r="O29" s="542" t="s">
+      <c r="O29" s="541" t="s">
         <v>758</v>
       </c>
       <c r="P29" s="34">
@@ -21663,7 +21706,7 @@
       <c r="J30" s="60"/>
       <c r="K30" s="41"/>
       <c r="L30" s="61"/>
-      <c r="M30" s="540">
+      <c r="M30" s="539">
         <f>166000+20000+59220+70000+19117</f>
         <v>334337</v>
       </c>
@@ -21962,8 +22005,9 @@
       <c r="J36" s="266"/>
       <c r="K36" s="250"/>
       <c r="L36" s="44"/>
-      <c r="M36" s="544">
-        <v>99132</v>
+      <c r="M36" s="267">
+        <f>99132+137</f>
+        <v>99269</v>
       </c>
       <c r="N36" s="268">
         <v>29993</v>
@@ -21971,18 +22015,16 @@
       <c r="O36" s="276"/>
       <c r="P36" s="34">
         <f t="shared" si="1"/>
-        <v>149196</v>
-      </c>
-      <c r="Q36" s="510">
+        <v>149333</v>
+      </c>
+      <c r="Q36" s="111">
         <f t="shared" si="2"/>
-        <v>-135</v>
+        <v>2</v>
       </c>
       <c r="R36" s="319">
         <v>0</v>
       </c>
-      <c r="S36" s="543" t="s">
-        <v>767</v>
-      </c>
+      <c r="S36" s="546"/>
     </row>
     <row r="37" spans="1:20" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="23"/>
@@ -22038,7 +22080,7 @@
       <c r="C38" s="25">
         <v>9895</v>
       </c>
-      <c r="D38" s="511" t="s">
+      <c r="D38" s="510" t="s">
         <v>657</v>
       </c>
       <c r="E38" s="27">
@@ -22089,13 +22131,13 @@
       <c r="C39" s="69">
         <v>6570</v>
       </c>
-      <c r="D39" s="511" t="s">
+      <c r="D39" s="510" t="s">
         <v>659</v>
       </c>
       <c r="E39" s="27">
         <v>44682</v>
       </c>
-      <c r="F39" s="513">
+      <c r="F39" s="512">
         <v>108254</v>
       </c>
       <c r="G39" s="2"/>
@@ -22130,7 +22172,7 @@
       <c r="A40" s="23"/>
       <c r="B40" s="24"/>
       <c r="C40" s="69"/>
-      <c r="D40" s="511"/>
+      <c r="D40" s="510"/>
       <c r="E40" s="27"/>
       <c r="F40" s="70"/>
       <c r="G40" s="2"/>
@@ -22161,7 +22203,7 @@
       <c r="A41" s="23"/>
       <c r="B41" s="24"/>
       <c r="C41" s="72"/>
-      <c r="D41" s="512"/>
+      <c r="D41" s="511"/>
       <c r="E41" s="74"/>
       <c r="F41" s="75"/>
       <c r="G41" s="2"/>
@@ -22176,28 +22218,28 @@
       <c r="L41" s="61">
         <v>15798.5</v>
       </c>
-      <c r="M41" s="633">
+      <c r="M41" s="638">
         <f>SUM(M5:M40)</f>
-        <v>2479230.6100000003</v>
-      </c>
-      <c r="N41" s="633">
+        <v>2479367.6100000003</v>
+      </c>
+      <c r="N41" s="638">
         <f>SUM(N5:N40)</f>
         <v>1195667</v>
       </c>
       <c r="P41" s="509">
         <f>SUM(P5:P40)</f>
-        <v>4355189.74</v>
-      </c>
-      <c r="Q41" s="692">
+        <v>4355326.74</v>
+      </c>
+      <c r="Q41" s="697">
         <f>SUM(Q5:Q40)</f>
-        <v>69741.629999999976</v>
+        <v>69878.629999999976</v>
       </c>
     </row>
     <row r="42" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="23"/>
       <c r="B42" s="24"/>
       <c r="C42" s="72"/>
-      <c r="D42" s="512"/>
+      <c r="D42" s="511"/>
       <c r="E42" s="74"/>
       <c r="F42" s="75"/>
       <c r="G42" s="2"/>
@@ -22212,16 +22254,16 @@
       <c r="L42" s="52">
         <v>15298.5</v>
       </c>
-      <c r="M42" s="634"/>
-      <c r="N42" s="634"/>
+      <c r="M42" s="639"/>
+      <c r="N42" s="639"/>
       <c r="P42" s="34"/>
-      <c r="Q42" s="693"/>
+      <c r="Q42" s="698"/>
     </row>
     <row r="43" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="23"/>
       <c r="B43" s="24"/>
       <c r="C43" s="72"/>
-      <c r="D43" s="512"/>
+      <c r="D43" s="511"/>
       <c r="E43" s="74"/>
       <c r="F43" s="75"/>
       <c r="G43" s="2"/>
@@ -22245,7 +22287,7 @@
       <c r="A44" s="23"/>
       <c r="B44" s="24"/>
       <c r="C44" s="72"/>
-      <c r="D44" s="512"/>
+      <c r="D44" s="511"/>
       <c r="E44" s="74"/>
       <c r="F44" s="75"/>
       <c r="G44" s="2"/>
@@ -22270,7 +22312,7 @@
       <c r="A45" s="23"/>
       <c r="B45" s="24"/>
       <c r="C45" s="72"/>
-      <c r="D45" s="512"/>
+      <c r="D45" s="511"/>
       <c r="E45" s="74"/>
       <c r="F45" s="75"/>
       <c r="G45" s="2"/>
@@ -22285,11 +22327,11 @@
       <c r="L45" s="61">
         <v>18269.490000000002</v>
       </c>
-      <c r="M45" s="694">
+      <c r="M45" s="699">
         <f>M41+N41</f>
-        <v>3674897.6100000003</v>
-      </c>
-      <c r="N45" s="695"/>
+        <v>3675034.6100000003</v>
+      </c>
+      <c r="N45" s="700"/>
       <c r="P45" s="34"/>
       <c r="Q45" s="13"/>
     </row>
@@ -22297,7 +22339,7 @@
       <c r="A46" s="23"/>
       <c r="B46" s="24"/>
       <c r="C46" s="72"/>
-      <c r="D46" s="512"/>
+      <c r="D46" s="511"/>
       <c r="E46" s="74"/>
       <c r="F46" s="75"/>
       <c r="G46" s="2"/>
@@ -22315,7 +22357,7 @@
       <c r="A47" s="23"/>
       <c r="B47" s="24"/>
       <c r="C47" s="72"/>
-      <c r="D47" s="512"/>
+      <c r="D47" s="511"/>
       <c r="E47" s="74"/>
       <c r="F47" s="75"/>
       <c r="G47" s="2"/>
@@ -22414,26 +22456,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="610" t="s">
+      <c r="H52" s="615" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="611"/>
+      <c r="I52" s="616"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="612">
+      <c r="K52" s="617">
         <f>I50+L50</f>
         <v>289121.83</v>
       </c>
-      <c r="L52" s="639"/>
+      <c r="L52" s="644"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="616" t="s">
+      <c r="D53" s="621" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="616"/>
+      <c r="E53" s="621"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
         <v>3402894.67</v>
@@ -22442,22 +22484,22 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="640" t="s">
+      <c r="D54" s="645" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="640"/>
+      <c r="E54" s="645"/>
       <c r="F54" s="111">
         <v>-1884975.46</v>
       </c>
-      <c r="I54" s="617" t="s">
+      <c r="I54" s="622" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="618"/>
-      <c r="K54" s="619">
+      <c r="J54" s="623"/>
+      <c r="K54" s="624">
         <f>F56+F57+F58</f>
         <v>3549636.8899999997</v>
       </c>
-      <c r="L54" s="619"/>
+      <c r="L54" s="624"/>
       <c r="M54" s="404"/>
       <c r="N54" s="404"/>
       <c r="O54" s="404"/>
@@ -22498,11 +22540,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="621">
+      <c r="K56" s="626">
         <f>-C4</f>
         <v>-1792817.68</v>
       </c>
-      <c r="L56" s="622"/>
+      <c r="L56" s="627"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -22519,22 +22561,22 @@
       <c r="C58" s="112">
         <v>44682</v>
       </c>
-      <c r="D58" s="599" t="s">
+      <c r="D58" s="604" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="600"/>
+      <c r="E58" s="605"/>
       <c r="F58" s="113">
         <v>2112071.92</v>
       </c>
-      <c r="I58" s="601" t="s">
+      <c r="I58" s="606" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="602"/>
-      <c r="K58" s="603">
+      <c r="J58" s="607"/>
+      <c r="K58" s="608">
         <f>K54+K56</f>
         <v>1756819.2099999997</v>
       </c>
-      <c r="L58" s="603"/>
+      <c r="L58" s="608"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -22828,13 +22870,13 @@
       <c r="I3" s="498" t="s">
         <v>729</v>
       </c>
-      <c r="J3" s="525">
+      <c r="J3" s="524">
         <v>8871</v>
       </c>
       <c r="K3" s="500">
         <v>0</v>
       </c>
-      <c r="L3" s="526" t="s">
+      <c r="L3" s="525" t="s">
         <v>729</v>
       </c>
       <c r="M3" s="500">
@@ -22869,13 +22911,13 @@
       <c r="I4" s="501" t="s">
         <v>730</v>
       </c>
-      <c r="J4" s="527">
+      <c r="J4" s="526">
         <v>8877</v>
       </c>
       <c r="K4" s="503">
         <v>16921.599999999999</v>
       </c>
-      <c r="L4" s="528" t="s">
+      <c r="L4" s="527" t="s">
         <v>730</v>
       </c>
       <c r="M4" s="503">
@@ -22909,13 +22951,13 @@
       <c r="I5" s="498" t="s">
         <v>731</v>
       </c>
-      <c r="J5" s="525">
+      <c r="J5" s="524">
         <v>8883</v>
       </c>
       <c r="K5" s="500">
         <v>24058.799999999999</v>
       </c>
-      <c r="L5" s="526" t="s">
+      <c r="L5" s="525" t="s">
         <v>731</v>
       </c>
       <c r="M5" s="500">
@@ -22949,13 +22991,13 @@
       <c r="I6" s="498" t="s">
         <v>732</v>
       </c>
-      <c r="J6" s="525">
+      <c r="J6" s="524">
         <v>8891</v>
       </c>
       <c r="K6" s="500">
         <v>11335.2</v>
       </c>
-      <c r="L6" s="526" t="s">
+      <c r="L6" s="525" t="s">
         <v>732</v>
       </c>
       <c r="M6" s="500">
@@ -22995,7 +23037,7 @@
       <c r="K7" s="503">
         <v>529</v>
       </c>
-      <c r="L7" s="528" t="s">
+      <c r="L7" s="527" t="s">
         <v>733</v>
       </c>
       <c r="M7" s="503">
@@ -23035,7 +23077,7 @@
       <c r="K8" s="500">
         <v>4369.8</v>
       </c>
-      <c r="L8" s="526" t="s">
+      <c r="L8" s="525" t="s">
         <v>734</v>
       </c>
       <c r="M8" s="500">
@@ -23075,7 +23117,7 @@
       <c r="K9" s="503">
         <v>1236.5999999999999</v>
       </c>
-      <c r="L9" s="528" t="s">
+      <c r="L9" s="527" t="s">
         <v>734</v>
       </c>
       <c r="M9" s="503">
@@ -23116,7 +23158,7 @@
       <c r="K10" s="503">
         <v>450</v>
       </c>
-      <c r="L10" s="528" t="s">
+      <c r="L10" s="527" t="s">
         <v>735</v>
       </c>
       <c r="M10" s="503">
@@ -23156,7 +23198,7 @@
       <c r="K11" s="500">
         <v>1472</v>
       </c>
-      <c r="L11" s="526" t="s">
+      <c r="L11" s="525" t="s">
         <v>736</v>
       </c>
       <c r="M11" s="500">
@@ -23196,7 +23238,7 @@
       <c r="K12" s="503">
         <v>1584</v>
       </c>
-      <c r="L12" s="528" t="s">
+      <c r="L12" s="527" t="s">
         <v>736</v>
       </c>
       <c r="M12" s="503">
@@ -23236,7 +23278,7 @@
       <c r="K13" s="500">
         <v>930</v>
       </c>
-      <c r="L13" s="526" t="s">
+      <c r="L13" s="525" t="s">
         <v>737</v>
       </c>
       <c r="M13" s="500">
@@ -23276,7 +23318,7 @@
       <c r="K14" s="503">
         <v>450</v>
       </c>
-      <c r="L14" s="528" t="s">
+      <c r="L14" s="527" t="s">
         <v>738</v>
       </c>
       <c r="M14" s="503">
@@ -23316,7 +23358,7 @@
       <c r="K15" s="500">
         <v>1080</v>
       </c>
-      <c r="L15" s="526" t="s">
+      <c r="L15" s="525" t="s">
         <v>738</v>
       </c>
       <c r="M15" s="500">
@@ -23356,7 +23398,7 @@
       <c r="K16" s="500">
         <v>21899.8</v>
       </c>
-      <c r="L16" s="526" t="s">
+      <c r="L16" s="525" t="s">
         <v>739</v>
       </c>
       <c r="M16" s="500">
@@ -23396,7 +23438,7 @@
       <c r="K17" s="500">
         <v>1180</v>
       </c>
-      <c r="L17" s="526" t="s">
+      <c r="L17" s="525" t="s">
         <v>740</v>
       </c>
       <c r="M17" s="500">
@@ -23436,7 +23478,7 @@
       <c r="K18" s="500">
         <v>1200</v>
       </c>
-      <c r="L18" s="526" t="s">
+      <c r="L18" s="525" t="s">
         <v>741</v>
       </c>
       <c r="M18" s="500">
@@ -23476,7 +23518,7 @@
       <c r="K19" s="500">
         <v>1081</v>
       </c>
-      <c r="L19" s="526" t="s">
+      <c r="L19" s="525" t="s">
         <v>741</v>
       </c>
       <c r="M19" s="500">
@@ -23516,7 +23558,7 @@
       <c r="K20" s="503">
         <v>270</v>
       </c>
-      <c r="L20" s="528" t="s">
+      <c r="L20" s="527" t="s">
         <v>742</v>
       </c>
       <c r="M20" s="503">
@@ -23552,7 +23594,7 @@
       <c r="K21" s="503">
         <v>1894.8</v>
       </c>
-      <c r="L21" s="528" t="s">
+      <c r="L21" s="527" t="s">
         <v>743</v>
       </c>
       <c r="M21" s="503">
@@ -23589,7 +23631,7 @@
       <c r="K22" s="500">
         <v>2360</v>
       </c>
-      <c r="L22" s="526" t="s">
+      <c r="L22" s="525" t="s">
         <v>743</v>
       </c>
       <c r="M22" s="500">
@@ -23625,7 +23667,7 @@
       <c r="K23" s="500">
         <v>19679.400000000001</v>
       </c>
-      <c r="L23" s="526" t="s">
+      <c r="L23" s="525" t="s">
         <v>744</v>
       </c>
       <c r="M23" s="500">
@@ -23661,7 +23703,7 @@
       <c r="K24" s="500">
         <v>36567.599999999999</v>
       </c>
-      <c r="L24" s="526" t="s">
+      <c r="L24" s="525" t="s">
         <v>744</v>
       </c>
       <c r="M24" s="500">
@@ -23697,7 +23739,7 @@
       <c r="K25" s="500">
         <v>2588.64</v>
       </c>
-      <c r="L25" s="526" t="s">
+      <c r="L25" s="525" t="s">
         <v>745</v>
       </c>
       <c r="M25" s="500">
@@ -23733,7 +23775,7 @@
       <c r="K26" s="503">
         <v>1080</v>
       </c>
-      <c r="L26" s="528" t="s">
+      <c r="L26" s="527" t="s">
         <v>745</v>
       </c>
       <c r="M26" s="503">
@@ -23769,7 +23811,7 @@
       <c r="K27" s="503">
         <v>28960.799999999999</v>
       </c>
-      <c r="L27" s="528" t="s">
+      <c r="L27" s="527" t="s">
         <v>745</v>
       </c>
       <c r="M27" s="503">
@@ -23805,7 +23847,7 @@
       <c r="K28" s="503">
         <v>2238.5</v>
       </c>
-      <c r="L28" s="528" t="s">
+      <c r="L28" s="527" t="s">
         <v>746</v>
       </c>
       <c r="M28" s="503">
@@ -23841,7 +23883,7 @@
       <c r="K29" s="500">
         <v>1771.6</v>
       </c>
-      <c r="L29" s="526" t="s">
+      <c r="L29" s="525" t="s">
         <v>746</v>
       </c>
       <c r="M29" s="500">
@@ -23878,7 +23920,7 @@
       <c r="K30" s="503">
         <v>36114.800000000003</v>
       </c>
-      <c r="L30" s="528" t="s">
+      <c r="L30" s="527" t="s">
         <v>747</v>
       </c>
       <c r="M30" s="503">
@@ -23914,7 +23956,7 @@
       <c r="K31" s="500">
         <v>744</v>
       </c>
-      <c r="L31" s="526" t="s">
+      <c r="L31" s="525" t="s">
         <v>748</v>
       </c>
       <c r="M31" s="500">
@@ -23950,7 +23992,7 @@
       <c r="K32" s="503">
         <v>25869.8</v>
       </c>
-      <c r="L32" s="528" t="s">
+      <c r="L32" s="527" t="s">
         <v>748</v>
       </c>
       <c r="M32" s="503">
@@ -23986,7 +24028,7 @@
       <c r="K33" s="500">
         <v>5027</v>
       </c>
-      <c r="L33" s="526" t="s">
+      <c r="L33" s="525" t="s">
         <v>749</v>
       </c>
       <c r="M33" s="500">
@@ -24022,7 +24064,7 @@
       <c r="K34" s="503">
         <v>1820.8</v>
       </c>
-      <c r="L34" s="528" t="s">
+      <c r="L34" s="527" t="s">
         <v>750</v>
       </c>
       <c r="M34" s="503">
@@ -24058,7 +24100,7 @@
       <c r="K35" s="500">
         <v>43759.6</v>
       </c>
-      <c r="L35" s="526" t="s">
+      <c r="L35" s="525" t="s">
         <v>751</v>
       </c>
       <c r="M35" s="500">
@@ -24094,7 +24136,7 @@
       <c r="K36" s="503">
         <v>1331</v>
       </c>
-      <c r="L36" s="528" t="s">
+      <c r="L36" s="527" t="s">
         <v>752</v>
       </c>
       <c r="M36" s="503">
@@ -24130,7 +24172,7 @@
       <c r="K37" s="500">
         <v>32504.400000000001</v>
       </c>
-      <c r="L37" s="526" t="s">
+      <c r="L37" s="525" t="s">
         <v>753</v>
       </c>
       <c r="M37" s="500">
@@ -24166,7 +24208,7 @@
       <c r="K38" s="500">
         <v>15257</v>
       </c>
-      <c r="L38" s="526" t="s">
+      <c r="L38" s="525" t="s">
         <v>754</v>
       </c>
       <c r="M38" s="500">
@@ -24202,7 +24244,7 @@
       <c r="K39" s="500">
         <v>5516</v>
       </c>
-      <c r="L39" s="526" t="s">
+      <c r="L39" s="525" t="s">
         <v>755</v>
       </c>
       <c r="M39" s="500">
@@ -24238,7 +24280,7 @@
       <c r="K40" s="503">
         <v>600</v>
       </c>
-      <c r="L40" s="528" t="s">
+      <c r="L40" s="527" t="s">
         <v>756</v>
       </c>
       <c r="M40" s="503">
@@ -24274,7 +24316,7 @@
       <c r="K41" s="503">
         <v>6614.7</v>
       </c>
-      <c r="L41" s="528" t="s">
+      <c r="L41" s="527" t="s">
         <v>757</v>
       </c>
       <c r="M41" s="503">
@@ -24310,7 +24352,7 @@
       <c r="K42" s="503">
         <v>1080</v>
       </c>
-      <c r="L42" s="528" t="s">
+      <c r="L42" s="527" t="s">
         <v>757</v>
       </c>
       <c r="M42" s="503">
@@ -25247,7 +25289,7 @@
         <f>SUM(F3:F88)</f>
         <v>1055196.5699999998</v>
       </c>
-      <c r="K89" s="529">
+      <c r="K89" s="528">
         <f>SUM(K3:K88)</f>
         <v>363428.24</v>
       </c>
@@ -25266,7 +25308,7 @@
       <c r="C90" s="214"/>
       <c r="D90" s="256"/>
       <c r="E90" s="3"/>
-      <c r="F90" s="650" t="s">
+      <c r="F90" s="655" t="s">
         <v>207</v>
       </c>
       <c r="K90" s="1"/>
@@ -25279,7 +25321,7 @@
       <c r="C91" s="1"/>
       <c r="D91" s="256"/>
       <c r="E91" s="3"/>
-      <c r="F91" s="651"/>
+      <c r="F91" s="656"/>
       <c r="K91" s="1"/>
       <c r="L91" s="97"/>
       <c r="M91" s="3"/>
@@ -25298,21 +25340,21 @@
     <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93" s="456"/>
       <c r="B93" s="442"/>
-      <c r="I93" s="688" t="s">
+      <c r="I93" s="693" t="s">
         <v>594</v>
       </c>
-      <c r="J93" s="689"/>
+      <c r="J93" s="694"/>
     </row>
     <row r="94" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="456"/>
-      <c r="B94" s="521" t="s">
+      <c r="B94" s="520" t="s">
         <v>728</v>
       </c>
-      <c r="C94" s="522"/>
-      <c r="D94" s="523"/>
-      <c r="E94" s="524"/>
-      <c r="I94" s="690"/>
-      <c r="J94" s="691"/>
+      <c r="C94" s="521"/>
+      <c r="D94" s="522"/>
+      <c r="E94" s="523"/>
+      <c r="I94" s="695"/>
+      <c r="J94" s="696"/>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" s="456"/>
@@ -25331,8 +25373,8 @@
       <c r="N96"/>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A97" s="514"/>
-      <c r="B97" s="515"/>
+      <c r="A97" s="513"/>
+      <c r="B97" s="514"/>
       <c r="C97" s="129"/>
       <c r="F97"/>
       <c r="I97"/>
@@ -25340,8 +25382,8 @@
       <c r="N97"/>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A98" s="514"/>
-      <c r="B98" s="515"/>
+      <c r="A98" s="513"/>
+      <c r="B98" s="514"/>
       <c r="C98" s="129"/>
       <c r="F98"/>
       <c r="I98"/>
@@ -25349,8 +25391,8 @@
       <c r="N98"/>
     </row>
     <row r="99" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A99" s="516"/>
-      <c r="B99" s="517"/>
+      <c r="A99" s="515"/>
+      <c r="B99" s="516"/>
       <c r="C99" s="233"/>
       <c r="F99"/>
       <c r="I99"/>
@@ -25358,8 +25400,8 @@
       <c r="N99"/>
     </row>
     <row r="100" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A100" s="516"/>
-      <c r="B100" s="517"/>
+      <c r="A100" s="515"/>
+      <c r="B100" s="516"/>
       <c r="C100" s="233"/>
       <c r="F100"/>
       <c r="I100"/>
@@ -25367,8 +25409,8 @@
       <c r="N100"/>
     </row>
     <row r="101" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A101" s="516"/>
-      <c r="B101" s="517"/>
+      <c r="A101" s="515"/>
+      <c r="B101" s="516"/>
       <c r="C101" s="233"/>
       <c r="F101"/>
       <c r="I101"/>
@@ -25376,8 +25418,8 @@
       <c r="N101"/>
     </row>
     <row r="102" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A102" s="516"/>
-      <c r="B102" s="517"/>
+      <c r="A102" s="515"/>
+      <c r="B102" s="516"/>
       <c r="C102" s="233"/>
       <c r="F102"/>
       <c r="I102"/>
@@ -25385,8 +25427,8 @@
       <c r="N102"/>
     </row>
     <row r="103" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A103" s="516"/>
-      <c r="B103" s="517"/>
+      <c r="A103" s="515"/>
+      <c r="B103" s="516"/>
       <c r="C103" s="233"/>
       <c r="F103"/>
       <c r="I103"/>
@@ -25394,8 +25436,8 @@
       <c r="N103"/>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A104" s="514"/>
-      <c r="B104" s="515"/>
+      <c r="A104" s="513"/>
+      <c r="B104" s="514"/>
       <c r="C104" s="129"/>
       <c r="E104"/>
       <c r="F104"/>
@@ -25568,39 +25610,39 @@
   <sheetData>
     <row r="1" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F2" s="700" t="s">
+      <c r="F2" s="705" t="s">
         <v>765</v>
       </c>
-      <c r="G2" s="701"/>
-      <c r="H2" s="702"/>
+      <c r="G2" s="706"/>
+      <c r="H2" s="707"/>
     </row>
     <row r="3" spans="2:8" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="697" t="s">
+      <c r="B3" s="702" t="s">
         <v>761</v>
       </c>
-      <c r="C3" s="698"/>
-      <c r="D3" s="699"/>
-      <c r="F3" s="703"/>
-      <c r="G3" s="704"/>
-      <c r="H3" s="705"/>
+      <c r="C3" s="703"/>
+      <c r="D3" s="704"/>
+      <c r="F3" s="708"/>
+      <c r="G3" s="709"/>
+      <c r="H3" s="710"/>
     </row>
     <row r="4" spans="2:8" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="530" t="s">
+      <c r="B4" s="529" t="s">
         <v>760</v>
       </c>
-      <c r="C4" s="532" t="s">
+      <c r="C4" s="531" t="s">
         <v>759</v>
       </c>
-      <c r="D4" s="531" t="s">
+      <c r="D4" s="530" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="537" t="s">
+      <c r="F4" s="536" t="s">
         <v>760</v>
       </c>
-      <c r="G4" s="538" t="s">
+      <c r="G4" s="537" t="s">
         <v>759</v>
       </c>
-      <c r="H4" s="539" t="s">
+      <c r="H4" s="538" t="s">
         <v>21</v>
       </c>
     </row>
@@ -25614,7 +25656,7 @@
       <c r="D5" s="1">
         <v>26691</v>
       </c>
-      <c r="E5" s="533" t="s">
+      <c r="E5" s="532" t="s">
         <v>762</v>
       </c>
       <c r="F5" s="254">
@@ -25635,7 +25677,7 @@
       <c r="D6" s="327">
         <v>39942</v>
       </c>
-      <c r="E6" s="533" t="s">
+      <c r="E6" s="532" t="s">
         <v>762</v>
       </c>
       <c r="F6" s="254">
@@ -25656,7 +25698,7 @@
       <c r="D7" s="327">
         <v>46851.5</v>
       </c>
-      <c r="E7" s="533" t="s">
+      <c r="E7" s="532" t="s">
         <v>762</v>
       </c>
       <c r="F7" s="254">
@@ -25677,7 +25719,7 @@
       <c r="D8" s="327">
         <v>55917</v>
       </c>
-      <c r="E8" s="533" t="s">
+      <c r="E8" s="532" t="s">
         <v>762</v>
       </c>
       <c r="F8" s="254">
@@ -25698,7 +25740,7 @@
       <c r="D9" s="327">
         <v>95058.5</v>
       </c>
-      <c r="E9" s="533" t="s">
+      <c r="E9" s="532" t="s">
         <v>762</v>
       </c>
       <c r="F9" s="254">
@@ -25720,24 +25762,24 @@
       </c>
     </row>
     <row r="11" spans="2:8" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C11" s="534" t="s">
+      <c r="C11" s="533" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="535">
+      <c r="D11" s="534">
         <f>SUM(D5:D10)</f>
         <v>264460</v>
       </c>
-      <c r="G11" s="706">
+      <c r="G11" s="711">
         <f>SUM(H5:H10)</f>
         <v>334337</v>
       </c>
-      <c r="H11" s="707"/>
+      <c r="H11" s="712"/>
     </row>
     <row r="13" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B13" s="536" t="s">
+      <c r="B13" s="535" t="s">
         <v>594</v>
       </c>
-      <c r="C13" s="536" t="s">
+      <c r="C13" s="535" t="s">
         <v>764</v>
       </c>
       <c r="D13" s="154">
@@ -25745,26 +25787,26 @@
       </c>
     </row>
     <row r="14" spans="2:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C14" s="536"/>
+      <c r="C14" s="535"/>
     </row>
     <row r="15" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="710" t="s">
+      <c r="C15" s="715" t="s">
         <v>763</v>
       </c>
-      <c r="D15" s="708">
+      <c r="D15" s="713">
         <f>D11-D13</f>
         <v>-69877</v>
       </c>
     </row>
     <row r="16" spans="2:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="711"/>
-      <c r="D16" s="709"/>
+      <c r="C16" s="716"/>
+      <c r="D16" s="714"/>
     </row>
     <row r="17" spans="3:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C17" s="696" t="s">
+      <c r="C17" s="701" t="s">
         <v>766</v>
       </c>
-      <c r="D17" s="696"/>
+      <c r="D17" s="701"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -25789,29 +25831,29 @@
   <dimension ref="A1:Z80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="I5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="R8" sqref="R8"/>
+      <selection pane="bottomRight" activeCell="S16" sqref="S16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.85546875" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" style="566" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" style="561" customWidth="1"/>
     <col min="3" max="3" width="15.5703125" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.28515625" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" style="567"/>
+    <col min="5" max="5" width="11.42578125" style="562"/>
     <col min="6" max="6" width="15.28515625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="1.85546875" customWidth="1"/>
-    <col min="8" max="8" width="11.85546875" style="567" customWidth="1"/>
+    <col min="7" max="7" width="1.85546875" style="562" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" style="562" customWidth="1"/>
     <col min="9" max="9" width="15.7109375" style="4" customWidth="1"/>
     <col min="10" max="10" width="11.7109375" style="12" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="576" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="571" customWidth="1"/>
     <col min="12" max="12" width="14.5703125" style="3" customWidth="1"/>
     <col min="13" max="13" width="17.5703125" style="4" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.85546875" style="587" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="16.85546875" customWidth="1"/>
     <col min="17" max="17" width="21.28515625" style="225" customWidth="1"/>
     <col min="18" max="18" width="15.28515625" style="227" customWidth="1"/>
@@ -25822,23 +25864,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="588"/>
-      <c r="C1" s="654" t="s">
-        <v>768</v>
-      </c>
-      <c r="D1" s="655"/>
-      <c r="E1" s="655"/>
-      <c r="F1" s="655"/>
-      <c r="G1" s="655"/>
-      <c r="H1" s="655"/>
-      <c r="I1" s="655"/>
-      <c r="J1" s="655"/>
-      <c r="K1" s="655"/>
-      <c r="L1" s="655"/>
-      <c r="M1" s="655"/>
+      <c r="B1" s="593"/>
+      <c r="C1" s="659" t="s">
+        <v>767</v>
+      </c>
+      <c r="D1" s="660"/>
+      <c r="E1" s="660"/>
+      <c r="F1" s="660"/>
+      <c r="G1" s="660"/>
+      <c r="H1" s="660"/>
+      <c r="I1" s="660"/>
+      <c r="J1" s="660"/>
+      <c r="K1" s="660"/>
+      <c r="L1" s="660"/>
+      <c r="M1" s="660"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="589"/>
+      <c r="B2" s="594"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -25848,24 +25890,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="592" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="593"/>
+      <c r="B3" s="597" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="598"/>
       <c r="D3" s="10"/>
-      <c r="E3" s="568"/>
+      <c r="E3" s="563"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="594" t="s">
+      <c r="H3" s="599" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="594"/>
+      <c r="I3" s="599"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="631" t="s">
+      <c r="P3" s="636" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="652" t="s">
+      <c r="R3" s="657" t="s">
         <v>216</v>
       </c>
       <c r="U3" s="34"/>
@@ -25884,32 +25926,32 @@
       <c r="D4" s="18">
         <v>44682</v>
       </c>
-      <c r="E4" s="595" t="s">
+      <c r="E4" s="600" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="596"/>
-      <c r="H4" s="597" t="s">
+      <c r="F4" s="601"/>
+      <c r="H4" s="602" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="598"/>
-      <c r="J4" s="571"/>
-      <c r="K4" s="577"/>
-      <c r="L4" s="578"/>
+      <c r="I4" s="603"/>
+      <c r="J4" s="566"/>
+      <c r="K4" s="572"/>
+      <c r="L4" s="573"/>
       <c r="M4" s="21" t="s">
         <v>4</v>
       </c>
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="632"/>
+      <c r="P4" s="637"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="653"/>
+      <c r="R4" s="658"/>
       <c r="U4" s="34"/>
       <c r="V4" s="128"/>
-      <c r="W4" s="712"/>
-      <c r="X4" s="712"/>
+      <c r="W4" s="717"/>
+      <c r="X4" s="717"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -25923,7 +25965,7 @@
         <v>17249</v>
       </c>
       <c r="D5" s="26" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="E5" s="27">
         <v>44683</v>
@@ -25931,7 +25973,7 @@
       <c r="F5" s="28">
         <v>112678</v>
       </c>
-      <c r="G5" s="546"/>
+      <c r="G5" s="583"/>
       <c r="H5" s="29">
         <v>44683</v>
       </c>
@@ -25948,7 +25990,7 @@
       <c r="N5" s="33">
         <v>30352</v>
       </c>
-      <c r="O5" s="318"/>
+      <c r="O5" s="586"/>
       <c r="P5" s="34">
         <f>N5+M5+L5+I5+C5</f>
         <v>112678</v>
@@ -25963,8 +26005,8 @@
       <c r="S5" s="324"/>
       <c r="U5" s="34"/>
       <c r="V5" s="128"/>
-      <c r="W5" s="712"/>
-      <c r="X5" s="712"/>
+      <c r="W5" s="717"/>
+      <c r="X5" s="717"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -25976,7 +26018,7 @@
         <v>26350</v>
       </c>
       <c r="D6" s="35" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="E6" s="27">
         <v>44684</v>
@@ -25984,7 +26026,7 @@
       <c r="F6" s="28">
         <v>99636</v>
       </c>
-      <c r="G6" s="546"/>
+      <c r="G6" s="583"/>
       <c r="H6" s="29">
         <v>44684</v>
       </c>
@@ -26000,7 +26042,7 @@
       <c r="N6" s="33">
         <v>29682</v>
       </c>
-      <c r="O6" s="2"/>
+      <c r="O6" s="586"/>
       <c r="P6" s="39">
         <f>N6+M6+L6+I6+C6</f>
         <v>99636</v>
@@ -26029,7 +26071,7 @@
         <v>17460</v>
       </c>
       <c r="D7" s="40" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="E7" s="27">
         <v>44685</v>
@@ -26037,7 +26079,7 @@
       <c r="F7" s="28">
         <v>102561</v>
       </c>
-      <c r="G7" s="546"/>
+      <c r="G7" s="583"/>
       <c r="H7" s="29">
         <v>44685</v>
       </c>
@@ -26048,7 +26090,7 @@
         <v>44685</v>
       </c>
       <c r="K7" s="38" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="L7" s="39">
         <v>20000</v>
@@ -26059,7 +26101,7 @@
       <c r="N7" s="33">
         <v>33550</v>
       </c>
-      <c r="O7" s="224"/>
+      <c r="O7" s="588"/>
       <c r="P7" s="39">
         <f>N7+M7+L7+I7+C7</f>
         <v>104007</v>
@@ -26087,7 +26129,7 @@
         <v>2552</v>
       </c>
       <c r="D8" s="42" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="E8" s="27">
         <v>44686</v>
@@ -26095,7 +26137,7 @@
       <c r="F8" s="28">
         <v>99057</v>
       </c>
-      <c r="G8" s="546"/>
+      <c r="G8" s="583"/>
       <c r="H8" s="29">
         <v>44686</v>
       </c>
@@ -26111,7 +26153,7 @@
       <c r="N8" s="33">
         <v>39154</v>
       </c>
-      <c r="O8" s="2"/>
+      <c r="O8" s="586"/>
       <c r="P8" s="39">
         <f t="shared" ref="P8:P40" si="1">N8+M8+L8+I8+C8</f>
         <v>99057</v>
@@ -26136,37 +26178,45 @@
       <c r="B9" s="24">
         <v>44687</v>
       </c>
-      <c r="C9" s="25"/>
-      <c r="D9" s="42"/>
+      <c r="C9" s="25">
+        <v>11321</v>
+      </c>
+      <c r="D9" s="42" t="s">
+        <v>773</v>
+      </c>
       <c r="E9" s="27">
         <v>44687</v>
       </c>
-      <c r="F9" s="28"/>
-      <c r="G9" s="546"/>
+      <c r="F9" s="28">
+        <v>121841</v>
+      </c>
+      <c r="G9" s="583"/>
       <c r="H9" s="29">
         <v>44687</v>
       </c>
-      <c r="I9" s="30"/>
+      <c r="I9" s="30">
+        <v>849</v>
+      </c>
       <c r="J9" s="37"/>
       <c r="K9" s="223"/>
       <c r="L9" s="39"/>
       <c r="M9" s="32">
-        <v>0</v>
+        <v>73218</v>
       </c>
       <c r="N9" s="33">
-        <v>0</v>
-      </c>
-      <c r="O9" s="2"/>
+        <v>36453</v>
+      </c>
+      <c r="O9" s="586"/>
       <c r="P9" s="39">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>121841</v>
       </c>
       <c r="Q9" s="325">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R9" s="319">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S9" s="147"/>
       <c r="T9" s="128"/>
@@ -26181,30 +26231,44 @@
       <c r="B10" s="24">
         <v>44688</v>
       </c>
-      <c r="C10" s="25"/>
-      <c r="D10" s="40"/>
+      <c r="C10" s="25">
+        <v>15951.5</v>
+      </c>
+      <c r="D10" s="40" t="s">
+        <v>774</v>
+      </c>
       <c r="E10" s="27">
         <v>44688</v>
       </c>
-      <c r="F10" s="28"/>
-      <c r="G10" s="546"/>
+      <c r="F10" s="28">
+        <v>128367</v>
+      </c>
+      <c r="G10" s="583"/>
       <c r="H10" s="29">
         <v>44688</v>
       </c>
-      <c r="I10" s="30"/>
-      <c r="J10" s="37"/>
-      <c r="K10" s="167"/>
-      <c r="L10" s="45"/>
+      <c r="I10" s="30">
+        <v>10782.5</v>
+      </c>
+      <c r="J10" s="37">
+        <v>44688</v>
+      </c>
+      <c r="K10" s="167" t="s">
+        <v>775</v>
+      </c>
+      <c r="L10" s="45">
+        <v>18091</v>
+      </c>
       <c r="M10" s="32">
-        <v>0</v>
+        <v>33541</v>
       </c>
       <c r="N10" s="33">
-        <v>0</v>
-      </c>
-      <c r="O10" s="2"/>
+        <v>50001</v>
+      </c>
+      <c r="O10" s="586"/>
       <c r="P10" s="39">
         <f>N10+M10+L10+I10+C10</f>
-        <v>0</v>
+        <v>128367</v>
       </c>
       <c r="Q10" s="325">
         <f t="shared" si="0"/>
@@ -26226,30 +26290,38 @@
       <c r="B11" s="24">
         <v>44689</v>
       </c>
-      <c r="C11" s="25"/>
-      <c r="D11" s="35"/>
+      <c r="C11" s="25">
+        <v>25024</v>
+      </c>
+      <c r="D11" s="35" t="s">
+        <v>777</v>
+      </c>
       <c r="E11" s="27">
         <v>44689</v>
       </c>
-      <c r="F11" s="28"/>
-      <c r="G11" s="546"/>
+      <c r="F11" s="28">
+        <v>71145</v>
+      </c>
+      <c r="G11" s="583"/>
       <c r="H11" s="29">
         <v>44689</v>
       </c>
-      <c r="I11" s="30"/>
+      <c r="I11" s="30">
+        <v>1586</v>
+      </c>
       <c r="J11" s="43"/>
       <c r="K11" s="168"/>
       <c r="L11" s="39"/>
       <c r="M11" s="32">
-        <v>0</v>
+        <v>21054</v>
       </c>
       <c r="N11" s="33">
-        <v>0</v>
-      </c>
-      <c r="O11" s="2"/>
+        <v>23481</v>
+      </c>
+      <c r="O11" s="586"/>
       <c r="P11" s="39">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>71145</v>
       </c>
       <c r="Q11" s="325">
         <f t="shared" si="0"/>
@@ -26271,34 +26343,44 @@
       <c r="B12" s="24">
         <v>44690</v>
       </c>
-      <c r="C12" s="25"/>
-      <c r="D12" s="35"/>
+      <c r="C12" s="25">
+        <v>26526.5</v>
+      </c>
+      <c r="D12" s="35" t="s">
+        <v>778</v>
+      </c>
       <c r="E12" s="27">
         <v>44690</v>
       </c>
-      <c r="F12" s="28"/>
-      <c r="G12" s="546"/>
+      <c r="F12" s="28">
+        <v>141644</v>
+      </c>
+      <c r="G12" s="583"/>
       <c r="H12" s="29">
         <v>44690</v>
       </c>
-      <c r="I12" s="30"/>
+      <c r="I12" s="30">
+        <v>3357</v>
+      </c>
       <c r="J12" s="37"/>
       <c r="K12" s="169"/>
       <c r="L12" s="39"/>
       <c r="M12" s="32">
-        <v>0</v>
+        <v>67500</v>
       </c>
       <c r="N12" s="33">
-        <v>0</v>
-      </c>
-      <c r="O12" s="328"/>
+        <v>44262</v>
+      </c>
+      <c r="O12" s="585" t="s">
+        <v>779</v>
+      </c>
       <c r="P12" s="39">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>141645.5</v>
       </c>
       <c r="Q12" s="325">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="R12" s="319">
         <v>0</v>
@@ -26316,30 +26398,40 @@
       <c r="B13" s="24">
         <v>44691</v>
       </c>
-      <c r="C13" s="25"/>
-      <c r="D13" s="42"/>
+      <c r="C13" s="25">
+        <v>3165</v>
+      </c>
+      <c r="D13" s="42" t="s">
+        <v>780</v>
+      </c>
       <c r="E13" s="27">
         <v>44691</v>
       </c>
-      <c r="F13" s="28"/>
-      <c r="G13" s="546"/>
+      <c r="F13" s="28">
+        <v>120719</v>
+      </c>
+      <c r="G13" s="583"/>
       <c r="H13" s="29">
         <v>44691</v>
       </c>
-      <c r="I13" s="30"/>
+      <c r="I13" s="30">
+        <v>1654</v>
+      </c>
       <c r="J13" s="37"/>
       <c r="K13" s="38"/>
       <c r="L13" s="39"/>
       <c r="M13" s="32">
-        <v>0</v>
+        <v>74689</v>
       </c>
       <c r="N13" s="33">
-        <v>0</v>
-      </c>
-      <c r="O13" s="2"/>
+        <v>41211</v>
+      </c>
+      <c r="O13" s="585" t="s">
+        <v>779</v>
+      </c>
       <c r="P13" s="39">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>120719</v>
       </c>
       <c r="Q13" s="325">
         <f t="shared" si="0"/>
@@ -26361,34 +26453,44 @@
       <c r="B14" s="24">
         <v>44692</v>
       </c>
-      <c r="C14" s="25"/>
-      <c r="D14" s="40"/>
+      <c r="C14" s="25">
+        <v>36768</v>
+      </c>
+      <c r="D14" s="40" t="s">
+        <v>781</v>
+      </c>
       <c r="E14" s="27">
         <v>44692</v>
       </c>
-      <c r="F14" s="28"/>
-      <c r="G14" s="546"/>
+      <c r="F14" s="28">
+        <v>82833</v>
+      </c>
+      <c r="G14" s="583"/>
       <c r="H14" s="29">
         <v>44692</v>
       </c>
-      <c r="I14" s="30"/>
+      <c r="I14" s="30">
+        <v>1363</v>
+      </c>
       <c r="J14" s="37"/>
       <c r="K14" s="38"/>
       <c r="L14" s="39"/>
       <c r="M14" s="32">
-        <v>0</v>
+        <v>64829</v>
       </c>
       <c r="N14" s="33">
-        <v>0</v>
-      </c>
-      <c r="O14" s="2"/>
+        <v>25847</v>
+      </c>
+      <c r="O14" s="585" t="s">
+        <v>779</v>
+      </c>
       <c r="P14" s="39">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>128807</v>
       </c>
       <c r="Q14" s="325">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>45974</v>
       </c>
       <c r="R14" s="319">
         <v>0</v>
@@ -26405,29 +26507,40 @@
       <c r="B15" s="24">
         <v>44693</v>
       </c>
-      <c r="C15" s="25"/>
-      <c r="D15" s="40"/>
+      <c r="C15" s="25">
+        <v>18647</v>
+      </c>
+      <c r="D15" s="40" t="s">
+        <v>782</v>
+      </c>
       <c r="E15" s="27">
         <v>44693</v>
       </c>
-      <c r="F15" s="28"/>
-      <c r="G15" s="546"/>
+      <c r="F15" s="28">
+        <v>90488</v>
+      </c>
+      <c r="G15" s="583"/>
       <c r="H15" s="29">
         <v>44693</v>
       </c>
-      <c r="I15" s="30"/>
+      <c r="I15" s="30">
+        <v>327</v>
+      </c>
       <c r="J15" s="37"/>
       <c r="K15" s="38"/>
       <c r="L15" s="39"/>
       <c r="M15" s="32">
-        <v>0</v>
+        <v>40075</v>
       </c>
       <c r="N15" s="33">
-        <v>0</v>
+        <v>31439</v>
+      </c>
+      <c r="O15" s="585" t="s">
+        <v>779</v>
       </c>
       <c r="P15" s="39">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>90488</v>
       </c>
       <c r="Q15" s="325">
         <f t="shared" si="0"/>
@@ -26448,30 +26561,38 @@
       <c r="B16" s="24">
         <v>44694</v>
       </c>
-      <c r="C16" s="25"/>
-      <c r="D16" s="35"/>
+      <c r="C16" s="25">
+        <v>5443</v>
+      </c>
+      <c r="D16" s="35" t="s">
+        <v>783</v>
+      </c>
       <c r="E16" s="27">
         <v>44694</v>
       </c>
-      <c r="F16" s="28"/>
-      <c r="G16" s="546"/>
+      <c r="F16" s="28">
+        <v>94487</v>
+      </c>
+      <c r="G16" s="583"/>
       <c r="H16" s="29">
         <v>44694</v>
       </c>
-      <c r="I16" s="30"/>
+      <c r="I16" s="30">
+        <v>5161</v>
+      </c>
       <c r="J16" s="37"/>
       <c r="K16" s="169"/>
       <c r="L16" s="9"/>
       <c r="M16" s="32">
-        <v>0</v>
+        <v>56051</v>
       </c>
       <c r="N16" s="33">
-        <v>0</v>
-      </c>
-      <c r="O16" s="330"/>
+        <v>27832</v>
+      </c>
+      <c r="O16" s="589"/>
       <c r="P16" s="39">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>94487</v>
       </c>
       <c r="Q16" s="325">
         <f t="shared" si="0"/>
@@ -26498,7 +26619,7 @@
         <v>44695</v>
       </c>
       <c r="F17" s="28"/>
-      <c r="G17" s="546"/>
+      <c r="G17" s="583"/>
       <c r="H17" s="29">
         <v>44695</v>
       </c>
@@ -26512,6 +26633,7 @@
       <c r="N17" s="33">
         <v>0</v>
       </c>
+      <c r="O17" s="589"/>
       <c r="P17" s="39">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -26541,13 +26663,13 @@
         <v>44696</v>
       </c>
       <c r="F18" s="28"/>
-      <c r="G18" s="546"/>
+      <c r="G18" s="583"/>
       <c r="H18" s="29">
         <v>44696</v>
       </c>
       <c r="I18" s="30"/>
       <c r="J18" s="37"/>
-      <c r="K18" s="579"/>
+      <c r="K18" s="574"/>
       <c r="L18" s="39"/>
       <c r="M18" s="32">
         <v>0</v>
@@ -26555,7 +26677,7 @@
       <c r="N18" s="33">
         <v>0</v>
       </c>
-      <c r="O18" s="2"/>
+      <c r="O18" s="588"/>
       <c r="P18" s="39">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -26571,7 +26693,7 @@
       <c r="U18" s="34"/>
       <c r="V18" s="128"/>
       <c r="W18" s="233"/>
-      <c r="X18" s="552"/>
+      <c r="X18" s="547"/>
       <c r="Y18" s="233"/>
     </row>
     <row r="19" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -26585,7 +26707,7 @@
         <v>44697</v>
       </c>
       <c r="F19" s="28"/>
-      <c r="G19" s="546"/>
+      <c r="G19" s="583"/>
       <c r="H19" s="29">
         <v>44697</v>
       </c>
@@ -26599,7 +26721,7 @@
       <c r="N19" s="33">
         <v>0</v>
       </c>
-      <c r="O19" s="2"/>
+      <c r="O19" s="588"/>
       <c r="P19" s="39">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -26614,8 +26736,8 @@
       <c r="S19" s="147"/>
       <c r="U19" s="34"/>
       <c r="V19" s="128"/>
-      <c r="W19" s="713"/>
-      <c r="X19" s="552"/>
+      <c r="W19" s="718"/>
+      <c r="X19" s="547"/>
       <c r="Y19" s="233"/>
     </row>
     <row r="20" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -26629,7 +26751,7 @@
         <v>44698</v>
       </c>
       <c r="F20" s="28"/>
-      <c r="G20" s="546"/>
+      <c r="G20" s="583"/>
       <c r="H20" s="29">
         <v>44698</v>
       </c>
@@ -26643,7 +26765,7 @@
       <c r="N20" s="33">
         <v>0</v>
       </c>
-      <c r="O20" s="2"/>
+      <c r="O20" s="588"/>
       <c r="P20" s="39">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -26658,7 +26780,7 @@
       <c r="S20" s="147"/>
       <c r="U20" s="34"/>
       <c r="V20" s="128"/>
-      <c r="W20" s="713"/>
+      <c r="W20" s="718"/>
       <c r="X20" s="34"/>
       <c r="Y20" s="233"/>
     </row>
@@ -26673,13 +26795,13 @@
         <v>44699</v>
       </c>
       <c r="F21" s="28"/>
-      <c r="G21" s="546"/>
+      <c r="G21" s="583"/>
       <c r="H21" s="29">
         <v>44699</v>
       </c>
       <c r="I21" s="30"/>
       <c r="J21" s="37"/>
-      <c r="K21" s="580"/>
+      <c r="K21" s="575"/>
       <c r="L21" s="45"/>
       <c r="M21" s="32">
         <v>0</v>
@@ -26687,7 +26809,7 @@
       <c r="N21" s="33">
         <v>0</v>
       </c>
-      <c r="O21" s="2"/>
+      <c r="O21" s="588"/>
       <c r="P21" s="39">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -26702,8 +26824,8 @@
       <c r="S21" s="147"/>
       <c r="U21" s="34"/>
       <c r="V21" s="128"/>
-      <c r="W21" s="647"/>
-      <c r="X21" s="647"/>
+      <c r="W21" s="652"/>
+      <c r="X21" s="652"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -26718,7 +26840,7 @@
         <v>44700</v>
       </c>
       <c r="F22" s="28"/>
-      <c r="G22" s="546"/>
+      <c r="G22" s="583"/>
       <c r="H22" s="29">
         <v>44700</v>
       </c>
@@ -26732,7 +26854,7 @@
       <c r="N22" s="33">
         <v>0</v>
       </c>
-      <c r="O22" s="2"/>
+      <c r="O22" s="588"/>
       <c r="P22" s="39">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -26763,7 +26885,7 @@
         <v>44701</v>
       </c>
       <c r="F23" s="28"/>
-      <c r="G23" s="546"/>
+      <c r="G23" s="583"/>
       <c r="H23" s="29">
         <v>44701</v>
       </c>
@@ -26777,7 +26899,7 @@
       <c r="N23" s="33">
         <v>0</v>
       </c>
-      <c r="O23" s="2"/>
+      <c r="O23" s="588"/>
       <c r="P23" s="39">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -26792,8 +26914,8 @@
       <c r="S23" s="147"/>
       <c r="U23" s="34"/>
       <c r="V23" s="128"/>
-      <c r="W23" s="648"/>
-      <c r="X23" s="648"/>
+      <c r="W23" s="653"/>
+      <c r="X23" s="653"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -26808,7 +26930,7 @@
         <v>44702</v>
       </c>
       <c r="F24" s="28"/>
-      <c r="G24" s="546"/>
+      <c r="G24" s="583"/>
       <c r="H24" s="29">
         <v>44702</v>
       </c>
@@ -26822,7 +26944,7 @@
       <c r="N24" s="33">
         <v>0</v>
       </c>
-      <c r="O24" s="2"/>
+      <c r="O24" s="588"/>
       <c r="P24" s="39">
         <f>N24+M24+L24+I24+C24</f>
         <v>0</v>
@@ -26837,8 +26959,8 @@
       <c r="S24" s="147"/>
       <c r="U24" s="34"/>
       <c r="V24" s="128"/>
-      <c r="W24" s="648"/>
-      <c r="X24" s="648"/>
+      <c r="W24" s="653"/>
+      <c r="X24" s="653"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -26853,7 +26975,7 @@
         <v>44703</v>
       </c>
       <c r="F25" s="28"/>
-      <c r="G25" s="546"/>
+      <c r="G25" s="583"/>
       <c r="H25" s="29">
         <v>44703</v>
       </c>
@@ -26867,7 +26989,7 @@
       <c r="N25" s="33">
         <v>0</v>
       </c>
-      <c r="O25" s="2"/>
+      <c r="O25" s="588"/>
       <c r="P25" s="283">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -26881,8 +27003,8 @@
       </c>
       <c r="U25" s="34"/>
       <c r="V25" s="128"/>
-      <c r="W25" s="649"/>
-      <c r="X25" s="649"/>
+      <c r="W25" s="654"/>
+      <c r="X25" s="654"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -26897,7 +27019,7 @@
         <v>44704</v>
       </c>
       <c r="F26" s="28"/>
-      <c r="G26" s="546"/>
+      <c r="G26" s="583"/>
       <c r="H26" s="29">
         <v>44704</v>
       </c>
@@ -26911,7 +27033,7 @@
       <c r="N26" s="33">
         <v>0</v>
       </c>
-      <c r="O26" s="14"/>
+      <c r="O26" s="588"/>
       <c r="P26" s="284">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -26920,15 +27042,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R26" s="553">
+      <c r="R26" s="548">
         <v>0</v>
       </c>
       <c r="S26" s="128"/>
       <c r="T26" s="128"/>
       <c r="U26" s="34"/>
       <c r="V26" s="128"/>
-      <c r="W26" s="649"/>
-      <c r="X26" s="649"/>
+      <c r="W26" s="654"/>
+      <c r="X26" s="654"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -26943,7 +27065,7 @@
         <v>44705</v>
       </c>
       <c r="F27" s="28"/>
-      <c r="G27" s="546"/>
+      <c r="G27" s="583"/>
       <c r="H27" s="29">
         <v>44705</v>
       </c>
@@ -26957,7 +27079,7 @@
       <c r="N27" s="33">
         <v>0</v>
       </c>
-      <c r="O27" s="14"/>
+      <c r="O27" s="590"/>
       <c r="P27" s="39">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -26966,16 +27088,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R27" s="553">
+      <c r="R27" s="548">
         <v>0</v>
       </c>
       <c r="S27" s="128"/>
       <c r="T27" s="128"/>
       <c r="U27" s="34"/>
       <c r="V27" s="128"/>
-      <c r="W27" s="642"/>
-      <c r="X27" s="643"/>
-      <c r="Y27" s="644"/>
+      <c r="W27" s="647"/>
+      <c r="X27" s="648"/>
+      <c r="Y27" s="649"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -26989,7 +27111,7 @@
         <v>44706</v>
       </c>
       <c r="F28" s="28"/>
-      <c r="G28" s="546"/>
+      <c r="G28" s="583"/>
       <c r="H28" s="29">
         <v>44706</v>
       </c>
@@ -27003,7 +27125,7 @@
       <c r="N28" s="33">
         <v>0</v>
       </c>
-      <c r="O28" s="14"/>
+      <c r="O28" s="590"/>
       <c r="P28" s="34">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -27012,16 +27134,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R28" s="553">
+      <c r="R28" s="548">
         <v>0</v>
       </c>
       <c r="S28" s="128"/>
       <c r="T28" s="128"/>
       <c r="U28" s="34"/>
       <c r="V28" s="128"/>
-      <c r="W28" s="643"/>
-      <c r="X28" s="643"/>
-      <c r="Y28" s="644"/>
+      <c r="W28" s="648"/>
+      <c r="X28" s="648"/>
+      <c r="Y28" s="649"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -27035,7 +27157,7 @@
         <v>44707</v>
       </c>
       <c r="F29" s="28"/>
-      <c r="G29" s="546"/>
+      <c r="G29" s="583"/>
       <c r="H29" s="29">
         <v>44707</v>
       </c>
@@ -27049,7 +27171,7 @@
       <c r="N29" s="33">
         <v>0</v>
       </c>
-      <c r="O29" s="550"/>
+      <c r="O29" s="590"/>
       <c r="P29" s="34">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -27058,7 +27180,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R29" s="553">
+      <c r="R29" s="548">
         <v>0</v>
       </c>
       <c r="S29" s="128"/>
@@ -27081,7 +27203,7 @@
         <v>44708</v>
       </c>
       <c r="F30" s="28"/>
-      <c r="G30" s="546"/>
+      <c r="G30" s="583"/>
       <c r="H30" s="29">
         <v>44708</v>
       </c>
@@ -27095,7 +27217,7 @@
       <c r="N30" s="33">
         <v>0</v>
       </c>
-      <c r="O30" s="426"/>
+      <c r="O30" s="590"/>
       <c r="P30" s="34">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -27104,7 +27226,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R30" s="553">
+      <c r="R30" s="548">
         <v>0</v>
       </c>
       <c r="S30" s="128"/>
@@ -27126,13 +27248,13 @@
         <v>44709</v>
       </c>
       <c r="F31" s="28"/>
-      <c r="G31" s="546"/>
+      <c r="G31" s="583"/>
       <c r="H31" s="29">
         <v>44709</v>
       </c>
       <c r="I31" s="30"/>
       <c r="J31" s="56"/>
-      <c r="K31" s="581"/>
+      <c r="K31" s="576"/>
       <c r="L31" s="54"/>
       <c r="M31" s="32">
         <v>0</v>
@@ -27140,7 +27262,7 @@
       <c r="N31" s="33">
         <v>0</v>
       </c>
-      <c r="O31" s="425"/>
+      <c r="O31" s="590"/>
       <c r="P31" s="34">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -27149,7 +27271,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R31" s="553">
+      <c r="R31" s="548">
         <v>0</v>
       </c>
       <c r="S31" s="128"/>
@@ -27170,7 +27292,7 @@
         <v>44710</v>
       </c>
       <c r="F32" s="28"/>
-      <c r="G32" s="546"/>
+      <c r="G32" s="583"/>
       <c r="H32" s="29">
         <v>44710</v>
       </c>
@@ -27184,7 +27306,7 @@
       <c r="N32" s="33">
         <v>0</v>
       </c>
-      <c r="O32" s="2"/>
+      <c r="O32" s="586"/>
       <c r="P32" s="34">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -27193,7 +27315,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R32" s="553">
+      <c r="R32" s="548">
         <v>0</v>
       </c>
       <c r="S32" s="128"/>
@@ -27210,7 +27332,7 @@
       <c r="D33" s="65"/>
       <c r="E33" s="27"/>
       <c r="F33" s="28"/>
-      <c r="G33" s="546"/>
+      <c r="G33" s="583"/>
       <c r="H33" s="36"/>
       <c r="I33" s="30"/>
       <c r="J33" s="56"/>
@@ -27222,7 +27344,7 @@
       <c r="N33" s="33">
         <v>0</v>
       </c>
-      <c r="O33" s="2"/>
+      <c r="O33" s="586"/>
       <c r="P33" s="34">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -27231,11 +27353,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R33" s="553">
+      <c r="R33" s="548">
         <v>0</v>
       </c>
       <c r="S33" s="128"/>
-      <c r="T33" s="554"/>
+      <c r="T33" s="549"/>
       <c r="U33" s="34"/>
       <c r="V33" s="128"/>
       <c r="W33" s="128"/>
@@ -27247,12 +27369,12 @@
       <c r="C34" s="25"/>
       <c r="D34" s="64"/>
       <c r="E34" s="27"/>
-      <c r="F34" s="545"/>
-      <c r="G34" s="546"/>
+      <c r="F34" s="542"/>
+      <c r="G34" s="583"/>
       <c r="H34" s="36"/>
       <c r="I34" s="30"/>
-      <c r="J34" s="572"/>
-      <c r="K34" s="582"/>
+      <c r="J34" s="567"/>
+      <c r="K34" s="577"/>
       <c r="L34" s="9"/>
       <c r="M34" s="32">
         <v>0</v>
@@ -27260,7 +27382,7 @@
       <c r="N34" s="33">
         <v>0</v>
       </c>
-      <c r="O34" s="2"/>
+      <c r="O34" s="586"/>
       <c r="P34" s="34">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -27269,7 +27391,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R34" s="553">
+      <c r="R34" s="548">
         <v>0</v>
       </c>
       <c r="S34" s="128"/>
@@ -27285,12 +27407,12 @@
       <c r="C35" s="25"/>
       <c r="D35" s="65"/>
       <c r="E35" s="27"/>
-      <c r="F35" s="545"/>
-      <c r="G35" s="546"/>
+      <c r="F35" s="542"/>
+      <c r="G35" s="583"/>
       <c r="H35" s="36"/>
-      <c r="I35" s="547"/>
-      <c r="J35" s="572"/>
-      <c r="K35" s="583"/>
+      <c r="I35" s="543"/>
+      <c r="J35" s="567"/>
+      <c r="K35" s="578"/>
       <c r="L35" s="69"/>
       <c r="M35" s="32">
         <v>0</v>
@@ -27306,7 +27428,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R35" s="553">
+      <c r="R35" s="548">
         <v>0</v>
       </c>
       <c r="S35" s="128"/>
@@ -27322,12 +27444,12 @@
       <c r="C36" s="25"/>
       <c r="D36" s="67"/>
       <c r="E36" s="27"/>
-      <c r="F36" s="545"/>
-      <c r="G36" s="546"/>
+      <c r="F36" s="542"/>
+      <c r="G36" s="583"/>
       <c r="H36" s="36"/>
-      <c r="I36" s="547"/>
-      <c r="J36" s="572"/>
-      <c r="K36" s="584"/>
+      <c r="I36" s="543"/>
+      <c r="J36" s="567"/>
+      <c r="K36" s="579"/>
       <c r="L36" s="9"/>
       <c r="M36" s="32">
         <v>0</v>
@@ -27335,7 +27457,7 @@
       <c r="N36" s="33">
         <v>0</v>
       </c>
-      <c r="O36" s="276"/>
+      <c r="O36" s="591"/>
       <c r="P36" s="34">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -27347,7 +27469,7 @@
       <c r="R36" s="319">
         <v>0</v>
       </c>
-      <c r="S36" s="551"/>
+      <c r="S36" s="546"/>
       <c r="U36" s="34"/>
       <c r="V36" s="128"/>
       <c r="W36" s="128"/>
@@ -27359,27 +27481,33 @@
       <c r="C37" s="25"/>
       <c r="D37" s="64"/>
       <c r="E37" s="27"/>
-      <c r="F37" s="545"/>
-      <c r="G37" s="546"/>
+      <c r="F37" s="542"/>
+      <c r="G37" s="583"/>
       <c r="H37" s="36"/>
-      <c r="I37" s="547"/>
-      <c r="J37" s="56"/>
-      <c r="K37" s="38"/>
-      <c r="L37" s="39"/>
+      <c r="I37" s="543"/>
+      <c r="J37" s="56">
+        <v>44688</v>
+      </c>
+      <c r="K37" s="38" t="s">
+        <v>776</v>
+      </c>
+      <c r="L37" s="39">
+        <v>17396.62</v>
+      </c>
       <c r="M37" s="32">
         <v>0</v>
       </c>
       <c r="N37" s="33">
         <v>0</v>
       </c>
-      <c r="O37" s="276"/>
+      <c r="O37" s="591"/>
       <c r="P37" s="34">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>17396.62</v>
       </c>
       <c r="Q37" s="111">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>17396.62</v>
       </c>
       <c r="R37" s="319">
         <v>0</v>
@@ -27393,14 +27521,14 @@
       <c r="A38" s="23"/>
       <c r="B38" s="24"/>
       <c r="C38" s="25"/>
-      <c r="D38" s="511"/>
+      <c r="D38" s="510"/>
       <c r="E38" s="27"/>
-      <c r="F38" s="545"/>
-      <c r="G38" s="546"/>
+      <c r="F38" s="542"/>
+      <c r="G38" s="583"/>
       <c r="H38" s="36"/>
-      <c r="I38" s="547"/>
+      <c r="I38" s="543"/>
       <c r="J38" s="56"/>
-      <c r="K38" s="585"/>
+      <c r="K38" s="580"/>
       <c r="L38" s="39"/>
       <c r="M38" s="32">
         <v>0</v>
@@ -27428,14 +27556,14 @@
       <c r="A39" s="23"/>
       <c r="B39" s="24"/>
       <c r="C39" s="69"/>
-      <c r="D39" s="511"/>
+      <c r="D39" s="510"/>
       <c r="E39" s="27"/>
-      <c r="F39" s="548"/>
-      <c r="G39" s="546"/>
+      <c r="F39" s="544"/>
+      <c r="G39" s="583"/>
       <c r="H39" s="36"/>
-      <c r="I39" s="549"/>
+      <c r="I39" s="545"/>
       <c r="J39" s="56"/>
-      <c r="K39" s="585"/>
+      <c r="K39" s="580"/>
       <c r="L39" s="39"/>
       <c r="M39" s="32">
         <v>0</v>
@@ -27463,10 +27591,10 @@
       <c r="A40" s="23"/>
       <c r="B40" s="24"/>
       <c r="C40" s="69"/>
-      <c r="D40" s="511"/>
+      <c r="D40" s="510"/>
       <c r="E40" s="27"/>
       <c r="F40" s="70"/>
-      <c r="G40" s="2"/>
+      <c r="G40" s="583"/>
       <c r="H40" s="36"/>
       <c r="I40" s="71"/>
       <c r="J40" s="56"/>
@@ -27494,58 +27622,58 @@
       <c r="A41" s="23"/>
       <c r="B41" s="24"/>
       <c r="C41" s="72"/>
-      <c r="D41" s="512"/>
+      <c r="D41" s="511"/>
       <c r="E41" s="74"/>
       <c r="F41" s="75"/>
-      <c r="G41" s="2"/>
+      <c r="G41" s="583"/>
       <c r="H41" s="76"/>
       <c r="I41" s="77"/>
       <c r="J41" s="56"/>
       <c r="K41" s="38"/>
       <c r="L41" s="39"/>
-      <c r="M41" s="633">
+      <c r="M41" s="638">
         <f>SUM(M5:M40)</f>
-        <v>186446.5</v>
-      </c>
-      <c r="N41" s="633">
+        <v>617403.5</v>
+      </c>
+      <c r="N41" s="638">
         <f>SUM(N5:N40)</f>
-        <v>132738</v>
+        <v>413264</v>
       </c>
       <c r="P41" s="509">
         <f>SUM(P5:P40)</f>
-        <v>415378</v>
-      </c>
-      <c r="Q41" s="692">
+        <v>1330274.1200000001</v>
+      </c>
+      <c r="Q41" s="697">
         <f>SUM(Q5:Q40)</f>
-        <v>0</v>
+        <v>63372.119999999995</v>
       </c>
     </row>
     <row r="42" spans="1:24" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="23"/>
       <c r="B42" s="24"/>
       <c r="C42" s="72"/>
-      <c r="D42" s="512"/>
+      <c r="D42" s="511"/>
       <c r="E42" s="74"/>
       <c r="F42" s="75"/>
-      <c r="G42" s="2"/>
+      <c r="G42" s="583"/>
       <c r="H42" s="76"/>
       <c r="I42" s="77"/>
       <c r="J42" s="51"/>
       <c r="K42" s="173"/>
       <c r="L42" s="52"/>
-      <c r="M42" s="634"/>
-      <c r="N42" s="634"/>
+      <c r="M42" s="639"/>
+      <c r="N42" s="639"/>
       <c r="P42" s="34"/>
-      <c r="Q42" s="693"/>
+      <c r="Q42" s="698"/>
     </row>
     <row r="43" spans="1:24" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="23"/>
       <c r="B43" s="24"/>
       <c r="C43" s="72"/>
-      <c r="D43" s="512"/>
+      <c r="D43" s="511"/>
       <c r="E43" s="74"/>
       <c r="F43" s="75"/>
-      <c r="G43" s="2"/>
+      <c r="G43" s="583"/>
       <c r="H43" s="76"/>
       <c r="I43" s="77"/>
       <c r="J43" s="50"/>
@@ -27560,14 +27688,14 @@
       <c r="A44" s="23"/>
       <c r="B44" s="24"/>
       <c r="C44" s="72"/>
-      <c r="D44" s="512"/>
+      <c r="D44" s="511"/>
       <c r="E44" s="74"/>
       <c r="F44" s="75"/>
-      <c r="G44" s="2"/>
+      <c r="G44" s="583"/>
       <c r="H44" s="76"/>
       <c r="I44" s="77"/>
       <c r="J44" s="56"/>
-      <c r="K44" s="586"/>
+      <c r="K44" s="581"/>
       <c r="L44" s="39"/>
       <c r="M44" s="269"/>
       <c r="N44" s="269"/>
@@ -27578,20 +27706,20 @@
       <c r="A45" s="23"/>
       <c r="B45" s="24"/>
       <c r="C45" s="72"/>
-      <c r="D45" s="512"/>
+      <c r="D45" s="511"/>
       <c r="E45" s="74"/>
       <c r="F45" s="75"/>
-      <c r="G45" s="2"/>
+      <c r="G45" s="583"/>
       <c r="H45" s="76"/>
       <c r="I45" s="77"/>
       <c r="J45" s="56"/>
       <c r="K45" s="38"/>
       <c r="L45" s="39"/>
-      <c r="M45" s="694">
+      <c r="M45" s="699">
         <f>M41+N41</f>
-        <v>319184.5</v>
-      </c>
-      <c r="N45" s="695"/>
+        <v>1030667.5</v>
+      </c>
+      <c r="N45" s="700"/>
       <c r="P45" s="34"/>
       <c r="Q45" s="13"/>
     </row>
@@ -27599,10 +27727,10 @@
       <c r="A46" s="23"/>
       <c r="B46" s="24"/>
       <c r="C46" s="72"/>
-      <c r="D46" s="512"/>
+      <c r="D46" s="511"/>
       <c r="E46" s="74"/>
       <c r="F46" s="75"/>
-      <c r="G46" s="2"/>
+      <c r="G46" s="583"/>
       <c r="H46" s="76"/>
       <c r="I46" s="77"/>
       <c r="J46" s="56"/>
@@ -27617,10 +27745,10 @@
       <c r="A47" s="23"/>
       <c r="B47" s="24"/>
       <c r="C47" s="72"/>
-      <c r="D47" s="512"/>
+      <c r="D47" s="511"/>
       <c r="E47" s="74"/>
       <c r="F47" s="75"/>
-      <c r="G47" s="2"/>
+      <c r="G47" s="583"/>
       <c r="H47" s="76"/>
       <c r="I47" s="77"/>
       <c r="J47" s="56"/>
@@ -27638,7 +27766,7 @@
       <c r="D48" s="73"/>
       <c r="E48" s="74"/>
       <c r="F48" s="75"/>
-      <c r="G48" s="2"/>
+      <c r="G48" s="583"/>
       <c r="H48" s="76"/>
       <c r="I48" s="77"/>
       <c r="J48" s="56"/>
@@ -27660,7 +27788,7 @@
       <c r="F49" s="72"/>
       <c r="H49" s="83"/>
       <c r="I49" s="77"/>
-      <c r="J49" s="573"/>
+      <c r="J49" s="568"/>
       <c r="K49" s="164"/>
       <c r="L49" s="9"/>
       <c r="M49" s="34"/>
@@ -27669,12 +27797,12 @@
       <c r="Q49" s="13"/>
     </row>
     <row r="50" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="565" t="s">
+      <c r="B50" s="560" t="s">
         <v>8</v>
       </c>
       <c r="C50" s="87">
         <f>SUM(C5:C49)</f>
-        <v>63611</v>
+        <v>206457</v>
       </c>
       <c r="D50" s="88"/>
       <c r="E50" s="91" t="s">
@@ -27682,15 +27810,15 @@
       </c>
       <c r="F50" s="90">
         <f>SUM(F5:F49)</f>
-        <v>413932</v>
-      </c>
-      <c r="G50" s="88"/>
+        <v>1265456</v>
+      </c>
+      <c r="G50" s="584"/>
       <c r="H50" s="91" t="s">
         <v>9</v>
       </c>
       <c r="I50" s="92">
         <f>SUM(I5:I49)</f>
-        <v>12582.5</v>
+        <v>37662</v>
       </c>
       <c r="J50" s="93"/>
       <c r="K50" s="94" t="s">
@@ -27698,7 +27826,7 @@
       </c>
       <c r="L50" s="95">
         <f>SUM(L5:L49)</f>
-        <v>20000</v>
+        <v>55487.619999999995</v>
       </c>
       <c r="M50" s="96"/>
       <c r="N50" s="96"/>
@@ -27716,53 +27844,53 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="610" t="s">
+      <c r="H52" s="615" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="611"/>
-      <c r="J52" s="574"/>
-      <c r="K52" s="715">
+      <c r="I52" s="616"/>
+      <c r="J52" s="569"/>
+      <c r="K52" s="720">
         <f>I50+L50</f>
-        <v>32582.5</v>
-      </c>
-      <c r="L52" s="716"/>
+        <v>93149.62</v>
+      </c>
+      <c r="L52" s="721"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="616" t="s">
+      <c r="D53" s="621" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="616"/>
+      <c r="E53" s="621"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
-        <v>317738.5</v>
+        <v>965849.37999999989</v>
       </c>
       <c r="I53" s="102"/>
-      <c r="J53" s="575"/>
+      <c r="J53" s="570"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="640" t="s">
+      <c r="D54" s="645" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="640"/>
+      <c r="E54" s="645"/>
       <c r="F54" s="111">
         <v>0</v>
       </c>
-      <c r="I54" s="617" t="s">
+      <c r="I54" s="622" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="618"/>
-      <c r="K54" s="619">
+      <c r="J54" s="623"/>
+      <c r="K54" s="624">
         <f>F56+F57+F58</f>
-        <v>317738.5</v>
-      </c>
-      <c r="L54" s="619"/>
+        <v>965849.37999999989</v>
+      </c>
+      <c r="L54" s="624"/>
       <c r="M54" s="404"/>
       <c r="N54" s="404"/>
-      <c r="O54" s="404"/>
+      <c r="O54" s="592"/>
       <c r="P54" s="404"/>
       <c r="Q54" s="404"/>
     </row>
@@ -27776,11 +27904,11 @@
       </c>
       <c r="I55" s="105"/>
       <c r="J55" s="106"/>
-      <c r="K55" s="587"/>
+      <c r="K55" s="582"/>
       <c r="L55" s="154"/>
       <c r="M55" s="404"/>
       <c r="N55" s="404"/>
-      <c r="O55" s="404"/>
+      <c r="O55" s="592"/>
       <c r="P55" s="404"/>
       <c r="Q55" s="404"/>
     </row>
@@ -27793,18 +27921,18 @@
       </c>
       <c r="F56" s="96">
         <f>SUM(F53:F55)</f>
-        <v>317738.5</v>
-      </c>
-      <c r="H56" s="570"/>
+        <v>965849.37999999989</v>
+      </c>
+      <c r="H56" s="565"/>
       <c r="I56" s="108" t="s">
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="714">
+      <c r="K56" s="719">
         <f>-C4</f>
         <v>-2112071.92</v>
       </c>
-      <c r="L56" s="619"/>
+      <c r="L56" s="624"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -27819,22 +27947,22 @@
     </row>
     <row r="58" spans="1:17" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C58" s="112"/>
-      <c r="D58" s="599" t="s">
+      <c r="D58" s="604" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="600"/>
+      <c r="E58" s="605"/>
       <c r="F58" s="113">
         <v>0</v>
       </c>
-      <c r="I58" s="601" t="s">
+      <c r="I58" s="606" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="602"/>
-      <c r="K58" s="603">
+      <c r="J58" s="607"/>
+      <c r="K58" s="608">
         <f>K54+K56</f>
-        <v>-1794333.42</v>
-      </c>
-      <c r="L58" s="603"/>
+        <v>-1146222.54</v>
+      </c>
+      <c r="L58" s="608"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -27963,17 +28091,17 @@
     </row>
     <row r="78" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D78" s="128"/>
-      <c r="E78" s="569"/>
+      <c r="E78" s="564"/>
       <c r="F78" s="129"/>
     </row>
     <row r="79" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D79" s="128"/>
-      <c r="E79" s="569"/>
+      <c r="E79" s="564"/>
       <c r="F79" s="129"/>
     </row>
     <row r="80" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D80" s="128"/>
-      <c r="E80" s="569"/>
+      <c r="E80" s="564"/>
       <c r="F80" s="129"/>
     </row>
   </sheetData>
@@ -27993,11 +28121,6 @@
     <mergeCell ref="Q41:Q42"/>
     <mergeCell ref="K56:L56"/>
     <mergeCell ref="M45:N45"/>
-    <mergeCell ref="W4:X5"/>
-    <mergeCell ref="W19:W20"/>
-    <mergeCell ref="W21:X21"/>
-    <mergeCell ref="W23:X24"/>
-    <mergeCell ref="W25:X25"/>
     <mergeCell ref="W26:X26"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="W27:X28"/>
@@ -28008,6 +28131,11 @@
     <mergeCell ref="P3:P4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
+    <mergeCell ref="W4:X5"/>
+    <mergeCell ref="W19:W20"/>
+    <mergeCell ref="W21:X21"/>
+    <mergeCell ref="W23:X24"/>
+    <mergeCell ref="W25:X25"/>
   </mergeCells>
   <pageMargins left="0.28000000000000003" right="0.19" top="0.33" bottom="0.33" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -28067,37 +28195,37 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="21.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="556" t="s">
+      <c r="A2" s="551" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="557" t="s">
+      <c r="B2" s="552" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="558" t="s">
+      <c r="C2" s="553" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="559" t="s">
+      <c r="D2" s="554" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="560" t="s">
+      <c r="E2" s="555" t="s">
         <v>23</v>
       </c>
       <c r="F2" s="289" t="s">
         <v>210</v>
       </c>
-      <c r="I2" s="561" t="s">
+      <c r="I2" s="556" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="562" t="s">
+      <c r="J2" s="557" t="s">
         <v>265</v>
       </c>
-      <c r="K2" s="558" t="s">
+      <c r="K2" s="553" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="563" t="s">
+      <c r="L2" s="558" t="s">
         <v>22</v>
       </c>
-      <c r="M2" s="558" t="s">
+      <c r="M2" s="553" t="s">
         <v>23</v>
       </c>
       <c r="N2" s="309" t="s">
@@ -28115,7 +28243,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="245"/>
-      <c r="J3" s="564"/>
+      <c r="J3" s="559"/>
       <c r="K3" s="111"/>
       <c r="L3" s="245"/>
       <c r="M3" s="111"/>
@@ -28130,13 +28258,13 @@
       <c r="C4" s="111"/>
       <c r="D4" s="412"/>
       <c r="E4" s="111"/>
-      <c r="F4" s="555">
+      <c r="F4" s="550">
         <f t="shared" ref="F4:F67" si="0">C4-E4</f>
         <v>0</v>
       </c>
       <c r="G4" s="138"/>
       <c r="I4" s="245"/>
-      <c r="J4" s="564"/>
+      <c r="J4" s="559"/>
       <c r="K4" s="111"/>
       <c r="L4" s="245"/>
       <c r="M4" s="111"/>
@@ -28151,12 +28279,12 @@
       <c r="C5" s="111"/>
       <c r="D5" s="412"/>
       <c r="E5" s="111"/>
-      <c r="F5" s="555">
+      <c r="F5" s="550">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I5" s="245"/>
-      <c r="J5" s="564"/>
+      <c r="J5" s="559"/>
       <c r="K5" s="111"/>
       <c r="L5" s="245"/>
       <c r="M5" s="111"/>
@@ -28171,12 +28299,12 @@
       <c r="C6" s="111"/>
       <c r="D6" s="412"/>
       <c r="E6" s="111"/>
-      <c r="F6" s="555">
+      <c r="F6" s="550">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I6" s="245"/>
-      <c r="J6" s="564"/>
+      <c r="J6" s="559"/>
       <c r="K6" s="111"/>
       <c r="L6" s="245"/>
       <c r="M6" s="111"/>
@@ -28191,7 +28319,7 @@
       <c r="C7" s="111"/>
       <c r="D7" s="412"/>
       <c r="E7" s="111"/>
-      <c r="F7" s="555">
+      <c r="F7" s="550">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -28211,7 +28339,7 @@
       <c r="C8" s="111"/>
       <c r="D8" s="412"/>
       <c r="E8" s="111"/>
-      <c r="F8" s="555">
+      <c r="F8" s="550">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -28231,7 +28359,7 @@
       <c r="C9" s="111"/>
       <c r="D9" s="412"/>
       <c r="E9" s="111"/>
-      <c r="F9" s="555">
+      <c r="F9" s="550">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -28251,7 +28379,7 @@
       <c r="C10" s="111"/>
       <c r="D10" s="412"/>
       <c r="E10" s="111"/>
-      <c r="F10" s="555">
+      <c r="F10" s="550">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -28272,7 +28400,7 @@
       <c r="C11" s="111"/>
       <c r="D11" s="412"/>
       <c r="E11" s="111"/>
-      <c r="F11" s="555">
+      <c r="F11" s="550">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -28292,7 +28420,7 @@
       <c r="C12" s="111"/>
       <c r="D12" s="412"/>
       <c r="E12" s="111"/>
-      <c r="F12" s="555">
+      <c r="F12" s="550">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -28312,7 +28440,7 @@
       <c r="C13" s="111"/>
       <c r="D13" s="412"/>
       <c r="E13" s="111"/>
-      <c r="F13" s="555">
+      <c r="F13" s="550">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -28332,7 +28460,7 @@
       <c r="C14" s="111"/>
       <c r="D14" s="412"/>
       <c r="E14" s="111"/>
-      <c r="F14" s="555">
+      <c r="F14" s="550">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -28352,7 +28480,7 @@
       <c r="C15" s="111"/>
       <c r="D15" s="412"/>
       <c r="E15" s="111"/>
-      <c r="F15" s="555">
+      <c r="F15" s="550">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -28372,7 +28500,7 @@
       <c r="C16" s="111"/>
       <c r="D16" s="412"/>
       <c r="E16" s="111"/>
-      <c r="F16" s="555">
+      <c r="F16" s="550">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -28392,7 +28520,7 @@
       <c r="C17" s="111"/>
       <c r="D17" s="412"/>
       <c r="E17" s="111"/>
-      <c r="F17" s="555">
+      <c r="F17" s="550">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -28412,7 +28540,7 @@
       <c r="C18" s="111"/>
       <c r="D18" s="412"/>
       <c r="E18" s="111"/>
-      <c r="F18" s="555">
+      <c r="F18" s="550">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -28432,7 +28560,7 @@
       <c r="C19" s="111"/>
       <c r="D19" s="412"/>
       <c r="E19" s="111"/>
-      <c r="F19" s="555">
+      <c r="F19" s="550">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -28452,7 +28580,7 @@
       <c r="C20" s="111"/>
       <c r="D20" s="412"/>
       <c r="E20" s="111"/>
-      <c r="F20" s="555">
+      <c r="F20" s="550">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -28472,7 +28600,7 @@
       <c r="C21" s="111"/>
       <c r="D21" s="412"/>
       <c r="E21" s="111"/>
-      <c r="F21" s="555">
+      <c r="F21" s="550">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -28492,7 +28620,7 @@
       <c r="C22" s="111"/>
       <c r="D22" s="412"/>
       <c r="E22" s="111"/>
-      <c r="F22" s="555">
+      <c r="F22" s="550">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -28513,7 +28641,7 @@
       <c r="C23" s="111"/>
       <c r="D23" s="412"/>
       <c r="E23" s="111"/>
-      <c r="F23" s="555">
+      <c r="F23" s="550">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -28533,7 +28661,7 @@
       <c r="C24" s="111"/>
       <c r="D24" s="412"/>
       <c r="E24" s="111"/>
-      <c r="F24" s="555">
+      <c r="F24" s="550">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -28553,7 +28681,7 @@
       <c r="C25" s="111"/>
       <c r="D25" s="412"/>
       <c r="E25" s="111"/>
-      <c r="F25" s="555">
+      <c r="F25" s="550">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -28573,7 +28701,7 @@
       <c r="C26" s="111"/>
       <c r="D26" s="412"/>
       <c r="E26" s="111"/>
-      <c r="F26" s="555">
+      <c r="F26" s="550">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -28593,7 +28721,7 @@
       <c r="C27" s="111"/>
       <c r="D27" s="506"/>
       <c r="E27" s="111"/>
-      <c r="F27" s="555">
+      <c r="F27" s="550">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -28613,7 +28741,7 @@
       <c r="C28" s="111"/>
       <c r="D28" s="412"/>
       <c r="E28" s="111"/>
-      <c r="F28" s="555">
+      <c r="F28" s="550">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -28633,7 +28761,7 @@
       <c r="C29" s="111"/>
       <c r="D29" s="412"/>
       <c r="E29" s="111"/>
-      <c r="F29" s="555">
+      <c r="F29" s="550">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -28653,7 +28781,7 @@
       <c r="C30" s="111"/>
       <c r="D30" s="412"/>
       <c r="E30" s="111"/>
-      <c r="F30" s="555">
+      <c r="F30" s="550">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -28674,7 +28802,7 @@
       <c r="C31" s="111"/>
       <c r="D31" s="412"/>
       <c r="E31" s="111"/>
-      <c r="F31" s="555">
+      <c r="F31" s="550">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -28694,7 +28822,7 @@
       <c r="C32" s="111"/>
       <c r="D32" s="412"/>
       <c r="E32" s="111"/>
-      <c r="F32" s="555">
+      <c r="F32" s="550">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -28714,7 +28842,7 @@
       <c r="C33" s="111"/>
       <c r="D33" s="412"/>
       <c r="E33" s="111"/>
-      <c r="F33" s="555">
+      <c r="F33" s="550">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -28734,7 +28862,7 @@
       <c r="C34" s="111"/>
       <c r="D34" s="412"/>
       <c r="E34" s="111"/>
-      <c r="F34" s="555">
+      <c r="F34" s="550">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -28754,7 +28882,7 @@
       <c r="C35" s="111"/>
       <c r="D35" s="412"/>
       <c r="E35" s="111"/>
-      <c r="F35" s="555">
+      <c r="F35" s="550">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -28774,7 +28902,7 @@
       <c r="C36" s="111"/>
       <c r="D36" s="412"/>
       <c r="E36" s="111"/>
-      <c r="F36" s="555">
+      <c r="F36" s="550">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -28794,7 +28922,7 @@
       <c r="C37" s="111"/>
       <c r="D37" s="412"/>
       <c r="E37" s="111"/>
-      <c r="F37" s="555">
+      <c r="F37" s="550">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -28814,7 +28942,7 @@
       <c r="C38" s="111"/>
       <c r="D38" s="412"/>
       <c r="E38" s="111"/>
-      <c r="F38" s="555">
+      <c r="F38" s="550">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -28834,7 +28962,7 @@
       <c r="C39" s="111"/>
       <c r="D39" s="412"/>
       <c r="E39" s="111"/>
-      <c r="F39" s="555">
+      <c r="F39" s="550">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -28854,7 +28982,7 @@
       <c r="C40" s="111"/>
       <c r="D40" s="412"/>
       <c r="E40" s="111"/>
-      <c r="F40" s="555">
+      <c r="F40" s="550">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -28874,7 +29002,7 @@
       <c r="C41" s="111"/>
       <c r="D41" s="412"/>
       <c r="E41" s="111"/>
-      <c r="F41" s="555">
+      <c r="F41" s="550">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -28894,7 +29022,7 @@
       <c r="C42" s="111"/>
       <c r="D42" s="253"/>
       <c r="E42" s="69"/>
-      <c r="F42" s="555">
+      <c r="F42" s="550">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -28914,7 +29042,7 @@
       <c r="C43" s="111"/>
       <c r="D43" s="413"/>
       <c r="E43" s="413"/>
-      <c r="F43" s="555">
+      <c r="F43" s="550">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -28934,7 +29062,7 @@
       <c r="C44" s="111"/>
       <c r="D44" s="413"/>
       <c r="E44" s="413"/>
-      <c r="F44" s="555">
+      <c r="F44" s="550">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -28951,7 +29079,7 @@
       <c r="C45" s="111"/>
       <c r="D45" s="413"/>
       <c r="E45" s="413"/>
-      <c r="F45" s="555">
+      <c r="F45" s="550">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -28968,7 +29096,7 @@
       <c r="C46" s="111"/>
       <c r="D46" s="413"/>
       <c r="E46" s="413"/>
-      <c r="F46" s="555">
+      <c r="F46" s="550">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -28985,7 +29113,7 @@
       <c r="C47" s="111"/>
       <c r="D47" s="413"/>
       <c r="E47" s="413"/>
-      <c r="F47" s="555">
+      <c r="F47" s="550">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -29002,7 +29130,7 @@
       <c r="C48" s="111"/>
       <c r="D48" s="413"/>
       <c r="E48" s="413"/>
-      <c r="F48" s="555">
+      <c r="F48" s="550">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -29019,7 +29147,7 @@
       <c r="C49" s="111"/>
       <c r="D49" s="413"/>
       <c r="E49" s="413"/>
-      <c r="F49" s="555">
+      <c r="F49" s="550">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -29036,7 +29164,7 @@
       <c r="C50" s="413"/>
       <c r="D50" s="413"/>
       <c r="E50" s="413"/>
-      <c r="F50" s="555">
+      <c r="F50" s="550">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -29792,7 +29920,7 @@
         <f>SUM(F3:F88)</f>
         <v>0</v>
       </c>
-      <c r="K89" s="529">
+      <c r="K89" s="528">
         <f>SUM(K3:K88)</f>
         <v>0</v>
       </c>
@@ -29811,7 +29939,7 @@
       <c r="C90" s="214"/>
       <c r="D90" s="256"/>
       <c r="E90" s="3"/>
-      <c r="F90" s="650" t="s">
+      <c r="F90" s="655" t="s">
         <v>207</v>
       </c>
       <c r="K90" s="1"/>
@@ -29824,7 +29952,7 @@
       <c r="C91" s="1"/>
       <c r="D91" s="256"/>
       <c r="E91" s="3"/>
-      <c r="F91" s="651"/>
+      <c r="F91" s="656"/>
       <c r="K91" s="1"/>
       <c r="L91" s="97"/>
       <c r="M91" s="3"/>
@@ -29843,19 +29971,19 @@
     <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93" s="456"/>
       <c r="B93" s="442"/>
-      <c r="I93" s="688" t="s">
+      <c r="I93" s="693" t="s">
         <v>594</v>
       </c>
-      <c r="J93" s="689"/>
+      <c r="J93" s="694"/>
     </row>
     <row r="94" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="456"/>
-      <c r="B94" s="521"/>
-      <c r="C94" s="522"/>
-      <c r="D94" s="523"/>
-      <c r="E94" s="524"/>
-      <c r="I94" s="690"/>
-      <c r="J94" s="691"/>
+      <c r="B94" s="520"/>
+      <c r="C94" s="521"/>
+      <c r="D94" s="522"/>
+      <c r="E94" s="523"/>
+      <c r="I94" s="695"/>
+      <c r="J94" s="696"/>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" s="456"/>
@@ -29874,8 +30002,8 @@
       <c r="N96"/>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A97" s="514"/>
-      <c r="B97" s="515"/>
+      <c r="A97" s="513"/>
+      <c r="B97" s="514"/>
       <c r="C97" s="129"/>
       <c r="F97"/>
       <c r="I97"/>
@@ -29883,8 +30011,8 @@
       <c r="N97"/>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A98" s="514"/>
-      <c r="B98" s="515"/>
+      <c r="A98" s="513"/>
+      <c r="B98" s="514"/>
       <c r="C98" s="129"/>
       <c r="F98"/>
       <c r="I98"/>
@@ -29892,8 +30020,8 @@
       <c r="N98"/>
     </row>
     <row r="99" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A99" s="516"/>
-      <c r="B99" s="517"/>
+      <c r="A99" s="515"/>
+      <c r="B99" s="516"/>
       <c r="C99" s="233"/>
       <c r="F99"/>
       <c r="I99"/>
@@ -29901,8 +30029,8 @@
       <c r="N99"/>
     </row>
     <row r="100" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A100" s="516"/>
-      <c r="B100" s="517"/>
+      <c r="A100" s="515"/>
+      <c r="B100" s="516"/>
       <c r="C100" s="233"/>
       <c r="F100"/>
       <c r="I100"/>
@@ -29910,8 +30038,8 @@
       <c r="N100"/>
     </row>
     <row r="101" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A101" s="516"/>
-      <c r="B101" s="517"/>
+      <c r="A101" s="515"/>
+      <c r="B101" s="516"/>
       <c r="C101" s="233"/>
       <c r="F101"/>
       <c r="I101"/>
@@ -29919,8 +30047,8 @@
       <c r="N101"/>
     </row>
     <row r="102" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A102" s="516"/>
-      <c r="B102" s="517"/>
+      <c r="A102" s="515"/>
+      <c r="B102" s="516"/>
       <c r="C102" s="233"/>
       <c r="F102"/>
       <c r="I102"/>
@@ -29928,8 +30056,8 @@
       <c r="N102"/>
     </row>
     <row r="103" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A103" s="516"/>
-      <c r="B103" s="517"/>
+      <c r="A103" s="515"/>
+      <c r="B103" s="516"/>
       <c r="C103" s="233"/>
       <c r="F103"/>
       <c r="I103"/>
@@ -29937,8 +30065,8 @@
       <c r="N103"/>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A104" s="514"/>
-      <c r="B104" s="515"/>
+      <c r="A104" s="513"/>
+      <c r="B104" s="514"/>
       <c r="C104" s="129"/>
       <c r="E104"/>
       <c r="F104"/>
@@ -31445,7 +31573,7 @@
       <c r="A41" s="140">
         <v>44507</v>
       </c>
-      <c r="B41" s="623" t="s">
+      <c r="B41" s="628" t="s">
         <v>92</v>
       </c>
       <c r="C41" s="190">
@@ -31477,7 +31605,7 @@
       <c r="A42" s="140" t="s">
         <v>93</v>
       </c>
-      <c r="B42" s="624"/>
+      <c r="B42" s="629"/>
       <c r="C42" s="143">
         <v>0</v>
       </c>
@@ -33085,23 +33213,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="588"/>
-      <c r="C1" s="590" t="s">
+      <c r="B1" s="593"/>
+      <c r="C1" s="595" t="s">
         <v>208</v>
       </c>
-      <c r="D1" s="591"/>
-      <c r="E1" s="591"/>
-      <c r="F1" s="591"/>
-      <c r="G1" s="591"/>
-      <c r="H1" s="591"/>
-      <c r="I1" s="591"/>
-      <c r="J1" s="591"/>
-      <c r="K1" s="591"/>
-      <c r="L1" s="591"/>
-      <c r="M1" s="591"/>
+      <c r="D1" s="596"/>
+      <c r="E1" s="596"/>
+      <c r="F1" s="596"/>
+      <c r="G1" s="596"/>
+      <c r="H1" s="596"/>
+      <c r="I1" s="596"/>
+      <c r="J1" s="596"/>
+      <c r="K1" s="596"/>
+      <c r="L1" s="596"/>
+      <c r="M1" s="596"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="589"/>
+      <c r="B2" s="594"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -33111,21 +33239,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="592" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="593"/>
+      <c r="B3" s="597" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="598"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="594" t="s">
+      <c r="H3" s="599" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="594"/>
+      <c r="I3" s="599"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="631" t="s">
+      <c r="P3" s="636" t="s">
         <v>6</v>
       </c>
     </row>
@@ -33140,14 +33268,14 @@
       <c r="D4" s="18">
         <v>44507</v>
       </c>
-      <c r="E4" s="595" t="s">
+      <c r="E4" s="600" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="596"/>
-      <c r="H4" s="597" t="s">
+      <c r="F4" s="601"/>
+      <c r="H4" s="602" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="598"/>
+      <c r="I4" s="603"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -33157,14 +33285,14 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="632"/>
+      <c r="P4" s="637"/>
       <c r="Q4" s="286" t="s">
         <v>209</v>
       </c>
-      <c r="W4" s="641" t="s">
+      <c r="W4" s="646" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="641"/>
+      <c r="X4" s="646"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -33215,8 +33343,8 @@
         <f>20000+7936</f>
         <v>27936</v>
       </c>
-      <c r="W5" s="641"/>
-      <c r="X5" s="641"/>
+      <c r="W5" s="646"/>
+      <c r="X5" s="646"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -33987,7 +34115,7 @@
         <v>26370</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="645">
+      <c r="W19" s="650">
         <f>SUM(W6:W18)</f>
         <v>935136</v>
       </c>
@@ -34039,7 +34167,7 @@
         <v>16395.830000000002</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="646"/>
+      <c r="W20" s="651"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -34088,8 +34216,8 @@
         <v>19188.82</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="647"/>
-      <c r="X21" s="647"/>
+      <c r="W21" s="652"/>
+      <c r="X21" s="652"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -34190,8 +34318,8 @@
         <v>45217.29</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="648"/>
-      <c r="X23" s="648"/>
+      <c r="W23" s="653"/>
+      <c r="X23" s="653"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -34245,8 +34373,8 @@
         <v>23159.17</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="648"/>
-      <c r="X24" s="648"/>
+      <c r="W24" s="653"/>
+      <c r="X24" s="653"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -34292,8 +34420,8 @@
       <c r="R25" s="285">
         <v>28952</v>
       </c>
-      <c r="W25" s="649"/>
-      <c r="X25" s="649"/>
+      <c r="W25" s="654"/>
+      <c r="X25" s="654"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -34344,8 +34472,8 @@
       <c r="R26" s="285">
         <v>21771.5</v>
       </c>
-      <c r="W26" s="649"/>
-      <c r="X26" s="649"/>
+      <c r="W26" s="654"/>
+      <c r="X26" s="654"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -34393,9 +34521,9 @@
       <c r="R27" s="285">
         <v>14637</v>
       </c>
-      <c r="W27" s="642"/>
-      <c r="X27" s="643"/>
-      <c r="Y27" s="644"/>
+      <c r="W27" s="647"/>
+      <c r="X27" s="648"/>
+      <c r="Y27" s="649"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -34445,9 +34573,9 @@
       <c r="R28" s="285">
         <v>0</v>
       </c>
-      <c r="W28" s="643"/>
-      <c r="X28" s="643"/>
-      <c r="Y28" s="644"/>
+      <c r="W28" s="648"/>
+      <c r="X28" s="648"/>
+      <c r="Y28" s="649"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -34782,11 +34910,11 @@
       <c r="L36" s="44">
         <v>5940</v>
       </c>
-      <c r="M36" s="633">
+      <c r="M36" s="638">
         <f>SUM(M5:M35)</f>
         <v>321168.83</v>
       </c>
-      <c r="N36" s="635">
+      <c r="N36" s="640">
         <f>SUM(N5:N35)</f>
         <v>467016</v>
       </c>
@@ -34794,7 +34922,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="637">
+      <c r="Q36" s="642">
         <f>SUM(Q5:Q35)</f>
         <v>-637069.14000000013</v>
       </c>
@@ -34829,13 +34957,13 @@
       <c r="L37" s="61">
         <v>7929.62</v>
       </c>
-      <c r="M37" s="634"/>
-      <c r="N37" s="636"/>
+      <c r="M37" s="639"/>
+      <c r="N37" s="641"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="638"/>
+      <c r="Q37" s="643"/>
     </row>
     <row r="38" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="23"/>
@@ -35125,26 +35253,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="610" t="s">
+      <c r="H52" s="615" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="611"/>
+      <c r="I52" s="616"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="612">
+      <c r="K52" s="617">
         <f>I50+L50</f>
         <v>71911.59</v>
       </c>
-      <c r="L52" s="639"/>
+      <c r="L52" s="644"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D53" s="616" t="s">
+      <c r="D53" s="621" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="616"/>
+      <c r="E53" s="621"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
         <v>-25952.549999999814</v>
@@ -35153,29 +35281,29 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="640" t="s">
+      <c r="D54" s="645" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="640"/>
+      <c r="E54" s="645"/>
       <c r="F54" s="111">
         <v>-706888.38</v>
       </c>
-      <c r="I54" s="617" t="s">
+      <c r="I54" s="622" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="618"/>
-      <c r="K54" s="619">
+      <c r="J54" s="623"/>
+      <c r="K54" s="624">
         <f>F56+F57+F58</f>
         <v>1308778.3500000003</v>
       </c>
-      <c r="L54" s="619"/>
-      <c r="M54" s="625" t="s">
+      <c r="L54" s="624"/>
+      <c r="M54" s="630" t="s">
         <v>211</v>
       </c>
-      <c r="N54" s="626"/>
-      <c r="O54" s="626"/>
-      <c r="P54" s="626"/>
-      <c r="Q54" s="627"/>
+      <c r="N54" s="631"/>
+      <c r="O54" s="631"/>
+      <c r="P54" s="631"/>
+      <c r="Q54" s="632"/>
     </row>
     <row r="55" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D55" s="313" t="s">
@@ -35189,11 +35317,11 @@
       <c r="J55" s="106"/>
       <c r="K55" s="178"/>
       <c r="L55" s="107"/>
-      <c r="M55" s="628"/>
-      <c r="N55" s="629"/>
-      <c r="O55" s="629"/>
-      <c r="P55" s="629"/>
-      <c r="Q55" s="630"/>
+      <c r="M55" s="633"/>
+      <c r="N55" s="634"/>
+      <c r="O55" s="634"/>
+      <c r="P55" s="634"/>
+      <c r="Q55" s="635"/>
     </row>
     <row r="56" spans="1:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C56" s="4" t="s">
@@ -35211,11 +35339,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="621">
+      <c r="K56" s="626">
         <f>-C4</f>
         <v>-567389.35</v>
       </c>
-      <c r="L56" s="622"/>
+      <c r="L56" s="627"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -35232,22 +35360,22 @@
       <c r="C58" s="112">
         <v>44535</v>
       </c>
-      <c r="D58" s="599" t="s">
+      <c r="D58" s="604" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="600"/>
+      <c r="E58" s="605"/>
       <c r="F58" s="113">
         <v>2142307.62</v>
       </c>
-      <c r="I58" s="601" t="s">
+      <c r="I58" s="606" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="602"/>
-      <c r="K58" s="603">
+      <c r="J58" s="607"/>
+      <c r="K58" s="608">
         <f>K54+K56</f>
         <v>741389.00000000035</v>
       </c>
-      <c r="L58" s="603"/>
+      <c r="L58" s="608"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -37837,7 +37965,7 @@
       <c r="C87" s="214"/>
       <c r="D87" s="97"/>
       <c r="E87" s="3"/>
-      <c r="F87" s="650" t="s">
+      <c r="F87" s="655" t="s">
         <v>207</v>
       </c>
       <c r="K87" s="1"/>
@@ -37850,7 +37978,7 @@
       <c r="C88" s="1"/>
       <c r="D88" s="97"/>
       <c r="E88" s="3"/>
-      <c r="F88" s="651"/>
+      <c r="F88" s="656"/>
       <c r="K88" s="1"/>
       <c r="L88" s="256"/>
       <c r="M88" s="3"/>
@@ -38162,23 +38290,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="588"/>
-      <c r="C1" s="590" t="s">
+      <c r="B1" s="593"/>
+      <c r="C1" s="595" t="s">
         <v>208</v>
       </c>
-      <c r="D1" s="591"/>
-      <c r="E1" s="591"/>
-      <c r="F1" s="591"/>
-      <c r="G1" s="591"/>
-      <c r="H1" s="591"/>
-      <c r="I1" s="591"/>
-      <c r="J1" s="591"/>
-      <c r="K1" s="591"/>
-      <c r="L1" s="591"/>
-      <c r="M1" s="591"/>
+      <c r="D1" s="596"/>
+      <c r="E1" s="596"/>
+      <c r="F1" s="596"/>
+      <c r="G1" s="596"/>
+      <c r="H1" s="596"/>
+      <c r="I1" s="596"/>
+      <c r="J1" s="596"/>
+      <c r="K1" s="596"/>
+      <c r="L1" s="596"/>
+      <c r="M1" s="596"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="589"/>
+      <c r="B2" s="594"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -38188,24 +38316,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="592" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="593"/>
+      <c r="B3" s="597" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="598"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="594" t="s">
+      <c r="H3" s="599" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="594"/>
+      <c r="I3" s="599"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="631" t="s">
+      <c r="P3" s="636" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="652" t="s">
+      <c r="R3" s="657" t="s">
         <v>216</v>
       </c>
     </row>
@@ -38220,14 +38348,14 @@
       <c r="D4" s="18">
         <v>44507</v>
       </c>
-      <c r="E4" s="595" t="s">
+      <c r="E4" s="600" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="596"/>
-      <c r="H4" s="597" t="s">
+      <c r="F4" s="601"/>
+      <c r="H4" s="602" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="598"/>
+      <c r="I4" s="603"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -38237,15 +38365,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="632"/>
+      <c r="P4" s="637"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="653"/>
-      <c r="W4" s="641" t="s">
+      <c r="R4" s="658"/>
+      <c r="W4" s="646" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="641"/>
+      <c r="X4" s="646"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -38306,8 +38434,8 @@
       <c r="S5" s="324" t="s">
         <v>213</v>
       </c>
-      <c r="W5" s="641"/>
-      <c r="X5" s="641"/>
+      <c r="W5" s="646"/>
+      <c r="X5" s="646"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -39064,7 +39192,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="645">
+      <c r="W19" s="650">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -39116,7 +39244,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="646"/>
+      <c r="W20" s="651"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -39165,8 +39293,8 @@
         <v>0</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="647"/>
-      <c r="X21" s="647"/>
+      <c r="W21" s="652"/>
+      <c r="X21" s="652"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -39267,8 +39395,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="648"/>
-      <c r="X23" s="648"/>
+      <c r="W23" s="653"/>
+      <c r="X23" s="653"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -39319,8 +39447,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="648"/>
-      <c r="X24" s="648"/>
+      <c r="W24" s="653"/>
+      <c r="X24" s="653"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -39366,8 +39494,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="649"/>
-      <c r="X25" s="649"/>
+      <c r="W25" s="654"/>
+      <c r="X25" s="654"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -39415,8 +39543,8 @@
       <c r="R26" s="319">
         <v>0</v>
       </c>
-      <c r="W26" s="649"/>
-      <c r="X26" s="649"/>
+      <c r="W26" s="654"/>
+      <c r="X26" s="654"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -39476,9 +39604,9 @@
       <c r="V27" t="s">
         <v>240</v>
       </c>
-      <c r="W27" s="642"/>
-      <c r="X27" s="643"/>
-      <c r="Y27" s="644"/>
+      <c r="W27" s="647"/>
+      <c r="X27" s="648"/>
+      <c r="Y27" s="649"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -39532,9 +39660,9 @@
       <c r="V28" t="s">
         <v>240</v>
       </c>
-      <c r="W28" s="643"/>
-      <c r="X28" s="643"/>
-      <c r="Y28" s="644"/>
+      <c r="W28" s="648"/>
+      <c r="X28" s="648"/>
+      <c r="Y28" s="649"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -39850,11 +39978,11 @@
       <c r="J36" s="266"/>
       <c r="K36" s="250"/>
       <c r="L36" s="44"/>
-      <c r="M36" s="633">
+      <c r="M36" s="638">
         <f>SUM(M5:M35)</f>
         <v>1077791.3</v>
       </c>
-      <c r="N36" s="635">
+      <c r="N36" s="640">
         <f>SUM(N5:N35)</f>
         <v>936398</v>
       </c>
@@ -39862,7 +39990,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="637">
+      <c r="Q36" s="642">
         <f>SUM(Q5:Q35)</f>
         <v>-14262.940000000002</v>
       </c>
@@ -39881,13 +40009,13 @@
       <c r="J37" s="60"/>
       <c r="K37" s="41"/>
       <c r="L37" s="61"/>
-      <c r="M37" s="634"/>
-      <c r="N37" s="636"/>
+      <c r="M37" s="639"/>
+      <c r="N37" s="641"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="638"/>
+      <c r="Q37" s="643"/>
     </row>
     <row r="38" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="23"/>
@@ -40161,26 +40289,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="610" t="s">
+      <c r="H52" s="615" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="611"/>
+      <c r="I52" s="616"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="612">
+      <c r="K52" s="617">
         <f>I50+L50</f>
         <v>90750.75</v>
       </c>
-      <c r="L52" s="639"/>
+      <c r="L52" s="644"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D53" s="616" t="s">
+      <c r="D53" s="621" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="616"/>
+      <c r="E53" s="621"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
         <v>1739855.03</v>
@@ -40189,29 +40317,29 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="640" t="s">
+      <c r="D54" s="645" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="640"/>
+      <c r="E54" s="645"/>
       <c r="F54" s="111">
         <v>-1567070.66</v>
       </c>
-      <c r="I54" s="617" t="s">
+      <c r="I54" s="622" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="618"/>
-      <c r="K54" s="619">
+      <c r="J54" s="623"/>
+      <c r="K54" s="624">
         <f>F56+F57+F58</f>
         <v>703192.8600000001</v>
       </c>
-      <c r="L54" s="619"/>
-      <c r="M54" s="625" t="s">
+      <c r="L54" s="624"/>
+      <c r="M54" s="630" t="s">
         <v>211</v>
       </c>
-      <c r="N54" s="626"/>
-      <c r="O54" s="626"/>
-      <c r="P54" s="626"/>
-      <c r="Q54" s="627"/>
+      <c r="N54" s="631"/>
+      <c r="O54" s="631"/>
+      <c r="P54" s="631"/>
+      <c r="Q54" s="632"/>
     </row>
     <row r="55" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D55" s="313" t="s">
@@ -40225,11 +40353,11 @@
       <c r="J55" s="106"/>
       <c r="K55" s="178"/>
       <c r="L55" s="107"/>
-      <c r="M55" s="628"/>
-      <c r="N55" s="629"/>
-      <c r="O55" s="629"/>
-      <c r="P55" s="629"/>
-      <c r="Q55" s="630"/>
+      <c r="M55" s="633"/>
+      <c r="N55" s="634"/>
+      <c r="O55" s="634"/>
+      <c r="P55" s="634"/>
+      <c r="Q55" s="635"/>
     </row>
     <row r="56" spans="1:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C56" s="4" t="s">
@@ -40247,11 +40375,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="621">
+      <c r="K56" s="626">
         <f>-C4</f>
         <v>-567389.35</v>
       </c>
-      <c r="L56" s="622"/>
+      <c r="L56" s="627"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -40268,22 +40396,22 @@
       <c r="C58" s="112">
         <v>44563</v>
       </c>
-      <c r="D58" s="599" t="s">
+      <c r="D58" s="604" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="600"/>
+      <c r="E58" s="605"/>
       <c r="F58" s="113">
         <v>754143.23</v>
       </c>
-      <c r="I58" s="601" t="s">
+      <c r="I58" s="606" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="602"/>
-      <c r="K58" s="603">
+      <c r="J58" s="607"/>
+      <c r="K58" s="608">
         <f>K54+K56</f>
         <v>135803.51000000013</v>
       </c>
-      <c r="L58" s="603"/>
+      <c r="L58" s="608"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -42846,7 +42974,7 @@
       <c r="C75" s="214"/>
       <c r="D75" s="256"/>
       <c r="E75" s="3"/>
-      <c r="F75" s="650" t="s">
+      <c r="F75" s="655" t="s">
         <v>207</v>
       </c>
       <c r="K75" s="1"/>
@@ -42859,7 +42987,7 @@
       <c r="C76" s="1"/>
       <c r="D76" s="256"/>
       <c r="E76" s="3"/>
-      <c r="F76" s="651"/>
+      <c r="F76" s="656"/>
       <c r="K76" s="1"/>
       <c r="L76" s="256"/>
       <c r="M76" s="3"/>
@@ -43151,23 +43279,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="588"/>
-      <c r="C1" s="654" t="s">
+      <c r="B1" s="593"/>
+      <c r="C1" s="659" t="s">
         <v>316</v>
       </c>
-      <c r="D1" s="655"/>
-      <c r="E1" s="655"/>
-      <c r="F1" s="655"/>
-      <c r="G1" s="655"/>
-      <c r="H1" s="655"/>
-      <c r="I1" s="655"/>
-      <c r="J1" s="655"/>
-      <c r="K1" s="655"/>
-      <c r="L1" s="655"/>
-      <c r="M1" s="655"/>
+      <c r="D1" s="660"/>
+      <c r="E1" s="660"/>
+      <c r="F1" s="660"/>
+      <c r="G1" s="660"/>
+      <c r="H1" s="660"/>
+      <c r="I1" s="660"/>
+      <c r="J1" s="660"/>
+      <c r="K1" s="660"/>
+      <c r="L1" s="660"/>
+      <c r="M1" s="660"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="589"/>
+      <c r="B2" s="594"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -43177,24 +43305,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="592" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="593"/>
+      <c r="B3" s="597" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="598"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="594" t="s">
+      <c r="H3" s="599" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="594"/>
+      <c r="I3" s="599"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="631" t="s">
+      <c r="P3" s="636" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="652" t="s">
+      <c r="R3" s="657" t="s">
         <v>216</v>
       </c>
     </row>
@@ -43209,14 +43337,14 @@
       <c r="D4" s="18">
         <v>44563</v>
       </c>
-      <c r="E4" s="595" t="s">
+      <c r="E4" s="600" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="596"/>
-      <c r="H4" s="597" t="s">
+      <c r="F4" s="601"/>
+      <c r="H4" s="602" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="598"/>
+      <c r="I4" s="603"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -43226,15 +43354,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="632"/>
+      <c r="P4" s="637"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="653"/>
-      <c r="W4" s="641" t="s">
+      <c r="R4" s="658"/>
+      <c r="W4" s="646" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="641"/>
+      <c r="X4" s="646"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -43285,8 +43413,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="324"/>
-      <c r="W5" s="641"/>
-      <c r="X5" s="641"/>
+      <c r="W5" s="646"/>
+      <c r="X5" s="646"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -44050,7 +44178,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="645">
+      <c r="W19" s="650">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -44103,7 +44231,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="646"/>
+      <c r="W20" s="651"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -44152,8 +44280,8 @@
         <v>377273.87</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="647"/>
-      <c r="X21" s="647"/>
+      <c r="W21" s="652"/>
+      <c r="X21" s="652"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -44253,8 +44381,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="648"/>
-      <c r="X23" s="648"/>
+      <c r="W23" s="653"/>
+      <c r="X23" s="653"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -44309,8 +44437,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="648"/>
-      <c r="X24" s="648"/>
+      <c r="W24" s="653"/>
+      <c r="X24" s="653"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -44355,8 +44483,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="649"/>
-      <c r="X25" s="649"/>
+      <c r="W25" s="654"/>
+      <c r="X25" s="654"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -44404,8 +44532,8 @@
       <c r="R26" s="319">
         <v>0</v>
       </c>
-      <c r="W26" s="649"/>
-      <c r="X26" s="649"/>
+      <c r="W26" s="654"/>
+      <c r="X26" s="654"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -44459,9 +44587,9 @@
       <c r="V27" t="s">
         <v>240</v>
       </c>
-      <c r="W27" s="642"/>
-      <c r="X27" s="643"/>
-      <c r="Y27" s="644"/>
+      <c r="W27" s="647"/>
+      <c r="X27" s="648"/>
+      <c r="Y27" s="649"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -44515,9 +44643,9 @@
       <c r="V28" t="s">
         <v>240</v>
       </c>
-      <c r="W28" s="643"/>
-      <c r="X28" s="643"/>
-      <c r="Y28" s="644"/>
+      <c r="W28" s="648"/>
+      <c r="X28" s="648"/>
+      <c r="Y28" s="649"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -44828,11 +44956,11 @@
       <c r="L36" s="44">
         <v>13275.84</v>
       </c>
-      <c r="M36" s="633">
+      <c r="M36" s="638">
         <f>SUM(M5:M35)</f>
         <v>1818445.73</v>
       </c>
-      <c r="N36" s="635">
+      <c r="N36" s="640">
         <f>SUM(N5:N35)</f>
         <v>739014</v>
       </c>
@@ -44840,7 +44968,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="637">
+      <c r="Q36" s="642">
         <f>SUM(Q5:Q35)</f>
         <v>-7.2800000000133878</v>
       </c>
@@ -44865,13 +44993,13 @@
       <c r="L37" s="61">
         <v>15060.32</v>
       </c>
-      <c r="M37" s="634"/>
-      <c r="N37" s="636"/>
+      <c r="M37" s="639"/>
+      <c r="N37" s="641"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="638"/>
+      <c r="Q37" s="643"/>
       <c r="R37" s="227" t="s">
         <v>7</v>
       </c>
@@ -45164,26 +45292,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="610" t="s">
+      <c r="H52" s="615" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="611"/>
+      <c r="I52" s="616"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="612">
+      <c r="K52" s="617">
         <f>I50+L50</f>
         <v>158798.12</v>
       </c>
-      <c r="L52" s="639"/>
+      <c r="L52" s="644"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="616" t="s">
+      <c r="D53" s="621" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="616"/>
+      <c r="E53" s="621"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
         <v>2078470.75</v>
@@ -45192,22 +45320,22 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="640" t="s">
+      <c r="D54" s="645" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="640"/>
+      <c r="E54" s="645"/>
       <c r="F54" s="111">
         <v>-1448401.2</v>
       </c>
-      <c r="I54" s="617" t="s">
+      <c r="I54" s="622" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="618"/>
-      <c r="K54" s="619">
+      <c r="J54" s="623"/>
+      <c r="K54" s="624">
         <f>F56+F57+F58</f>
         <v>1025960.7</v>
       </c>
-      <c r="L54" s="619"/>
+      <c r="L54" s="624"/>
       <c r="M54" s="404"/>
       <c r="N54" s="404"/>
       <c r="O54" s="404"/>
@@ -45248,11 +45376,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="621">
+      <c r="K56" s="626">
         <f>-C4</f>
         <v>-754143.23</v>
       </c>
-      <c r="L56" s="622"/>
+      <c r="L56" s="627"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -45269,22 +45397,22 @@
       <c r="C58" s="112">
         <v>44591</v>
       </c>
-      <c r="D58" s="599" t="s">
+      <c r="D58" s="604" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="600"/>
+      <c r="E58" s="605"/>
       <c r="F58" s="113">
         <v>1149740.4099999999</v>
       </c>
-      <c r="I58" s="601" t="s">
+      <c r="I58" s="606" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="602"/>
-      <c r="K58" s="603">
+      <c r="J58" s="607"/>
+      <c r="K58" s="608">
         <f>K54+K56</f>
         <v>271817.46999999997</v>
       </c>
-      <c r="L58" s="603"/>
+      <c r="L58" s="608"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -47153,12 +47281,12 @@
     </row>
     <row r="43" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="245"/>
-      <c r="B43" s="656" t="s">
+      <c r="B43" s="661" t="s">
         <v>413</v>
       </c>
-      <c r="C43" s="657"/>
-      <c r="D43" s="657"/>
-      <c r="E43" s="658"/>
+      <c r="C43" s="662"/>
+      <c r="D43" s="662"/>
+      <c r="E43" s="663"/>
       <c r="F43" s="392">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -47186,10 +47314,10 @@
     </row>
     <row r="44" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="245"/>
-      <c r="B44" s="659"/>
-      <c r="C44" s="660"/>
-      <c r="D44" s="660"/>
-      <c r="E44" s="661"/>
+      <c r="B44" s="664"/>
+      <c r="C44" s="665"/>
+      <c r="D44" s="665"/>
+      <c r="E44" s="666"/>
       <c r="F44" s="392">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -47217,10 +47345,10 @@
     </row>
     <row r="45" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="245"/>
-      <c r="B45" s="662"/>
-      <c r="C45" s="663"/>
-      <c r="D45" s="663"/>
-      <c r="E45" s="664"/>
+      <c r="B45" s="667"/>
+      <c r="C45" s="668"/>
+      <c r="D45" s="668"/>
+      <c r="E45" s="669"/>
       <c r="F45" s="392">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -47263,10 +47391,10 @@
     </row>
     <row r="47" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="245"/>
-      <c r="B47" s="671" t="s">
+      <c r="B47" s="676" t="s">
         <v>593</v>
       </c>
-      <c r="C47" s="672"/>
+      <c r="C47" s="677"/>
       <c r="D47" s="253"/>
       <c r="E47" s="69"/>
       <c r="F47" s="137">
@@ -47288,8 +47416,8 @@
     </row>
     <row r="48" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="245"/>
-      <c r="B48" s="673"/>
-      <c r="C48" s="674"/>
+      <c r="B48" s="678"/>
+      <c r="C48" s="679"/>
       <c r="D48" s="253"/>
       <c r="E48" s="69"/>
       <c r="F48" s="137">
@@ -47297,11 +47425,11 @@
         <v>0</v>
       </c>
       <c r="I48" s="348"/>
-      <c r="J48" s="665" t="s">
+      <c r="J48" s="670" t="s">
         <v>414</v>
       </c>
-      <c r="K48" s="666"/>
-      <c r="L48" s="667"/>
+      <c r="K48" s="671"/>
+      <c r="L48" s="672"/>
       <c r="M48" s="206"/>
       <c r="N48" s="137">
         <f>N47+K48-M48</f>
@@ -47319,9 +47447,9 @@
         <v>0</v>
       </c>
       <c r="I49" s="348"/>
-      <c r="J49" s="668"/>
-      <c r="K49" s="669"/>
-      <c r="L49" s="670"/>
+      <c r="J49" s="673"/>
+      <c r="K49" s="674"/>
+      <c r="L49" s="675"/>
       <c r="M49" s="206"/>
       <c r="N49" s="137">
         <f t="shared" si="1"/>
@@ -47338,10 +47466,10 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I50" s="675" t="s">
+      <c r="I50" s="680" t="s">
         <v>594</v>
       </c>
-      <c r="J50" s="676"/>
+      <c r="J50" s="681"/>
       <c r="K50" s="215">
         <v>0</v>
       </c>
@@ -47362,8 +47490,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I51" s="675"/>
-      <c r="J51" s="676"/>
+      <c r="I51" s="680"/>
+      <c r="J51" s="681"/>
       <c r="K51" s="69"/>
       <c r="L51" s="253"/>
       <c r="M51" s="69"/>
@@ -47382,8 +47510,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I52" s="675"/>
-      <c r="J52" s="676"/>
+      <c r="I52" s="680"/>
+      <c r="J52" s="681"/>
       <c r="K52" s="69"/>
       <c r="L52" s="253"/>
       <c r="M52" s="69"/>
@@ -47402,8 +47530,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I53" s="675"/>
-      <c r="J53" s="676"/>
+      <c r="I53" s="680"/>
+      <c r="J53" s="681"/>
       <c r="K53" s="69"/>
       <c r="L53" s="253"/>
       <c r="M53" s="69"/>
@@ -47422,8 +47550,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I54" s="675"/>
-      <c r="J54" s="676"/>
+      <c r="I54" s="680"/>
+      <c r="J54" s="681"/>
       <c r="K54" s="69"/>
       <c r="L54" s="253"/>
       <c r="M54" s="69"/>
@@ -47442,8 +47570,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I55" s="675"/>
-      <c r="J55" s="676"/>
+      <c r="I55" s="680"/>
+      <c r="J55" s="681"/>
       <c r="K55" s="69"/>
       <c r="L55" s="253"/>
       <c r="M55" s="69"/>
@@ -47462,8 +47590,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I56" s="675"/>
-      <c r="J56" s="676"/>
+      <c r="I56" s="680"/>
+      <c r="J56" s="681"/>
       <c r="K56" s="69"/>
       <c r="L56" s="253"/>
       <c r="M56" s="69"/>
@@ -47482,8 +47610,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I57" s="675"/>
-      <c r="J57" s="676"/>
+      <c r="I57" s="680"/>
+      <c r="J57" s="681"/>
       <c r="K57" s="69"/>
       <c r="L57" s="253"/>
       <c r="M57" s="69"/>
@@ -47502,8 +47630,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I58" s="675"/>
-      <c r="J58" s="676"/>
+      <c r="I58" s="680"/>
+      <c r="J58" s="681"/>
       <c r="K58" s="69"/>
       <c r="L58" s="253"/>
       <c r="M58" s="69"/>
@@ -47522,8 +47650,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I59" s="675"/>
-      <c r="J59" s="676"/>
+      <c r="I59" s="680"/>
+      <c r="J59" s="681"/>
       <c r="K59" s="69"/>
       <c r="L59" s="253"/>
       <c r="M59" s="69"/>
@@ -47542,8 +47670,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I60" s="675"/>
-      <c r="J60" s="676"/>
+      <c r="I60" s="680"/>
+      <c r="J60" s="681"/>
       <c r="K60" s="69"/>
       <c r="L60" s="253"/>
       <c r="M60" s="69"/>
@@ -47562,8 +47690,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I61" s="675"/>
-      <c r="J61" s="676"/>
+      <c r="I61" s="680"/>
+      <c r="J61" s="681"/>
       <c r="K61" s="69"/>
       <c r="L61" s="253"/>
       <c r="M61" s="69"/>
@@ -47582,8 +47710,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I62" s="675"/>
-      <c r="J62" s="676"/>
+      <c r="I62" s="680"/>
+      <c r="J62" s="681"/>
       <c r="K62" s="34"/>
       <c r="L62" s="118"/>
       <c r="M62" s="34"/>
@@ -47602,8 +47730,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I63" s="675"/>
-      <c r="J63" s="676"/>
+      <c r="I63" s="680"/>
+      <c r="J63" s="681"/>
       <c r="K63" s="34"/>
       <c r="L63" s="118"/>
       <c r="M63" s="34"/>
@@ -47622,8 +47750,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I64" s="675"/>
-      <c r="J64" s="676"/>
+      <c r="I64" s="680"/>
+      <c r="J64" s="681"/>
       <c r="K64" s="34"/>
       <c r="L64" s="118"/>
       <c r="M64" s="34"/>
@@ -47642,8 +47770,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I65" s="675"/>
-      <c r="J65" s="676"/>
+      <c r="I65" s="680"/>
+      <c r="J65" s="681"/>
       <c r="K65" s="34"/>
       <c r="L65" s="118"/>
       <c r="M65" s="34"/>
@@ -47662,8 +47790,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I66" s="675"/>
-      <c r="J66" s="676"/>
+      <c r="I66" s="680"/>
+      <c r="J66" s="681"/>
       <c r="K66" s="34"/>
       <c r="L66" s="118"/>
       <c r="M66" s="34"/>
@@ -47682,8 +47810,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I67" s="675"/>
-      <c r="J67" s="676"/>
+      <c r="I67" s="680"/>
+      <c r="J67" s="681"/>
       <c r="K67" s="34"/>
       <c r="L67" s="118"/>
       <c r="M67" s="34"/>
@@ -47702,8 +47830,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I68" s="675"/>
-      <c r="J68" s="676"/>
+      <c r="I68" s="680"/>
+      <c r="J68" s="681"/>
       <c r="K68" s="69"/>
       <c r="L68" s="254"/>
       <c r="M68" s="69"/>
@@ -47722,8 +47850,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I69" s="675"/>
-      <c r="J69" s="676"/>
+      <c r="I69" s="680"/>
+      <c r="J69" s="681"/>
       <c r="K69" s="69"/>
       <c r="L69" s="254"/>
       <c r="M69" s="69"/>
@@ -47742,8 +47870,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I70" s="675"/>
-      <c r="J70" s="676"/>
+      <c r="I70" s="680"/>
+      <c r="J70" s="681"/>
       <c r="K70" s="69"/>
       <c r="L70" s="254"/>
       <c r="M70" s="69"/>
@@ -47762,8 +47890,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I71" s="675"/>
-      <c r="J71" s="676"/>
+      <c r="I71" s="680"/>
+      <c r="J71" s="681"/>
       <c r="K71" s="69"/>
       <c r="L71" s="254"/>
       <c r="M71" s="69"/>
@@ -47782,8 +47910,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I72" s="675"/>
-      <c r="J72" s="676"/>
+      <c r="I72" s="680"/>
+      <c r="J72" s="681"/>
       <c r="K72" s="69"/>
       <c r="L72" s="254"/>
       <c r="M72" s="69"/>
@@ -47802,8 +47930,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I73" s="675"/>
-      <c r="J73" s="676"/>
+      <c r="I73" s="680"/>
+      <c r="J73" s="681"/>
       <c r="K73" s="69"/>
       <c r="L73" s="254"/>
       <c r="M73" s="69"/>
@@ -47822,8 +47950,8 @@
         <f>F73+C74-E74</f>
         <v>0</v>
       </c>
-      <c r="I74" s="675"/>
-      <c r="J74" s="676"/>
+      <c r="I74" s="680"/>
+      <c r="J74" s="681"/>
       <c r="K74" s="69"/>
       <c r="L74" s="254"/>
       <c r="M74" s="69"/>
@@ -47842,8 +47970,8 @@
         <f>F74+C75-E75</f>
         <v>0</v>
       </c>
-      <c r="I75" s="675"/>
-      <c r="J75" s="676"/>
+      <c r="I75" s="680"/>
+      <c r="J75" s="681"/>
       <c r="K75" s="69"/>
       <c r="L75" s="254"/>
       <c r="M75" s="69"/>
@@ -47862,8 +47990,8 @@
         <f>F75+C76-E76</f>
         <v>0</v>
       </c>
-      <c r="I76" s="675"/>
-      <c r="J76" s="676"/>
+      <c r="I76" s="680"/>
+      <c r="J76" s="681"/>
       <c r="K76" s="69"/>
       <c r="L76" s="254"/>
       <c r="M76" s="69"/>
@@ -47882,8 +48010,8 @@
         <f>F76+C77-E77</f>
         <v>0</v>
       </c>
-      <c r="I77" s="675"/>
-      <c r="J77" s="676"/>
+      <c r="I77" s="680"/>
+      <c r="J77" s="681"/>
       <c r="K77" s="69"/>
       <c r="L77" s="254"/>
       <c r="M77" s="69"/>
@@ -47904,8 +48032,8 @@
         <f>F77+C78-E78</f>
         <v>0</v>
       </c>
-      <c r="I78" s="677"/>
-      <c r="J78" s="678"/>
+      <c r="I78" s="682"/>
+      <c r="J78" s="683"/>
       <c r="K78" s="151">
         <v>0</v>
       </c>
@@ -47950,7 +48078,7 @@
       <c r="C80" s="214"/>
       <c r="D80" s="256"/>
       <c r="E80" s="3"/>
-      <c r="F80" s="650" t="s">
+      <c r="F80" s="655" t="s">
         <v>207</v>
       </c>
       <c r="K80" s="1"/>
@@ -47962,7 +48090,7 @@
       <c r="C81" s="1"/>
       <c r="D81" s="256"/>
       <c r="E81" s="3"/>
-      <c r="F81" s="651"/>
+      <c r="F81" s="656"/>
       <c r="K81" s="1"/>
       <c r="M81" s="3"/>
       <c r="N81" s="1"/>
@@ -48250,23 +48378,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="588"/>
-      <c r="C1" s="654" t="s">
+      <c r="B1" s="593"/>
+      <c r="C1" s="659" t="s">
         <v>646</v>
       </c>
-      <c r="D1" s="655"/>
-      <c r="E1" s="655"/>
-      <c r="F1" s="655"/>
-      <c r="G1" s="655"/>
-      <c r="H1" s="655"/>
-      <c r="I1" s="655"/>
-      <c r="J1" s="655"/>
-      <c r="K1" s="655"/>
-      <c r="L1" s="655"/>
-      <c r="M1" s="655"/>
+      <c r="D1" s="660"/>
+      <c r="E1" s="660"/>
+      <c r="F1" s="660"/>
+      <c r="G1" s="660"/>
+      <c r="H1" s="660"/>
+      <c r="I1" s="660"/>
+      <c r="J1" s="660"/>
+      <c r="K1" s="660"/>
+      <c r="L1" s="660"/>
+      <c r="M1" s="660"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="589"/>
+      <c r="B2" s="594"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -48276,24 +48404,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="592" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="593"/>
+      <c r="B3" s="597" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="598"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="594" t="s">
+      <c r="H3" s="599" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="594"/>
+      <c r="I3" s="599"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="631" t="s">
+      <c r="P3" s="636" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="652" t="s">
+      <c r="R3" s="657" t="s">
         <v>216</v>
       </c>
     </row>
@@ -48308,14 +48436,14 @@
       <c r="D4" s="18">
         <v>44591</v>
       </c>
-      <c r="E4" s="595" t="s">
+      <c r="E4" s="600" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="596"/>
-      <c r="H4" s="597" t="s">
+      <c r="F4" s="601"/>
+      <c r="H4" s="602" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="598"/>
+      <c r="I4" s="603"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -48325,15 +48453,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="632"/>
+      <c r="P4" s="637"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="653"/>
-      <c r="W4" s="641" t="s">
+      <c r="R4" s="658"/>
+      <c r="W4" s="646" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="641"/>
+      <c r="X4" s="646"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -48384,8 +48512,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="324"/>
-      <c r="W5" s="641"/>
-      <c r="X5" s="641"/>
+      <c r="W5" s="646"/>
+      <c r="X5" s="646"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -49146,7 +49274,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="645">
+      <c r="W19" s="650">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -49198,7 +49326,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="646"/>
+      <c r="W20" s="651"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -49247,8 +49375,8 @@
         <v>18072</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="647"/>
-      <c r="X21" s="647"/>
+      <c r="W21" s="652"/>
+      <c r="X21" s="652"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -49347,8 +49475,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="648"/>
-      <c r="X23" s="648"/>
+      <c r="W23" s="653"/>
+      <c r="X23" s="653"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -49403,8 +49531,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="648"/>
-      <c r="X24" s="648"/>
+      <c r="W24" s="653"/>
+      <c r="X24" s="653"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -49452,8 +49580,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="649"/>
-      <c r="X25" s="649"/>
+      <c r="W25" s="654"/>
+      <c r="X25" s="654"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -49501,8 +49629,8 @@
       <c r="R26" s="319">
         <v>0</v>
       </c>
-      <c r="W26" s="649"/>
-      <c r="X26" s="649"/>
+      <c r="W26" s="654"/>
+      <c r="X26" s="654"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -49550,9 +49678,9 @@
       <c r="R27" s="319">
         <v>0</v>
       </c>
-      <c r="W27" s="642"/>
-      <c r="X27" s="643"/>
-      <c r="Y27" s="644"/>
+      <c r="W27" s="647"/>
+      <c r="X27" s="648"/>
+      <c r="Y27" s="649"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -49600,9 +49728,9 @@
       <c r="R28" s="319">
         <v>0</v>
       </c>
-      <c r="W28" s="643"/>
-      <c r="X28" s="643"/>
-      <c r="Y28" s="644"/>
+      <c r="W28" s="648"/>
+      <c r="X28" s="648"/>
+      <c r="Y28" s="649"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -49943,11 +50071,11 @@
       <c r="J36" s="266"/>
       <c r="K36" s="250"/>
       <c r="L36" s="44"/>
-      <c r="M36" s="633">
+      <c r="M36" s="638">
         <f>SUM(M5:M35)</f>
         <v>2143864.4900000002</v>
       </c>
-      <c r="N36" s="635">
+      <c r="N36" s="640">
         <f>SUM(N5:N35)</f>
         <v>791108</v>
       </c>
@@ -49955,7 +50083,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="679">
+      <c r="Q36" s="684">
         <f>SUM(Q5:Q35)</f>
         <v>111.43999999999505</v>
       </c>
@@ -49980,13 +50108,13 @@
       <c r="L37" s="61">
         <v>16518.78</v>
       </c>
-      <c r="M37" s="634"/>
-      <c r="N37" s="636"/>
+      <c r="M37" s="639"/>
+      <c r="N37" s="641"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="680"/>
+      <c r="Q37" s="685"/>
       <c r="R37" s="227" t="s">
         <v>7</v>
       </c>
@@ -50036,11 +50164,11 @@
       <c r="L39" s="61">
         <v>14981.03</v>
       </c>
-      <c r="M39" s="681">
+      <c r="M39" s="686">
         <f>M36+N36</f>
         <v>2934972.49</v>
       </c>
-      <c r="N39" s="682"/>
+      <c r="N39" s="687"/>
       <c r="P39" s="34">
         <f>SUM(P5:P38)</f>
         <v>3450079.65</v>
@@ -50288,26 +50416,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="610" t="s">
+      <c r="H52" s="615" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="611"/>
+      <c r="I52" s="616"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="612">
+      <c r="K52" s="617">
         <f>I50+L50</f>
         <v>197471.8</v>
       </c>
-      <c r="L52" s="639"/>
+      <c r="L52" s="644"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="616" t="s">
+      <c r="D53" s="621" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="616"/>
+      <c r="E53" s="621"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
         <v>2057786.11</v>
@@ -50316,22 +50444,22 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="640" t="s">
+      <c r="D54" s="645" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="640"/>
+      <c r="E54" s="645"/>
       <c r="F54" s="111">
         <v>-1702928.14</v>
       </c>
-      <c r="I54" s="617" t="s">
+      <c r="I54" s="622" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="618"/>
-      <c r="K54" s="619">
+      <c r="J54" s="623"/>
+      <c r="K54" s="624">
         <f>F56+F57+F58</f>
         <v>1147965.3400000003</v>
       </c>
-      <c r="L54" s="619"/>
+      <c r="L54" s="624"/>
       <c r="M54" s="404"/>
       <c r="N54" s="404"/>
       <c r="O54" s="404"/>
@@ -50372,11 +50500,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="621">
+      <c r="K56" s="626">
         <f>-C4</f>
         <v>-1149740.4099999999</v>
       </c>
-      <c r="L56" s="622"/>
+      <c r="L56" s="627"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -50393,22 +50521,22 @@
       <c r="C58" s="112">
         <v>44619</v>
       </c>
-      <c r="D58" s="599" t="s">
+      <c r="D58" s="604" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="600"/>
+      <c r="E58" s="605"/>
       <c r="F58" s="113">
         <v>1266568.45</v>
       </c>
-      <c r="I58" s="601" t="s">
+      <c r="I58" s="606" t="s">
         <v>97</v>
       </c>
-      <c r="J58" s="602"/>
-      <c r="K58" s="603">
+      <c r="J58" s="607"/>
+      <c r="K58" s="608">
         <f>K54+K56</f>
         <v>-1775.0699999995995</v>
       </c>
-      <c r="L58" s="603"/>
+      <c r="L58" s="608"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #05  MAYO  2022/BALANCE    ZAVALETA   MAYO    2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #05  MAYO  2022/BALANCE    ZAVALETA   MAYO    2022.xlsx
@@ -627,7 +627,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1463" uniqueCount="784">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1475" uniqueCount="790">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -2979,6 +2979,24 @@
   </si>
   <si>
     <t>QUESOS--SALSAS--POLLO</t>
+  </si>
+  <si>
+    <t>papas-pollo-quesos-longaniza-chorizo</t>
+  </si>
+  <si>
+    <t>NOMINA # 20</t>
+  </si>
+  <si>
+    <t>MIXIOTES-POLLO-JAMON</t>
+  </si>
+  <si>
+    <t>QUESOS-POLLO-LONGANIZA-JAMONES-CHISTORRA ETC</t>
+  </si>
+  <si>
+    <t>QUESOS-POLLO-JAMON</t>
+  </si>
+  <si>
+    <t>QUESOS-POLLO-LONGANIZA-PAN ARABE</t>
   </si>
 </sst>
 </file>
@@ -4911,7 +4929,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="722">
+  <cellXfs count="721">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -6105,48 +6123,12 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -6220,10 +6202,76 @@
     <xf numFmtId="44" fontId="12" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="1" fontId="43" fillId="6" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="43" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="33" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="33" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="14" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="14" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="33" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="13" fillId="0" borderId="57" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6267,39 +6315,6 @@
     </xf>
     <xf numFmtId="44" fontId="41" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="33" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="33" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="14" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="14" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="33" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="3" fillId="3" borderId="74" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -6487,20 +6502,20 @@
     <xf numFmtId="165" fontId="11" fillId="0" borderId="96" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="44" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -10451,23 +10466,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="593"/>
-      <c r="C1" s="595" t="s">
+      <c r="B1" s="616"/>
+      <c r="C1" s="618" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="596"/>
-      <c r="E1" s="596"/>
-      <c r="F1" s="596"/>
-      <c r="G1" s="596"/>
-      <c r="H1" s="596"/>
-      <c r="I1" s="596"/>
-      <c r="J1" s="596"/>
-      <c r="K1" s="596"/>
-      <c r="L1" s="596"/>
-      <c r="M1" s="596"/>
+      <c r="D1" s="619"/>
+      <c r="E1" s="619"/>
+      <c r="F1" s="619"/>
+      <c r="G1" s="619"/>
+      <c r="H1" s="619"/>
+      <c r="I1" s="619"/>
+      <c r="J1" s="619"/>
+      <c r="K1" s="619"/>
+      <c r="L1" s="619"/>
+      <c r="M1" s="619"/>
     </row>
     <row r="2" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="594"/>
+      <c r="B2" s="617"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -10477,17 +10492,17 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:19" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="597" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="598"/>
+      <c r="B3" s="620" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="621"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="599" t="s">
+      <c r="H3" s="622" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="599"/>
+      <c r="I3" s="622"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
@@ -10501,14 +10516,14 @@
         <v>0</v>
       </c>
       <c r="D4" s="18"/>
-      <c r="E4" s="600" t="s">
+      <c r="E4" s="623" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="601"/>
-      <c r="H4" s="602" t="s">
+      <c r="F4" s="624"/>
+      <c r="H4" s="625" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="603"/>
+      <c r="I4" s="626"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -10518,10 +10533,10 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="609" t="s">
+      <c r="P4" s="597" t="s">
         <v>6</v>
       </c>
-      <c r="Q4" s="610"/>
+      <c r="Q4" s="598"/>
     </row>
     <row r="5" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -11962,11 +11977,11 @@
       <c r="J39" s="60"/>
       <c r="K39" s="177"/>
       <c r="L39" s="61"/>
-      <c r="M39" s="611">
+      <c r="M39" s="599">
         <f>SUM(M5:M38)</f>
         <v>247061</v>
       </c>
-      <c r="N39" s="613">
+      <c r="N39" s="601">
         <f>SUM(N5:N38)</f>
         <v>172863</v>
       </c>
@@ -11992,8 +12007,8 @@
       <c r="J40" s="60"/>
       <c r="K40" s="41"/>
       <c r="L40" s="61"/>
-      <c r="M40" s="612"/>
-      <c r="N40" s="614"/>
+      <c r="M40" s="600"/>
+      <c r="N40" s="602"/>
       <c r="P40" s="34"/>
       <c r="Q40" s="9"/>
     </row>
@@ -12208,29 +12223,29 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="615" t="s">
+      <c r="H52" s="603" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="616"/>
+      <c r="I52" s="604"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="617">
+      <c r="K52" s="605">
         <f>I50+L50</f>
         <v>53873.49</v>
       </c>
-      <c r="L52" s="618"/>
-      <c r="M52" s="619">
+      <c r="L52" s="606"/>
+      <c r="M52" s="607">
         <f>N39+M39</f>
         <v>419924</v>
       </c>
-      <c r="N52" s="620"/>
+      <c r="N52" s="608"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D53" s="621" t="s">
+      <c r="D53" s="609" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="621"/>
+      <c r="E53" s="609"/>
       <c r="F53" s="101">
         <f>F50-K52-C50</f>
         <v>471038.61</v>
@@ -12241,22 +12256,22 @@
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="621" t="s">
+      <c r="D54" s="609" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="621"/>
+      <c r="E54" s="609"/>
       <c r="F54" s="96">
         <v>-549976.4</v>
       </c>
-      <c r="I54" s="622" t="s">
+      <c r="I54" s="610" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="623"/>
-      <c r="K54" s="624">
+      <c r="J54" s="611"/>
+      <c r="K54" s="612">
         <f>F56+F57+F58</f>
         <v>-24577.400000000023</v>
       </c>
-      <c r="L54" s="625"/>
+      <c r="L54" s="613"/>
       <c r="P54" s="34"/>
       <c r="Q54" s="9"/>
     </row>
@@ -12289,11 +12304,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="626">
+      <c r="K56" s="614">
         <f>-C4</f>
         <v>0</v>
       </c>
-      <c r="L56" s="627"/>
+      <c r="L56" s="615"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -12310,22 +12325,22 @@
       <c r="C58" s="112">
         <v>44507</v>
       </c>
-      <c r="D58" s="604" t="s">
+      <c r="D58" s="592" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="605"/>
+      <c r="E58" s="593"/>
       <c r="F58" s="113">
         <v>567389.35</v>
       </c>
-      <c r="I58" s="606" t="s">
+      <c r="I58" s="594" t="s">
         <v>97</v>
       </c>
-      <c r="J58" s="607"/>
-      <c r="K58" s="608">
+      <c r="J58" s="595"/>
+      <c r="K58" s="596">
         <f>K54+K56</f>
         <v>-24577.400000000023</v>
       </c>
-      <c r="L58" s="608"/>
+      <c r="L58" s="596"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -12469,6 +12484,12 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
     <mergeCell ref="D58:E58"/>
     <mergeCell ref="I58:J58"/>
     <mergeCell ref="K58:L58"/>
@@ -12483,12 +12504,6 @@
     <mergeCell ref="I54:J54"/>
     <mergeCell ref="K54:L54"/>
     <mergeCell ref="K56:L56"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.15748031496062992" top="0.35433070866141736" bottom="0.31496062992125984" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="75" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -14949,10 +14964,10 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I76" s="689" t="s">
+      <c r="I76" s="688" t="s">
         <v>597</v>
       </c>
-      <c r="J76" s="690"/>
+      <c r="J76" s="689"/>
       <c r="K76" s="69"/>
       <c r="L76" s="148"/>
       <c r="M76" s="69"/>
@@ -14971,8 +14986,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I77" s="691"/>
-      <c r="J77" s="692"/>
+      <c r="I77" s="690"/>
+      <c r="J77" s="691"/>
       <c r="K77" s="69"/>
       <c r="L77" s="148"/>
       <c r="M77" s="69"/>
@@ -15039,7 +15054,7 @@
       <c r="C80" s="214"/>
       <c r="D80" s="256"/>
       <c r="E80" s="3"/>
-      <c r="F80" s="655" t="s">
+      <c r="F80" s="654" t="s">
         <v>207</v>
       </c>
       <c r="K80" s="1"/>
@@ -15054,7 +15069,7 @@
       <c r="C81" s="463"/>
       <c r="D81" s="464"/>
       <c r="E81" s="3"/>
-      <c r="F81" s="656"/>
+      <c r="F81" s="655"/>
       <c r="K81" s="1"/>
       <c r="L81" s="97"/>
       <c r="M81" s="3"/>
@@ -15062,10 +15077,10 @@
     </row>
     <row r="82" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A82" s="435"/>
-      <c r="B82" s="688" t="s">
+      <c r="B82" s="687" t="s">
         <v>595</v>
       </c>
-      <c r="C82" s="688"/>
+      <c r="C82" s="687"/>
       <c r="I82"/>
       <c r="J82" s="194"/>
     </row>
@@ -15347,23 +15362,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="593"/>
-      <c r="C1" s="659" t="s">
+      <c r="B1" s="616"/>
+      <c r="C1" s="658" t="s">
         <v>451</v>
       </c>
-      <c r="D1" s="660"/>
-      <c r="E1" s="660"/>
-      <c r="F1" s="660"/>
-      <c r="G1" s="660"/>
-      <c r="H1" s="660"/>
-      <c r="I1" s="660"/>
-      <c r="J1" s="660"/>
-      <c r="K1" s="660"/>
-      <c r="L1" s="660"/>
-      <c r="M1" s="660"/>
+      <c r="D1" s="659"/>
+      <c r="E1" s="659"/>
+      <c r="F1" s="659"/>
+      <c r="G1" s="659"/>
+      <c r="H1" s="659"/>
+      <c r="I1" s="659"/>
+      <c r="J1" s="659"/>
+      <c r="K1" s="659"/>
+      <c r="L1" s="659"/>
+      <c r="M1" s="659"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="594"/>
+      <c r="B2" s="617"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -15373,24 +15388,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="597" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="598"/>
+      <c r="B3" s="620" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="621"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="599" t="s">
+      <c r="H3" s="622" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="599"/>
+      <c r="I3" s="622"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="636" t="s">
+      <c r="P3" s="646" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="657" t="s">
+      <c r="R3" s="656" t="s">
         <v>216</v>
       </c>
     </row>
@@ -15405,14 +15420,14 @@
       <c r="D4" s="18">
         <v>44619</v>
       </c>
-      <c r="E4" s="600" t="s">
+      <c r="E4" s="623" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="601"/>
-      <c r="H4" s="602" t="s">
+      <c r="F4" s="624"/>
+      <c r="H4" s="625" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="603"/>
+      <c r="I4" s="626"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -15422,15 +15437,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="637"/>
+      <c r="P4" s="647"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="658"/>
-      <c r="W4" s="646" t="s">
+      <c r="R4" s="657"/>
+      <c r="W4" s="629" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="646"/>
+      <c r="X4" s="629"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -15481,8 +15496,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="324"/>
-      <c r="W5" s="646"/>
-      <c r="X5" s="646"/>
+      <c r="W5" s="629"/>
+      <c r="X5" s="629"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -16245,7 +16260,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="650">
+      <c r="W19" s="633">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -16297,7 +16312,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="651"/>
+      <c r="W20" s="634"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -16346,8 +16361,8 @@
         <v>0</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="652"/>
-      <c r="X21" s="652"/>
+      <c r="W21" s="635"/>
+      <c r="X21" s="635"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -16447,8 +16462,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="653"/>
-      <c r="X23" s="653"/>
+      <c r="W23" s="636"/>
+      <c r="X23" s="636"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -16503,8 +16518,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="653"/>
-      <c r="X24" s="653"/>
+      <c r="W24" s="636"/>
+      <c r="X24" s="636"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -16552,8 +16567,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="654"/>
-      <c r="X25" s="654"/>
+      <c r="W25" s="637"/>
+      <c r="X25" s="637"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -16602,8 +16617,8 @@
       <c r="R26" s="319">
         <v>0</v>
       </c>
-      <c r="W26" s="654"/>
-      <c r="X26" s="654"/>
+      <c r="W26" s="637"/>
+      <c r="X26" s="637"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -16651,9 +16666,9 @@
       <c r="R27" s="388">
         <v>170</v>
       </c>
-      <c r="W27" s="647"/>
-      <c r="X27" s="648"/>
-      <c r="Y27" s="649"/>
+      <c r="W27" s="630"/>
+      <c r="X27" s="631"/>
+      <c r="Y27" s="632"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -16701,9 +16716,9 @@
       <c r="R28" s="388">
         <v>37374.36</v>
       </c>
-      <c r="W28" s="648"/>
-      <c r="X28" s="648"/>
-      <c r="Y28" s="649"/>
+      <c r="W28" s="631"/>
+      <c r="X28" s="631"/>
+      <c r="Y28" s="632"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -17035,11 +17050,11 @@
       <c r="J36" s="266"/>
       <c r="K36" s="250"/>
       <c r="L36" s="44"/>
-      <c r="M36" s="638">
+      <c r="M36" s="648">
         <f>SUM(M5:M35)</f>
         <v>2220612.02</v>
       </c>
-      <c r="N36" s="640">
+      <c r="N36" s="650">
         <f>SUM(N5:N35)</f>
         <v>833865</v>
       </c>
@@ -17047,7 +17062,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="684">
+      <c r="Q36" s="683">
         <f>SUM(Q5:Q35)</f>
         <v>8.3000000000320142</v>
       </c>
@@ -17072,13 +17087,13 @@
       <c r="J37" s="60"/>
       <c r="K37" s="41"/>
       <c r="L37" s="61"/>
-      <c r="M37" s="639"/>
-      <c r="N37" s="641"/>
+      <c r="M37" s="649"/>
+      <c r="N37" s="651"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="685"/>
+      <c r="Q37" s="684"/>
       <c r="R37" s="227" t="s">
         <v>7</v>
       </c>
@@ -17123,11 +17138,11 @@
       <c r="J39" s="60"/>
       <c r="K39" s="177"/>
       <c r="L39" s="61"/>
-      <c r="M39" s="686">
+      <c r="M39" s="685">
         <f>M36+N36</f>
         <v>3054477.02</v>
       </c>
-      <c r="N39" s="687"/>
+      <c r="N39" s="686"/>
       <c r="P39" s="34">
         <f>SUM(P5:P38)</f>
         <v>3627989.66</v>
@@ -17387,26 +17402,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="615" t="s">
+      <c r="H52" s="603" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="616"/>
+      <c r="I52" s="604"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="617">
+      <c r="K52" s="605">
         <f>I50+L50</f>
         <v>217159.4</v>
       </c>
-      <c r="L52" s="644"/>
+      <c r="L52" s="638"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="621" t="s">
+      <c r="D53" s="609" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="621"/>
+      <c r="E53" s="609"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
         <v>1453241.94</v>
@@ -17415,22 +17430,22 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="645" t="s">
+      <c r="D54" s="639" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="645"/>
+      <c r="E54" s="639"/>
       <c r="F54" s="111">
         <v>-1360260.32</v>
       </c>
-      <c r="I54" s="622" t="s">
+      <c r="I54" s="610" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="623"/>
-      <c r="K54" s="624">
+      <c r="J54" s="611"/>
+      <c r="K54" s="612">
         <f>F56+F57+F58</f>
         <v>1797288.1999999997</v>
       </c>
-      <c r="L54" s="624"/>
+      <c r="L54" s="612"/>
       <c r="M54" s="404"/>
       <c r="N54" s="404"/>
       <c r="O54" s="404"/>
@@ -17471,11 +17486,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="626">
+      <c r="K56" s="614">
         <f>-C4</f>
         <v>-1266568.45</v>
       </c>
-      <c r="L56" s="627"/>
+      <c r="L56" s="615"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -17492,22 +17507,22 @@
       <c r="C58" s="112">
         <v>44647</v>
       </c>
-      <c r="D58" s="604" t="s">
+      <c r="D58" s="592" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="605"/>
+      <c r="E58" s="593"/>
       <c r="F58" s="113">
         <v>1792817.68</v>
       </c>
-      <c r="I58" s="606" t="s">
+      <c r="I58" s="594" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="607"/>
-      <c r="K58" s="608">
+      <c r="J58" s="595"/>
+      <c r="K58" s="596">
         <f>K54+K56</f>
         <v>530719.74999999977</v>
       </c>
-      <c r="L58" s="608"/>
+      <c r="L58" s="596"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -17651,6 +17666,21 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="K52:L52"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="Q36:Q37"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="M39:N39"/>
     <mergeCell ref="W26:X26"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="W27:X28"/>
@@ -17666,21 +17696,6 @@
     <mergeCell ref="W21:X21"/>
     <mergeCell ref="W23:X24"/>
     <mergeCell ref="W25:X25"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="N36:N37"/>
-    <mergeCell ref="Q36:Q37"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="K52:L52"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="K54:L54"/>
   </mergeCells>
   <pageMargins left="0.27559055118110237" right="0.15748031496062992" top="0.39370078740157483" bottom="0.27559055118110237" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="80" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -19948,7 +19963,7 @@
       <c r="C80" s="214"/>
       <c r="D80" s="256"/>
       <c r="E80" s="3"/>
-      <c r="F80" s="655" t="s">
+      <c r="F80" s="654" t="s">
         <v>207</v>
       </c>
       <c r="K80" s="1"/>
@@ -19961,7 +19976,7 @@
       <c r="C81" s="1"/>
       <c r="D81" s="256"/>
       <c r="E81" s="3"/>
-      <c r="F81" s="656"/>
+      <c r="F81" s="655"/>
       <c r="K81" s="1"/>
       <c r="L81" s="97"/>
       <c r="M81" s="3"/>
@@ -19981,10 +19996,10 @@
     <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" s="456"/>
       <c r="B83" s="442"/>
-      <c r="I83" s="693" t="s">
+      <c r="I83" s="692" t="s">
         <v>594</v>
       </c>
-      <c r="J83" s="694"/>
+      <c r="J83" s="693"/>
     </row>
     <row r="84" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="517" t="s">
@@ -19993,8 +20008,8 @@
       <c r="B84" s="518"/>
       <c r="C84" s="519"/>
       <c r="D84" s="492"/>
-      <c r="I84" s="695"/>
-      <c r="J84" s="696"/>
+      <c r="I84" s="694"/>
+      <c r="J84" s="695"/>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" s="456"/>
@@ -20266,23 +20281,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="593"/>
-      <c r="C1" s="659" t="s">
+      <c r="B1" s="616"/>
+      <c r="C1" s="658" t="s">
         <v>620</v>
       </c>
-      <c r="D1" s="660"/>
-      <c r="E1" s="660"/>
-      <c r="F1" s="660"/>
-      <c r="G1" s="660"/>
-      <c r="H1" s="660"/>
-      <c r="I1" s="660"/>
-      <c r="J1" s="660"/>
-      <c r="K1" s="660"/>
-      <c r="L1" s="660"/>
-      <c r="M1" s="660"/>
+      <c r="D1" s="659"/>
+      <c r="E1" s="659"/>
+      <c r="F1" s="659"/>
+      <c r="G1" s="659"/>
+      <c r="H1" s="659"/>
+      <c r="I1" s="659"/>
+      <c r="J1" s="659"/>
+      <c r="K1" s="659"/>
+      <c r="L1" s="659"/>
+      <c r="M1" s="659"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="594"/>
+      <c r="B2" s="617"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -20292,24 +20307,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="597" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="598"/>
+      <c r="B3" s="620" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="621"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="599" t="s">
+      <c r="H3" s="622" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="599"/>
+      <c r="I3" s="622"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="636" t="s">
+      <c r="P3" s="646" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="657" t="s">
+      <c r="R3" s="656" t="s">
         <v>216</v>
       </c>
     </row>
@@ -20324,14 +20339,14 @@
       <c r="D4" s="18">
         <v>44647</v>
       </c>
-      <c r="E4" s="600" t="s">
+      <c r="E4" s="623" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="601"/>
-      <c r="H4" s="602" t="s">
+      <c r="F4" s="624"/>
+      <c r="H4" s="625" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="603"/>
+      <c r="I4" s="626"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -20341,15 +20356,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="637"/>
+      <c r="P4" s="647"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="658"/>
-      <c r="W4" s="646" t="s">
+      <c r="R4" s="657"/>
+      <c r="W4" s="629" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="646"/>
+      <c r="X4" s="629"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -20400,8 +20415,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="324"/>
-      <c r="W5" s="646"/>
-      <c r="X5" s="646"/>
+      <c r="W5" s="629"/>
+      <c r="X5" s="629"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -21160,7 +21175,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="650">
+      <c r="W19" s="633">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -21212,7 +21227,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="651"/>
+      <c r="W20" s="634"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -21261,8 +21276,8 @@
         <v>0</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="652"/>
-      <c r="X21" s="652"/>
+      <c r="W21" s="635"/>
+      <c r="X21" s="635"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -21359,8 +21374,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="653"/>
-      <c r="X23" s="653"/>
+      <c r="W23" s="636"/>
+      <c r="X23" s="636"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -21415,8 +21430,8 @@
         <v>642</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="653"/>
-      <c r="X24" s="653"/>
+      <c r="W24" s="636"/>
+      <c r="X24" s="636"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -21462,8 +21477,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="654"/>
-      <c r="X25" s="654"/>
+      <c r="W25" s="637"/>
+      <c r="X25" s="637"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -21514,8 +21529,8 @@
       <c r="R26" s="388">
         <v>73524.61</v>
       </c>
-      <c r="W26" s="654"/>
-      <c r="X26" s="654"/>
+      <c r="W26" s="637"/>
+      <c r="X26" s="637"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -21566,9 +21581,9 @@
       <c r="R27" s="319">
         <v>0</v>
       </c>
-      <c r="W27" s="647"/>
-      <c r="X27" s="648"/>
-      <c r="Y27" s="649"/>
+      <c r="W27" s="630"/>
+      <c r="X27" s="631"/>
+      <c r="Y27" s="632"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -21618,9 +21633,9 @@
       <c r="R28" s="319">
         <v>0</v>
       </c>
-      <c r="W28" s="648"/>
-      <c r="X28" s="648"/>
-      <c r="Y28" s="649"/>
+      <c r="W28" s="631"/>
+      <c r="X28" s="631"/>
+      <c r="Y28" s="632"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -22218,11 +22233,11 @@
       <c r="L41" s="61">
         <v>15798.5</v>
       </c>
-      <c r="M41" s="638">
+      <c r="M41" s="648">
         <f>SUM(M5:M40)</f>
         <v>2479367.6100000003</v>
       </c>
-      <c r="N41" s="638">
+      <c r="N41" s="648">
         <f>SUM(N5:N40)</f>
         <v>1195667</v>
       </c>
@@ -22230,7 +22245,7 @@
         <f>SUM(P5:P40)</f>
         <v>4355326.74</v>
       </c>
-      <c r="Q41" s="697">
+      <c r="Q41" s="696">
         <f>SUM(Q5:Q40)</f>
         <v>69878.629999999976</v>
       </c>
@@ -22254,10 +22269,10 @@
       <c r="L42" s="52">
         <v>15298.5</v>
       </c>
-      <c r="M42" s="639"/>
-      <c r="N42" s="639"/>
+      <c r="M42" s="649"/>
+      <c r="N42" s="649"/>
       <c r="P42" s="34"/>
-      <c r="Q42" s="698"/>
+      <c r="Q42" s="697"/>
     </row>
     <row r="43" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="23"/>
@@ -22327,11 +22342,11 @@
       <c r="L45" s="61">
         <v>18269.490000000002</v>
       </c>
-      <c r="M45" s="699">
+      <c r="M45" s="698">
         <f>M41+N41</f>
         <v>3675034.6100000003</v>
       </c>
-      <c r="N45" s="700"/>
+      <c r="N45" s="699"/>
       <c r="P45" s="34"/>
       <c r="Q45" s="13"/>
     </row>
@@ -22456,26 +22471,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="615" t="s">
+      <c r="H52" s="603" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="616"/>
+      <c r="I52" s="604"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="617">
+      <c r="K52" s="605">
         <f>I50+L50</f>
         <v>289121.83</v>
       </c>
-      <c r="L52" s="644"/>
+      <c r="L52" s="638"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="621" t="s">
+      <c r="D53" s="609" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="621"/>
+      <c r="E53" s="609"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
         <v>3402894.67</v>
@@ -22484,22 +22499,22 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="645" t="s">
+      <c r="D54" s="639" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="645"/>
+      <c r="E54" s="639"/>
       <c r="F54" s="111">
         <v>-1884975.46</v>
       </c>
-      <c r="I54" s="622" t="s">
+      <c r="I54" s="610" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="623"/>
-      <c r="K54" s="624">
+      <c r="J54" s="611"/>
+      <c r="K54" s="612">
         <f>F56+F57+F58</f>
         <v>3549636.8899999997</v>
       </c>
-      <c r="L54" s="624"/>
+      <c r="L54" s="612"/>
       <c r="M54" s="404"/>
       <c r="N54" s="404"/>
       <c r="O54" s="404"/>
@@ -22540,11 +22555,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="626">
+      <c r="K56" s="614">
         <f>-C4</f>
         <v>-1792817.68</v>
       </c>
-      <c r="L56" s="627"/>
+      <c r="L56" s="615"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -22561,22 +22576,22 @@
       <c r="C58" s="112">
         <v>44682</v>
       </c>
-      <c r="D58" s="604" t="s">
+      <c r="D58" s="592" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="605"/>
+      <c r="E58" s="593"/>
       <c r="F58" s="113">
         <v>2112071.92</v>
       </c>
-      <c r="I58" s="606" t="s">
+      <c r="I58" s="594" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="607"/>
-      <c r="K58" s="608">
+      <c r="J58" s="595"/>
+      <c r="K58" s="596">
         <f>K54+K56</f>
         <v>1756819.2099999997</v>
       </c>
-      <c r="L58" s="608"/>
+      <c r="L58" s="596"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -22720,6 +22735,21 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="K52:L52"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="M41:M42"/>
+    <mergeCell ref="N41:N42"/>
+    <mergeCell ref="Q41:Q42"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="M45:N45"/>
     <mergeCell ref="W26:X26"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="W27:X28"/>
@@ -22735,21 +22765,6 @@
     <mergeCell ref="W21:X21"/>
     <mergeCell ref="W23:X24"/>
     <mergeCell ref="W25:X25"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="M41:M42"/>
-    <mergeCell ref="N41:N42"/>
-    <mergeCell ref="Q41:Q42"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="K52:L52"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="K54:L54"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.39370078740157483" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="85" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -25308,7 +25323,7 @@
       <c r="C90" s="214"/>
       <c r="D90" s="256"/>
       <c r="E90" s="3"/>
-      <c r="F90" s="655" t="s">
+      <c r="F90" s="654" t="s">
         <v>207</v>
       </c>
       <c r="K90" s="1"/>
@@ -25321,7 +25336,7 @@
       <c r="C91" s="1"/>
       <c r="D91" s="256"/>
       <c r="E91" s="3"/>
-      <c r="F91" s="656"/>
+      <c r="F91" s="655"/>
       <c r="K91" s="1"/>
       <c r="L91" s="97"/>
       <c r="M91" s="3"/>
@@ -25340,10 +25355,10 @@
     <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93" s="456"/>
       <c r="B93" s="442"/>
-      <c r="I93" s="693" t="s">
+      <c r="I93" s="692" t="s">
         <v>594</v>
       </c>
-      <c r="J93" s="694"/>
+      <c r="J93" s="693"/>
     </row>
     <row r="94" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="456"/>
@@ -25353,8 +25368,8 @@
       <c r="C94" s="521"/>
       <c r="D94" s="522"/>
       <c r="E94" s="523"/>
-      <c r="I94" s="695"/>
-      <c r="J94" s="696"/>
+      <c r="I94" s="694"/>
+      <c r="J94" s="695"/>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" s="456"/>
@@ -25610,21 +25625,21 @@
   <sheetData>
     <row r="1" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F2" s="705" t="s">
+      <c r="F2" s="704" t="s">
         <v>765</v>
       </c>
-      <c r="G2" s="706"/>
-      <c r="H2" s="707"/>
+      <c r="G2" s="705"/>
+      <c r="H2" s="706"/>
     </row>
     <row r="3" spans="2:8" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="702" t="s">
+      <c r="B3" s="701" t="s">
         <v>761</v>
       </c>
-      <c r="C3" s="703"/>
-      <c r="D3" s="704"/>
-      <c r="F3" s="708"/>
-      <c r="G3" s="709"/>
-      <c r="H3" s="710"/>
+      <c r="C3" s="702"/>
+      <c r="D3" s="703"/>
+      <c r="F3" s="707"/>
+      <c r="G3" s="708"/>
+      <c r="H3" s="709"/>
     </row>
     <row r="4" spans="2:8" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="529" t="s">
@@ -25769,11 +25784,11 @@
         <f>SUM(D5:D10)</f>
         <v>264460</v>
       </c>
-      <c r="G11" s="711">
+      <c r="G11" s="710">
         <f>SUM(H5:H10)</f>
         <v>334337</v>
       </c>
-      <c r="H11" s="712"/>
+      <c r="H11" s="711"/>
     </row>
     <row r="13" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B13" s="535" t="s">
@@ -25790,23 +25805,23 @@
       <c r="C14" s="535"/>
     </row>
     <row r="15" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="715" t="s">
+      <c r="C15" s="714" t="s">
         <v>763</v>
       </c>
-      <c r="D15" s="713">
+      <c r="D15" s="712">
         <f>D11-D13</f>
         <v>-69877</v>
       </c>
     </row>
     <row r="16" spans="2:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="716"/>
-      <c r="D16" s="714"/>
+      <c r="C16" s="715"/>
+      <c r="D16" s="713"/>
     </row>
     <row r="17" spans="3:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C17" s="701" t="s">
+      <c r="C17" s="700" t="s">
         <v>766</v>
       </c>
-      <c r="D17" s="701"/>
+      <c r="D17" s="700"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -25834,7 +25849,7 @@
       <pane xSplit="1" ySplit="4" topLeftCell="I5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="S16" sqref="S16"/>
+      <selection pane="bottomRight" activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -25864,23 +25879,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="593"/>
-      <c r="C1" s="659" t="s">
+      <c r="B1" s="616"/>
+      <c r="C1" s="658" t="s">
         <v>767</v>
       </c>
-      <c r="D1" s="660"/>
-      <c r="E1" s="660"/>
-      <c r="F1" s="660"/>
-      <c r="G1" s="660"/>
-      <c r="H1" s="660"/>
-      <c r="I1" s="660"/>
-      <c r="J1" s="660"/>
-      <c r="K1" s="660"/>
-      <c r="L1" s="660"/>
-      <c r="M1" s="660"/>
+      <c r="D1" s="659"/>
+      <c r="E1" s="659"/>
+      <c r="F1" s="659"/>
+      <c r="G1" s="659"/>
+      <c r="H1" s="659"/>
+      <c r="I1" s="659"/>
+      <c r="J1" s="659"/>
+      <c r="K1" s="659"/>
+      <c r="L1" s="659"/>
+      <c r="M1" s="659"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="594"/>
+      <c r="B2" s="617"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -25890,24 +25905,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="597" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="598"/>
+      <c r="B3" s="620" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="621"/>
       <c r="D3" s="10"/>
       <c r="E3" s="563"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="599" t="s">
+      <c r="H3" s="622" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="599"/>
+      <c r="I3" s="622"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="636" t="s">
+      <c r="P3" s="646" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="657" t="s">
+      <c r="R3" s="656" t="s">
         <v>216</v>
       </c>
       <c r="U3" s="34"/>
@@ -25926,14 +25941,14 @@
       <c r="D4" s="18">
         <v>44682</v>
       </c>
-      <c r="E4" s="600" t="s">
+      <c r="E4" s="623" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="601"/>
-      <c r="H4" s="602" t="s">
+      <c r="F4" s="624"/>
+      <c r="H4" s="625" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="603"/>
+      <c r="I4" s="626"/>
       <c r="J4" s="566"/>
       <c r="K4" s="572"/>
       <c r="L4" s="573"/>
@@ -25943,15 +25958,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="637"/>
+      <c r="P4" s="647"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="658"/>
+      <c r="R4" s="657"/>
       <c r="U4" s="34"/>
       <c r="V4" s="128"/>
-      <c r="W4" s="717"/>
-      <c r="X4" s="717"/>
+      <c r="W4" s="719"/>
+      <c r="X4" s="719"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -26005,8 +26020,8 @@
       <c r="S5" s="324"/>
       <c r="U5" s="34"/>
       <c r="V5" s="128"/>
-      <c r="W5" s="717"/>
-      <c r="X5" s="717"/>
+      <c r="W5" s="719"/>
+      <c r="X5" s="719"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -26489,11 +26504,10 @@
         <v>128807</v>
       </c>
       <c r="Q14" s="325">
-        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R14" s="388">
         <v>45974</v>
-      </c>
-      <c r="R14" s="319">
-        <v>0</v>
       </c>
       <c r="S14" s="147"/>
       <c r="U14" s="34"/>
@@ -26589,7 +26603,9 @@
       <c r="N16" s="33">
         <v>27832</v>
       </c>
-      <c r="O16" s="589"/>
+      <c r="O16" s="585" t="s">
+        <v>779</v>
+      </c>
       <c r="P16" s="39">
         <f t="shared" si="1"/>
         <v>94487</v>
@@ -26613,34 +26629,50 @@
       <c r="B17" s="24">
         <v>44695</v>
       </c>
-      <c r="C17" s="25"/>
-      <c r="D17" s="42"/>
+      <c r="C17" s="25">
+        <v>23050</v>
+      </c>
+      <c r="D17" s="42" t="s">
+        <v>784</v>
+      </c>
       <c r="E17" s="27">
         <v>44695</v>
       </c>
-      <c r="F17" s="28"/>
+      <c r="F17" s="28">
+        <v>127660</v>
+      </c>
       <c r="G17" s="583"/>
       <c r="H17" s="29">
         <v>44695</v>
       </c>
-      <c r="I17" s="30"/>
-      <c r="J17" s="37"/>
-      <c r="K17" s="38"/>
-      <c r="L17" s="45"/>
+      <c r="I17" s="30">
+        <v>3373</v>
+      </c>
+      <c r="J17" s="37">
+        <v>44695</v>
+      </c>
+      <c r="K17" s="38" t="s">
+        <v>785</v>
+      </c>
+      <c r="L17" s="45">
+        <v>15841</v>
+      </c>
       <c r="M17" s="32">
-        <v>0</v>
+        <v>43450</v>
       </c>
       <c r="N17" s="33">
-        <v>0</v>
-      </c>
-      <c r="O17" s="589"/>
+        <v>41947</v>
+      </c>
+      <c r="O17" s="585" t="s">
+        <v>779</v>
+      </c>
       <c r="P17" s="39">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>127661</v>
       </c>
       <c r="Q17" s="325">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R17" s="319">
         <v>0</v>
@@ -26657,37 +26689,47 @@
       <c r="B18" s="24">
         <v>44696</v>
       </c>
-      <c r="C18" s="25"/>
-      <c r="D18" s="35"/>
+      <c r="C18" s="25">
+        <v>5884</v>
+      </c>
+      <c r="D18" s="35" t="s">
+        <v>786</v>
+      </c>
       <c r="E18" s="27">
         <v>44696</v>
       </c>
-      <c r="F18" s="28"/>
+      <c r="F18" s="28">
+        <v>88214</v>
+      </c>
       <c r="G18" s="583"/>
       <c r="H18" s="29">
         <v>44696</v>
       </c>
-      <c r="I18" s="30"/>
+      <c r="I18" s="30">
+        <v>1226</v>
+      </c>
       <c r="J18" s="37"/>
       <c r="K18" s="574"/>
       <c r="L18" s="39"/>
       <c r="M18" s="32">
-        <v>0</v>
+        <v>52335</v>
       </c>
       <c r="N18" s="33">
-        <v>0</v>
-      </c>
-      <c r="O18" s="588"/>
+        <v>28769</v>
+      </c>
+      <c r="O18" s="585" t="s">
+        <v>779</v>
+      </c>
       <c r="P18" s="39">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>88214</v>
       </c>
       <c r="Q18" s="325">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R18" s="319" t="s">
-        <v>7</v>
+      <c r="R18" s="319">
+        <v>0</v>
       </c>
       <c r="S18" s="147"/>
       <c r="U18" s="34"/>
@@ -26701,42 +26743,51 @@
       <c r="B19" s="24">
         <v>44697</v>
       </c>
-      <c r="C19" s="25"/>
-      <c r="D19" s="35"/>
+      <c r="C19" s="25">
+        <v>38814</v>
+      </c>
+      <c r="D19" s="35" t="s">
+        <v>787</v>
+      </c>
       <c r="E19" s="27">
         <v>44697</v>
       </c>
-      <c r="F19" s="28"/>
+      <c r="F19" s="28">
+        <v>120632</v>
+      </c>
       <c r="G19" s="583"/>
       <c r="H19" s="29">
         <v>44697</v>
       </c>
-      <c r="I19" s="30"/>
+      <c r="I19" s="30">
+        <v>313</v>
+      </c>
       <c r="J19" s="37"/>
       <c r="K19" s="46"/>
       <c r="L19" s="47"/>
       <c r="M19" s="32">
-        <v>0</v>
+        <v>69191</v>
       </c>
       <c r="N19" s="33">
-        <v>0</v>
-      </c>
-      <c r="O19" s="588"/>
+        <v>37777</v>
+      </c>
+      <c r="O19" s="585" t="s">
+        <v>779</v>
+      </c>
       <c r="P19" s="39">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>146095</v>
       </c>
       <c r="Q19" s="325">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R19" s="319">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="R19" s="388">
+        <v>25463</v>
       </c>
       <c r="S19" s="147"/>
       <c r="U19" s="34"/>
       <c r="V19" s="128"/>
-      <c r="W19" s="718"/>
+      <c r="W19" s="720"/>
       <c r="X19" s="547"/>
       <c r="Y19" s="233"/>
     </row>
@@ -26745,30 +26796,40 @@
       <c r="B20" s="24">
         <v>44698</v>
       </c>
-      <c r="C20" s="25"/>
-      <c r="D20" s="35"/>
+      <c r="C20" s="25">
+        <v>8125</v>
+      </c>
+      <c r="D20" s="35" t="s">
+        <v>788</v>
+      </c>
       <c r="E20" s="27">
         <v>44698</v>
       </c>
-      <c r="F20" s="28"/>
+      <c r="F20" s="28">
+        <v>93589</v>
+      </c>
       <c r="G20" s="583"/>
       <c r="H20" s="29">
         <v>44698</v>
       </c>
-      <c r="I20" s="30"/>
+      <c r="I20" s="30">
+        <v>1588</v>
+      </c>
       <c r="J20" s="37"/>
       <c r="K20" s="171"/>
       <c r="L20" s="45"/>
       <c r="M20" s="32">
-        <v>0</v>
+        <v>50155</v>
       </c>
       <c r="N20" s="33">
-        <v>0</v>
-      </c>
-      <c r="O20" s="588"/>
+        <v>33721</v>
+      </c>
+      <c r="O20" s="585" t="s">
+        <v>779</v>
+      </c>
       <c r="P20" s="39">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>93589</v>
       </c>
       <c r="Q20" s="325">
         <f t="shared" si="0"/>
@@ -26780,7 +26841,7 @@
       <c r="S20" s="147"/>
       <c r="U20" s="34"/>
       <c r="V20" s="128"/>
-      <c r="W20" s="718"/>
+      <c r="W20" s="720"/>
       <c r="X20" s="34"/>
       <c r="Y20" s="233"/>
     </row>
@@ -26789,30 +26850,41 @@
       <c r="B21" s="24">
         <v>44699</v>
       </c>
-      <c r="C21" s="25"/>
-      <c r="D21" s="35"/>
+      <c r="C21" s="25">
+        <v>17343</v>
+      </c>
+      <c r="D21" s="35" t="s">
+        <v>789</v>
+      </c>
       <c r="E21" s="27">
         <v>44699</v>
       </c>
-      <c r="F21" s="28"/>
+      <c r="F21" s="28">
+        <v>117936</v>
+      </c>
       <c r="G21" s="583"/>
       <c r="H21" s="29">
         <v>44699</v>
       </c>
-      <c r="I21" s="30"/>
+      <c r="I21" s="30">
+        <v>2157</v>
+      </c>
       <c r="J21" s="37"/>
       <c r="K21" s="575"/>
       <c r="L21" s="45"/>
       <c r="M21" s="32">
-        <v>0</v>
+        <f>55227+8192</f>
+        <v>63419</v>
       </c>
       <c r="N21" s="33">
-        <v>0</v>
-      </c>
-      <c r="O21" s="588"/>
+        <v>35017</v>
+      </c>
+      <c r="O21" s="585" t="s">
+        <v>779</v>
+      </c>
       <c r="P21" s="39">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>117936</v>
       </c>
       <c r="Q21" s="325">
         <f t="shared" si="0"/>
@@ -26824,8 +26896,8 @@
       <c r="S21" s="147"/>
       <c r="U21" s="34"/>
       <c r="V21" s="128"/>
-      <c r="W21" s="652"/>
-      <c r="X21" s="652"/>
+      <c r="W21" s="635"/>
+      <c r="X21" s="635"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -26914,8 +26986,8 @@
       <c r="S23" s="147"/>
       <c r="U23" s="34"/>
       <c r="V23" s="128"/>
-      <c r="W23" s="653"/>
-      <c r="X23" s="653"/>
+      <c r="W23" s="636"/>
+      <c r="X23" s="636"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -26959,8 +27031,8 @@
       <c r="S24" s="147"/>
       <c r="U24" s="34"/>
       <c r="V24" s="128"/>
-      <c r="W24" s="653"/>
-      <c r="X24" s="653"/>
+      <c r="W24" s="636"/>
+      <c r="X24" s="636"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -27003,8 +27075,8 @@
       </c>
       <c r="U25" s="34"/>
       <c r="V25" s="128"/>
-      <c r="W25" s="654"/>
-      <c r="X25" s="654"/>
+      <c r="W25" s="637"/>
+      <c r="X25" s="637"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -27049,8 +27121,8 @@
       <c r="T26" s="128"/>
       <c r="U26" s="34"/>
       <c r="V26" s="128"/>
-      <c r="W26" s="654"/>
-      <c r="X26" s="654"/>
+      <c r="W26" s="637"/>
+      <c r="X26" s="637"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -27079,7 +27151,7 @@
       <c r="N27" s="33">
         <v>0</v>
       </c>
-      <c r="O27" s="590"/>
+      <c r="O27" s="589"/>
       <c r="P27" s="39">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -27095,9 +27167,9 @@
       <c r="T27" s="128"/>
       <c r="U27" s="34"/>
       <c r="V27" s="128"/>
-      <c r="W27" s="647"/>
-      <c r="X27" s="648"/>
-      <c r="Y27" s="649"/>
+      <c r="W27" s="630"/>
+      <c r="X27" s="631"/>
+      <c r="Y27" s="632"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -27125,7 +27197,7 @@
       <c r="N28" s="33">
         <v>0</v>
       </c>
-      <c r="O28" s="590"/>
+      <c r="O28" s="589"/>
       <c r="P28" s="34">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -27141,9 +27213,9 @@
       <c r="T28" s="128"/>
       <c r="U28" s="34"/>
       <c r="V28" s="128"/>
-      <c r="W28" s="648"/>
-      <c r="X28" s="648"/>
-      <c r="Y28" s="649"/>
+      <c r="W28" s="631"/>
+      <c r="X28" s="631"/>
+      <c r="Y28" s="632"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -27171,7 +27243,7 @@
       <c r="N29" s="33">
         <v>0</v>
       </c>
-      <c r="O29" s="590"/>
+      <c r="O29" s="589"/>
       <c r="P29" s="34">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -27217,7 +27289,7 @@
       <c r="N30" s="33">
         <v>0</v>
       </c>
-      <c r="O30" s="590"/>
+      <c r="O30" s="589"/>
       <c r="P30" s="34">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -27262,7 +27334,7 @@
       <c r="N31" s="33">
         <v>0</v>
       </c>
-      <c r="O31" s="590"/>
+      <c r="O31" s="589"/>
       <c r="P31" s="34">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -27457,7 +27529,7 @@
       <c r="N36" s="33">
         <v>0</v>
       </c>
-      <c r="O36" s="591"/>
+      <c r="O36" s="590"/>
       <c r="P36" s="34">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -27500,7 +27572,7 @@
       <c r="N37" s="33">
         <v>0</v>
       </c>
-      <c r="O37" s="591"/>
+      <c r="O37" s="590"/>
       <c r="P37" s="34">
         <f t="shared" si="1"/>
         <v>17396.62</v>
@@ -27527,9 +27599,15 @@
       <c r="G38" s="583"/>
       <c r="H38" s="36"/>
       <c r="I38" s="543"/>
-      <c r="J38" s="56"/>
-      <c r="K38" s="580"/>
-      <c r="L38" s="39"/>
+      <c r="J38" s="56">
+        <v>44695</v>
+      </c>
+      <c r="K38" s="580" t="s">
+        <v>785</v>
+      </c>
+      <c r="L38" s="39">
+        <v>17397.240000000002</v>
+      </c>
       <c r="M38" s="32">
         <v>0</v>
       </c>
@@ -27538,11 +27616,11 @@
       </c>
       <c r="P38" s="34">
         <f>N38+M38+L38+I38+C38</f>
-        <v>0</v>
+        <v>17397.240000000002</v>
       </c>
       <c r="Q38" s="111">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>17397.240000000002</v>
       </c>
       <c r="R38" s="319">
         <v>0</v>
@@ -27631,21 +27709,21 @@
       <c r="J41" s="56"/>
       <c r="K41" s="38"/>
       <c r="L41" s="39"/>
-      <c r="M41" s="638">
+      <c r="M41" s="648">
         <f>SUM(M5:M40)</f>
-        <v>617403.5</v>
-      </c>
-      <c r="N41" s="638">
+        <v>895953.5</v>
+      </c>
+      <c r="N41" s="648">
         <f>SUM(N5:N40)</f>
-        <v>413264</v>
+        <v>590495</v>
       </c>
       <c r="P41" s="509">
         <f>SUM(P5:P40)</f>
-        <v>1330274.1200000001</v>
-      </c>
-      <c r="Q41" s="697">
+        <v>1921166.36</v>
+      </c>
+      <c r="Q41" s="696">
         <f>SUM(Q5:Q40)</f>
-        <v>63372.119999999995</v>
+        <v>34796.36</v>
       </c>
     </row>
     <row r="42" spans="1:24" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -27661,10 +27739,10 @@
       <c r="J42" s="51"/>
       <c r="K42" s="173"/>
       <c r="L42" s="52"/>
-      <c r="M42" s="639"/>
-      <c r="N42" s="639"/>
+      <c r="M42" s="649"/>
+      <c r="N42" s="649"/>
       <c r="P42" s="34"/>
-      <c r="Q42" s="698"/>
+      <c r="Q42" s="697"/>
     </row>
     <row r="43" spans="1:24" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="23"/>
@@ -27715,11 +27793,11 @@
       <c r="J45" s="56"/>
       <c r="K45" s="38"/>
       <c r="L45" s="39"/>
-      <c r="M45" s="699">
+      <c r="M45" s="698">
         <f>M41+N41</f>
-        <v>1030667.5</v>
-      </c>
-      <c r="N45" s="700"/>
+        <v>1486448.5</v>
+      </c>
+      <c r="N45" s="699"/>
       <c r="P45" s="34"/>
       <c r="Q45" s="13"/>
     </row>
@@ -27802,7 +27880,7 @@
       </c>
       <c r="C50" s="87">
         <f>SUM(C5:C49)</f>
-        <v>206457</v>
+        <v>299673</v>
       </c>
       <c r="D50" s="88"/>
       <c r="E50" s="91" t="s">
@@ -27810,7 +27888,7 @@
       </c>
       <c r="F50" s="90">
         <f>SUM(F5:F49)</f>
-        <v>1265456</v>
+        <v>1813487</v>
       </c>
       <c r="G50" s="584"/>
       <c r="H50" s="91" t="s">
@@ -27818,7 +27896,7 @@
       </c>
       <c r="I50" s="92">
         <f>SUM(I5:I49)</f>
-        <v>37662</v>
+        <v>46319</v>
       </c>
       <c r="J50" s="93"/>
       <c r="K50" s="94" t="s">
@@ -27826,7 +27904,7 @@
       </c>
       <c r="L50" s="95">
         <f>SUM(L5:L49)</f>
-        <v>55487.619999999995</v>
+        <v>88725.86</v>
       </c>
       <c r="M50" s="96"/>
       <c r="N50" s="96"/>
@@ -27844,53 +27922,53 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="615" t="s">
+      <c r="H52" s="603" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="616"/>
+      <c r="I52" s="604"/>
       <c r="J52" s="569"/>
-      <c r="K52" s="720">
+      <c r="K52" s="716">
         <f>I50+L50</f>
-        <v>93149.62</v>
-      </c>
-      <c r="L52" s="721"/>
+        <v>135044.85999999999</v>
+      </c>
+      <c r="L52" s="717"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="621" t="s">
+      <c r="D53" s="609" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="621"/>
+      <c r="E53" s="609"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
-        <v>965849.37999999989</v>
+        <v>1378769.1400000001</v>
       </c>
       <c r="I53" s="102"/>
       <c r="J53" s="570"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="645" t="s">
+      <c r="D54" s="639" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="645"/>
+      <c r="E54" s="639"/>
       <c r="F54" s="111">
         <v>0</v>
       </c>
-      <c r="I54" s="622" t="s">
+      <c r="I54" s="610" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="623"/>
-      <c r="K54" s="624">
+      <c r="J54" s="611"/>
+      <c r="K54" s="612">
         <f>F56+F57+F58</f>
-        <v>965849.37999999989</v>
-      </c>
-      <c r="L54" s="624"/>
+        <v>1378769.1400000001</v>
+      </c>
+      <c r="L54" s="612"/>
       <c r="M54" s="404"/>
       <c r="N54" s="404"/>
-      <c r="O54" s="592"/>
+      <c r="O54" s="591"/>
       <c r="P54" s="404"/>
       <c r="Q54" s="404"/>
     </row>
@@ -27908,7 +27986,7 @@
       <c r="L55" s="154"/>
       <c r="M55" s="404"/>
       <c r="N55" s="404"/>
-      <c r="O55" s="592"/>
+      <c r="O55" s="591"/>
       <c r="P55" s="404"/>
       <c r="Q55" s="404"/>
     </row>
@@ -27921,18 +27999,18 @@
       </c>
       <c r="F56" s="96">
         <f>SUM(F53:F55)</f>
-        <v>965849.37999999989</v>
+        <v>1378769.1400000001</v>
       </c>
       <c r="H56" s="565"/>
       <c r="I56" s="108" t="s">
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="719">
+      <c r="K56" s="718">
         <f>-C4</f>
         <v>-2112071.92</v>
       </c>
-      <c r="L56" s="624"/>
+      <c r="L56" s="612"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -27947,22 +28025,22 @@
     </row>
     <row r="58" spans="1:17" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C58" s="112"/>
-      <c r="D58" s="604" t="s">
+      <c r="D58" s="592" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="605"/>
+      <c r="E58" s="593"/>
       <c r="F58" s="113">
         <v>0</v>
       </c>
-      <c r="I58" s="606" t="s">
+      <c r="I58" s="594" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="607"/>
-      <c r="K58" s="608">
+      <c r="J58" s="595"/>
+      <c r="K58" s="596">
         <f>K54+K56</f>
-        <v>-1146222.54</v>
-      </c>
-      <c r="L58" s="608"/>
+        <v>-733302.7799999998</v>
+      </c>
+      <c r="L58" s="596"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -28106,21 +28184,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="K52:L52"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="K54:L54"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="M41:M42"/>
-    <mergeCell ref="N41:N42"/>
-    <mergeCell ref="Q41:Q42"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="M45:N45"/>
     <mergeCell ref="W26:X26"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="W27:X28"/>
@@ -28136,6 +28199,21 @@
     <mergeCell ref="W21:X21"/>
     <mergeCell ref="W23:X24"/>
     <mergeCell ref="W25:X25"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="M41:M42"/>
+    <mergeCell ref="N41:N42"/>
+    <mergeCell ref="Q41:Q42"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="K52:L52"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="K54:L54"/>
   </mergeCells>
   <pageMargins left="0.28000000000000003" right="0.19" top="0.33" bottom="0.33" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -29939,7 +30017,7 @@
       <c r="C90" s="214"/>
       <c r="D90" s="256"/>
       <c r="E90" s="3"/>
-      <c r="F90" s="655" t="s">
+      <c r="F90" s="654" t="s">
         <v>207</v>
       </c>
       <c r="K90" s="1"/>
@@ -29952,7 +30030,7 @@
       <c r="C91" s="1"/>
       <c r="D91" s="256"/>
       <c r="E91" s="3"/>
-      <c r="F91" s="656"/>
+      <c r="F91" s="655"/>
       <c r="K91" s="1"/>
       <c r="L91" s="97"/>
       <c r="M91" s="3"/>
@@ -29971,10 +30049,10 @@
     <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93" s="456"/>
       <c r="B93" s="442"/>
-      <c r="I93" s="693" t="s">
+      <c r="I93" s="692" t="s">
         <v>594</v>
       </c>
-      <c r="J93" s="694"/>
+      <c r="J93" s="693"/>
     </row>
     <row r="94" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="456"/>
@@ -29982,8 +30060,8 @@
       <c r="C94" s="521"/>
       <c r="D94" s="522"/>
       <c r="E94" s="523"/>
-      <c r="I94" s="695"/>
-      <c r="J94" s="696"/>
+      <c r="I94" s="694"/>
+      <c r="J94" s="695"/>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" s="456"/>
@@ -31573,7 +31651,7 @@
       <c r="A41" s="140">
         <v>44507</v>
       </c>
-      <c r="B41" s="628" t="s">
+      <c r="B41" s="627" t="s">
         <v>92</v>
       </c>
       <c r="C41" s="190">
@@ -31605,7 +31683,7 @@
       <c r="A42" s="140" t="s">
         <v>93</v>
       </c>
-      <c r="B42" s="629"/>
+      <c r="B42" s="628"/>
       <c r="C42" s="143">
         <v>0</v>
       </c>
@@ -33213,23 +33291,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="593"/>
-      <c r="C1" s="595" t="s">
+      <c r="B1" s="616"/>
+      <c r="C1" s="618" t="s">
         <v>208</v>
       </c>
-      <c r="D1" s="596"/>
-      <c r="E1" s="596"/>
-      <c r="F1" s="596"/>
-      <c r="G1" s="596"/>
-      <c r="H1" s="596"/>
-      <c r="I1" s="596"/>
-      <c r="J1" s="596"/>
-      <c r="K1" s="596"/>
-      <c r="L1" s="596"/>
-      <c r="M1" s="596"/>
+      <c r="D1" s="619"/>
+      <c r="E1" s="619"/>
+      <c r="F1" s="619"/>
+      <c r="G1" s="619"/>
+      <c r="H1" s="619"/>
+      <c r="I1" s="619"/>
+      <c r="J1" s="619"/>
+      <c r="K1" s="619"/>
+      <c r="L1" s="619"/>
+      <c r="M1" s="619"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="594"/>
+      <c r="B2" s="617"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -33239,21 +33317,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="597" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="598"/>
+      <c r="B3" s="620" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="621"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="599" t="s">
+      <c r="H3" s="622" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="599"/>
+      <c r="I3" s="622"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="636" t="s">
+      <c r="P3" s="646" t="s">
         <v>6</v>
       </c>
     </row>
@@ -33268,14 +33346,14 @@
       <c r="D4" s="18">
         <v>44507</v>
       </c>
-      <c r="E4" s="600" t="s">
+      <c r="E4" s="623" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="601"/>
-      <c r="H4" s="602" t="s">
+      <c r="F4" s="624"/>
+      <c r="H4" s="625" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="603"/>
+      <c r="I4" s="626"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -33285,14 +33363,14 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="637"/>
+      <c r="P4" s="647"/>
       <c r="Q4" s="286" t="s">
         <v>209</v>
       </c>
-      <c r="W4" s="646" t="s">
+      <c r="W4" s="629" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="646"/>
+      <c r="X4" s="629"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -33343,8 +33421,8 @@
         <f>20000+7936</f>
         <v>27936</v>
       </c>
-      <c r="W5" s="646"/>
-      <c r="X5" s="646"/>
+      <c r="W5" s="629"/>
+      <c r="X5" s="629"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -34115,7 +34193,7 @@
         <v>26370</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="650">
+      <c r="W19" s="633">
         <f>SUM(W6:W18)</f>
         <v>935136</v>
       </c>
@@ -34167,7 +34245,7 @@
         <v>16395.830000000002</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="651"/>
+      <c r="W20" s="634"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -34216,8 +34294,8 @@
         <v>19188.82</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="652"/>
-      <c r="X21" s="652"/>
+      <c r="W21" s="635"/>
+      <c r="X21" s="635"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -34318,8 +34396,8 @@
         <v>45217.29</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="653"/>
-      <c r="X23" s="653"/>
+      <c r="W23" s="636"/>
+      <c r="X23" s="636"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -34373,8 +34451,8 @@
         <v>23159.17</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="653"/>
-      <c r="X24" s="653"/>
+      <c r="W24" s="636"/>
+      <c r="X24" s="636"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -34420,8 +34498,8 @@
       <c r="R25" s="285">
         <v>28952</v>
       </c>
-      <c r="W25" s="654"/>
-      <c r="X25" s="654"/>
+      <c r="W25" s="637"/>
+      <c r="X25" s="637"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -34472,8 +34550,8 @@
       <c r="R26" s="285">
         <v>21771.5</v>
       </c>
-      <c r="W26" s="654"/>
-      <c r="X26" s="654"/>
+      <c r="W26" s="637"/>
+      <c r="X26" s="637"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -34521,9 +34599,9 @@
       <c r="R27" s="285">
         <v>14637</v>
       </c>
-      <c r="W27" s="647"/>
-      <c r="X27" s="648"/>
-      <c r="Y27" s="649"/>
+      <c r="W27" s="630"/>
+      <c r="X27" s="631"/>
+      <c r="Y27" s="632"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -34573,9 +34651,9 @@
       <c r="R28" s="285">
         <v>0</v>
       </c>
-      <c r="W28" s="648"/>
-      <c r="X28" s="648"/>
-      <c r="Y28" s="649"/>
+      <c r="W28" s="631"/>
+      <c r="X28" s="631"/>
+      <c r="Y28" s="632"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -34910,11 +34988,11 @@
       <c r="L36" s="44">
         <v>5940</v>
       </c>
-      <c r="M36" s="638">
+      <c r="M36" s="648">
         <f>SUM(M5:M35)</f>
         <v>321168.83</v>
       </c>
-      <c r="N36" s="640">
+      <c r="N36" s="650">
         <f>SUM(N5:N35)</f>
         <v>467016</v>
       </c>
@@ -34922,7 +35000,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="642">
+      <c r="Q36" s="652">
         <f>SUM(Q5:Q35)</f>
         <v>-637069.14000000013</v>
       </c>
@@ -34957,13 +35035,13 @@
       <c r="L37" s="61">
         <v>7929.62</v>
       </c>
-      <c r="M37" s="639"/>
-      <c r="N37" s="641"/>
+      <c r="M37" s="649"/>
+      <c r="N37" s="651"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="643"/>
+      <c r="Q37" s="653"/>
     </row>
     <row r="38" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="23"/>
@@ -35253,26 +35331,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="615" t="s">
+      <c r="H52" s="603" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="616"/>
+      <c r="I52" s="604"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="617">
+      <c r="K52" s="605">
         <f>I50+L50</f>
         <v>71911.59</v>
       </c>
-      <c r="L52" s="644"/>
+      <c r="L52" s="638"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D53" s="621" t="s">
+      <c r="D53" s="609" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="621"/>
+      <c r="E53" s="609"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
         <v>-25952.549999999814</v>
@@ -35281,29 +35359,29 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="645" t="s">
+      <c r="D54" s="639" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="645"/>
+      <c r="E54" s="639"/>
       <c r="F54" s="111">
         <v>-706888.38</v>
       </c>
-      <c r="I54" s="622" t="s">
+      <c r="I54" s="610" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="623"/>
-      <c r="K54" s="624">
+      <c r="J54" s="611"/>
+      <c r="K54" s="612">
         <f>F56+F57+F58</f>
         <v>1308778.3500000003</v>
       </c>
-      <c r="L54" s="624"/>
-      <c r="M54" s="630" t="s">
+      <c r="L54" s="612"/>
+      <c r="M54" s="640" t="s">
         <v>211</v>
       </c>
-      <c r="N54" s="631"/>
-      <c r="O54" s="631"/>
-      <c r="P54" s="631"/>
-      <c r="Q54" s="632"/>
+      <c r="N54" s="641"/>
+      <c r="O54" s="641"/>
+      <c r="P54" s="641"/>
+      <c r="Q54" s="642"/>
     </row>
     <row r="55" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D55" s="313" t="s">
@@ -35317,11 +35395,11 @@
       <c r="J55" s="106"/>
       <c r="K55" s="178"/>
       <c r="L55" s="107"/>
-      <c r="M55" s="633"/>
-      <c r="N55" s="634"/>
-      <c r="O55" s="634"/>
-      <c r="P55" s="634"/>
-      <c r="Q55" s="635"/>
+      <c r="M55" s="643"/>
+      <c r="N55" s="644"/>
+      <c r="O55" s="644"/>
+      <c r="P55" s="644"/>
+      <c r="Q55" s="645"/>
     </row>
     <row r="56" spans="1:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C56" s="4" t="s">
@@ -35339,11 +35417,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="626">
+      <c r="K56" s="614">
         <f>-C4</f>
         <v>-567389.35</v>
       </c>
-      <c r="L56" s="627"/>
+      <c r="L56" s="615"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -35360,22 +35438,22 @@
       <c r="C58" s="112">
         <v>44535</v>
       </c>
-      <c r="D58" s="604" t="s">
+      <c r="D58" s="592" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="605"/>
+      <c r="E58" s="593"/>
       <c r="F58" s="113">
         <v>2142307.62</v>
       </c>
-      <c r="I58" s="606" t="s">
+      <c r="I58" s="594" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="607"/>
-      <c r="K58" s="608">
+      <c r="J58" s="595"/>
+      <c r="K58" s="596">
         <f>K54+K56</f>
         <v>741389.00000000035</v>
       </c>
-      <c r="L58" s="608"/>
+      <c r="L58" s="596"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -35519,14 +35597,17 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="W4:X5"/>
-    <mergeCell ref="W27:X28"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="W19:W20"/>
-    <mergeCell ref="W21:X21"/>
-    <mergeCell ref="W23:X24"/>
-    <mergeCell ref="W25:X25"/>
-    <mergeCell ref="W26:X26"/>
+    <mergeCell ref="M54:Q55"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="Q36:Q37"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
     <mergeCell ref="D58:E58"/>
     <mergeCell ref="I58:J58"/>
     <mergeCell ref="K58:L58"/>
@@ -35537,17 +35618,14 @@
     <mergeCell ref="I54:J54"/>
     <mergeCell ref="K54:L54"/>
     <mergeCell ref="K56:L56"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="M54:Q55"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="N36:N37"/>
-    <mergeCell ref="Q36:Q37"/>
+    <mergeCell ref="W4:X5"/>
+    <mergeCell ref="W27:X28"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="W19:W20"/>
+    <mergeCell ref="W21:X21"/>
+    <mergeCell ref="W23:X24"/>
+    <mergeCell ref="W25:X25"/>
+    <mergeCell ref="W26:X26"/>
   </mergeCells>
   <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.27559055118110237" bottom="0.27559055118110237" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="68" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -37965,7 +38043,7 @@
       <c r="C87" s="214"/>
       <c r="D87" s="97"/>
       <c r="E87" s="3"/>
-      <c r="F87" s="655" t="s">
+      <c r="F87" s="654" t="s">
         <v>207</v>
       </c>
       <c r="K87" s="1"/>
@@ -37978,7 +38056,7 @@
       <c r="C88" s="1"/>
       <c r="D88" s="97"/>
       <c r="E88" s="3"/>
-      <c r="F88" s="656"/>
+      <c r="F88" s="655"/>
       <c r="K88" s="1"/>
       <c r="L88" s="256"/>
       <c r="M88" s="3"/>
@@ -38290,23 +38368,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="593"/>
-      <c r="C1" s="595" t="s">
+      <c r="B1" s="616"/>
+      <c r="C1" s="618" t="s">
         <v>208</v>
       </c>
-      <c r="D1" s="596"/>
-      <c r="E1" s="596"/>
-      <c r="F1" s="596"/>
-      <c r="G1" s="596"/>
-      <c r="H1" s="596"/>
-      <c r="I1" s="596"/>
-      <c r="J1" s="596"/>
-      <c r="K1" s="596"/>
-      <c r="L1" s="596"/>
-      <c r="M1" s="596"/>
+      <c r="D1" s="619"/>
+      <c r="E1" s="619"/>
+      <c r="F1" s="619"/>
+      <c r="G1" s="619"/>
+      <c r="H1" s="619"/>
+      <c r="I1" s="619"/>
+      <c r="J1" s="619"/>
+      <c r="K1" s="619"/>
+      <c r="L1" s="619"/>
+      <c r="M1" s="619"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="594"/>
+      <c r="B2" s="617"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -38316,24 +38394,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="597" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="598"/>
+      <c r="B3" s="620" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="621"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="599" t="s">
+      <c r="H3" s="622" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="599"/>
+      <c r="I3" s="622"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="636" t="s">
+      <c r="P3" s="646" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="657" t="s">
+      <c r="R3" s="656" t="s">
         <v>216</v>
       </c>
     </row>
@@ -38348,14 +38426,14 @@
       <c r="D4" s="18">
         <v>44507</v>
       </c>
-      <c r="E4" s="600" t="s">
+      <c r="E4" s="623" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="601"/>
-      <c r="H4" s="602" t="s">
+      <c r="F4" s="624"/>
+      <c r="H4" s="625" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="603"/>
+      <c r="I4" s="626"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -38365,15 +38443,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="637"/>
+      <c r="P4" s="647"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="658"/>
-      <c r="W4" s="646" t="s">
+      <c r="R4" s="657"/>
+      <c r="W4" s="629" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="646"/>
+      <c r="X4" s="629"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -38434,8 +38512,8 @@
       <c r="S5" s="324" t="s">
         <v>213</v>
       </c>
-      <c r="W5" s="646"/>
-      <c r="X5" s="646"/>
+      <c r="W5" s="629"/>
+      <c r="X5" s="629"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -39192,7 +39270,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="650">
+      <c r="W19" s="633">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -39244,7 +39322,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="651"/>
+      <c r="W20" s="634"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -39293,8 +39371,8 @@
         <v>0</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="652"/>
-      <c r="X21" s="652"/>
+      <c r="W21" s="635"/>
+      <c r="X21" s="635"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -39395,8 +39473,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="653"/>
-      <c r="X23" s="653"/>
+      <c r="W23" s="636"/>
+      <c r="X23" s="636"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -39447,8 +39525,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="653"/>
-      <c r="X24" s="653"/>
+      <c r="W24" s="636"/>
+      <c r="X24" s="636"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -39494,8 +39572,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="654"/>
-      <c r="X25" s="654"/>
+      <c r="W25" s="637"/>
+      <c r="X25" s="637"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -39543,8 +39621,8 @@
       <c r="R26" s="319">
         <v>0</v>
       </c>
-      <c r="W26" s="654"/>
-      <c r="X26" s="654"/>
+      <c r="W26" s="637"/>
+      <c r="X26" s="637"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -39604,9 +39682,9 @@
       <c r="V27" t="s">
         <v>240</v>
       </c>
-      <c r="W27" s="647"/>
-      <c r="X27" s="648"/>
-      <c r="Y27" s="649"/>
+      <c r="W27" s="630"/>
+      <c r="X27" s="631"/>
+      <c r="Y27" s="632"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -39660,9 +39738,9 @@
       <c r="V28" t="s">
         <v>240</v>
       </c>
-      <c r="W28" s="648"/>
-      <c r="X28" s="648"/>
-      <c r="Y28" s="649"/>
+      <c r="W28" s="631"/>
+      <c r="X28" s="631"/>
+      <c r="Y28" s="632"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -39978,11 +40056,11 @@
       <c r="J36" s="266"/>
       <c r="K36" s="250"/>
       <c r="L36" s="44"/>
-      <c r="M36" s="638">
+      <c r="M36" s="648">
         <f>SUM(M5:M35)</f>
         <v>1077791.3</v>
       </c>
-      <c r="N36" s="640">
+      <c r="N36" s="650">
         <f>SUM(N5:N35)</f>
         <v>936398</v>
       </c>
@@ -39990,7 +40068,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="642">
+      <c r="Q36" s="652">
         <f>SUM(Q5:Q35)</f>
         <v>-14262.940000000002</v>
       </c>
@@ -40009,13 +40087,13 @@
       <c r="J37" s="60"/>
       <c r="K37" s="41"/>
       <c r="L37" s="61"/>
-      <c r="M37" s="639"/>
-      <c r="N37" s="641"/>
+      <c r="M37" s="649"/>
+      <c r="N37" s="651"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="643"/>
+      <c r="Q37" s="653"/>
     </row>
     <row r="38" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="23"/>
@@ -40289,26 +40367,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="615" t="s">
+      <c r="H52" s="603" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="616"/>
+      <c r="I52" s="604"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="617">
+      <c r="K52" s="605">
         <f>I50+L50</f>
         <v>90750.75</v>
       </c>
-      <c r="L52" s="644"/>
+      <c r="L52" s="638"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D53" s="621" t="s">
+      <c r="D53" s="609" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="621"/>
+      <c r="E53" s="609"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
         <v>1739855.03</v>
@@ -40317,29 +40395,29 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="645" t="s">
+      <c r="D54" s="639" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="645"/>
+      <c r="E54" s="639"/>
       <c r="F54" s="111">
         <v>-1567070.66</v>
       </c>
-      <c r="I54" s="622" t="s">
+      <c r="I54" s="610" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="623"/>
-      <c r="K54" s="624">
+      <c r="J54" s="611"/>
+      <c r="K54" s="612">
         <f>F56+F57+F58</f>
         <v>703192.8600000001</v>
       </c>
-      <c r="L54" s="624"/>
-      <c r="M54" s="630" t="s">
+      <c r="L54" s="612"/>
+      <c r="M54" s="640" t="s">
         <v>211</v>
       </c>
-      <c r="N54" s="631"/>
-      <c r="O54" s="631"/>
-      <c r="P54" s="631"/>
-      <c r="Q54" s="632"/>
+      <c r="N54" s="641"/>
+      <c r="O54" s="641"/>
+      <c r="P54" s="641"/>
+      <c r="Q54" s="642"/>
     </row>
     <row r="55" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D55" s="313" t="s">
@@ -40353,11 +40431,11 @@
       <c r="J55" s="106"/>
       <c r="K55" s="178"/>
       <c r="L55" s="107"/>
-      <c r="M55" s="633"/>
-      <c r="N55" s="634"/>
-      <c r="O55" s="634"/>
-      <c r="P55" s="634"/>
-      <c r="Q55" s="635"/>
+      <c r="M55" s="643"/>
+      <c r="N55" s="644"/>
+      <c r="O55" s="644"/>
+      <c r="P55" s="644"/>
+      <c r="Q55" s="645"/>
     </row>
     <row r="56" spans="1:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C56" s="4" t="s">
@@ -40375,11 +40453,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="626">
+      <c r="K56" s="614">
         <f>-C4</f>
         <v>-567389.35</v>
       </c>
-      <c r="L56" s="627"/>
+      <c r="L56" s="615"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -40396,22 +40474,22 @@
       <c r="C58" s="112">
         <v>44563</v>
       </c>
-      <c r="D58" s="604" t="s">
+      <c r="D58" s="592" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="605"/>
+      <c r="E58" s="593"/>
       <c r="F58" s="113">
         <v>754143.23</v>
       </c>
-      <c r="I58" s="606" t="s">
+      <c r="I58" s="594" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="607"/>
-      <c r="K58" s="608">
+      <c r="J58" s="595"/>
+      <c r="K58" s="596">
         <f>K54+K56</f>
         <v>135803.51000000013</v>
       </c>
-      <c r="L58" s="608"/>
+      <c r="L58" s="596"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -40555,20 +40633,13 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="K54:L54"/>
-    <mergeCell ref="M54:Q55"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="W27:X28"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="N36:N37"/>
-    <mergeCell ref="Q36:Q37"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
     <mergeCell ref="H52:I52"/>
     <mergeCell ref="K52:L52"/>
     <mergeCell ref="W4:X5"/>
@@ -40578,13 +40649,20 @@
     <mergeCell ref="W25:X25"/>
     <mergeCell ref="W26:X26"/>
     <mergeCell ref="R3:R4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="M54:Q55"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="W27:X28"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="Q36:Q37"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="K54:L54"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -42974,7 +43052,7 @@
       <c r="C75" s="214"/>
       <c r="D75" s="256"/>
       <c r="E75" s="3"/>
-      <c r="F75" s="655" t="s">
+      <c r="F75" s="654" t="s">
         <v>207</v>
       </c>
       <c r="K75" s="1"/>
@@ -42987,7 +43065,7 @@
       <c r="C76" s="1"/>
       <c r="D76" s="256"/>
       <c r="E76" s="3"/>
-      <c r="F76" s="656"/>
+      <c r="F76" s="655"/>
       <c r="K76" s="1"/>
       <c r="L76" s="256"/>
       <c r="M76" s="3"/>
@@ -43279,23 +43357,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="593"/>
-      <c r="C1" s="659" t="s">
+      <c r="B1" s="616"/>
+      <c r="C1" s="658" t="s">
         <v>316</v>
       </c>
-      <c r="D1" s="660"/>
-      <c r="E1" s="660"/>
-      <c r="F1" s="660"/>
-      <c r="G1" s="660"/>
-      <c r="H1" s="660"/>
-      <c r="I1" s="660"/>
-      <c r="J1" s="660"/>
-      <c r="K1" s="660"/>
-      <c r="L1" s="660"/>
-      <c r="M1" s="660"/>
+      <c r="D1" s="659"/>
+      <c r="E1" s="659"/>
+      <c r="F1" s="659"/>
+      <c r="G1" s="659"/>
+      <c r="H1" s="659"/>
+      <c r="I1" s="659"/>
+      <c r="J1" s="659"/>
+      <c r="K1" s="659"/>
+      <c r="L1" s="659"/>
+      <c r="M1" s="659"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="594"/>
+      <c r="B2" s="617"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -43305,24 +43383,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="597" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="598"/>
+      <c r="B3" s="620" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="621"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="599" t="s">
+      <c r="H3" s="622" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="599"/>
+      <c r="I3" s="622"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="636" t="s">
+      <c r="P3" s="646" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="657" t="s">
+      <c r="R3" s="656" t="s">
         <v>216</v>
       </c>
     </row>
@@ -43337,14 +43415,14 @@
       <c r="D4" s="18">
         <v>44563</v>
       </c>
-      <c r="E4" s="600" t="s">
+      <c r="E4" s="623" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="601"/>
-      <c r="H4" s="602" t="s">
+      <c r="F4" s="624"/>
+      <c r="H4" s="625" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="603"/>
+      <c r="I4" s="626"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -43354,15 +43432,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="637"/>
+      <c r="P4" s="647"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="658"/>
-      <c r="W4" s="646" t="s">
+      <c r="R4" s="657"/>
+      <c r="W4" s="629" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="646"/>
+      <c r="X4" s="629"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -43413,8 +43491,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="324"/>
-      <c r="W5" s="646"/>
-      <c r="X5" s="646"/>
+      <c r="W5" s="629"/>
+      <c r="X5" s="629"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -44178,7 +44256,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="650">
+      <c r="W19" s="633">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -44231,7 +44309,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="651"/>
+      <c r="W20" s="634"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -44280,8 +44358,8 @@
         <v>377273.87</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="652"/>
-      <c r="X21" s="652"/>
+      <c r="W21" s="635"/>
+      <c r="X21" s="635"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -44381,8 +44459,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="653"/>
-      <c r="X23" s="653"/>
+      <c r="W23" s="636"/>
+      <c r="X23" s="636"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -44437,8 +44515,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="653"/>
-      <c r="X24" s="653"/>
+      <c r="W24" s="636"/>
+      <c r="X24" s="636"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -44483,8 +44561,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="654"/>
-      <c r="X25" s="654"/>
+      <c r="W25" s="637"/>
+      <c r="X25" s="637"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -44532,8 +44610,8 @@
       <c r="R26" s="319">
         <v>0</v>
       </c>
-      <c r="W26" s="654"/>
-      <c r="X26" s="654"/>
+      <c r="W26" s="637"/>
+      <c r="X26" s="637"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -44587,9 +44665,9 @@
       <c r="V27" t="s">
         <v>240</v>
       </c>
-      <c r="W27" s="647"/>
-      <c r="X27" s="648"/>
-      <c r="Y27" s="649"/>
+      <c r="W27" s="630"/>
+      <c r="X27" s="631"/>
+      <c r="Y27" s="632"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -44643,9 +44721,9 @@
       <c r="V28" t="s">
         <v>240</v>
       </c>
-      <c r="W28" s="648"/>
-      <c r="X28" s="648"/>
-      <c r="Y28" s="649"/>
+      <c r="W28" s="631"/>
+      <c r="X28" s="631"/>
+      <c r="Y28" s="632"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -44956,11 +45034,11 @@
       <c r="L36" s="44">
         <v>13275.84</v>
       </c>
-      <c r="M36" s="638">
+      <c r="M36" s="648">
         <f>SUM(M5:M35)</f>
         <v>1818445.73</v>
       </c>
-      <c r="N36" s="640">
+      <c r="N36" s="650">
         <f>SUM(N5:N35)</f>
         <v>739014</v>
       </c>
@@ -44968,7 +45046,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="642">
+      <c r="Q36" s="652">
         <f>SUM(Q5:Q35)</f>
         <v>-7.2800000000133878</v>
       </c>
@@ -44993,13 +45071,13 @@
       <c r="L37" s="61">
         <v>15060.32</v>
       </c>
-      <c r="M37" s="639"/>
-      <c r="N37" s="641"/>
+      <c r="M37" s="649"/>
+      <c r="N37" s="651"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="643"/>
+      <c r="Q37" s="653"/>
       <c r="R37" s="227" t="s">
         <v>7</v>
       </c>
@@ -45292,26 +45370,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="615" t="s">
+      <c r="H52" s="603" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="616"/>
+      <c r="I52" s="604"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="617">
+      <c r="K52" s="605">
         <f>I50+L50</f>
         <v>158798.12</v>
       </c>
-      <c r="L52" s="644"/>
+      <c r="L52" s="638"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="621" t="s">
+      <c r="D53" s="609" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="621"/>
+      <c r="E53" s="609"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
         <v>2078470.75</v>
@@ -45320,22 +45398,22 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="645" t="s">
+      <c r="D54" s="639" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="645"/>
+      <c r="E54" s="639"/>
       <c r="F54" s="111">
         <v>-1448401.2</v>
       </c>
-      <c r="I54" s="622" t="s">
+      <c r="I54" s="610" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="623"/>
-      <c r="K54" s="624">
+      <c r="J54" s="611"/>
+      <c r="K54" s="612">
         <f>F56+F57+F58</f>
         <v>1025960.7</v>
       </c>
-      <c r="L54" s="624"/>
+      <c r="L54" s="612"/>
       <c r="M54" s="404"/>
       <c r="N54" s="404"/>
       <c r="O54" s="404"/>
@@ -45376,11 +45454,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="626">
+      <c r="K56" s="614">
         <f>-C4</f>
         <v>-754143.23</v>
       </c>
-      <c r="L56" s="627"/>
+      <c r="L56" s="615"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -45397,22 +45475,22 @@
       <c r="C58" s="112">
         <v>44591</v>
       </c>
-      <c r="D58" s="604" t="s">
+      <c r="D58" s="592" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="605"/>
+      <c r="E58" s="593"/>
       <c r="F58" s="113">
         <v>1149740.4099999999</v>
       </c>
-      <c r="I58" s="606" t="s">
+      <c r="I58" s="594" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="607"/>
-      <c r="K58" s="608">
+      <c r="J58" s="595"/>
+      <c r="K58" s="596">
         <f>K54+K56</f>
         <v>271817.46999999997</v>
       </c>
-      <c r="L58" s="608"/>
+      <c r="L58" s="596"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -45556,20 +45634,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="N36:N37"/>
-    <mergeCell ref="Q36:Q37"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="K54:L54"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="K52:L52"/>
     <mergeCell ref="W26:X26"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="W27:X28"/>
@@ -45585,6 +45649,20 @@
     <mergeCell ref="W21:X21"/>
     <mergeCell ref="W23:X24"/>
     <mergeCell ref="W25:X25"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="Q36:Q37"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="K52:L52"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -47281,12 +47359,12 @@
     </row>
     <row r="43" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="245"/>
-      <c r="B43" s="661" t="s">
+      <c r="B43" s="660" t="s">
         <v>413</v>
       </c>
-      <c r="C43" s="662"/>
-      <c r="D43" s="662"/>
-      <c r="E43" s="663"/>
+      <c r="C43" s="661"/>
+      <c r="D43" s="661"/>
+      <c r="E43" s="662"/>
       <c r="F43" s="392">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -47314,10 +47392,10 @@
     </row>
     <row r="44" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="245"/>
-      <c r="B44" s="664"/>
-      <c r="C44" s="665"/>
-      <c r="D44" s="665"/>
-      <c r="E44" s="666"/>
+      <c r="B44" s="663"/>
+      <c r="C44" s="664"/>
+      <c r="D44" s="664"/>
+      <c r="E44" s="665"/>
       <c r="F44" s="392">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -47345,10 +47423,10 @@
     </row>
     <row r="45" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="245"/>
-      <c r="B45" s="667"/>
-      <c r="C45" s="668"/>
-      <c r="D45" s="668"/>
-      <c r="E45" s="669"/>
+      <c r="B45" s="666"/>
+      <c r="C45" s="667"/>
+      <c r="D45" s="667"/>
+      <c r="E45" s="668"/>
       <c r="F45" s="392">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -47391,10 +47469,10 @@
     </row>
     <row r="47" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="245"/>
-      <c r="B47" s="676" t="s">
+      <c r="B47" s="675" t="s">
         <v>593</v>
       </c>
-      <c r="C47" s="677"/>
+      <c r="C47" s="676"/>
       <c r="D47" s="253"/>
       <c r="E47" s="69"/>
       <c r="F47" s="137">
@@ -47416,8 +47494,8 @@
     </row>
     <row r="48" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="245"/>
-      <c r="B48" s="678"/>
-      <c r="C48" s="679"/>
+      <c r="B48" s="677"/>
+      <c r="C48" s="678"/>
       <c r="D48" s="253"/>
       <c r="E48" s="69"/>
       <c r="F48" s="137">
@@ -47425,11 +47503,11 @@
         <v>0</v>
       </c>
       <c r="I48" s="348"/>
-      <c r="J48" s="670" t="s">
+      <c r="J48" s="669" t="s">
         <v>414</v>
       </c>
-      <c r="K48" s="671"/>
-      <c r="L48" s="672"/>
+      <c r="K48" s="670"/>
+      <c r="L48" s="671"/>
       <c r="M48" s="206"/>
       <c r="N48" s="137">
         <f>N47+K48-M48</f>
@@ -47447,9 +47525,9 @@
         <v>0</v>
       </c>
       <c r="I49" s="348"/>
-      <c r="J49" s="673"/>
-      <c r="K49" s="674"/>
-      <c r="L49" s="675"/>
+      <c r="J49" s="672"/>
+      <c r="K49" s="673"/>
+      <c r="L49" s="674"/>
       <c r="M49" s="206"/>
       <c r="N49" s="137">
         <f t="shared" si="1"/>
@@ -47466,10 +47544,10 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I50" s="680" t="s">
+      <c r="I50" s="679" t="s">
         <v>594</v>
       </c>
-      <c r="J50" s="681"/>
+      <c r="J50" s="680"/>
       <c r="K50" s="215">
         <v>0</v>
       </c>
@@ -47490,8 +47568,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I51" s="680"/>
-      <c r="J51" s="681"/>
+      <c r="I51" s="679"/>
+      <c r="J51" s="680"/>
       <c r="K51" s="69"/>
       <c r="L51" s="253"/>
       <c r="M51" s="69"/>
@@ -47510,8 +47588,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I52" s="680"/>
-      <c r="J52" s="681"/>
+      <c r="I52" s="679"/>
+      <c r="J52" s="680"/>
       <c r="K52" s="69"/>
       <c r="L52" s="253"/>
       <c r="M52" s="69"/>
@@ -47530,8 +47608,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I53" s="680"/>
-      <c r="J53" s="681"/>
+      <c r="I53" s="679"/>
+      <c r="J53" s="680"/>
       <c r="K53" s="69"/>
       <c r="L53" s="253"/>
       <c r="M53" s="69"/>
@@ -47550,8 +47628,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I54" s="680"/>
-      <c r="J54" s="681"/>
+      <c r="I54" s="679"/>
+      <c r="J54" s="680"/>
       <c r="K54" s="69"/>
       <c r="L54" s="253"/>
       <c r="M54" s="69"/>
@@ -47570,8 +47648,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I55" s="680"/>
-      <c r="J55" s="681"/>
+      <c r="I55" s="679"/>
+      <c r="J55" s="680"/>
       <c r="K55" s="69"/>
       <c r="L55" s="253"/>
       <c r="M55" s="69"/>
@@ -47590,8 +47668,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I56" s="680"/>
-      <c r="J56" s="681"/>
+      <c r="I56" s="679"/>
+      <c r="J56" s="680"/>
       <c r="K56" s="69"/>
       <c r="L56" s="253"/>
       <c r="M56" s="69"/>
@@ -47610,8 +47688,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I57" s="680"/>
-      <c r="J57" s="681"/>
+      <c r="I57" s="679"/>
+      <c r="J57" s="680"/>
       <c r="K57" s="69"/>
       <c r="L57" s="253"/>
       <c r="M57" s="69"/>
@@ -47630,8 +47708,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I58" s="680"/>
-      <c r="J58" s="681"/>
+      <c r="I58" s="679"/>
+      <c r="J58" s="680"/>
       <c r="K58" s="69"/>
       <c r="L58" s="253"/>
       <c r="M58" s="69"/>
@@ -47650,8 +47728,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I59" s="680"/>
-      <c r="J59" s="681"/>
+      <c r="I59" s="679"/>
+      <c r="J59" s="680"/>
       <c r="K59" s="69"/>
       <c r="L59" s="253"/>
       <c r="M59" s="69"/>
@@ -47670,8 +47748,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I60" s="680"/>
-      <c r="J60" s="681"/>
+      <c r="I60" s="679"/>
+      <c r="J60" s="680"/>
       <c r="K60" s="69"/>
       <c r="L60" s="253"/>
       <c r="M60" s="69"/>
@@ -47690,8 +47768,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I61" s="680"/>
-      <c r="J61" s="681"/>
+      <c r="I61" s="679"/>
+      <c r="J61" s="680"/>
       <c r="K61" s="69"/>
       <c r="L61" s="253"/>
       <c r="M61" s="69"/>
@@ -47710,8 +47788,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I62" s="680"/>
-      <c r="J62" s="681"/>
+      <c r="I62" s="679"/>
+      <c r="J62" s="680"/>
       <c r="K62" s="34"/>
       <c r="L62" s="118"/>
       <c r="M62" s="34"/>
@@ -47730,8 +47808,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I63" s="680"/>
-      <c r="J63" s="681"/>
+      <c r="I63" s="679"/>
+      <c r="J63" s="680"/>
       <c r="K63" s="34"/>
       <c r="L63" s="118"/>
       <c r="M63" s="34"/>
@@ -47750,8 +47828,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I64" s="680"/>
-      <c r="J64" s="681"/>
+      <c r="I64" s="679"/>
+      <c r="J64" s="680"/>
       <c r="K64" s="34"/>
       <c r="L64" s="118"/>
       <c r="M64" s="34"/>
@@ -47770,8 +47848,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I65" s="680"/>
-      <c r="J65" s="681"/>
+      <c r="I65" s="679"/>
+      <c r="J65" s="680"/>
       <c r="K65" s="34"/>
       <c r="L65" s="118"/>
       <c r="M65" s="34"/>
@@ -47790,8 +47868,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I66" s="680"/>
-      <c r="J66" s="681"/>
+      <c r="I66" s="679"/>
+      <c r="J66" s="680"/>
       <c r="K66" s="34"/>
       <c r="L66" s="118"/>
       <c r="M66" s="34"/>
@@ -47810,8 +47888,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I67" s="680"/>
-      <c r="J67" s="681"/>
+      <c r="I67" s="679"/>
+      <c r="J67" s="680"/>
       <c r="K67" s="34"/>
       <c r="L67" s="118"/>
       <c r="M67" s="34"/>
@@ -47830,8 +47908,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I68" s="680"/>
-      <c r="J68" s="681"/>
+      <c r="I68" s="679"/>
+      <c r="J68" s="680"/>
       <c r="K68" s="69"/>
       <c r="L68" s="254"/>
       <c r="M68" s="69"/>
@@ -47850,8 +47928,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I69" s="680"/>
-      <c r="J69" s="681"/>
+      <c r="I69" s="679"/>
+      <c r="J69" s="680"/>
       <c r="K69" s="69"/>
       <c r="L69" s="254"/>
       <c r="M69" s="69"/>
@@ -47870,8 +47948,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I70" s="680"/>
-      <c r="J70" s="681"/>
+      <c r="I70" s="679"/>
+      <c r="J70" s="680"/>
       <c r="K70" s="69"/>
       <c r="L70" s="254"/>
       <c r="M70" s="69"/>
@@ -47890,8 +47968,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I71" s="680"/>
-      <c r="J71" s="681"/>
+      <c r="I71" s="679"/>
+      <c r="J71" s="680"/>
       <c r="K71" s="69"/>
       <c r="L71" s="254"/>
       <c r="M71" s="69"/>
@@ -47910,8 +47988,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I72" s="680"/>
-      <c r="J72" s="681"/>
+      <c r="I72" s="679"/>
+      <c r="J72" s="680"/>
       <c r="K72" s="69"/>
       <c r="L72" s="254"/>
       <c r="M72" s="69"/>
@@ -47930,8 +48008,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I73" s="680"/>
-      <c r="J73" s="681"/>
+      <c r="I73" s="679"/>
+      <c r="J73" s="680"/>
       <c r="K73" s="69"/>
       <c r="L73" s="254"/>
       <c r="M73" s="69"/>
@@ -47950,8 +48028,8 @@
         <f>F73+C74-E74</f>
         <v>0</v>
       </c>
-      <c r="I74" s="680"/>
-      <c r="J74" s="681"/>
+      <c r="I74" s="679"/>
+      <c r="J74" s="680"/>
       <c r="K74" s="69"/>
       <c r="L74" s="254"/>
       <c r="M74" s="69"/>
@@ -47970,8 +48048,8 @@
         <f>F74+C75-E75</f>
         <v>0</v>
       </c>
-      <c r="I75" s="680"/>
-      <c r="J75" s="681"/>
+      <c r="I75" s="679"/>
+      <c r="J75" s="680"/>
       <c r="K75" s="69"/>
       <c r="L75" s="254"/>
       <c r="M75" s="69"/>
@@ -47990,8 +48068,8 @@
         <f>F75+C76-E76</f>
         <v>0</v>
       </c>
-      <c r="I76" s="680"/>
-      <c r="J76" s="681"/>
+      <c r="I76" s="679"/>
+      <c r="J76" s="680"/>
       <c r="K76" s="69"/>
       <c r="L76" s="254"/>
       <c r="M76" s="69"/>
@@ -48010,8 +48088,8 @@
         <f>F76+C77-E77</f>
         <v>0</v>
       </c>
-      <c r="I77" s="680"/>
-      <c r="J77" s="681"/>
+      <c r="I77" s="679"/>
+      <c r="J77" s="680"/>
       <c r="K77" s="69"/>
       <c r="L77" s="254"/>
       <c r="M77" s="69"/>
@@ -48032,8 +48110,8 @@
         <f>F77+C78-E78</f>
         <v>0</v>
       </c>
-      <c r="I78" s="682"/>
-      <c r="J78" s="683"/>
+      <c r="I78" s="681"/>
+      <c r="J78" s="682"/>
       <c r="K78" s="151">
         <v>0</v>
       </c>
@@ -48078,7 +48156,7 @@
       <c r="C80" s="214"/>
       <c r="D80" s="256"/>
       <c r="E80" s="3"/>
-      <c r="F80" s="655" t="s">
+      <c r="F80" s="654" t="s">
         <v>207</v>
       </c>
       <c r="K80" s="1"/>
@@ -48090,7 +48168,7 @@
       <c r="C81" s="1"/>
       <c r="D81" s="256"/>
       <c r="E81" s="3"/>
-      <c r="F81" s="656"/>
+      <c r="F81" s="655"/>
       <c r="K81" s="1"/>
       <c r="M81" s="3"/>
       <c r="N81" s="1"/>
@@ -48378,23 +48456,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="593"/>
-      <c r="C1" s="659" t="s">
+      <c r="B1" s="616"/>
+      <c r="C1" s="658" t="s">
         <v>646</v>
       </c>
-      <c r="D1" s="660"/>
-      <c r="E1" s="660"/>
-      <c r="F1" s="660"/>
-      <c r="G1" s="660"/>
-      <c r="H1" s="660"/>
-      <c r="I1" s="660"/>
-      <c r="J1" s="660"/>
-      <c r="K1" s="660"/>
-      <c r="L1" s="660"/>
-      <c r="M1" s="660"/>
+      <c r="D1" s="659"/>
+      <c r="E1" s="659"/>
+      <c r="F1" s="659"/>
+      <c r="G1" s="659"/>
+      <c r="H1" s="659"/>
+      <c r="I1" s="659"/>
+      <c r="J1" s="659"/>
+      <c r="K1" s="659"/>
+      <c r="L1" s="659"/>
+      <c r="M1" s="659"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="594"/>
+      <c r="B2" s="617"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -48404,24 +48482,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="597" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="598"/>
+      <c r="B3" s="620" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="621"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="599" t="s">
+      <c r="H3" s="622" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="599"/>
+      <c r="I3" s="622"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="636" t="s">
+      <c r="P3" s="646" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="657" t="s">
+      <c r="R3" s="656" t="s">
         <v>216</v>
       </c>
     </row>
@@ -48436,14 +48514,14 @@
       <c r="D4" s="18">
         <v>44591</v>
       </c>
-      <c r="E4" s="600" t="s">
+      <c r="E4" s="623" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="601"/>
-      <c r="H4" s="602" t="s">
+      <c r="F4" s="624"/>
+      <c r="H4" s="625" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="603"/>
+      <c r="I4" s="626"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -48453,15 +48531,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="637"/>
+      <c r="P4" s="647"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="658"/>
-      <c r="W4" s="646" t="s">
+      <c r="R4" s="657"/>
+      <c r="W4" s="629" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="646"/>
+      <c r="X4" s="629"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -48512,8 +48590,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="324"/>
-      <c r="W5" s="646"/>
-      <c r="X5" s="646"/>
+      <c r="W5" s="629"/>
+      <c r="X5" s="629"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -49274,7 +49352,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="650">
+      <c r="W19" s="633">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -49326,7 +49404,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="651"/>
+      <c r="W20" s="634"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -49375,8 +49453,8 @@
         <v>18072</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="652"/>
-      <c r="X21" s="652"/>
+      <c r="W21" s="635"/>
+      <c r="X21" s="635"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -49475,8 +49553,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="653"/>
-      <c r="X23" s="653"/>
+      <c r="W23" s="636"/>
+      <c r="X23" s="636"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -49531,8 +49609,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="653"/>
-      <c r="X24" s="653"/>
+      <c r="W24" s="636"/>
+      <c r="X24" s="636"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -49580,8 +49658,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="654"/>
-      <c r="X25" s="654"/>
+      <c r="W25" s="637"/>
+      <c r="X25" s="637"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -49629,8 +49707,8 @@
       <c r="R26" s="319">
         <v>0</v>
       </c>
-      <c r="W26" s="654"/>
-      <c r="X26" s="654"/>
+      <c r="W26" s="637"/>
+      <c r="X26" s="637"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -49678,9 +49756,9 @@
       <c r="R27" s="319">
         <v>0</v>
       </c>
-      <c r="W27" s="647"/>
-      <c r="X27" s="648"/>
-      <c r="Y27" s="649"/>
+      <c r="W27" s="630"/>
+      <c r="X27" s="631"/>
+      <c r="Y27" s="632"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -49728,9 +49806,9 @@
       <c r="R28" s="319">
         <v>0</v>
       </c>
-      <c r="W28" s="648"/>
-      <c r="X28" s="648"/>
-      <c r="Y28" s="649"/>
+      <c r="W28" s="631"/>
+      <c r="X28" s="631"/>
+      <c r="Y28" s="632"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -50071,11 +50149,11 @@
       <c r="J36" s="266"/>
       <c r="K36" s="250"/>
       <c r="L36" s="44"/>
-      <c r="M36" s="638">
+      <c r="M36" s="648">
         <f>SUM(M5:M35)</f>
         <v>2143864.4900000002</v>
       </c>
-      <c r="N36" s="640">
+      <c r="N36" s="650">
         <f>SUM(N5:N35)</f>
         <v>791108</v>
       </c>
@@ -50083,7 +50161,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="684">
+      <c r="Q36" s="683">
         <f>SUM(Q5:Q35)</f>
         <v>111.43999999999505</v>
       </c>
@@ -50108,13 +50186,13 @@
       <c r="L37" s="61">
         <v>16518.78</v>
       </c>
-      <c r="M37" s="639"/>
-      <c r="N37" s="641"/>
+      <c r="M37" s="649"/>
+      <c r="N37" s="651"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="685"/>
+      <c r="Q37" s="684"/>
       <c r="R37" s="227" t="s">
         <v>7</v>
       </c>
@@ -50164,11 +50242,11 @@
       <c r="L39" s="61">
         <v>14981.03</v>
       </c>
-      <c r="M39" s="686">
+      <c r="M39" s="685">
         <f>M36+N36</f>
         <v>2934972.49</v>
       </c>
-      <c r="N39" s="687"/>
+      <c r="N39" s="686"/>
       <c r="P39" s="34">
         <f>SUM(P5:P38)</f>
         <v>3450079.65</v>
@@ -50416,26 +50494,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="615" t="s">
+      <c r="H52" s="603" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="616"/>
+      <c r="I52" s="604"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="617">
+      <c r="K52" s="605">
         <f>I50+L50</f>
         <v>197471.8</v>
       </c>
-      <c r="L52" s="644"/>
+      <c r="L52" s="638"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="621" t="s">
+      <c r="D53" s="609" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="621"/>
+      <c r="E53" s="609"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
         <v>2057786.11</v>
@@ -50444,22 +50522,22 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="645" t="s">
+      <c r="D54" s="639" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="645"/>
+      <c r="E54" s="639"/>
       <c r="F54" s="111">
         <v>-1702928.14</v>
       </c>
-      <c r="I54" s="622" t="s">
+      <c r="I54" s="610" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="623"/>
-      <c r="K54" s="624">
+      <c r="J54" s="611"/>
+      <c r="K54" s="612">
         <f>F56+F57+F58</f>
         <v>1147965.3400000003</v>
       </c>
-      <c r="L54" s="624"/>
+      <c r="L54" s="612"/>
       <c r="M54" s="404"/>
       <c r="N54" s="404"/>
       <c r="O54" s="404"/>
@@ -50500,11 +50578,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="626">
+      <c r="K56" s="614">
         <f>-C4</f>
         <v>-1149740.4099999999</v>
       </c>
-      <c r="L56" s="627"/>
+      <c r="L56" s="615"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -50521,22 +50599,22 @@
       <c r="C58" s="112">
         <v>44619</v>
       </c>
-      <c r="D58" s="604" t="s">
+      <c r="D58" s="592" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="605"/>
+      <c r="E58" s="593"/>
       <c r="F58" s="113">
         <v>1266568.45</v>
       </c>
-      <c r="I58" s="606" t="s">
+      <c r="I58" s="594" t="s">
         <v>97</v>
       </c>
-      <c r="J58" s="607"/>
-      <c r="K58" s="608">
+      <c r="J58" s="595"/>
+      <c r="K58" s="596">
         <f>K54+K56</f>
         <v>-1775.0699999995995</v>
       </c>
-      <c r="L58" s="608"/>
+      <c r="L58" s="596"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -50680,6 +50758,20 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="W26:X26"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="W4:X5"/>
+    <mergeCell ref="W19:W20"/>
+    <mergeCell ref="W21:X21"/>
+    <mergeCell ref="W23:X24"/>
+    <mergeCell ref="W25:X25"/>
     <mergeCell ref="D58:E58"/>
     <mergeCell ref="I58:J58"/>
     <mergeCell ref="K58:L58"/>
@@ -50696,20 +50788,6 @@
     <mergeCell ref="K54:L54"/>
     <mergeCell ref="K56:L56"/>
     <mergeCell ref="M39:N39"/>
-    <mergeCell ref="W26:X26"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="W4:X5"/>
-    <mergeCell ref="W19:W20"/>
-    <mergeCell ref="W21:X21"/>
-    <mergeCell ref="W23:X24"/>
-    <mergeCell ref="W25:X25"/>
   </mergeCells>
   <pageMargins left="0.23" right="0.23" top="0.4" bottom="0.28000000000000003" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #05  MAYO  2022/BALANCE    ZAVALETA   MAYO    2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #05  MAYO  2022/BALANCE    ZAVALETA   MAYO    2022.xlsx
@@ -627,7 +627,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1513" uniqueCount="808">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1522" uniqueCount="813">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -3051,6 +3051,21 @@
   </si>
   <si>
     <t>26 DE MAYO 2022</t>
+  </si>
+  <si>
+    <t>CHORIZO-PATA-POLLO-QUESOS-LONGANIZA</t>
+  </si>
+  <si>
+    <t>POLLO-JAMONES-QUESOS-NUGETS</t>
+  </si>
+  <si>
+    <t>NOMINA # 21</t>
+  </si>
+  <si>
+    <t>LONGANIZA-QUESOS-JAMON-</t>
+  </si>
+  <si>
+    <t>ARABE-QUESO-CHORIZO-ENCHILADA</t>
   </si>
 </sst>
 </file>
@@ -5013,7 +5028,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="737">
+  <cellXfs count="739">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -6206,7 +6221,6 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -6224,6 +6238,39 @@
     <xf numFmtId="44" fontId="3" fillId="18" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="3" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -6296,76 +6343,10 @@
     <xf numFmtId="44" fontId="12" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="1" fontId="43" fillId="6" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="43" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="33" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="33" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="14" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="14" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="33" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="13" fillId="0" borderId="57" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6409,6 +6390,39 @@
     </xf>
     <xf numFmtId="44" fontId="41" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="33" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="33" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="14" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="14" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="33" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="3" fillId="3" borderId="74" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -6602,20 +6616,20 @@
     <xf numFmtId="165" fontId="11" fillId="0" borderId="96" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="166" fontId="3" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="11" fillId="3" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -6635,6 +6649,11 @@
     <xf numFmtId="49" fontId="11" fillId="23" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="65" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -6644,8 +6663,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFCCFF66"/>
       <color rgb="FF99CCFF"/>
-      <color rgb="FFCCFF66"/>
       <color rgb="FFFF00FF"/>
       <color rgb="FF0000FF"/>
       <color rgb="FFCC99FF"/>
@@ -10584,23 +10603,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="624"/>
-      <c r="C1" s="626" t="s">
+      <c r="B1" s="599"/>
+      <c r="C1" s="601" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="627"/>
-      <c r="E1" s="627"/>
-      <c r="F1" s="627"/>
-      <c r="G1" s="627"/>
-      <c r="H1" s="627"/>
-      <c r="I1" s="627"/>
-      <c r="J1" s="627"/>
-      <c r="K1" s="627"/>
-      <c r="L1" s="627"/>
-      <c r="M1" s="627"/>
+      <c r="D1" s="602"/>
+      <c r="E1" s="602"/>
+      <c r="F1" s="602"/>
+      <c r="G1" s="602"/>
+      <c r="H1" s="602"/>
+      <c r="I1" s="602"/>
+      <c r="J1" s="602"/>
+      <c r="K1" s="602"/>
+      <c r="L1" s="602"/>
+      <c r="M1" s="602"/>
     </row>
     <row r="2" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="625"/>
+      <c r="B2" s="600"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -10610,17 +10629,17 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:19" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="628" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="629"/>
+      <c r="B3" s="603" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="604"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="630" t="s">
+      <c r="H3" s="605" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="630"/>
+      <c r="I3" s="605"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
@@ -10634,14 +10653,14 @@
         <v>0</v>
       </c>
       <c r="D4" s="18"/>
-      <c r="E4" s="631" t="s">
+      <c r="E4" s="606" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="632"/>
-      <c r="H4" s="633" t="s">
+      <c r="F4" s="607"/>
+      <c r="H4" s="608" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="634"/>
+      <c r="I4" s="609"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -10651,10 +10670,10 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="605" t="s">
+      <c r="P4" s="615" t="s">
         <v>6</v>
       </c>
-      <c r="Q4" s="606"/>
+      <c r="Q4" s="616"/>
     </row>
     <row r="5" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -12095,11 +12114,11 @@
       <c r="J39" s="60"/>
       <c r="K39" s="177"/>
       <c r="L39" s="61"/>
-      <c r="M39" s="607">
+      <c r="M39" s="617">
         <f>SUM(M5:M38)</f>
         <v>247061</v>
       </c>
-      <c r="N39" s="609">
+      <c r="N39" s="619">
         <f>SUM(N5:N38)</f>
         <v>172863</v>
       </c>
@@ -12125,8 +12144,8 @@
       <c r="J40" s="60"/>
       <c r="K40" s="41"/>
       <c r="L40" s="61"/>
-      <c r="M40" s="608"/>
-      <c r="N40" s="610"/>
+      <c r="M40" s="618"/>
+      <c r="N40" s="620"/>
       <c r="P40" s="34"/>
       <c r="Q40" s="9"/>
     </row>
@@ -12341,29 +12360,29 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="611" t="s">
+      <c r="H52" s="621" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="612"/>
+      <c r="I52" s="622"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="613">
+      <c r="K52" s="623">
         <f>I50+L50</f>
         <v>53873.49</v>
       </c>
-      <c r="L52" s="614"/>
-      <c r="M52" s="615">
+      <c r="L52" s="624"/>
+      <c r="M52" s="625">
         <f>N39+M39</f>
         <v>419924</v>
       </c>
-      <c r="N52" s="616"/>
+      <c r="N52" s="626"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D53" s="617" t="s">
+      <c r="D53" s="627" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="617"/>
+      <c r="E53" s="627"/>
       <c r="F53" s="101">
         <f>F50-K52-C50</f>
         <v>471038.61</v>
@@ -12374,22 +12393,22 @@
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="617" t="s">
+      <c r="D54" s="627" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="617"/>
+      <c r="E54" s="627"/>
       <c r="F54" s="96">
         <v>-549976.4</v>
       </c>
-      <c r="I54" s="618" t="s">
+      <c r="I54" s="628" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="619"/>
-      <c r="K54" s="620">
+      <c r="J54" s="629"/>
+      <c r="K54" s="630">
         <f>F56+F57+F58</f>
         <v>-24577.400000000023</v>
       </c>
-      <c r="L54" s="621"/>
+      <c r="L54" s="631"/>
       <c r="P54" s="34"/>
       <c r="Q54" s="9"/>
     </row>
@@ -12422,11 +12441,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="622">
+      <c r="K56" s="632">
         <f>-C4</f>
         <v>0</v>
       </c>
-      <c r="L56" s="623"/>
+      <c r="L56" s="633"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -12443,22 +12462,22 @@
       <c r="C58" s="112">
         <v>44507</v>
       </c>
-      <c r="D58" s="600" t="s">
+      <c r="D58" s="610" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="601"/>
+      <c r="E58" s="611"/>
       <c r="F58" s="113">
         <v>567389.35</v>
       </c>
-      <c r="I58" s="602" t="s">
+      <c r="I58" s="612" t="s">
         <v>97</v>
       </c>
-      <c r="J58" s="603"/>
-      <c r="K58" s="604">
+      <c r="J58" s="613"/>
+      <c r="K58" s="614">
         <f>K54+K56</f>
         <v>-24577.400000000023</v>
       </c>
-      <c r="L58" s="604"/>
+      <c r="L58" s="614"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -12602,12 +12621,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
     <mergeCell ref="D58:E58"/>
     <mergeCell ref="I58:J58"/>
     <mergeCell ref="K58:L58"/>
@@ -12622,6 +12635,12 @@
     <mergeCell ref="I54:J54"/>
     <mergeCell ref="K54:L54"/>
     <mergeCell ref="K56:L56"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.15748031496062992" top="0.35433070866141736" bottom="0.31496062992125984" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="75" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -15082,10 +15101,10 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I76" s="696" t="s">
+      <c r="I76" s="695" t="s">
         <v>597</v>
       </c>
-      <c r="J76" s="697"/>
+      <c r="J76" s="696"/>
       <c r="K76" s="69"/>
       <c r="L76" s="148"/>
       <c r="M76" s="69"/>
@@ -15104,8 +15123,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I77" s="698"/>
-      <c r="J77" s="699"/>
+      <c r="I77" s="697"/>
+      <c r="J77" s="698"/>
       <c r="K77" s="69"/>
       <c r="L77" s="148"/>
       <c r="M77" s="69"/>
@@ -15172,7 +15191,7 @@
       <c r="C80" s="214"/>
       <c r="D80" s="256"/>
       <c r="E80" s="3"/>
-      <c r="F80" s="662" t="s">
+      <c r="F80" s="661" t="s">
         <v>207</v>
       </c>
       <c r="K80" s="1"/>
@@ -15187,7 +15206,7 @@
       <c r="C81" s="463"/>
       <c r="D81" s="464"/>
       <c r="E81" s="3"/>
-      <c r="F81" s="663"/>
+      <c r="F81" s="662"/>
       <c r="K81" s="1"/>
       <c r="L81" s="97"/>
       <c r="M81" s="3"/>
@@ -15195,10 +15214,10 @@
     </row>
     <row r="82" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A82" s="435"/>
-      <c r="B82" s="695" t="s">
+      <c r="B82" s="694" t="s">
         <v>595</v>
       </c>
-      <c r="C82" s="695"/>
+      <c r="C82" s="694"/>
       <c r="I82"/>
       <c r="J82" s="194"/>
     </row>
@@ -15480,23 +15499,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="624"/>
-      <c r="C1" s="666" t="s">
+      <c r="B1" s="599"/>
+      <c r="C1" s="665" t="s">
         <v>451</v>
       </c>
-      <c r="D1" s="667"/>
-      <c r="E1" s="667"/>
-      <c r="F1" s="667"/>
-      <c r="G1" s="667"/>
-      <c r="H1" s="667"/>
-      <c r="I1" s="667"/>
-      <c r="J1" s="667"/>
-      <c r="K1" s="667"/>
-      <c r="L1" s="667"/>
-      <c r="M1" s="667"/>
+      <c r="D1" s="666"/>
+      <c r="E1" s="666"/>
+      <c r="F1" s="666"/>
+      <c r="G1" s="666"/>
+      <c r="H1" s="666"/>
+      <c r="I1" s="666"/>
+      <c r="J1" s="666"/>
+      <c r="K1" s="666"/>
+      <c r="L1" s="666"/>
+      <c r="M1" s="666"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="625"/>
+      <c r="B2" s="600"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -15506,24 +15525,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="628" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="629"/>
+      <c r="B3" s="603" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="604"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="630" t="s">
+      <c r="H3" s="605" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="630"/>
+      <c r="I3" s="605"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="654" t="s">
+      <c r="P3" s="642" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="664" t="s">
+      <c r="R3" s="663" t="s">
         <v>216</v>
       </c>
     </row>
@@ -15538,14 +15557,14 @@
       <c r="D4" s="18">
         <v>44619</v>
       </c>
-      <c r="E4" s="631" t="s">
+      <c r="E4" s="606" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="632"/>
-      <c r="H4" s="633" t="s">
+      <c r="F4" s="607"/>
+      <c r="H4" s="608" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="634"/>
+      <c r="I4" s="609"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -15555,15 +15574,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="655"/>
+      <c r="P4" s="643"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="665"/>
-      <c r="W4" s="637" t="s">
+      <c r="R4" s="664"/>
+      <c r="W4" s="652" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="637"/>
+      <c r="X4" s="652"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -15614,8 +15633,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="324"/>
-      <c r="W5" s="637"/>
-      <c r="X5" s="637"/>
+      <c r="W5" s="652"/>
+      <c r="X5" s="652"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -16378,7 +16397,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="641">
+      <c r="W19" s="656">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -16430,7 +16449,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="642"/>
+      <c r="W20" s="657"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -16479,8 +16498,8 @@
         <v>0</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="643"/>
-      <c r="X21" s="643"/>
+      <c r="W21" s="658"/>
+      <c r="X21" s="658"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -16580,8 +16599,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="644"/>
-      <c r="X23" s="644"/>
+      <c r="W23" s="659"/>
+      <c r="X23" s="659"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -16636,8 +16655,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="644"/>
-      <c r="X24" s="644"/>
+      <c r="W24" s="659"/>
+      <c r="X24" s="659"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -16685,8 +16704,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="645"/>
-      <c r="X25" s="645"/>
+      <c r="W25" s="660"/>
+      <c r="X25" s="660"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -16735,8 +16754,8 @@
       <c r="R26" s="319">
         <v>0</v>
       </c>
-      <c r="W26" s="645"/>
-      <c r="X26" s="645"/>
+      <c r="W26" s="660"/>
+      <c r="X26" s="660"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -16784,9 +16803,9 @@
       <c r="R27" s="388">
         <v>170</v>
       </c>
-      <c r="W27" s="638"/>
-      <c r="X27" s="639"/>
-      <c r="Y27" s="640"/>
+      <c r="W27" s="653"/>
+      <c r="X27" s="654"/>
+      <c r="Y27" s="655"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -16834,9 +16853,9 @@
       <c r="R28" s="388">
         <v>37374.36</v>
       </c>
-      <c r="W28" s="639"/>
-      <c r="X28" s="639"/>
-      <c r="Y28" s="640"/>
+      <c r="W28" s="654"/>
+      <c r="X28" s="654"/>
+      <c r="Y28" s="655"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -17168,11 +17187,11 @@
       <c r="J36" s="266"/>
       <c r="K36" s="250"/>
       <c r="L36" s="44"/>
-      <c r="M36" s="656">
+      <c r="M36" s="644">
         <f>SUM(M5:M35)</f>
         <v>2220612.02</v>
       </c>
-      <c r="N36" s="658">
+      <c r="N36" s="646">
         <f>SUM(N5:N35)</f>
         <v>833865</v>
       </c>
@@ -17180,7 +17199,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="691">
+      <c r="Q36" s="690">
         <f>SUM(Q5:Q35)</f>
         <v>8.3000000000320142</v>
       </c>
@@ -17205,13 +17224,13 @@
       <c r="J37" s="60"/>
       <c r="K37" s="41"/>
       <c r="L37" s="61"/>
-      <c r="M37" s="657"/>
-      <c r="N37" s="659"/>
+      <c r="M37" s="645"/>
+      <c r="N37" s="647"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="692"/>
+      <c r="Q37" s="691"/>
       <c r="R37" s="227" t="s">
         <v>7</v>
       </c>
@@ -17256,11 +17275,11 @@
       <c r="J39" s="60"/>
       <c r="K39" s="177"/>
       <c r="L39" s="61"/>
-      <c r="M39" s="693">
+      <c r="M39" s="692">
         <f>M36+N36</f>
         <v>3054477.02</v>
       </c>
-      <c r="N39" s="694"/>
+      <c r="N39" s="693"/>
       <c r="P39" s="34">
         <f>SUM(P5:P38)</f>
         <v>3627989.66</v>
@@ -17520,26 +17539,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="611" t="s">
+      <c r="H52" s="621" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="612"/>
+      <c r="I52" s="622"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="613">
+      <c r="K52" s="623">
         <f>I50+L50</f>
         <v>217159.4</v>
       </c>
-      <c r="L52" s="646"/>
+      <c r="L52" s="650"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="617" t="s">
+      <c r="D53" s="627" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="617"/>
+      <c r="E53" s="627"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
         <v>1453241.94</v>
@@ -17548,22 +17567,22 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="647" t="s">
+      <c r="D54" s="651" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="647"/>
+      <c r="E54" s="651"/>
       <c r="F54" s="111">
         <v>-1360260.32</v>
       </c>
-      <c r="I54" s="618" t="s">
+      <c r="I54" s="628" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="619"/>
-      <c r="K54" s="620">
+      <c r="J54" s="629"/>
+      <c r="K54" s="630">
         <f>F56+F57+F58</f>
         <v>1797288.1999999997</v>
       </c>
-      <c r="L54" s="620"/>
+      <c r="L54" s="630"/>
       <c r="M54" s="404"/>
       <c r="N54" s="404"/>
       <c r="O54" s="404"/>
@@ -17604,11 +17623,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="622">
+      <c r="K56" s="632">
         <f>-C4</f>
         <v>-1266568.45</v>
       </c>
-      <c r="L56" s="623"/>
+      <c r="L56" s="633"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -17625,22 +17644,22 @@
       <c r="C58" s="112">
         <v>44647</v>
       </c>
-      <c r="D58" s="600" t="s">
+      <c r="D58" s="610" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="601"/>
+      <c r="E58" s="611"/>
       <c r="F58" s="113">
         <v>1792817.68</v>
       </c>
-      <c r="I58" s="602" t="s">
+      <c r="I58" s="612" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="603"/>
-      <c r="K58" s="604">
+      <c r="J58" s="613"/>
+      <c r="K58" s="614">
         <f>K54+K56</f>
         <v>530719.74999999977</v>
       </c>
-      <c r="L58" s="604"/>
+      <c r="L58" s="614"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -17784,21 +17803,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="K52:L52"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="K54:L54"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="N36:N37"/>
-    <mergeCell ref="Q36:Q37"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="M39:N39"/>
     <mergeCell ref="W26:X26"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="W27:X28"/>
@@ -17814,6 +17818,21 @@
     <mergeCell ref="W21:X21"/>
     <mergeCell ref="W23:X24"/>
     <mergeCell ref="W25:X25"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="Q36:Q37"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="K52:L52"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="K54:L54"/>
   </mergeCells>
   <pageMargins left="0.27559055118110237" right="0.15748031496062992" top="0.39370078740157483" bottom="0.27559055118110237" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="80" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -20081,7 +20100,7 @@
       <c r="C80" s="214"/>
       <c r="D80" s="256"/>
       <c r="E80" s="3"/>
-      <c r="F80" s="662" t="s">
+      <c r="F80" s="661" t="s">
         <v>207</v>
       </c>
       <c r="K80" s="1"/>
@@ -20094,7 +20113,7 @@
       <c r="C81" s="1"/>
       <c r="D81" s="256"/>
       <c r="E81" s="3"/>
-      <c r="F81" s="663"/>
+      <c r="F81" s="662"/>
       <c r="K81" s="1"/>
       <c r="L81" s="97"/>
       <c r="M81" s="3"/>
@@ -20114,10 +20133,10 @@
     <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" s="456"/>
       <c r="B83" s="442"/>
-      <c r="I83" s="700" t="s">
+      <c r="I83" s="699" t="s">
         <v>594</v>
       </c>
-      <c r="J83" s="701"/>
+      <c r="J83" s="700"/>
     </row>
     <row r="84" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="516" t="s">
@@ -20126,8 +20145,8 @@
       <c r="B84" s="517"/>
       <c r="C84" s="518"/>
       <c r="D84" s="492"/>
-      <c r="I84" s="702"/>
-      <c r="J84" s="703"/>
+      <c r="I84" s="701"/>
+      <c r="J84" s="702"/>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" s="456"/>
@@ -20399,23 +20418,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="624"/>
-      <c r="C1" s="666" t="s">
+      <c r="B1" s="599"/>
+      <c r="C1" s="665" t="s">
         <v>620</v>
       </c>
-      <c r="D1" s="667"/>
-      <c r="E1" s="667"/>
-      <c r="F1" s="667"/>
-      <c r="G1" s="667"/>
-      <c r="H1" s="667"/>
-      <c r="I1" s="667"/>
-      <c r="J1" s="667"/>
-      <c r="K1" s="667"/>
-      <c r="L1" s="667"/>
-      <c r="M1" s="667"/>
+      <c r="D1" s="666"/>
+      <c r="E1" s="666"/>
+      <c r="F1" s="666"/>
+      <c r="G1" s="666"/>
+      <c r="H1" s="666"/>
+      <c r="I1" s="666"/>
+      <c r="J1" s="666"/>
+      <c r="K1" s="666"/>
+      <c r="L1" s="666"/>
+      <c r="M1" s="666"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="625"/>
+      <c r="B2" s="600"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -20425,24 +20444,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="628" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="629"/>
+      <c r="B3" s="603" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="604"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="630" t="s">
+      <c r="H3" s="605" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="630"/>
+      <c r="I3" s="605"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="654" t="s">
+      <c r="P3" s="642" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="664" t="s">
+      <c r="R3" s="663" t="s">
         <v>216</v>
       </c>
     </row>
@@ -20457,14 +20476,14 @@
       <c r="D4" s="18">
         <v>44647</v>
       </c>
-      <c r="E4" s="631" t="s">
+      <c r="E4" s="606" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="632"/>
-      <c r="H4" s="633" t="s">
+      <c r="F4" s="607"/>
+      <c r="H4" s="608" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="634"/>
+      <c r="I4" s="609"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -20474,15 +20493,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="655"/>
+      <c r="P4" s="643"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="665"/>
-      <c r="W4" s="637" t="s">
+      <c r="R4" s="664"/>
+      <c r="W4" s="652" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="637"/>
+      <c r="X4" s="652"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -20533,8 +20552,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="324"/>
-      <c r="W5" s="637"/>
-      <c r="X5" s="637"/>
+      <c r="W5" s="652"/>
+      <c r="X5" s="652"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -21293,7 +21312,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="641">
+      <c r="W19" s="656">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -21345,7 +21364,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="642"/>
+      <c r="W20" s="657"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -21394,8 +21413,8 @@
         <v>0</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="643"/>
-      <c r="X21" s="643"/>
+      <c r="W21" s="658"/>
+      <c r="X21" s="658"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -21492,8 +21511,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="644"/>
-      <c r="X23" s="644"/>
+      <c r="W23" s="659"/>
+      <c r="X23" s="659"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -21548,8 +21567,8 @@
         <v>642</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="644"/>
-      <c r="X24" s="644"/>
+      <c r="W24" s="659"/>
+      <c r="X24" s="659"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -21595,8 +21614,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="645"/>
-      <c r="X25" s="645"/>
+      <c r="W25" s="660"/>
+      <c r="X25" s="660"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -21647,8 +21666,8 @@
       <c r="R26" s="388">
         <v>73524.61</v>
       </c>
-      <c r="W26" s="645"/>
-      <c r="X26" s="645"/>
+      <c r="W26" s="660"/>
+      <c r="X26" s="660"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -21699,9 +21718,9 @@
       <c r="R27" s="319">
         <v>0</v>
       </c>
-      <c r="W27" s="638"/>
-      <c r="X27" s="639"/>
-      <c r="Y27" s="640"/>
+      <c r="W27" s="653"/>
+      <c r="X27" s="654"/>
+      <c r="Y27" s="655"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -21751,9 +21770,9 @@
       <c r="R28" s="319">
         <v>0</v>
       </c>
-      <c r="W28" s="639"/>
-      <c r="X28" s="639"/>
-      <c r="Y28" s="640"/>
+      <c r="W28" s="654"/>
+      <c r="X28" s="654"/>
+      <c r="Y28" s="655"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -22351,11 +22370,11 @@
       <c r="L41" s="61">
         <v>15798.5</v>
       </c>
-      <c r="M41" s="656">
+      <c r="M41" s="644">
         <f>SUM(M5:M40)</f>
         <v>2479367.6100000003</v>
       </c>
-      <c r="N41" s="656">
+      <c r="N41" s="644">
         <f>SUM(N5:N40)</f>
         <v>1195667</v>
       </c>
@@ -22363,7 +22382,7 @@
         <f>SUM(P5:P40)</f>
         <v>4355326.74</v>
       </c>
-      <c r="Q41" s="704">
+      <c r="Q41" s="703">
         <f>SUM(Q5:Q40)</f>
         <v>69878.629999999976</v>
       </c>
@@ -22387,10 +22406,10 @@
       <c r="L42" s="52">
         <v>15298.5</v>
       </c>
-      <c r="M42" s="657"/>
-      <c r="N42" s="657"/>
+      <c r="M42" s="645"/>
+      <c r="N42" s="645"/>
       <c r="P42" s="34"/>
-      <c r="Q42" s="705"/>
+      <c r="Q42" s="704"/>
     </row>
     <row r="43" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="23"/>
@@ -22460,11 +22479,11 @@
       <c r="L45" s="61">
         <v>18269.490000000002</v>
       </c>
-      <c r="M45" s="706">
+      <c r="M45" s="705">
         <f>M41+N41</f>
         <v>3675034.6100000003</v>
       </c>
-      <c r="N45" s="707"/>
+      <c r="N45" s="706"/>
       <c r="P45" s="34"/>
       <c r="Q45" s="13"/>
     </row>
@@ -22589,26 +22608,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="611" t="s">
+      <c r="H52" s="621" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="612"/>
+      <c r="I52" s="622"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="613">
+      <c r="K52" s="623">
         <f>I50+L50</f>
         <v>289121.83</v>
       </c>
-      <c r="L52" s="646"/>
+      <c r="L52" s="650"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="617" t="s">
+      <c r="D53" s="627" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="617"/>
+      <c r="E53" s="627"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
         <v>3402894.67</v>
@@ -22617,22 +22636,22 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="647" t="s">
+      <c r="D54" s="651" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="647"/>
+      <c r="E54" s="651"/>
       <c r="F54" s="111">
         <v>-1884975.46</v>
       </c>
-      <c r="I54" s="618" t="s">
+      <c r="I54" s="628" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="619"/>
-      <c r="K54" s="620">
+      <c r="J54" s="629"/>
+      <c r="K54" s="630">
         <f>F56+F57+F58</f>
         <v>3549636.8899999997</v>
       </c>
-      <c r="L54" s="620"/>
+      <c r="L54" s="630"/>
       <c r="M54" s="404"/>
       <c r="N54" s="404"/>
       <c r="O54" s="404"/>
@@ -22673,11 +22692,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="622">
+      <c r="K56" s="632">
         <f>-C4</f>
         <v>-1792817.68</v>
       </c>
-      <c r="L56" s="623"/>
+      <c r="L56" s="633"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -22694,22 +22713,22 @@
       <c r="C58" s="112">
         <v>44682</v>
       </c>
-      <c r="D58" s="600" t="s">
+      <c r="D58" s="610" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="601"/>
+      <c r="E58" s="611"/>
       <c r="F58" s="113">
         <v>2112071.92</v>
       </c>
-      <c r="I58" s="602" t="s">
+      <c r="I58" s="612" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="603"/>
-      <c r="K58" s="604">
+      <c r="J58" s="613"/>
+      <c r="K58" s="614">
         <f>K54+K56</f>
         <v>1756819.2099999997</v>
       </c>
-      <c r="L58" s="604"/>
+      <c r="L58" s="614"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -22853,21 +22872,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="K52:L52"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="K54:L54"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="M41:M42"/>
-    <mergeCell ref="N41:N42"/>
-    <mergeCell ref="Q41:Q42"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="M45:N45"/>
     <mergeCell ref="W26:X26"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="W27:X28"/>
@@ -22883,6 +22887,21 @@
     <mergeCell ref="W21:X21"/>
     <mergeCell ref="W23:X24"/>
     <mergeCell ref="W25:X25"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="M41:M42"/>
+    <mergeCell ref="N41:N42"/>
+    <mergeCell ref="Q41:Q42"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="K52:L52"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="K54:L54"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.39370078740157483" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="85" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -23182,7 +23201,7 @@
       </c>
     </row>
     <row r="8" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="599">
+      <c r="A8" s="598">
         <v>44652</v>
       </c>
       <c r="B8" s="355" t="s">
@@ -23222,7 +23241,7 @@
       </c>
     </row>
     <row r="9" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="599">
+      <c r="A9" s="598">
         <v>44652</v>
       </c>
       <c r="B9" s="355" t="s">
@@ -23262,7 +23281,7 @@
       </c>
     </row>
     <row r="10" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A10" s="599">
+      <c r="A10" s="598">
         <v>44653</v>
       </c>
       <c r="B10" s="355" t="s">
@@ -23303,7 +23322,7 @@
       </c>
     </row>
     <row r="11" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="599">
+      <c r="A11" s="598">
         <v>44653</v>
       </c>
       <c r="B11" s="355" t="s">
@@ -23343,7 +23362,7 @@
       </c>
     </row>
     <row r="12" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="599">
+      <c r="A12" s="598">
         <v>44655</v>
       </c>
       <c r="B12" s="355" t="s">
@@ -23383,7 +23402,7 @@
       </c>
     </row>
     <row r="13" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="599">
+      <c r="A13" s="598">
         <v>44656</v>
       </c>
       <c r="B13" s="355" t="s">
@@ -23423,7 +23442,7 @@
       </c>
     </row>
     <row r="14" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="599">
+      <c r="A14" s="598">
         <v>44656</v>
       </c>
       <c r="B14" s="355" t="s">
@@ -23463,7 +23482,7 @@
       </c>
     </row>
     <row r="15" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="599">
+      <c r="A15" s="598">
         <v>44657</v>
       </c>
       <c r="B15" s="355" t="s">
@@ -23503,7 +23522,7 @@
       </c>
     </row>
     <row r="16" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="599">
+      <c r="A16" s="598">
         <v>44657</v>
       </c>
       <c r="B16" s="355" t="s">
@@ -23543,7 +23562,7 @@
       </c>
     </row>
     <row r="17" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="599">
+      <c r="A17" s="598">
         <v>44657</v>
       </c>
       <c r="B17" s="355" t="s">
@@ -23583,7 +23602,7 @@
       </c>
     </row>
     <row r="18" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="599">
+      <c r="A18" s="598">
         <v>44658</v>
       </c>
       <c r="B18" s="355" t="s">
@@ -23623,7 +23642,7 @@
       </c>
     </row>
     <row r="19" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="599">
+      <c r="A19" s="598">
         <v>44659</v>
       </c>
       <c r="B19" s="355" t="s">
@@ -23663,7 +23682,7 @@
       </c>
     </row>
     <row r="20" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="599">
+      <c r="A20" s="598">
         <v>44659</v>
       </c>
       <c r="B20" s="355" t="s">
@@ -23703,7 +23722,7 @@
       </c>
     </row>
     <row r="21" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="599">
+      <c r="A21" s="598">
         <v>44660</v>
       </c>
       <c r="B21" s="355" t="s">
@@ -23712,10 +23731,10 @@
       <c r="C21" s="96">
         <v>67001.67</v>
       </c>
-      <c r="D21" s="594">
+      <c r="D21" s="593">
         <v>44706</v>
       </c>
-      <c r="E21" s="598">
+      <c r="E21" s="597">
         <v>67001.67</v>
       </c>
       <c r="F21" s="111">
@@ -23743,7 +23762,7 @@
       </c>
     </row>
     <row r="22" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A22" s="599">
+      <c r="A22" s="598">
         <v>44660</v>
       </c>
       <c r="B22" s="355" t="s">
@@ -23752,10 +23771,10 @@
       <c r="C22" s="96">
         <v>5256</v>
       </c>
-      <c r="D22" s="594">
+      <c r="D22" s="593">
         <v>44706</v>
       </c>
-      <c r="E22" s="598">
+      <c r="E22" s="597">
         <v>5256</v>
       </c>
       <c r="F22" s="111">
@@ -23784,7 +23803,7 @@
       </c>
     </row>
     <row r="23" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="599">
+      <c r="A23" s="598">
         <v>44662</v>
       </c>
       <c r="B23" s="355" t="s">
@@ -23793,10 +23812,10 @@
       <c r="C23" s="96">
         <v>40472.6</v>
       </c>
-      <c r="D23" s="594">
+      <c r="D23" s="593">
         <v>44706</v>
       </c>
-      <c r="E23" s="598">
+      <c r="E23" s="597">
         <v>40472.6</v>
       </c>
       <c r="F23" s="111">
@@ -23824,7 +23843,7 @@
       </c>
     </row>
     <row r="24" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="599">
+      <c r="A24" s="598">
         <v>44662</v>
       </c>
       <c r="B24" s="355" t="s">
@@ -23833,10 +23852,10 @@
       <c r="C24" s="96">
         <v>3906</v>
       </c>
-      <c r="D24" s="594">
+      <c r="D24" s="593">
         <v>44706</v>
       </c>
-      <c r="E24" s="598">
+      <c r="E24" s="597">
         <v>3906</v>
       </c>
       <c r="F24" s="111">
@@ -23864,7 +23883,7 @@
       </c>
     </row>
     <row r="25" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="599">
+      <c r="A25" s="598">
         <v>44663</v>
       </c>
       <c r="B25" s="355" t="s">
@@ -23873,10 +23892,10 @@
       <c r="C25" s="96">
         <v>33820.800000000003</v>
       </c>
-      <c r="D25" s="594">
+      <c r="D25" s="593">
         <v>44706</v>
       </c>
-      <c r="E25" s="598">
+      <c r="E25" s="597">
         <v>33820.800000000003</v>
       </c>
       <c r="F25" s="111">
@@ -23904,7 +23923,7 @@
       </c>
     </row>
     <row r="26" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="599">
+      <c r="A26" s="598">
         <v>44664</v>
       </c>
       <c r="B26" s="355" t="s">
@@ -23913,10 +23932,10 @@
       <c r="C26" s="96">
         <v>36277.25</v>
       </c>
-      <c r="D26" s="594">
+      <c r="D26" s="593">
         <v>44706</v>
       </c>
-      <c r="E26" s="598">
+      <c r="E26" s="597">
         <v>36277.25</v>
       </c>
       <c r="F26" s="111">
@@ -23944,7 +23963,7 @@
       </c>
     </row>
     <row r="27" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="599">
+      <c r="A27" s="598">
         <v>44665</v>
       </c>
       <c r="B27" s="355" t="s">
@@ -23953,10 +23972,10 @@
       <c r="C27" s="96">
         <v>61531.34</v>
       </c>
-      <c r="D27" s="594">
+      <c r="D27" s="593">
         <v>44706</v>
       </c>
-      <c r="E27" s="598">
+      <c r="E27" s="597">
         <v>61531.34</v>
       </c>
       <c r="F27" s="111">
@@ -23984,7 +24003,7 @@
       </c>
     </row>
     <row r="28" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="599">
+      <c r="A28" s="598">
         <v>44665</v>
       </c>
       <c r="B28" s="355" t="s">
@@ -23993,10 +24012,10 @@
       <c r="C28" s="96">
         <v>12189.9</v>
       </c>
-      <c r="D28" s="594">
+      <c r="D28" s="593">
         <v>44706</v>
       </c>
-      <c r="E28" s="598">
+      <c r="E28" s="597">
         <v>12189.9</v>
       </c>
       <c r="F28" s="111">
@@ -24024,7 +24043,7 @@
       </c>
     </row>
     <row r="29" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="599">
+      <c r="A29" s="598">
         <v>44667</v>
       </c>
       <c r="B29" s="355" t="s">
@@ -24033,10 +24052,10 @@
       <c r="C29" s="96">
         <v>64256.75</v>
       </c>
-      <c r="D29" s="594">
+      <c r="D29" s="593">
         <v>44706</v>
       </c>
-      <c r="E29" s="598">
+      <c r="E29" s="597">
         <v>64256.75</v>
       </c>
       <c r="F29" s="111">
@@ -24064,7 +24083,7 @@
       </c>
     </row>
     <row r="30" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A30" s="599">
+      <c r="A30" s="598">
         <v>44669</v>
       </c>
       <c r="B30" s="355" t="s">
@@ -24073,10 +24092,10 @@
       <c r="C30" s="96">
         <v>53375.8</v>
       </c>
-      <c r="D30" s="594">
+      <c r="D30" s="593">
         <v>44706</v>
       </c>
-      <c r="E30" s="598">
+      <c r="E30" s="597">
         <v>53375.8</v>
       </c>
       <c r="F30" s="111">
@@ -24105,7 +24124,7 @@
       </c>
     </row>
     <row r="31" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="599">
+      <c r="A31" s="598">
         <v>44670</v>
       </c>
       <c r="B31" s="355" t="s">
@@ -24114,10 +24133,10 @@
       <c r="C31" s="96">
         <v>126366.49</v>
       </c>
-      <c r="D31" s="594">
+      <c r="D31" s="593">
         <v>44706</v>
       </c>
-      <c r="E31" s="598">
+      <c r="E31" s="597">
         <v>126366.49</v>
       </c>
       <c r="F31" s="111">
@@ -24145,7 +24164,7 @@
       </c>
     </row>
     <row r="32" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="599">
+      <c r="A32" s="598">
         <v>44670</v>
       </c>
       <c r="B32" s="355" t="s">
@@ -24154,10 +24173,10 @@
       <c r="C32" s="96">
         <v>6102</v>
       </c>
-      <c r="D32" s="594">
+      <c r="D32" s="593">
         <v>44706</v>
       </c>
-      <c r="E32" s="598">
+      <c r="E32" s="597">
         <v>6102</v>
       </c>
       <c r="F32" s="111">
@@ -24185,7 +24204,7 @@
       </c>
     </row>
     <row r="33" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="599">
+      <c r="A33" s="598">
         <v>44670</v>
       </c>
       <c r="B33" s="355" t="s">
@@ -24194,10 +24213,10 @@
       <c r="C33" s="96">
         <v>4812</v>
       </c>
-      <c r="D33" s="594">
+      <c r="D33" s="593">
         <v>44706</v>
       </c>
-      <c r="E33" s="598">
+      <c r="E33" s="597">
         <v>4812</v>
       </c>
       <c r="F33" s="111">
@@ -24225,7 +24244,7 @@
       </c>
     </row>
     <row r="34" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="599">
+      <c r="A34" s="598">
         <v>44671</v>
       </c>
       <c r="B34" s="355" t="s">
@@ -24234,10 +24253,10 @@
       <c r="C34" s="96">
         <v>10160.6</v>
       </c>
-      <c r="D34" s="594">
+      <c r="D34" s="593">
         <v>44706</v>
       </c>
-      <c r="E34" s="598">
+      <c r="E34" s="597">
         <v>10160.6</v>
       </c>
       <c r="F34" s="111">
@@ -24265,7 +24284,7 @@
       </c>
     </row>
     <row r="35" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="599">
+      <c r="A35" s="598">
         <v>44671</v>
       </c>
       <c r="B35" s="355" t="s">
@@ -24274,10 +24293,10 @@
       <c r="C35" s="96">
         <v>75337.5</v>
       </c>
-      <c r="D35" s="594">
+      <c r="D35" s="593">
         <v>44706</v>
       </c>
-      <c r="E35" s="598">
+      <c r="E35" s="597">
         <v>75337.5</v>
       </c>
       <c r="F35" s="111">
@@ -24305,7 +24324,7 @@
       </c>
     </row>
     <row r="36" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="599">
+      <c r="A36" s="598">
         <v>44672</v>
       </c>
       <c r="B36" s="355" t="s">
@@ -24314,10 +24333,10 @@
       <c r="C36" s="96">
         <v>29920.44</v>
       </c>
-      <c r="D36" s="594">
+      <c r="D36" s="593">
         <v>44706</v>
       </c>
-      <c r="E36" s="598">
+      <c r="E36" s="597">
         <v>29920.44</v>
       </c>
       <c r="F36" s="111">
@@ -24345,7 +24364,7 @@
       </c>
     </row>
     <row r="37" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="599">
+      <c r="A37" s="598">
         <v>44673</v>
       </c>
       <c r="B37" s="355" t="s">
@@ -24354,10 +24373,10 @@
       <c r="C37" s="96">
         <v>72246.7</v>
       </c>
-      <c r="D37" s="594">
+      <c r="D37" s="593">
         <v>44706</v>
       </c>
-      <c r="E37" s="598">
+      <c r="E37" s="597">
         <v>72246.7</v>
       </c>
       <c r="F37" s="111">
@@ -24385,7 +24404,7 @@
       </c>
     </row>
     <row r="38" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="599">
+      <c r="A38" s="598">
         <v>44673</v>
       </c>
       <c r="B38" s="355" t="s">
@@ -24394,10 +24413,10 @@
       <c r="C38" s="96">
         <v>3036</v>
       </c>
-      <c r="D38" s="594">
+      <c r="D38" s="593">
         <v>44706</v>
       </c>
-      <c r="E38" s="598">
+      <c r="E38" s="597">
         <v>3036</v>
       </c>
       <c r="F38" s="111">
@@ -24425,7 +24444,7 @@
       </c>
     </row>
     <row r="39" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="599">
+      <c r="A39" s="598">
         <v>44674</v>
       </c>
       <c r="B39" s="355" t="s">
@@ -24434,10 +24453,10 @@
       <c r="C39" s="96">
         <v>1627.2</v>
       </c>
-      <c r="D39" s="594">
+      <c r="D39" s="593">
         <v>44706</v>
       </c>
-      <c r="E39" s="598">
+      <c r="E39" s="597">
         <v>1627.2</v>
       </c>
       <c r="F39" s="111">
@@ -24465,7 +24484,7 @@
       </c>
     </row>
     <row r="40" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="599">
+      <c r="A40" s="598">
         <v>44674</v>
       </c>
       <c r="B40" s="355" t="s">
@@ -24474,10 +24493,10 @@
       <c r="C40" s="96">
         <v>1238.8</v>
       </c>
-      <c r="D40" s="594">
+      <c r="D40" s="593">
         <v>44706</v>
       </c>
-      <c r="E40" s="598">
+      <c r="E40" s="597">
         <v>1238.8</v>
       </c>
       <c r="F40" s="111">
@@ -24505,7 +24524,7 @@
       </c>
     </row>
     <row r="41" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="599">
+      <c r="A41" s="598">
         <v>44674</v>
       </c>
       <c r="B41" s="355" t="s">
@@ -24514,10 +24533,10 @@
       <c r="C41" s="96">
         <v>62762.55</v>
       </c>
-      <c r="D41" s="594">
+      <c r="D41" s="593">
         <v>44706</v>
       </c>
-      <c r="E41" s="595">
+      <c r="E41" s="594">
         <v>50646.16</v>
       </c>
       <c r="F41" s="111">
@@ -24545,7 +24564,7 @@
       </c>
     </row>
     <row r="42" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="599">
+      <c r="A42" s="598">
         <v>44676</v>
       </c>
       <c r="B42" s="355" t="s">
@@ -24581,7 +24600,7 @@
       </c>
     </row>
     <row r="43" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="599">
+      <c r="A43" s="598">
         <v>44677</v>
       </c>
       <c r="B43" s="355" t="s">
@@ -24607,7 +24626,7 @@
       </c>
     </row>
     <row r="44" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="599">
+      <c r="A44" s="598">
         <v>44677</v>
       </c>
       <c r="B44" s="355" t="s">
@@ -24630,7 +24649,7 @@
       <c r="N44" s="137"/>
     </row>
     <row r="45" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="599">
+      <c r="A45" s="598">
         <v>44677</v>
       </c>
       <c r="B45" s="355" t="s">
@@ -24653,7 +24672,7 @@
       <c r="N45" s="137"/>
     </row>
     <row r="46" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="599">
+      <c r="A46" s="598">
         <v>44678</v>
       </c>
       <c r="B46" s="355" t="s">
@@ -24676,7 +24695,7 @@
       <c r="N46" s="137"/>
     </row>
     <row r="47" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="599">
+      <c r="A47" s="598">
         <v>44679</v>
       </c>
       <c r="B47" s="355" t="s">
@@ -24699,7 +24718,7 @@
       <c r="N47" s="137"/>
     </row>
     <row r="48" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="599">
+      <c r="A48" s="598">
         <v>44680</v>
       </c>
       <c r="B48" s="355" t="s">
@@ -24722,7 +24741,7 @@
       <c r="N48" s="137"/>
     </row>
     <row r="49" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="599">
+      <c r="A49" s="598">
         <v>44681</v>
       </c>
       <c r="B49" s="355" t="s">
@@ -25525,7 +25544,7 @@
       <c r="C90" s="214"/>
       <c r="D90" s="256"/>
       <c r="E90" s="3"/>
-      <c r="F90" s="662" t="s">
+      <c r="F90" s="661" t="s">
         <v>207</v>
       </c>
       <c r="K90" s="1"/>
@@ -25538,7 +25557,7 @@
       <c r="C91" s="1"/>
       <c r="D91" s="256"/>
       <c r="E91" s="3"/>
-      <c r="F91" s="663"/>
+      <c r="F91" s="662"/>
       <c r="K91" s="1"/>
       <c r="L91" s="97"/>
       <c r="M91" s="3"/>
@@ -25557,10 +25576,10 @@
     <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93" s="456"/>
       <c r="B93" s="442"/>
-      <c r="I93" s="700" t="s">
+      <c r="I93" s="699" t="s">
         <v>594</v>
       </c>
-      <c r="J93" s="701"/>
+      <c r="J93" s="700"/>
     </row>
     <row r="94" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="456"/>
@@ -25570,8 +25589,8 @@
       <c r="C94" s="520"/>
       <c r="D94" s="521"/>
       <c r="E94" s="522"/>
-      <c r="I94" s="702"/>
-      <c r="J94" s="703"/>
+      <c r="I94" s="701"/>
+      <c r="J94" s="702"/>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" s="456"/>
@@ -25988,15 +26007,15 @@
       <c r="B129" s="354"/>
       <c r="C129" s="355"/>
       <c r="D129" s="96"/>
-      <c r="E129" s="593"/>
+      <c r="E129" s="592"/>
     </row>
     <row r="130" spans="2:5" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B130" s="455"/>
-      <c r="C130" s="708">
+      <c r="C130" s="707">
         <f>SUM(D106:D129)</f>
         <v>759581.99999999988</v>
       </c>
-      <c r="D130" s="709"/>
+      <c r="D130" s="708"/>
       <c r="E130" s="257"/>
     </row>
   </sheetData>
@@ -26032,21 +26051,21 @@
   <sheetData>
     <row r="1" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F2" s="714" t="s">
+      <c r="F2" s="713" t="s">
         <v>752</v>
       </c>
-      <c r="G2" s="715"/>
-      <c r="H2" s="716"/>
+      <c r="G2" s="714"/>
+      <c r="H2" s="715"/>
     </row>
     <row r="3" spans="2:8" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="711" t="s">
+      <c r="B3" s="710" t="s">
         <v>748</v>
       </c>
-      <c r="C3" s="712"/>
-      <c r="D3" s="713"/>
-      <c r="F3" s="717"/>
-      <c r="G3" s="718"/>
-      <c r="H3" s="719"/>
+      <c r="C3" s="711"/>
+      <c r="D3" s="712"/>
+      <c r="F3" s="716"/>
+      <c r="G3" s="717"/>
+      <c r="H3" s="718"/>
     </row>
     <row r="4" spans="2:8" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="528" t="s">
@@ -26191,11 +26210,11 @@
         <f>SUM(D5:D10)</f>
         <v>264460</v>
       </c>
-      <c r="G11" s="720">
+      <c r="G11" s="719">
         <f>SUM(H5:H10)</f>
         <v>334337</v>
       </c>
-      <c r="H11" s="721"/>
+      <c r="H11" s="720"/>
     </row>
     <row r="13" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B13" s="534" t="s">
@@ -26212,23 +26231,23 @@
       <c r="C14" s="534"/>
     </row>
     <row r="15" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="724" t="s">
+      <c r="C15" s="723" t="s">
         <v>750</v>
       </c>
-      <c r="D15" s="722">
+      <c r="D15" s="721">
         <f>D11-D13</f>
         <v>-69877</v>
       </c>
     </row>
     <row r="16" spans="2:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="725"/>
-      <c r="D16" s="723"/>
+      <c r="C16" s="724"/>
+      <c r="D16" s="722"/>
     </row>
     <row r="17" spans="3:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C17" s="710" t="s">
+      <c r="C17" s="709" t="s">
         <v>753</v>
       </c>
-      <c r="D17" s="710"/>
+      <c r="D17" s="709"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -26253,10 +26272,10 @@
   <dimension ref="A1:Z80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="J5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="T22" sqref="T22"/>
+      <selection pane="bottomRight" activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -26286,23 +26305,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="624"/>
-      <c r="C1" s="666" t="s">
+      <c r="B1" s="599"/>
+      <c r="C1" s="665" t="s">
         <v>754</v>
       </c>
-      <c r="D1" s="667"/>
-      <c r="E1" s="667"/>
-      <c r="F1" s="667"/>
-      <c r="G1" s="667"/>
-      <c r="H1" s="667"/>
-      <c r="I1" s="667"/>
-      <c r="J1" s="667"/>
-      <c r="K1" s="667"/>
-      <c r="L1" s="667"/>
-      <c r="M1" s="667"/>
+      <c r="D1" s="666"/>
+      <c r="E1" s="666"/>
+      <c r="F1" s="666"/>
+      <c r="G1" s="666"/>
+      <c r="H1" s="666"/>
+      <c r="I1" s="666"/>
+      <c r="J1" s="666"/>
+      <c r="K1" s="666"/>
+      <c r="L1" s="666"/>
+      <c r="M1" s="666"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="625"/>
+      <c r="B2" s="600"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -26312,24 +26331,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="628" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="629"/>
+      <c r="B3" s="603" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="604"/>
       <c r="D3" s="10"/>
       <c r="E3" s="562"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="630" t="s">
+      <c r="H3" s="605" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="630"/>
+      <c r="I3" s="605"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="654" t="s">
+      <c r="P3" s="642" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="664" t="s">
+      <c r="R3" s="663" t="s">
         <v>216</v>
       </c>
       <c r="U3" s="34"/>
@@ -26348,14 +26367,14 @@
       <c r="D4" s="18">
         <v>44682</v>
       </c>
-      <c r="E4" s="631" t="s">
+      <c r="E4" s="606" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="632"/>
-      <c r="H4" s="633" t="s">
+      <c r="F4" s="607"/>
+      <c r="H4" s="608" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="634"/>
+      <c r="I4" s="609"/>
       <c r="J4" s="565"/>
       <c r="K4" s="571"/>
       <c r="L4" s="572"/>
@@ -26365,15 +26384,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="655"/>
+      <c r="P4" s="643"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="665"/>
+      <c r="R4" s="664"/>
       <c r="U4" s="34"/>
       <c r="V4" s="128"/>
-      <c r="W4" s="729"/>
-      <c r="X4" s="729"/>
+      <c r="W4" s="725"/>
+      <c r="X4" s="725"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -26427,8 +26446,8 @@
       <c r="S5" s="324"/>
       <c r="U5" s="34"/>
       <c r="V5" s="128"/>
-      <c r="W5" s="729"/>
-      <c r="X5" s="729"/>
+      <c r="W5" s="725"/>
+      <c r="X5" s="725"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -27194,7 +27213,7 @@
       <c r="S19" s="147"/>
       <c r="U19" s="34"/>
       <c r="V19" s="128"/>
-      <c r="W19" s="730"/>
+      <c r="W19" s="726"/>
       <c r="X19" s="546"/>
       <c r="Y19" s="233"/>
     </row>
@@ -27248,7 +27267,7 @@
       <c r="S20" s="147"/>
       <c r="U20" s="34"/>
       <c r="V20" s="128"/>
-      <c r="W20" s="730"/>
+      <c r="W20" s="726"/>
       <c r="X20" s="34"/>
       <c r="Y20" s="233"/>
     </row>
@@ -27303,8 +27322,8 @@
       <c r="S21" s="147"/>
       <c r="U21" s="34"/>
       <c r="V21" s="128"/>
-      <c r="W21" s="643"/>
-      <c r="X21" s="643"/>
+      <c r="W21" s="658"/>
+      <c r="X21" s="658"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -27369,30 +27388,41 @@
       <c r="B23" s="24">
         <v>44701</v>
       </c>
-      <c r="C23" s="25"/>
-      <c r="D23" s="35"/>
+      <c r="C23" s="25">
+        <v>27352</v>
+      </c>
+      <c r="D23" s="35" t="s">
+        <v>808</v>
+      </c>
       <c r="E23" s="27">
         <v>44701</v>
       </c>
-      <c r="F23" s="28"/>
+      <c r="F23" s="28">
+        <v>161066</v>
+      </c>
       <c r="G23" s="582"/>
       <c r="H23" s="29">
         <v>44701</v>
       </c>
-      <c r="I23" s="30"/>
+      <c r="I23" s="30">
+        <v>1081</v>
+      </c>
       <c r="J23" s="50"/>
       <c r="K23" s="172"/>
       <c r="L23" s="45"/>
       <c r="M23" s="32">
-        <v>0</v>
+        <f>93134+8200</f>
+        <v>101334</v>
       </c>
       <c r="N23" s="33">
-        <v>0</v>
-      </c>
-      <c r="O23" s="587"/>
+        <v>31299</v>
+      </c>
+      <c r="O23" s="584" t="s">
+        <v>766</v>
+      </c>
       <c r="P23" s="39">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>161066</v>
       </c>
       <c r="Q23" s="325">
         <f t="shared" si="0"/>
@@ -27404,8 +27434,8 @@
       <c r="S23" s="147"/>
       <c r="U23" s="34"/>
       <c r="V23" s="128"/>
-      <c r="W23" s="644"/>
-      <c r="X23" s="644"/>
+      <c r="W23" s="659"/>
+      <c r="X23" s="659"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -27414,30 +27444,47 @@
       <c r="B24" s="24">
         <v>44702</v>
       </c>
-      <c r="C24" s="25"/>
-      <c r="D24" s="42"/>
+      <c r="C24" s="25">
+        <v>16331</v>
+      </c>
+      <c r="D24" s="42" t="s">
+        <v>809</v>
+      </c>
       <c r="E24" s="27">
         <v>44702</v>
       </c>
-      <c r="F24" s="28"/>
+      <c r="F24" s="28">
+        <v>110608</v>
+      </c>
       <c r="G24" s="582"/>
       <c r="H24" s="29">
         <v>44702</v>
       </c>
-      <c r="I24" s="30"/>
-      <c r="J24" s="51"/>
-      <c r="K24" s="173"/>
-      <c r="L24" s="52"/>
+      <c r="I24" s="30">
+        <v>7382</v>
+      </c>
+      <c r="J24" s="51">
+        <v>44702</v>
+      </c>
+      <c r="K24" s="173" t="s">
+        <v>810</v>
+      </c>
+      <c r="L24" s="52">
+        <v>17621</v>
+      </c>
       <c r="M24" s="32">
-        <v>0</v>
+        <f>22308+8446</f>
+        <v>30754</v>
       </c>
       <c r="N24" s="33">
-        <v>0</v>
-      </c>
-      <c r="O24" s="587"/>
+        <v>38520</v>
+      </c>
+      <c r="O24" s="584" t="s">
+        <v>766</v>
+      </c>
       <c r="P24" s="39">
         <f>N24+M24+L24+I24+C24</f>
-        <v>0</v>
+        <v>110608</v>
       </c>
       <c r="Q24" s="325">
         <f t="shared" si="0"/>
@@ -27449,8 +27496,8 @@
       <c r="S24" s="147"/>
       <c r="U24" s="34"/>
       <c r="V24" s="128"/>
-      <c r="W24" s="644"/>
-      <c r="X24" s="644"/>
+      <c r="W24" s="659"/>
+      <c r="X24" s="659"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -27459,30 +27506,40 @@
       <c r="B25" s="24">
         <v>44703</v>
       </c>
-      <c r="C25" s="25"/>
-      <c r="D25" s="35"/>
+      <c r="C25" s="25">
+        <v>25032</v>
+      </c>
+      <c r="D25" s="35" t="s">
+        <v>811</v>
+      </c>
       <c r="E25" s="27">
         <v>44703</v>
       </c>
-      <c r="F25" s="28"/>
+      <c r="F25" s="28">
+        <v>76960</v>
+      </c>
       <c r="G25" s="582"/>
       <c r="H25" s="29">
         <v>44703</v>
       </c>
-      <c r="I25" s="30"/>
+      <c r="I25" s="30">
+        <v>1189</v>
+      </c>
       <c r="J25" s="50"/>
       <c r="K25" s="38"/>
       <c r="L25" s="54"/>
       <c r="M25" s="32">
-        <v>0</v>
+        <v>23536</v>
       </c>
       <c r="N25" s="33">
-        <v>0</v>
-      </c>
-      <c r="O25" s="587"/>
+        <v>27203</v>
+      </c>
+      <c r="O25" s="584" t="s">
+        <v>766</v>
+      </c>
       <c r="P25" s="283">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>76960</v>
       </c>
       <c r="Q25" s="325">
         <f t="shared" si="0"/>
@@ -27493,8 +27550,8 @@
       </c>
       <c r="U25" s="34"/>
       <c r="V25" s="128"/>
-      <c r="W25" s="645"/>
-      <c r="X25" s="645"/>
+      <c r="W25" s="660"/>
+      <c r="X25" s="660"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -27503,30 +27560,38 @@
       <c r="B26" s="24">
         <v>44704</v>
       </c>
-      <c r="C26" s="25"/>
-      <c r="D26" s="35"/>
+      <c r="C26" s="25">
+        <v>15183</v>
+      </c>
+      <c r="D26" s="35" t="s">
+        <v>812</v>
+      </c>
       <c r="E26" s="27">
         <v>44704</v>
       </c>
-      <c r="F26" s="28"/>
+      <c r="F26" s="28">
+        <v>136742</v>
+      </c>
       <c r="G26" s="582"/>
       <c r="H26" s="29">
         <v>44704</v>
       </c>
-      <c r="I26" s="30"/>
+      <c r="I26" s="30">
+        <v>1581</v>
+      </c>
       <c r="J26" s="37"/>
       <c r="K26" s="173"/>
       <c r="L26" s="45"/>
       <c r="M26" s="32">
-        <v>0</v>
+        <v>50868</v>
       </c>
       <c r="N26" s="33">
-        <v>0</v>
-      </c>
-      <c r="O26" s="587"/>
+        <v>69110</v>
+      </c>
+      <c r="O26" s="736"/>
       <c r="P26" s="284">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>136742</v>
       </c>
       <c r="Q26" s="325">
         <f t="shared" si="0"/>
@@ -27539,8 +27604,8 @@
       <c r="T26" s="128"/>
       <c r="U26" s="34"/>
       <c r="V26" s="128"/>
-      <c r="W26" s="645"/>
-      <c r="X26" s="645"/>
+      <c r="W26" s="660"/>
+      <c r="X26" s="660"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -27569,7 +27634,7 @@
       <c r="N27" s="33">
         <v>0</v>
       </c>
-      <c r="O27" s="588"/>
+      <c r="O27" s="737"/>
       <c r="P27" s="39">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -27585,9 +27650,9 @@
       <c r="T27" s="128"/>
       <c r="U27" s="34"/>
       <c r="V27" s="128"/>
-      <c r="W27" s="638"/>
-      <c r="X27" s="639"/>
-      <c r="Y27" s="640"/>
+      <c r="W27" s="653"/>
+      <c r="X27" s="654"/>
+      <c r="Y27" s="655"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -27615,7 +27680,7 @@
       <c r="N28" s="33">
         <v>0</v>
       </c>
-      <c r="O28" s="588"/>
+      <c r="O28" s="737"/>
       <c r="P28" s="34">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -27631,9 +27696,9 @@
       <c r="T28" s="128"/>
       <c r="U28" s="34"/>
       <c r="V28" s="128"/>
-      <c r="W28" s="639"/>
-      <c r="X28" s="639"/>
-      <c r="Y28" s="640"/>
+      <c r="W28" s="654"/>
+      <c r="X28" s="654"/>
+      <c r="Y28" s="655"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -27661,7 +27726,7 @@
       <c r="N29" s="33">
         <v>0</v>
       </c>
-      <c r="O29" s="588"/>
+      <c r="O29" s="737"/>
       <c r="P29" s="34">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -27707,7 +27772,7 @@
       <c r="N30" s="33">
         <v>0</v>
       </c>
-      <c r="O30" s="588"/>
+      <c r="O30" s="737"/>
       <c r="P30" s="34">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -27752,7 +27817,7 @@
       <c r="N31" s="33">
         <v>0</v>
       </c>
-      <c r="O31" s="588"/>
+      <c r="O31" s="737"/>
       <c r="P31" s="34">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -27796,7 +27861,7 @@
       <c r="N32" s="33">
         <v>0</v>
       </c>
-      <c r="O32" s="585"/>
+      <c r="O32" s="738"/>
       <c r="P32" s="34">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -27834,7 +27899,7 @@
       <c r="N33" s="33">
         <v>0</v>
       </c>
-      <c r="O33" s="585"/>
+      <c r="O33" s="738"/>
       <c r="P33" s="34">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -27947,7 +28012,7 @@
       <c r="N36" s="33">
         <v>0</v>
       </c>
-      <c r="O36" s="589"/>
+      <c r="O36" s="588"/>
       <c r="P36" s="34">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -27990,7 +28055,7 @@
       <c r="N37" s="33">
         <v>0</v>
       </c>
-      <c r="O37" s="589"/>
+      <c r="O37" s="588"/>
       <c r="P37" s="34">
         <f t="shared" si="1"/>
         <v>17396.62</v>
@@ -28058,8 +28123,12 @@
       <c r="G39" s="582"/>
       <c r="H39" s="36"/>
       <c r="I39" s="544"/>
-      <c r="J39" s="56"/>
-      <c r="K39" s="579"/>
+      <c r="J39" s="56">
+        <v>44702</v>
+      </c>
+      <c r="K39" s="579" t="s">
+        <v>810</v>
+      </c>
       <c r="L39" s="39"/>
       <c r="M39" s="32">
         <v>0</v>
@@ -28127,19 +28196,19 @@
       <c r="J41" s="56"/>
       <c r="K41" s="38"/>
       <c r="L41" s="39"/>
-      <c r="M41" s="656">
+      <c r="M41" s="644">
         <f>SUM(M5:M40)</f>
-        <v>951312.5</v>
-      </c>
-      <c r="N41" s="656">
+        <v>1157804.5</v>
+      </c>
+      <c r="N41" s="644">
         <f>SUM(N5:N40)</f>
-        <v>635634</v>
+        <v>801766</v>
       </c>
       <c r="P41" s="508">
         <f>SUM(P5:P40)</f>
-        <v>2029706.36</v>
-      </c>
-      <c r="Q41" s="704">
+        <v>2515082.3600000003</v>
+      </c>
+      <c r="Q41" s="703">
         <f>SUM(Q5:Q40)</f>
         <v>34796.36</v>
       </c>
@@ -28157,10 +28226,10 @@
       <c r="J42" s="51"/>
       <c r="K42" s="173"/>
       <c r="L42" s="52"/>
-      <c r="M42" s="657"/>
-      <c r="N42" s="657"/>
+      <c r="M42" s="645"/>
+      <c r="N42" s="645"/>
       <c r="P42" s="34"/>
-      <c r="Q42" s="705"/>
+      <c r="Q42" s="704"/>
     </row>
     <row r="43" spans="1:24" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="23"/>
@@ -28211,11 +28280,11 @@
       <c r="J45" s="56"/>
       <c r="K45" s="38"/>
       <c r="L45" s="39"/>
-      <c r="M45" s="706">
+      <c r="M45" s="705">
         <f>M41+N41</f>
-        <v>1586946.5</v>
-      </c>
-      <c r="N45" s="707"/>
+        <v>1959570.5</v>
+      </c>
+      <c r="N45" s="706"/>
       <c r="P45" s="34"/>
       <c r="Q45" s="13"/>
     </row>
@@ -28298,7 +28367,7 @@
       </c>
       <c r="C50" s="87">
         <f>SUM(C5:C49)</f>
-        <v>305886</v>
+        <v>389784</v>
       </c>
       <c r="D50" s="88"/>
       <c r="E50" s="91" t="s">
@@ -28306,7 +28375,7 @@
       </c>
       <c r="F50" s="90">
         <f>SUM(F5:F49)</f>
-        <v>1922027</v>
+        <v>2407403</v>
       </c>
       <c r="G50" s="583"/>
       <c r="H50" s="91" t="s">
@@ -28314,7 +28383,7 @@
       </c>
       <c r="I50" s="92">
         <f>SUM(I5:I49)</f>
-        <v>48148</v>
+        <v>59381</v>
       </c>
       <c r="J50" s="93"/>
       <c r="K50" s="94" t="s">
@@ -28322,7 +28391,7 @@
       </c>
       <c r="L50" s="95">
         <f>SUM(L5:L49)</f>
-        <v>88725.86</v>
+        <v>106346.86</v>
       </c>
       <c r="M50" s="96"/>
       <c r="N50" s="96"/>
@@ -28340,53 +28409,53 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="611" t="s">
+      <c r="H52" s="621" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="612"/>
+      <c r="I52" s="622"/>
       <c r="J52" s="568"/>
-      <c r="K52" s="726">
+      <c r="K52" s="728">
         <f>I50+L50</f>
-        <v>136873.85999999999</v>
-      </c>
-      <c r="L52" s="727"/>
+        <v>165727.85999999999</v>
+      </c>
+      <c r="L52" s="729"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="617" t="s">
+      <c r="D53" s="627" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="617"/>
+      <c r="E53" s="627"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
-        <v>1479267.1400000001</v>
+        <v>1851891.1400000001</v>
       </c>
       <c r="I53" s="102"/>
       <c r="J53" s="569"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="647" t="s">
+      <c r="D54" s="651" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="647"/>
+      <c r="E54" s="651"/>
       <c r="F54" s="111">
         <v>0</v>
       </c>
-      <c r="I54" s="618" t="s">
+      <c r="I54" s="628" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="619"/>
-      <c r="K54" s="620">
+      <c r="J54" s="629"/>
+      <c r="K54" s="630">
         <f>F56+F57+F58</f>
-        <v>1479267.1400000001</v>
-      </c>
-      <c r="L54" s="620"/>
+        <v>1851891.1400000001</v>
+      </c>
+      <c r="L54" s="630"/>
       <c r="M54" s="404"/>
       <c r="N54" s="404"/>
-      <c r="O54" s="590"/>
+      <c r="O54" s="589"/>
       <c r="P54" s="404"/>
       <c r="Q54" s="404"/>
     </row>
@@ -28404,7 +28473,7 @@
       <c r="L55" s="154"/>
       <c r="M55" s="404"/>
       <c r="N55" s="404"/>
-      <c r="O55" s="590"/>
+      <c r="O55" s="589"/>
       <c r="P55" s="404"/>
       <c r="Q55" s="404"/>
     </row>
@@ -28417,18 +28486,18 @@
       </c>
       <c r="F56" s="96">
         <f>SUM(F53:F55)</f>
-        <v>1479267.1400000001</v>
+        <v>1851891.1400000001</v>
       </c>
       <c r="H56" s="564"/>
       <c r="I56" s="108" t="s">
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="728">
+      <c r="K56" s="727">
         <f>-C4</f>
         <v>-2112071.92</v>
       </c>
-      <c r="L56" s="620"/>
+      <c r="L56" s="630"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -28443,22 +28512,22 @@
     </row>
     <row r="58" spans="1:17" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C58" s="112"/>
-      <c r="D58" s="600" t="s">
+      <c r="D58" s="610" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="601"/>
+      <c r="E58" s="611"/>
       <c r="F58" s="113">
         <v>0</v>
       </c>
-      <c r="I58" s="602" t="s">
+      <c r="I58" s="612" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="603"/>
-      <c r="K58" s="604">
+      <c r="J58" s="613"/>
+      <c r="K58" s="614">
         <f>K54+K56</f>
-        <v>-632804.7799999998</v>
-      </c>
-      <c r="L58" s="604"/>
+        <v>-260180.7799999998</v>
+      </c>
+      <c r="L58" s="614"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -28602,6 +28671,21 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="K52:L52"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="M41:M42"/>
+    <mergeCell ref="N41:N42"/>
+    <mergeCell ref="Q41:Q42"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="M45:N45"/>
     <mergeCell ref="W26:X26"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="W27:X28"/>
@@ -28617,21 +28701,6 @@
     <mergeCell ref="W21:X21"/>
     <mergeCell ref="W23:X24"/>
     <mergeCell ref="W25:X25"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="M41:M42"/>
-    <mergeCell ref="N41:N42"/>
-    <mergeCell ref="Q41:Q42"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="K52:L52"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="K54:L54"/>
   </mergeCells>
   <pageMargins left="0.28000000000000003" right="0.19" top="0.33" bottom="0.33" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -29313,10 +29382,10 @@
       <c r="C25" s="111">
         <v>73144.72</v>
       </c>
-      <c r="D25" s="596">
+      <c r="D25" s="595">
         <v>44707</v>
       </c>
-      <c r="E25" s="597">
+      <c r="E25" s="596">
         <v>73144.72</v>
       </c>
       <c r="F25" s="549">
@@ -29337,16 +29406,16 @@
       <c r="A26" s="454">
         <v>44700</v>
       </c>
-      <c r="B26" s="591" t="s">
+      <c r="B26" s="590" t="s">
         <v>797</v>
       </c>
       <c r="C26" s="111">
         <v>54053.32</v>
       </c>
-      <c r="D26" s="596">
+      <c r="D26" s="595">
         <v>44707</v>
       </c>
-      <c r="E26" s="597">
+      <c r="E26" s="596">
         <v>54053.32</v>
       </c>
       <c r="F26" s="549">
@@ -29373,10 +29442,10 @@
       <c r="C27" s="111">
         <v>101400.66</v>
       </c>
-      <c r="D27" s="596">
+      <c r="D27" s="595">
         <v>44707</v>
       </c>
-      <c r="E27" s="597">
+      <c r="E27" s="596">
         <v>101400.66</v>
       </c>
       <c r="F27" s="549">
@@ -29403,10 +29472,10 @@
       <c r="C28" s="111">
         <v>185753.4</v>
       </c>
-      <c r="D28" s="596">
+      <c r="D28" s="595">
         <v>44707</v>
       </c>
-      <c r="E28" s="597">
+      <c r="E28" s="596">
         <v>185753.4</v>
       </c>
       <c r="F28" s="549">
@@ -29424,7 +29493,7 @@
       </c>
     </row>
     <row r="29" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="592">
+      <c r="A29" s="591">
         <v>44705</v>
       </c>
       <c r="B29" s="260" t="s">
@@ -29433,10 +29502,10 @@
       <c r="C29" s="261">
         <v>72323.33</v>
       </c>
-      <c r="D29" s="596">
+      <c r="D29" s="595">
         <v>44707</v>
       </c>
-      <c r="E29" s="597">
+      <c r="E29" s="596">
         <v>72323.33</v>
       </c>
       <c r="F29" s="549">
@@ -29454,7 +29523,7 @@
       </c>
     </row>
     <row r="30" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A30" s="592">
+      <c r="A30" s="591">
         <v>44706</v>
       </c>
       <c r="B30" s="260" t="s">
@@ -29463,10 +29532,10 @@
       <c r="C30" s="261">
         <v>138449.44</v>
       </c>
-      <c r="D30" s="596">
+      <c r="D30" s="595">
         <v>44707</v>
       </c>
-      <c r="E30" s="597">
+      <c r="E30" s="596">
         <v>138449.44</v>
       </c>
       <c r="F30" s="549">
@@ -30627,7 +30696,7 @@
       <c r="C90" s="214"/>
       <c r="D90" s="256"/>
       <c r="E90" s="3"/>
-      <c r="F90" s="662" t="s">
+      <c r="F90" s="661" t="s">
         <v>207</v>
       </c>
       <c r="K90" s="1"/>
@@ -30640,7 +30709,7 @@
       <c r="C91" s="1"/>
       <c r="D91" s="256"/>
       <c r="E91" s="3"/>
-      <c r="F91" s="663"/>
+      <c r="F91" s="662"/>
       <c r="K91" s="1"/>
       <c r="L91" s="97"/>
       <c r="M91" s="3"/>
@@ -30659,10 +30728,10 @@
     <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93" s="456"/>
       <c r="B93" s="442"/>
-      <c r="I93" s="700" t="s">
+      <c r="I93" s="699" t="s">
         <v>594</v>
       </c>
-      <c r="J93" s="701"/>
+      <c r="J93" s="700"/>
     </row>
     <row r="94" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="456"/>
@@ -30670,8 +30739,8 @@
       <c r="C94" s="520"/>
       <c r="D94" s="521"/>
       <c r="E94" s="522"/>
-      <c r="I94" s="702"/>
-      <c r="J94" s="703"/>
+      <c r="I94" s="701"/>
+      <c r="J94" s="702"/>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" s="456"/>
@@ -30931,18 +31000,18 @@
       <c r="D2" s="111"/>
     </row>
     <row r="3" spans="2:4" ht="21" x14ac:dyDescent="0.25">
-      <c r="B3" s="733" t="s">
+      <c r="B3" s="732" t="s">
         <v>806</v>
       </c>
-      <c r="C3" s="734"/>
-      <c r="D3" s="734"/>
+      <c r="C3" s="733"/>
+      <c r="D3" s="733"/>
     </row>
     <row r="4" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B4" s="454"/>
-      <c r="C4" s="735" t="s">
+      <c r="C4" s="734" t="s">
         <v>807</v>
       </c>
-      <c r="D4" s="736"/>
+      <c r="D4" s="735"/>
     </row>
     <row r="5" spans="2:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="454">
@@ -30959,7 +31028,7 @@
       <c r="B6" s="454">
         <v>44700</v>
       </c>
-      <c r="C6" s="591" t="s">
+      <c r="C6" s="590" t="s">
         <v>805</v>
       </c>
       <c r="D6" s="111">
@@ -31011,13 +31080,13 @@
       </c>
     </row>
     <row r="11" spans="2:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D11" s="731">
+      <c r="D11" s="730">
         <f t="shared" ref="D11" si="0">SUM(D5:D10)</f>
         <v>625124.87</v>
       </c>
     </row>
     <row r="12" spans="2:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D12" s="732"/>
+      <c r="D12" s="731"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -32374,7 +32443,7 @@
       <c r="A41" s="140">
         <v>44507</v>
       </c>
-      <c r="B41" s="635" t="s">
+      <c r="B41" s="634" t="s">
         <v>92</v>
       </c>
       <c r="C41" s="190">
@@ -32406,7 +32475,7 @@
       <c r="A42" s="140" t="s">
         <v>93</v>
       </c>
-      <c r="B42" s="636"/>
+      <c r="B42" s="635"/>
       <c r="C42" s="143">
         <v>0</v>
       </c>
@@ -34014,23 +34083,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="624"/>
-      <c r="C1" s="626" t="s">
+      <c r="B1" s="599"/>
+      <c r="C1" s="601" t="s">
         <v>208</v>
       </c>
-      <c r="D1" s="627"/>
-      <c r="E1" s="627"/>
-      <c r="F1" s="627"/>
-      <c r="G1" s="627"/>
-      <c r="H1" s="627"/>
-      <c r="I1" s="627"/>
-      <c r="J1" s="627"/>
-      <c r="K1" s="627"/>
-      <c r="L1" s="627"/>
-      <c r="M1" s="627"/>
+      <c r="D1" s="602"/>
+      <c r="E1" s="602"/>
+      <c r="F1" s="602"/>
+      <c r="G1" s="602"/>
+      <c r="H1" s="602"/>
+      <c r="I1" s="602"/>
+      <c r="J1" s="602"/>
+      <c r="K1" s="602"/>
+      <c r="L1" s="602"/>
+      <c r="M1" s="602"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="625"/>
+      <c r="B2" s="600"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -34040,21 +34109,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="628" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="629"/>
+      <c r="B3" s="603" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="604"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="630" t="s">
+      <c r="H3" s="605" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="630"/>
+      <c r="I3" s="605"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="654" t="s">
+      <c r="P3" s="642" t="s">
         <v>6</v>
       </c>
     </row>
@@ -34069,14 +34138,14 @@
       <c r="D4" s="18">
         <v>44507</v>
       </c>
-      <c r="E4" s="631" t="s">
+      <c r="E4" s="606" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="632"/>
-      <c r="H4" s="633" t="s">
+      <c r="F4" s="607"/>
+      <c r="H4" s="608" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="634"/>
+      <c r="I4" s="609"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -34086,14 +34155,14 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="655"/>
+      <c r="P4" s="643"/>
       <c r="Q4" s="286" t="s">
         <v>209</v>
       </c>
-      <c r="W4" s="637" t="s">
+      <c r="W4" s="652" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="637"/>
+      <c r="X4" s="652"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -34144,8 +34213,8 @@
         <f>20000+7936</f>
         <v>27936</v>
       </c>
-      <c r="W5" s="637"/>
-      <c r="X5" s="637"/>
+      <c r="W5" s="652"/>
+      <c r="X5" s="652"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -34916,7 +34985,7 @@
         <v>26370</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="641">
+      <c r="W19" s="656">
         <f>SUM(W6:W18)</f>
         <v>935136</v>
       </c>
@@ -34968,7 +35037,7 @@
         <v>16395.830000000002</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="642"/>
+      <c r="W20" s="657"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -35017,8 +35086,8 @@
         <v>19188.82</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="643"/>
-      <c r="X21" s="643"/>
+      <c r="W21" s="658"/>
+      <c r="X21" s="658"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -35119,8 +35188,8 @@
         <v>45217.29</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="644"/>
-      <c r="X23" s="644"/>
+      <c r="W23" s="659"/>
+      <c r="X23" s="659"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -35174,8 +35243,8 @@
         <v>23159.17</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="644"/>
-      <c r="X24" s="644"/>
+      <c r="W24" s="659"/>
+      <c r="X24" s="659"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -35221,8 +35290,8 @@
       <c r="R25" s="285">
         <v>28952</v>
       </c>
-      <c r="W25" s="645"/>
-      <c r="X25" s="645"/>
+      <c r="W25" s="660"/>
+      <c r="X25" s="660"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -35273,8 +35342,8 @@
       <c r="R26" s="285">
         <v>21771.5</v>
       </c>
-      <c r="W26" s="645"/>
-      <c r="X26" s="645"/>
+      <c r="W26" s="660"/>
+      <c r="X26" s="660"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -35322,9 +35391,9 @@
       <c r="R27" s="285">
         <v>14637</v>
       </c>
-      <c r="W27" s="638"/>
-      <c r="X27" s="639"/>
-      <c r="Y27" s="640"/>
+      <c r="W27" s="653"/>
+      <c r="X27" s="654"/>
+      <c r="Y27" s="655"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -35374,9 +35443,9 @@
       <c r="R28" s="285">
         <v>0</v>
       </c>
-      <c r="W28" s="639"/>
-      <c r="X28" s="639"/>
-      <c r="Y28" s="640"/>
+      <c r="W28" s="654"/>
+      <c r="X28" s="654"/>
+      <c r="Y28" s="655"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -35711,11 +35780,11 @@
       <c r="L36" s="44">
         <v>5940</v>
       </c>
-      <c r="M36" s="656">
+      <c r="M36" s="644">
         <f>SUM(M5:M35)</f>
         <v>321168.83</v>
       </c>
-      <c r="N36" s="658">
+      <c r="N36" s="646">
         <f>SUM(N5:N35)</f>
         <v>467016</v>
       </c>
@@ -35723,7 +35792,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="660">
+      <c r="Q36" s="648">
         <f>SUM(Q5:Q35)</f>
         <v>-637069.14000000013</v>
       </c>
@@ -35758,13 +35827,13 @@
       <c r="L37" s="61">
         <v>7929.62</v>
       </c>
-      <c r="M37" s="657"/>
-      <c r="N37" s="659"/>
+      <c r="M37" s="645"/>
+      <c r="N37" s="647"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="661"/>
+      <c r="Q37" s="649"/>
     </row>
     <row r="38" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="23"/>
@@ -36054,26 +36123,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="611" t="s">
+      <c r="H52" s="621" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="612"/>
+      <c r="I52" s="622"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="613">
+      <c r="K52" s="623">
         <f>I50+L50</f>
         <v>71911.59</v>
       </c>
-      <c r="L52" s="646"/>
+      <c r="L52" s="650"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D53" s="617" t="s">
+      <c r="D53" s="627" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="617"/>
+      <c r="E53" s="627"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
         <v>-25952.549999999814</v>
@@ -36082,29 +36151,29 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="647" t="s">
+      <c r="D54" s="651" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="647"/>
+      <c r="E54" s="651"/>
       <c r="F54" s="111">
         <v>-706888.38</v>
       </c>
-      <c r="I54" s="618" t="s">
+      <c r="I54" s="628" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="619"/>
-      <c r="K54" s="620">
+      <c r="J54" s="629"/>
+      <c r="K54" s="630">
         <f>F56+F57+F58</f>
         <v>1308778.3500000003</v>
       </c>
-      <c r="L54" s="620"/>
-      <c r="M54" s="648" t="s">
+      <c r="L54" s="630"/>
+      <c r="M54" s="636" t="s">
         <v>211</v>
       </c>
-      <c r="N54" s="649"/>
-      <c r="O54" s="649"/>
-      <c r="P54" s="649"/>
-      <c r="Q54" s="650"/>
+      <c r="N54" s="637"/>
+      <c r="O54" s="637"/>
+      <c r="P54" s="637"/>
+      <c r="Q54" s="638"/>
     </row>
     <row r="55" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D55" s="313" t="s">
@@ -36118,11 +36187,11 @@
       <c r="J55" s="106"/>
       <c r="K55" s="178"/>
       <c r="L55" s="107"/>
-      <c r="M55" s="651"/>
-      <c r="N55" s="652"/>
-      <c r="O55" s="652"/>
-      <c r="P55" s="652"/>
-      <c r="Q55" s="653"/>
+      <c r="M55" s="639"/>
+      <c r="N55" s="640"/>
+      <c r="O55" s="640"/>
+      <c r="P55" s="640"/>
+      <c r="Q55" s="641"/>
     </row>
     <row r="56" spans="1:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C56" s="4" t="s">
@@ -36140,11 +36209,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="622">
+      <c r="K56" s="632">
         <f>-C4</f>
         <v>-567389.35</v>
       </c>
-      <c r="L56" s="623"/>
+      <c r="L56" s="633"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -36161,22 +36230,22 @@
       <c r="C58" s="112">
         <v>44535</v>
       </c>
-      <c r="D58" s="600" t="s">
+      <c r="D58" s="610" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="601"/>
+      <c r="E58" s="611"/>
       <c r="F58" s="113">
         <v>2142307.62</v>
       </c>
-      <c r="I58" s="602" t="s">
+      <c r="I58" s="612" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="603"/>
-      <c r="K58" s="604">
+      <c r="J58" s="613"/>
+      <c r="K58" s="614">
         <f>K54+K56</f>
         <v>741389.00000000035</v>
       </c>
-      <c r="L58" s="604"/>
+      <c r="L58" s="614"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -36320,17 +36389,14 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="M54:Q55"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="N36:N37"/>
-    <mergeCell ref="Q36:Q37"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="W4:X5"/>
+    <mergeCell ref="W27:X28"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="W19:W20"/>
+    <mergeCell ref="W21:X21"/>
+    <mergeCell ref="W23:X24"/>
+    <mergeCell ref="W25:X25"/>
+    <mergeCell ref="W26:X26"/>
     <mergeCell ref="D58:E58"/>
     <mergeCell ref="I58:J58"/>
     <mergeCell ref="K58:L58"/>
@@ -36341,14 +36407,17 @@
     <mergeCell ref="I54:J54"/>
     <mergeCell ref="K54:L54"/>
     <mergeCell ref="K56:L56"/>
-    <mergeCell ref="W4:X5"/>
-    <mergeCell ref="W27:X28"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="W19:W20"/>
-    <mergeCell ref="W21:X21"/>
-    <mergeCell ref="W23:X24"/>
-    <mergeCell ref="W25:X25"/>
-    <mergeCell ref="W26:X26"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="M54:Q55"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="Q36:Q37"/>
   </mergeCells>
   <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.27559055118110237" bottom="0.27559055118110237" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="68" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -38766,7 +38835,7 @@
       <c r="C87" s="214"/>
       <c r="D87" s="97"/>
       <c r="E87" s="3"/>
-      <c r="F87" s="662" t="s">
+      <c r="F87" s="661" t="s">
         <v>207</v>
       </c>
       <c r="K87" s="1"/>
@@ -38779,7 +38848,7 @@
       <c r="C88" s="1"/>
       <c r="D88" s="97"/>
       <c r="E88" s="3"/>
-      <c r="F88" s="663"/>
+      <c r="F88" s="662"/>
       <c r="K88" s="1"/>
       <c r="L88" s="256"/>
       <c r="M88" s="3"/>
@@ -39091,23 +39160,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="624"/>
-      <c r="C1" s="626" t="s">
+      <c r="B1" s="599"/>
+      <c r="C1" s="601" t="s">
         <v>208</v>
       </c>
-      <c r="D1" s="627"/>
-      <c r="E1" s="627"/>
-      <c r="F1" s="627"/>
-      <c r="G1" s="627"/>
-      <c r="H1" s="627"/>
-      <c r="I1" s="627"/>
-      <c r="J1" s="627"/>
-      <c r="K1" s="627"/>
-      <c r="L1" s="627"/>
-      <c r="M1" s="627"/>
+      <c r="D1" s="602"/>
+      <c r="E1" s="602"/>
+      <c r="F1" s="602"/>
+      <c r="G1" s="602"/>
+      <c r="H1" s="602"/>
+      <c r="I1" s="602"/>
+      <c r="J1" s="602"/>
+      <c r="K1" s="602"/>
+      <c r="L1" s="602"/>
+      <c r="M1" s="602"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="625"/>
+      <c r="B2" s="600"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -39117,24 +39186,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="628" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="629"/>
+      <c r="B3" s="603" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="604"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="630" t="s">
+      <c r="H3" s="605" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="630"/>
+      <c r="I3" s="605"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="654" t="s">
+      <c r="P3" s="642" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="664" t="s">
+      <c r="R3" s="663" t="s">
         <v>216</v>
       </c>
     </row>
@@ -39149,14 +39218,14 @@
       <c r="D4" s="18">
         <v>44507</v>
       </c>
-      <c r="E4" s="631" t="s">
+      <c r="E4" s="606" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="632"/>
-      <c r="H4" s="633" t="s">
+      <c r="F4" s="607"/>
+      <c r="H4" s="608" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="634"/>
+      <c r="I4" s="609"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -39166,15 +39235,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="655"/>
+      <c r="P4" s="643"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="665"/>
-      <c r="W4" s="637" t="s">
+      <c r="R4" s="664"/>
+      <c r="W4" s="652" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="637"/>
+      <c r="X4" s="652"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -39235,8 +39304,8 @@
       <c r="S5" s="324" t="s">
         <v>213</v>
       </c>
-      <c r="W5" s="637"/>
-      <c r="X5" s="637"/>
+      <c r="W5" s="652"/>
+      <c r="X5" s="652"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -39993,7 +40062,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="641">
+      <c r="W19" s="656">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -40045,7 +40114,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="642"/>
+      <c r="W20" s="657"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -40094,8 +40163,8 @@
         <v>0</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="643"/>
-      <c r="X21" s="643"/>
+      <c r="W21" s="658"/>
+      <c r="X21" s="658"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -40196,8 +40265,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="644"/>
-      <c r="X23" s="644"/>
+      <c r="W23" s="659"/>
+      <c r="X23" s="659"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -40248,8 +40317,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="644"/>
-      <c r="X24" s="644"/>
+      <c r="W24" s="659"/>
+      <c r="X24" s="659"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -40295,8 +40364,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="645"/>
-      <c r="X25" s="645"/>
+      <c r="W25" s="660"/>
+      <c r="X25" s="660"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -40344,8 +40413,8 @@
       <c r="R26" s="319">
         <v>0</v>
       </c>
-      <c r="W26" s="645"/>
-      <c r="X26" s="645"/>
+      <c r="W26" s="660"/>
+      <c r="X26" s="660"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -40405,9 +40474,9 @@
       <c r="V27" t="s">
         <v>240</v>
       </c>
-      <c r="W27" s="638"/>
-      <c r="X27" s="639"/>
-      <c r="Y27" s="640"/>
+      <c r="W27" s="653"/>
+      <c r="X27" s="654"/>
+      <c r="Y27" s="655"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -40461,9 +40530,9 @@
       <c r="V28" t="s">
         <v>240</v>
       </c>
-      <c r="W28" s="639"/>
-      <c r="X28" s="639"/>
-      <c r="Y28" s="640"/>
+      <c r="W28" s="654"/>
+      <c r="X28" s="654"/>
+      <c r="Y28" s="655"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -40779,11 +40848,11 @@
       <c r="J36" s="266"/>
       <c r="K36" s="250"/>
       <c r="L36" s="44"/>
-      <c r="M36" s="656">
+      <c r="M36" s="644">
         <f>SUM(M5:M35)</f>
         <v>1077791.3</v>
       </c>
-      <c r="N36" s="658">
+      <c r="N36" s="646">
         <f>SUM(N5:N35)</f>
         <v>936398</v>
       </c>
@@ -40791,7 +40860,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="660">
+      <c r="Q36" s="648">
         <f>SUM(Q5:Q35)</f>
         <v>-14262.940000000002</v>
       </c>
@@ -40810,13 +40879,13 @@
       <c r="J37" s="60"/>
       <c r="K37" s="41"/>
       <c r="L37" s="61"/>
-      <c r="M37" s="657"/>
-      <c r="N37" s="659"/>
+      <c r="M37" s="645"/>
+      <c r="N37" s="647"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="661"/>
+      <c r="Q37" s="649"/>
     </row>
     <row r="38" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="23"/>
@@ -41090,26 +41159,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="611" t="s">
+      <c r="H52" s="621" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="612"/>
+      <c r="I52" s="622"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="613">
+      <c r="K52" s="623">
         <f>I50+L50</f>
         <v>90750.75</v>
       </c>
-      <c r="L52" s="646"/>
+      <c r="L52" s="650"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D53" s="617" t="s">
+      <c r="D53" s="627" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="617"/>
+      <c r="E53" s="627"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
         <v>1739855.03</v>
@@ -41118,29 +41187,29 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="647" t="s">
+      <c r="D54" s="651" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="647"/>
+      <c r="E54" s="651"/>
       <c r="F54" s="111">
         <v>-1567070.66</v>
       </c>
-      <c r="I54" s="618" t="s">
+      <c r="I54" s="628" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="619"/>
-      <c r="K54" s="620">
+      <c r="J54" s="629"/>
+      <c r="K54" s="630">
         <f>F56+F57+F58</f>
         <v>703192.8600000001</v>
       </c>
-      <c r="L54" s="620"/>
-      <c r="M54" s="648" t="s">
+      <c r="L54" s="630"/>
+      <c r="M54" s="636" t="s">
         <v>211</v>
       </c>
-      <c r="N54" s="649"/>
-      <c r="O54" s="649"/>
-      <c r="P54" s="649"/>
-      <c r="Q54" s="650"/>
+      <c r="N54" s="637"/>
+      <c r="O54" s="637"/>
+      <c r="P54" s="637"/>
+      <c r="Q54" s="638"/>
     </row>
     <row r="55" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D55" s="313" t="s">
@@ -41154,11 +41223,11 @@
       <c r="J55" s="106"/>
       <c r="K55" s="178"/>
       <c r="L55" s="107"/>
-      <c r="M55" s="651"/>
-      <c r="N55" s="652"/>
-      <c r="O55" s="652"/>
-      <c r="P55" s="652"/>
-      <c r="Q55" s="653"/>
+      <c r="M55" s="639"/>
+      <c r="N55" s="640"/>
+      <c r="O55" s="640"/>
+      <c r="P55" s="640"/>
+      <c r="Q55" s="641"/>
     </row>
     <row r="56" spans="1:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C56" s="4" t="s">
@@ -41176,11 +41245,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="622">
+      <c r="K56" s="632">
         <f>-C4</f>
         <v>-567389.35</v>
       </c>
-      <c r="L56" s="623"/>
+      <c r="L56" s="633"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -41197,22 +41266,22 @@
       <c r="C58" s="112">
         <v>44563</v>
       </c>
-      <c r="D58" s="600" t="s">
+      <c r="D58" s="610" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="601"/>
+      <c r="E58" s="611"/>
       <c r="F58" s="113">
         <v>754143.23</v>
       </c>
-      <c r="I58" s="602" t="s">
+      <c r="I58" s="612" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="603"/>
-      <c r="K58" s="604">
+      <c r="J58" s="613"/>
+      <c r="K58" s="614">
         <f>K54+K56</f>
         <v>135803.51000000013</v>
       </c>
-      <c r="L58" s="604"/>
+      <c r="L58" s="614"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -41356,13 +41425,20 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="M54:Q55"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="W27:X28"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="Q36:Q37"/>
     <mergeCell ref="H52:I52"/>
     <mergeCell ref="K52:L52"/>
     <mergeCell ref="W4:X5"/>
@@ -41372,20 +41448,13 @@
     <mergeCell ref="W25:X25"/>
     <mergeCell ref="W26:X26"/>
     <mergeCell ref="R3:R4"/>
-    <mergeCell ref="M54:Q55"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="W27:X28"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="N36:N37"/>
-    <mergeCell ref="Q36:Q37"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -43775,7 +43844,7 @@
       <c r="C75" s="214"/>
       <c r="D75" s="256"/>
       <c r="E75" s="3"/>
-      <c r="F75" s="662" t="s">
+      <c r="F75" s="661" t="s">
         <v>207</v>
       </c>
       <c r="K75" s="1"/>
@@ -43788,7 +43857,7 @@
       <c r="C76" s="1"/>
       <c r="D76" s="256"/>
       <c r="E76" s="3"/>
-      <c r="F76" s="663"/>
+      <c r="F76" s="662"/>
       <c r="K76" s="1"/>
       <c r="L76" s="256"/>
       <c r="M76" s="3"/>
@@ -44080,23 +44149,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="624"/>
-      <c r="C1" s="666" t="s">
+      <c r="B1" s="599"/>
+      <c r="C1" s="665" t="s">
         <v>316</v>
       </c>
-      <c r="D1" s="667"/>
-      <c r="E1" s="667"/>
-      <c r="F1" s="667"/>
-      <c r="G1" s="667"/>
-      <c r="H1" s="667"/>
-      <c r="I1" s="667"/>
-      <c r="J1" s="667"/>
-      <c r="K1" s="667"/>
-      <c r="L1" s="667"/>
-      <c r="M1" s="667"/>
+      <c r="D1" s="666"/>
+      <c r="E1" s="666"/>
+      <c r="F1" s="666"/>
+      <c r="G1" s="666"/>
+      <c r="H1" s="666"/>
+      <c r="I1" s="666"/>
+      <c r="J1" s="666"/>
+      <c r="K1" s="666"/>
+      <c r="L1" s="666"/>
+      <c r="M1" s="666"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="625"/>
+      <c r="B2" s="600"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -44106,24 +44175,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="628" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="629"/>
+      <c r="B3" s="603" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="604"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="630" t="s">
+      <c r="H3" s="605" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="630"/>
+      <c r="I3" s="605"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="654" t="s">
+      <c r="P3" s="642" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="664" t="s">
+      <c r="R3" s="663" t="s">
         <v>216</v>
       </c>
     </row>
@@ -44138,14 +44207,14 @@
       <c r="D4" s="18">
         <v>44563</v>
       </c>
-      <c r="E4" s="631" t="s">
+      <c r="E4" s="606" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="632"/>
-      <c r="H4" s="633" t="s">
+      <c r="F4" s="607"/>
+      <c r="H4" s="608" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="634"/>
+      <c r="I4" s="609"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -44155,15 +44224,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="655"/>
+      <c r="P4" s="643"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="665"/>
-      <c r="W4" s="637" t="s">
+      <c r="R4" s="664"/>
+      <c r="W4" s="652" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="637"/>
+      <c r="X4" s="652"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -44214,8 +44283,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="324"/>
-      <c r="W5" s="637"/>
-      <c r="X5" s="637"/>
+      <c r="W5" s="652"/>
+      <c r="X5" s="652"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -44979,7 +45048,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="641">
+      <c r="W19" s="656">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -45032,7 +45101,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="642"/>
+      <c r="W20" s="657"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -45081,8 +45150,8 @@
         <v>377273.87</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="643"/>
-      <c r="X21" s="643"/>
+      <c r="W21" s="658"/>
+      <c r="X21" s="658"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -45182,8 +45251,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="644"/>
-      <c r="X23" s="644"/>
+      <c r="W23" s="659"/>
+      <c r="X23" s="659"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -45238,8 +45307,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="644"/>
-      <c r="X24" s="644"/>
+      <c r="W24" s="659"/>
+      <c r="X24" s="659"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -45284,8 +45353,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="645"/>
-      <c r="X25" s="645"/>
+      <c r="W25" s="660"/>
+      <c r="X25" s="660"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -45333,8 +45402,8 @@
       <c r="R26" s="319">
         <v>0</v>
       </c>
-      <c r="W26" s="645"/>
-      <c r="X26" s="645"/>
+      <c r="W26" s="660"/>
+      <c r="X26" s="660"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -45388,9 +45457,9 @@
       <c r="V27" t="s">
         <v>240</v>
       </c>
-      <c r="W27" s="638"/>
-      <c r="X27" s="639"/>
-      <c r="Y27" s="640"/>
+      <c r="W27" s="653"/>
+      <c r="X27" s="654"/>
+      <c r="Y27" s="655"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -45444,9 +45513,9 @@
       <c r="V28" t="s">
         <v>240</v>
       </c>
-      <c r="W28" s="639"/>
-      <c r="X28" s="639"/>
-      <c r="Y28" s="640"/>
+      <c r="W28" s="654"/>
+      <c r="X28" s="654"/>
+      <c r="Y28" s="655"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -45757,11 +45826,11 @@
       <c r="L36" s="44">
         <v>13275.84</v>
       </c>
-      <c r="M36" s="656">
+      <c r="M36" s="644">
         <f>SUM(M5:M35)</f>
         <v>1818445.73</v>
       </c>
-      <c r="N36" s="658">
+      <c r="N36" s="646">
         <f>SUM(N5:N35)</f>
         <v>739014</v>
       </c>
@@ -45769,7 +45838,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="660">
+      <c r="Q36" s="648">
         <f>SUM(Q5:Q35)</f>
         <v>-7.2800000000133878</v>
       </c>
@@ -45794,13 +45863,13 @@
       <c r="L37" s="61">
         <v>15060.32</v>
       </c>
-      <c r="M37" s="657"/>
-      <c r="N37" s="659"/>
+      <c r="M37" s="645"/>
+      <c r="N37" s="647"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="661"/>
+      <c r="Q37" s="649"/>
       <c r="R37" s="227" t="s">
         <v>7</v>
       </c>
@@ -46093,26 +46162,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="611" t="s">
+      <c r="H52" s="621" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="612"/>
+      <c r="I52" s="622"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="613">
+      <c r="K52" s="623">
         <f>I50+L50</f>
         <v>158798.12</v>
       </c>
-      <c r="L52" s="646"/>
+      <c r="L52" s="650"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="617" t="s">
+      <c r="D53" s="627" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="617"/>
+      <c r="E53" s="627"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
         <v>2078470.75</v>
@@ -46121,22 +46190,22 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="647" t="s">
+      <c r="D54" s="651" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="647"/>
+      <c r="E54" s="651"/>
       <c r="F54" s="111">
         <v>-1448401.2</v>
       </c>
-      <c r="I54" s="618" t="s">
+      <c r="I54" s="628" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="619"/>
-      <c r="K54" s="620">
+      <c r="J54" s="629"/>
+      <c r="K54" s="630">
         <f>F56+F57+F58</f>
         <v>1025960.7</v>
       </c>
-      <c r="L54" s="620"/>
+      <c r="L54" s="630"/>
       <c r="M54" s="404"/>
       <c r="N54" s="404"/>
       <c r="O54" s="404"/>
@@ -46177,11 +46246,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="622">
+      <c r="K56" s="632">
         <f>-C4</f>
         <v>-754143.23</v>
       </c>
-      <c r="L56" s="623"/>
+      <c r="L56" s="633"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -46198,22 +46267,22 @@
       <c r="C58" s="112">
         <v>44591</v>
       </c>
-      <c r="D58" s="600" t="s">
+      <c r="D58" s="610" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="601"/>
+      <c r="E58" s="611"/>
       <c r="F58" s="113">
         <v>1149740.4099999999</v>
       </c>
-      <c r="I58" s="602" t="s">
+      <c r="I58" s="612" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="603"/>
-      <c r="K58" s="604">
+      <c r="J58" s="613"/>
+      <c r="K58" s="614">
         <f>K54+K56</f>
         <v>271817.46999999997</v>
       </c>
-      <c r="L58" s="604"/>
+      <c r="L58" s="614"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -46357,6 +46426,20 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="Q36:Q37"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="K52:L52"/>
     <mergeCell ref="W26:X26"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="W27:X28"/>
@@ -46372,20 +46455,6 @@
     <mergeCell ref="W21:X21"/>
     <mergeCell ref="W23:X24"/>
     <mergeCell ref="W25:X25"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="N36:N37"/>
-    <mergeCell ref="Q36:Q37"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="K54:L54"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="K52:L52"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -48082,12 +48151,12 @@
     </row>
     <row r="43" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="245"/>
-      <c r="B43" s="668" t="s">
+      <c r="B43" s="667" t="s">
         <v>413</v>
       </c>
-      <c r="C43" s="669"/>
-      <c r="D43" s="669"/>
-      <c r="E43" s="670"/>
+      <c r="C43" s="668"/>
+      <c r="D43" s="668"/>
+      <c r="E43" s="669"/>
       <c r="F43" s="392">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -48115,10 +48184,10 @@
     </row>
     <row r="44" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="245"/>
-      <c r="B44" s="671"/>
-      <c r="C44" s="672"/>
-      <c r="D44" s="672"/>
-      <c r="E44" s="673"/>
+      <c r="B44" s="670"/>
+      <c r="C44" s="671"/>
+      <c r="D44" s="671"/>
+      <c r="E44" s="672"/>
       <c r="F44" s="392">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -48146,10 +48215,10 @@
     </row>
     <row r="45" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="245"/>
-      <c r="B45" s="674"/>
-      <c r="C45" s="675"/>
-      <c r="D45" s="675"/>
-      <c r="E45" s="676"/>
+      <c r="B45" s="673"/>
+      <c r="C45" s="674"/>
+      <c r="D45" s="674"/>
+      <c r="E45" s="675"/>
       <c r="F45" s="392">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -48192,10 +48261,10 @@
     </row>
     <row r="47" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="245"/>
-      <c r="B47" s="683" t="s">
+      <c r="B47" s="682" t="s">
         <v>593</v>
       </c>
-      <c r="C47" s="684"/>
+      <c r="C47" s="683"/>
       <c r="D47" s="253"/>
       <c r="E47" s="69"/>
       <c r="F47" s="137">
@@ -48217,8 +48286,8 @@
     </row>
     <row r="48" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="245"/>
-      <c r="B48" s="685"/>
-      <c r="C48" s="686"/>
+      <c r="B48" s="684"/>
+      <c r="C48" s="685"/>
       <c r="D48" s="253"/>
       <c r="E48" s="69"/>
       <c r="F48" s="137">
@@ -48226,11 +48295,11 @@
         <v>0</v>
       </c>
       <c r="I48" s="348"/>
-      <c r="J48" s="677" t="s">
+      <c r="J48" s="676" t="s">
         <v>414</v>
       </c>
-      <c r="K48" s="678"/>
-      <c r="L48" s="679"/>
+      <c r="K48" s="677"/>
+      <c r="L48" s="678"/>
       <c r="M48" s="206"/>
       <c r="N48" s="137">
         <f>N47+K48-M48</f>
@@ -48248,9 +48317,9 @@
         <v>0</v>
       </c>
       <c r="I49" s="348"/>
-      <c r="J49" s="680"/>
-      <c r="K49" s="681"/>
-      <c r="L49" s="682"/>
+      <c r="J49" s="679"/>
+      <c r="K49" s="680"/>
+      <c r="L49" s="681"/>
       <c r="M49" s="206"/>
       <c r="N49" s="137">
         <f t="shared" si="1"/>
@@ -48267,10 +48336,10 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I50" s="687" t="s">
+      <c r="I50" s="686" t="s">
         <v>594</v>
       </c>
-      <c r="J50" s="688"/>
+      <c r="J50" s="687"/>
       <c r="K50" s="215">
         <v>0</v>
       </c>
@@ -48291,8 +48360,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I51" s="687"/>
-      <c r="J51" s="688"/>
+      <c r="I51" s="686"/>
+      <c r="J51" s="687"/>
       <c r="K51" s="69"/>
       <c r="L51" s="253"/>
       <c r="M51" s="69"/>
@@ -48311,8 +48380,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I52" s="687"/>
-      <c r="J52" s="688"/>
+      <c r="I52" s="686"/>
+      <c r="J52" s="687"/>
       <c r="K52" s="69"/>
       <c r="L52" s="253"/>
       <c r="M52" s="69"/>
@@ -48331,8 +48400,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I53" s="687"/>
-      <c r="J53" s="688"/>
+      <c r="I53" s="686"/>
+      <c r="J53" s="687"/>
       <c r="K53" s="69"/>
       <c r="L53" s="253"/>
       <c r="M53" s="69"/>
@@ -48351,8 +48420,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I54" s="687"/>
-      <c r="J54" s="688"/>
+      <c r="I54" s="686"/>
+      <c r="J54" s="687"/>
       <c r="K54" s="69"/>
       <c r="L54" s="253"/>
       <c r="M54" s="69"/>
@@ -48371,8 +48440,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I55" s="687"/>
-      <c r="J55" s="688"/>
+      <c r="I55" s="686"/>
+      <c r="J55" s="687"/>
       <c r="K55" s="69"/>
       <c r="L55" s="253"/>
       <c r="M55" s="69"/>
@@ -48391,8 +48460,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I56" s="687"/>
-      <c r="J56" s="688"/>
+      <c r="I56" s="686"/>
+      <c r="J56" s="687"/>
       <c r="K56" s="69"/>
       <c r="L56" s="253"/>
       <c r="M56" s="69"/>
@@ -48411,8 +48480,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I57" s="687"/>
-      <c r="J57" s="688"/>
+      <c r="I57" s="686"/>
+      <c r="J57" s="687"/>
       <c r="K57" s="69"/>
       <c r="L57" s="253"/>
       <c r="M57" s="69"/>
@@ -48431,8 +48500,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I58" s="687"/>
-      <c r="J58" s="688"/>
+      <c r="I58" s="686"/>
+      <c r="J58" s="687"/>
       <c r="K58" s="69"/>
       <c r="L58" s="253"/>
       <c r="M58" s="69"/>
@@ -48451,8 +48520,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I59" s="687"/>
-      <c r="J59" s="688"/>
+      <c r="I59" s="686"/>
+      <c r="J59" s="687"/>
       <c r="K59" s="69"/>
       <c r="L59" s="253"/>
       <c r="M59" s="69"/>
@@ -48471,8 +48540,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I60" s="687"/>
-      <c r="J60" s="688"/>
+      <c r="I60" s="686"/>
+      <c r="J60" s="687"/>
       <c r="K60" s="69"/>
       <c r="L60" s="253"/>
       <c r="M60" s="69"/>
@@ -48491,8 +48560,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I61" s="687"/>
-      <c r="J61" s="688"/>
+      <c r="I61" s="686"/>
+      <c r="J61" s="687"/>
       <c r="K61" s="69"/>
       <c r="L61" s="253"/>
       <c r="M61" s="69"/>
@@ -48511,8 +48580,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I62" s="687"/>
-      <c r="J62" s="688"/>
+      <c r="I62" s="686"/>
+      <c r="J62" s="687"/>
       <c r="K62" s="34"/>
       <c r="L62" s="118"/>
       <c r="M62" s="34"/>
@@ -48531,8 +48600,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I63" s="687"/>
-      <c r="J63" s="688"/>
+      <c r="I63" s="686"/>
+      <c r="J63" s="687"/>
       <c r="K63" s="34"/>
       <c r="L63" s="118"/>
       <c r="M63" s="34"/>
@@ -48551,8 +48620,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I64" s="687"/>
-      <c r="J64" s="688"/>
+      <c r="I64" s="686"/>
+      <c r="J64" s="687"/>
       <c r="K64" s="34"/>
       <c r="L64" s="118"/>
       <c r="M64" s="34"/>
@@ -48571,8 +48640,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I65" s="687"/>
-      <c r="J65" s="688"/>
+      <c r="I65" s="686"/>
+      <c r="J65" s="687"/>
       <c r="K65" s="34"/>
       <c r="L65" s="118"/>
       <c r="M65" s="34"/>
@@ -48591,8 +48660,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I66" s="687"/>
-      <c r="J66" s="688"/>
+      <c r="I66" s="686"/>
+      <c r="J66" s="687"/>
       <c r="K66" s="34"/>
       <c r="L66" s="118"/>
       <c r="M66" s="34"/>
@@ -48611,8 +48680,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I67" s="687"/>
-      <c r="J67" s="688"/>
+      <c r="I67" s="686"/>
+      <c r="J67" s="687"/>
       <c r="K67" s="34"/>
       <c r="L67" s="118"/>
       <c r="M67" s="34"/>
@@ -48631,8 +48700,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I68" s="687"/>
-      <c r="J68" s="688"/>
+      <c r="I68" s="686"/>
+      <c r="J68" s="687"/>
       <c r="K68" s="69"/>
       <c r="L68" s="254"/>
       <c r="M68" s="69"/>
@@ -48651,8 +48720,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I69" s="687"/>
-      <c r="J69" s="688"/>
+      <c r="I69" s="686"/>
+      <c r="J69" s="687"/>
       <c r="K69" s="69"/>
       <c r="L69" s="254"/>
       <c r="M69" s="69"/>
@@ -48671,8 +48740,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I70" s="687"/>
-      <c r="J70" s="688"/>
+      <c r="I70" s="686"/>
+      <c r="J70" s="687"/>
       <c r="K70" s="69"/>
       <c r="L70" s="254"/>
       <c r="M70" s="69"/>
@@ -48691,8 +48760,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I71" s="687"/>
-      <c r="J71" s="688"/>
+      <c r="I71" s="686"/>
+      <c r="J71" s="687"/>
       <c r="K71" s="69"/>
       <c r="L71" s="254"/>
       <c r="M71" s="69"/>
@@ -48711,8 +48780,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I72" s="687"/>
-      <c r="J72" s="688"/>
+      <c r="I72" s="686"/>
+      <c r="J72" s="687"/>
       <c r="K72" s="69"/>
       <c r="L72" s="254"/>
       <c r="M72" s="69"/>
@@ -48731,8 +48800,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I73" s="687"/>
-      <c r="J73" s="688"/>
+      <c r="I73" s="686"/>
+      <c r="J73" s="687"/>
       <c r="K73" s="69"/>
       <c r="L73" s="254"/>
       <c r="M73" s="69"/>
@@ -48751,8 +48820,8 @@
         <f>F73+C74-E74</f>
         <v>0</v>
       </c>
-      <c r="I74" s="687"/>
-      <c r="J74" s="688"/>
+      <c r="I74" s="686"/>
+      <c r="J74" s="687"/>
       <c r="K74" s="69"/>
       <c r="L74" s="254"/>
       <c r="M74" s="69"/>
@@ -48771,8 +48840,8 @@
         <f>F74+C75-E75</f>
         <v>0</v>
       </c>
-      <c r="I75" s="687"/>
-      <c r="J75" s="688"/>
+      <c r="I75" s="686"/>
+      <c r="J75" s="687"/>
       <c r="K75" s="69"/>
       <c r="L75" s="254"/>
       <c r="M75" s="69"/>
@@ -48791,8 +48860,8 @@
         <f>F75+C76-E76</f>
         <v>0</v>
       </c>
-      <c r="I76" s="687"/>
-      <c r="J76" s="688"/>
+      <c r="I76" s="686"/>
+      <c r="J76" s="687"/>
       <c r="K76" s="69"/>
       <c r="L76" s="254"/>
       <c r="M76" s="69"/>
@@ -48811,8 +48880,8 @@
         <f>F76+C77-E77</f>
         <v>0</v>
       </c>
-      <c r="I77" s="687"/>
-      <c r="J77" s="688"/>
+      <c r="I77" s="686"/>
+      <c r="J77" s="687"/>
       <c r="K77" s="69"/>
       <c r="L77" s="254"/>
       <c r="M77" s="69"/>
@@ -48833,8 +48902,8 @@
         <f>F77+C78-E78</f>
         <v>0</v>
       </c>
-      <c r="I78" s="689"/>
-      <c r="J78" s="690"/>
+      <c r="I78" s="688"/>
+      <c r="J78" s="689"/>
       <c r="K78" s="151">
         <v>0</v>
       </c>
@@ -48879,7 +48948,7 @@
       <c r="C80" s="214"/>
       <c r="D80" s="256"/>
       <c r="E80" s="3"/>
-      <c r="F80" s="662" t="s">
+      <c r="F80" s="661" t="s">
         <v>207</v>
       </c>
       <c r="K80" s="1"/>
@@ -48891,7 +48960,7 @@
       <c r="C81" s="1"/>
       <c r="D81" s="256"/>
       <c r="E81" s="3"/>
-      <c r="F81" s="663"/>
+      <c r="F81" s="662"/>
       <c r="K81" s="1"/>
       <c r="M81" s="3"/>
       <c r="N81" s="1"/>
@@ -49179,23 +49248,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="624"/>
-      <c r="C1" s="666" t="s">
+      <c r="B1" s="599"/>
+      <c r="C1" s="665" t="s">
         <v>646</v>
       </c>
-      <c r="D1" s="667"/>
-      <c r="E1" s="667"/>
-      <c r="F1" s="667"/>
-      <c r="G1" s="667"/>
-      <c r="H1" s="667"/>
-      <c r="I1" s="667"/>
-      <c r="J1" s="667"/>
-      <c r="K1" s="667"/>
-      <c r="L1" s="667"/>
-      <c r="M1" s="667"/>
+      <c r="D1" s="666"/>
+      <c r="E1" s="666"/>
+      <c r="F1" s="666"/>
+      <c r="G1" s="666"/>
+      <c r="H1" s="666"/>
+      <c r="I1" s="666"/>
+      <c r="J1" s="666"/>
+      <c r="K1" s="666"/>
+      <c r="L1" s="666"/>
+      <c r="M1" s="666"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="625"/>
+      <c r="B2" s="600"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -49205,24 +49274,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="628" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="629"/>
+      <c r="B3" s="603" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="604"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="630" t="s">
+      <c r="H3" s="605" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="630"/>
+      <c r="I3" s="605"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="654" t="s">
+      <c r="P3" s="642" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="664" t="s">
+      <c r="R3" s="663" t="s">
         <v>216</v>
       </c>
     </row>
@@ -49237,14 +49306,14 @@
       <c r="D4" s="18">
         <v>44591</v>
       </c>
-      <c r="E4" s="631" t="s">
+      <c r="E4" s="606" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="632"/>
-      <c r="H4" s="633" t="s">
+      <c r="F4" s="607"/>
+      <c r="H4" s="608" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="634"/>
+      <c r="I4" s="609"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -49254,15 +49323,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="655"/>
+      <c r="P4" s="643"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="665"/>
-      <c r="W4" s="637" t="s">
+      <c r="R4" s="664"/>
+      <c r="W4" s="652" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="637"/>
+      <c r="X4" s="652"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -49313,8 +49382,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="324"/>
-      <c r="W5" s="637"/>
-      <c r="X5" s="637"/>
+      <c r="W5" s="652"/>
+      <c r="X5" s="652"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -50075,7 +50144,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="641">
+      <c r="W19" s="656">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -50127,7 +50196,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="642"/>
+      <c r="W20" s="657"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -50176,8 +50245,8 @@
         <v>18072</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="643"/>
-      <c r="X21" s="643"/>
+      <c r="W21" s="658"/>
+      <c r="X21" s="658"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -50276,8 +50345,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="644"/>
-      <c r="X23" s="644"/>
+      <c r="W23" s="659"/>
+      <c r="X23" s="659"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -50332,8 +50401,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="644"/>
-      <c r="X24" s="644"/>
+      <c r="W24" s="659"/>
+      <c r="X24" s="659"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -50381,8 +50450,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="645"/>
-      <c r="X25" s="645"/>
+      <c r="W25" s="660"/>
+      <c r="X25" s="660"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -50430,8 +50499,8 @@
       <c r="R26" s="319">
         <v>0</v>
       </c>
-      <c r="W26" s="645"/>
-      <c r="X26" s="645"/>
+      <c r="W26" s="660"/>
+      <c r="X26" s="660"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -50479,9 +50548,9 @@
       <c r="R27" s="319">
         <v>0</v>
       </c>
-      <c r="W27" s="638"/>
-      <c r="X27" s="639"/>
-      <c r="Y27" s="640"/>
+      <c r="W27" s="653"/>
+      <c r="X27" s="654"/>
+      <c r="Y27" s="655"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -50529,9 +50598,9 @@
       <c r="R28" s="319">
         <v>0</v>
       </c>
-      <c r="W28" s="639"/>
-      <c r="X28" s="639"/>
-      <c r="Y28" s="640"/>
+      <c r="W28" s="654"/>
+      <c r="X28" s="654"/>
+      <c r="Y28" s="655"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -50872,11 +50941,11 @@
       <c r="J36" s="266"/>
       <c r="K36" s="250"/>
       <c r="L36" s="44"/>
-      <c r="M36" s="656">
+      <c r="M36" s="644">
         <f>SUM(M5:M35)</f>
         <v>2143864.4900000002</v>
       </c>
-      <c r="N36" s="658">
+      <c r="N36" s="646">
         <f>SUM(N5:N35)</f>
         <v>791108</v>
       </c>
@@ -50884,7 +50953,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="691">
+      <c r="Q36" s="690">
         <f>SUM(Q5:Q35)</f>
         <v>111.43999999999505</v>
       </c>
@@ -50909,13 +50978,13 @@
       <c r="L37" s="61">
         <v>16518.78</v>
       </c>
-      <c r="M37" s="657"/>
-      <c r="N37" s="659"/>
+      <c r="M37" s="645"/>
+      <c r="N37" s="647"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="692"/>
+      <c r="Q37" s="691"/>
       <c r="R37" s="227" t="s">
         <v>7</v>
       </c>
@@ -50965,11 +51034,11 @@
       <c r="L39" s="61">
         <v>14981.03</v>
       </c>
-      <c r="M39" s="693">
+      <c r="M39" s="692">
         <f>M36+N36</f>
         <v>2934972.49</v>
       </c>
-      <c r="N39" s="694"/>
+      <c r="N39" s="693"/>
       <c r="P39" s="34">
         <f>SUM(P5:P38)</f>
         <v>3450079.65</v>
@@ -51217,26 +51286,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="611" t="s">
+      <c r="H52" s="621" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="612"/>
+      <c r="I52" s="622"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="613">
+      <c r="K52" s="623">
         <f>I50+L50</f>
         <v>197471.8</v>
       </c>
-      <c r="L52" s="646"/>
+      <c r="L52" s="650"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="617" t="s">
+      <c r="D53" s="627" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="617"/>
+      <c r="E53" s="627"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
         <v>2057786.11</v>
@@ -51245,22 +51314,22 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="647" t="s">
+      <c r="D54" s="651" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="647"/>
+      <c r="E54" s="651"/>
       <c r="F54" s="111">
         <v>-1702928.14</v>
       </c>
-      <c r="I54" s="618" t="s">
+      <c r="I54" s="628" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="619"/>
-      <c r="K54" s="620">
+      <c r="J54" s="629"/>
+      <c r="K54" s="630">
         <f>F56+F57+F58</f>
         <v>1147965.3400000003</v>
       </c>
-      <c r="L54" s="620"/>
+      <c r="L54" s="630"/>
       <c r="M54" s="404"/>
       <c r="N54" s="404"/>
       <c r="O54" s="404"/>
@@ -51301,11 +51370,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="622">
+      <c r="K56" s="632">
         <f>-C4</f>
         <v>-1149740.4099999999</v>
       </c>
-      <c r="L56" s="623"/>
+      <c r="L56" s="633"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -51322,22 +51391,22 @@
       <c r="C58" s="112">
         <v>44619</v>
       </c>
-      <c r="D58" s="600" t="s">
+      <c r="D58" s="610" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="601"/>
+      <c r="E58" s="611"/>
       <c r="F58" s="113">
         <v>1266568.45</v>
       </c>
-      <c r="I58" s="602" t="s">
+      <c r="I58" s="612" t="s">
         <v>97</v>
       </c>
-      <c r="J58" s="603"/>
-      <c r="K58" s="604">
+      <c r="J58" s="613"/>
+      <c r="K58" s="614">
         <f>K54+K56</f>
         <v>-1775.0699999995995</v>
       </c>
-      <c r="L58" s="604"/>
+      <c r="L58" s="614"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -51481,20 +51550,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="W26:X26"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="W4:X5"/>
-    <mergeCell ref="W19:W20"/>
-    <mergeCell ref="W21:X21"/>
-    <mergeCell ref="W23:X24"/>
-    <mergeCell ref="W25:X25"/>
     <mergeCell ref="D58:E58"/>
     <mergeCell ref="I58:J58"/>
     <mergeCell ref="K58:L58"/>
@@ -51511,6 +51566,20 @@
     <mergeCell ref="K54:L54"/>
     <mergeCell ref="K56:L56"/>
     <mergeCell ref="M39:N39"/>
+    <mergeCell ref="W26:X26"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="W4:X5"/>
+    <mergeCell ref="W19:W20"/>
+    <mergeCell ref="W21:X21"/>
+    <mergeCell ref="W23:X24"/>
+    <mergeCell ref="W25:X25"/>
   </mergeCells>
   <pageMargins left="0.23" right="0.23" top="0.4" bottom="0.28000000000000003" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #05  MAYO  2022/BALANCE    ZAVALETA   MAYO    2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #05  MAYO  2022/BALANCE    ZAVALETA   MAYO    2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3690" yWindow="0" windowWidth="16605" windowHeight="10920" firstSheet="15" activeTab="15"/>
+    <workbookView xWindow="3690" yWindow="0" windowWidth="16605" windowHeight="10920" firstSheet="14" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="OCTUBRE      2 0 2 1     " sheetId="1" r:id="rId1"/>
@@ -627,7 +627,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1522" uniqueCount="813">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1536" uniqueCount="817">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -3066,6 +3066,18 @@
   </si>
   <si>
     <t>ARABE-QUESO-CHORIZO-ENCHILADA</t>
+  </si>
+  <si>
+    <t>CHORIZO-JAMON-PATA-´POLLO-QUESO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRANSFERENCIA </t>
+  </si>
+  <si>
+    <t>POLLO-QUESOS-LONGANIZA-SALCHICHONERIA</t>
+  </si>
+  <si>
+    <t>POLLO--QUESOS</t>
   </si>
 </sst>
 </file>
@@ -5028,7 +5040,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="739">
+  <cellXfs count="741">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -6238,6 +6250,17 @@
     <xf numFmtId="44" fontId="3" fillId="18" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="3" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="3" fillId="11" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -6649,11 +6672,6 @@
     <xf numFmtId="49" fontId="11" fillId="23" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="65" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -6664,6 +6682,7 @@
   <colors>
     <mruColors>
       <color rgb="FFCCFF66"/>
+      <color rgb="FFCC3399"/>
       <color rgb="FF99CCFF"/>
       <color rgb="FFFF00FF"/>
       <color rgb="FF0000FF"/>
@@ -6672,7 +6691,6 @@
       <color rgb="FF00FF99"/>
       <color rgb="FF66FFFF"/>
       <color rgb="FF00FF00"/>
-      <color rgb="FFCC3399"/>
     </mruColors>
   </colors>
   <extLst>
@@ -10603,23 +10621,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="599"/>
-      <c r="C1" s="601" t="s">
+      <c r="B1" s="604"/>
+      <c r="C1" s="606" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="602"/>
-      <c r="E1" s="602"/>
-      <c r="F1" s="602"/>
-      <c r="G1" s="602"/>
-      <c r="H1" s="602"/>
-      <c r="I1" s="602"/>
-      <c r="J1" s="602"/>
-      <c r="K1" s="602"/>
-      <c r="L1" s="602"/>
-      <c r="M1" s="602"/>
+      <c r="D1" s="607"/>
+      <c r="E1" s="607"/>
+      <c r="F1" s="607"/>
+      <c r="G1" s="607"/>
+      <c r="H1" s="607"/>
+      <c r="I1" s="607"/>
+      <c r="J1" s="607"/>
+      <c r="K1" s="607"/>
+      <c r="L1" s="607"/>
+      <c r="M1" s="607"/>
     </row>
     <row r="2" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="600"/>
+      <c r="B2" s="605"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -10629,17 +10647,17 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:19" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="603" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="604"/>
+      <c r="B3" s="608" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="609"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="605" t="s">
+      <c r="H3" s="610" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="605"/>
+      <c r="I3" s="610"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
@@ -10653,14 +10671,14 @@
         <v>0</v>
       </c>
       <c r="D4" s="18"/>
-      <c r="E4" s="606" t="s">
+      <c r="E4" s="611" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="607"/>
-      <c r="H4" s="608" t="s">
+      <c r="F4" s="612"/>
+      <c r="H4" s="613" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="609"/>
+      <c r="I4" s="614"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -10670,10 +10688,10 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="615" t="s">
+      <c r="P4" s="620" t="s">
         <v>6</v>
       </c>
-      <c r="Q4" s="616"/>
+      <c r="Q4" s="621"/>
     </row>
     <row r="5" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -12114,11 +12132,11 @@
       <c r="J39" s="60"/>
       <c r="K39" s="177"/>
       <c r="L39" s="61"/>
-      <c r="M39" s="617">
+      <c r="M39" s="622">
         <f>SUM(M5:M38)</f>
         <v>247061</v>
       </c>
-      <c r="N39" s="619">
+      <c r="N39" s="624">
         <f>SUM(N5:N38)</f>
         <v>172863</v>
       </c>
@@ -12144,8 +12162,8 @@
       <c r="J40" s="60"/>
       <c r="K40" s="41"/>
       <c r="L40" s="61"/>
-      <c r="M40" s="618"/>
-      <c r="N40" s="620"/>
+      <c r="M40" s="623"/>
+      <c r="N40" s="625"/>
       <c r="P40" s="34"/>
       <c r="Q40" s="9"/>
     </row>
@@ -12360,29 +12378,29 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="621" t="s">
+      <c r="H52" s="626" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="622"/>
+      <c r="I52" s="627"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="623">
+      <c r="K52" s="628">
         <f>I50+L50</f>
         <v>53873.49</v>
       </c>
-      <c r="L52" s="624"/>
-      <c r="M52" s="625">
+      <c r="L52" s="629"/>
+      <c r="M52" s="630">
         <f>N39+M39</f>
         <v>419924</v>
       </c>
-      <c r="N52" s="626"/>
+      <c r="N52" s="631"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D53" s="627" t="s">
+      <c r="D53" s="632" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="627"/>
+      <c r="E53" s="632"/>
       <c r="F53" s="101">
         <f>F50-K52-C50</f>
         <v>471038.61</v>
@@ -12393,22 +12411,22 @@
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="627" t="s">
+      <c r="D54" s="632" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="627"/>
+      <c r="E54" s="632"/>
       <c r="F54" s="96">
         <v>-549976.4</v>
       </c>
-      <c r="I54" s="628" t="s">
+      <c r="I54" s="633" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="629"/>
-      <c r="K54" s="630">
+      <c r="J54" s="634"/>
+      <c r="K54" s="635">
         <f>F56+F57+F58</f>
         <v>-24577.400000000023</v>
       </c>
-      <c r="L54" s="631"/>
+      <c r="L54" s="636"/>
       <c r="P54" s="34"/>
       <c r="Q54" s="9"/>
     </row>
@@ -12441,11 +12459,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="632">
+      <c r="K56" s="637">
         <f>-C4</f>
         <v>0</v>
       </c>
-      <c r="L56" s="633"/>
+      <c r="L56" s="638"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -12462,22 +12480,22 @@
       <c r="C58" s="112">
         <v>44507</v>
       </c>
-      <c r="D58" s="610" t="s">
+      <c r="D58" s="615" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="611"/>
+      <c r="E58" s="616"/>
       <c r="F58" s="113">
         <v>567389.35</v>
       </c>
-      <c r="I58" s="612" t="s">
+      <c r="I58" s="617" t="s">
         <v>97</v>
       </c>
-      <c r="J58" s="613"/>
-      <c r="K58" s="614">
+      <c r="J58" s="618"/>
+      <c r="K58" s="619">
         <f>K54+K56</f>
         <v>-24577.400000000023</v>
       </c>
-      <c r="L58" s="614"/>
+      <c r="L58" s="619"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -15101,10 +15119,10 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I76" s="695" t="s">
+      <c r="I76" s="700" t="s">
         <v>597</v>
       </c>
-      <c r="J76" s="696"/>
+      <c r="J76" s="701"/>
       <c r="K76" s="69"/>
       <c r="L76" s="148"/>
       <c r="M76" s="69"/>
@@ -15123,8 +15141,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I77" s="697"/>
-      <c r="J77" s="698"/>
+      <c r="I77" s="702"/>
+      <c r="J77" s="703"/>
       <c r="K77" s="69"/>
       <c r="L77" s="148"/>
       <c r="M77" s="69"/>
@@ -15191,7 +15209,7 @@
       <c r="C80" s="214"/>
       <c r="D80" s="256"/>
       <c r="E80" s="3"/>
-      <c r="F80" s="661" t="s">
+      <c r="F80" s="666" t="s">
         <v>207</v>
       </c>
       <c r="K80" s="1"/>
@@ -15206,7 +15224,7 @@
       <c r="C81" s="463"/>
       <c r="D81" s="464"/>
       <c r="E81" s="3"/>
-      <c r="F81" s="662"/>
+      <c r="F81" s="667"/>
       <c r="K81" s="1"/>
       <c r="L81" s="97"/>
       <c r="M81" s="3"/>
@@ -15214,10 +15232,10 @@
     </row>
     <row r="82" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A82" s="435"/>
-      <c r="B82" s="694" t="s">
+      <c r="B82" s="699" t="s">
         <v>595</v>
       </c>
-      <c r="C82" s="694"/>
+      <c r="C82" s="699"/>
       <c r="I82"/>
       <c r="J82" s="194"/>
     </row>
@@ -15499,23 +15517,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="599"/>
-      <c r="C1" s="665" t="s">
+      <c r="B1" s="604"/>
+      <c r="C1" s="670" t="s">
         <v>451</v>
       </c>
-      <c r="D1" s="666"/>
-      <c r="E1" s="666"/>
-      <c r="F1" s="666"/>
-      <c r="G1" s="666"/>
-      <c r="H1" s="666"/>
-      <c r="I1" s="666"/>
-      <c r="J1" s="666"/>
-      <c r="K1" s="666"/>
-      <c r="L1" s="666"/>
-      <c r="M1" s="666"/>
+      <c r="D1" s="671"/>
+      <c r="E1" s="671"/>
+      <c r="F1" s="671"/>
+      <c r="G1" s="671"/>
+      <c r="H1" s="671"/>
+      <c r="I1" s="671"/>
+      <c r="J1" s="671"/>
+      <c r="K1" s="671"/>
+      <c r="L1" s="671"/>
+      <c r="M1" s="671"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="600"/>
+      <c r="B2" s="605"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -15525,24 +15543,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="603" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="604"/>
+      <c r="B3" s="608" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="609"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="605" t="s">
+      <c r="H3" s="610" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="605"/>
+      <c r="I3" s="610"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="642" t="s">
+      <c r="P3" s="647" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="663" t="s">
+      <c r="R3" s="668" t="s">
         <v>216</v>
       </c>
     </row>
@@ -15557,14 +15575,14 @@
       <c r="D4" s="18">
         <v>44619</v>
       </c>
-      <c r="E4" s="606" t="s">
+      <c r="E4" s="611" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="607"/>
-      <c r="H4" s="608" t="s">
+      <c r="F4" s="612"/>
+      <c r="H4" s="613" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="609"/>
+      <c r="I4" s="614"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -15574,15 +15592,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="643"/>
+      <c r="P4" s="648"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="664"/>
-      <c r="W4" s="652" t="s">
+      <c r="R4" s="669"/>
+      <c r="W4" s="657" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="652"/>
+      <c r="X4" s="657"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -15633,8 +15651,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="324"/>
-      <c r="W5" s="652"/>
-      <c r="X5" s="652"/>
+      <c r="W5" s="657"/>
+      <c r="X5" s="657"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -16397,7 +16415,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="656">
+      <c r="W19" s="661">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -16449,7 +16467,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="657"/>
+      <c r="W20" s="662"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -16498,8 +16516,8 @@
         <v>0</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="658"/>
-      <c r="X21" s="658"/>
+      <c r="W21" s="663"/>
+      <c r="X21" s="663"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -16599,8 +16617,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="659"/>
-      <c r="X23" s="659"/>
+      <c r="W23" s="664"/>
+      <c r="X23" s="664"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -16655,8 +16673,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="659"/>
-      <c r="X24" s="659"/>
+      <c r="W24" s="664"/>
+      <c r="X24" s="664"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -16704,8 +16722,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="660"/>
-      <c r="X25" s="660"/>
+      <c r="W25" s="665"/>
+      <c r="X25" s="665"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -16754,8 +16772,8 @@
       <c r="R26" s="319">
         <v>0</v>
       </c>
-      <c r="W26" s="660"/>
-      <c r="X26" s="660"/>
+      <c r="W26" s="665"/>
+      <c r="X26" s="665"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -16803,9 +16821,9 @@
       <c r="R27" s="388">
         <v>170</v>
       </c>
-      <c r="W27" s="653"/>
-      <c r="X27" s="654"/>
-      <c r="Y27" s="655"/>
+      <c r="W27" s="658"/>
+      <c r="X27" s="659"/>
+      <c r="Y27" s="660"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -16853,9 +16871,9 @@
       <c r="R28" s="388">
         <v>37374.36</v>
       </c>
-      <c r="W28" s="654"/>
-      <c r="X28" s="654"/>
-      <c r="Y28" s="655"/>
+      <c r="W28" s="659"/>
+      <c r="X28" s="659"/>
+      <c r="Y28" s="660"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -17187,11 +17205,11 @@
       <c r="J36" s="266"/>
       <c r="K36" s="250"/>
       <c r="L36" s="44"/>
-      <c r="M36" s="644">
+      <c r="M36" s="649">
         <f>SUM(M5:M35)</f>
         <v>2220612.02</v>
       </c>
-      <c r="N36" s="646">
+      <c r="N36" s="651">
         <f>SUM(N5:N35)</f>
         <v>833865</v>
       </c>
@@ -17199,7 +17217,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="690">
+      <c r="Q36" s="695">
         <f>SUM(Q5:Q35)</f>
         <v>8.3000000000320142</v>
       </c>
@@ -17224,13 +17242,13 @@
       <c r="J37" s="60"/>
       <c r="K37" s="41"/>
       <c r="L37" s="61"/>
-      <c r="M37" s="645"/>
-      <c r="N37" s="647"/>
+      <c r="M37" s="650"/>
+      <c r="N37" s="652"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="691"/>
+      <c r="Q37" s="696"/>
       <c r="R37" s="227" t="s">
         <v>7</v>
       </c>
@@ -17275,11 +17293,11 @@
       <c r="J39" s="60"/>
       <c r="K39" s="177"/>
       <c r="L39" s="61"/>
-      <c r="M39" s="692">
+      <c r="M39" s="697">
         <f>M36+N36</f>
         <v>3054477.02</v>
       </c>
-      <c r="N39" s="693"/>
+      <c r="N39" s="698"/>
       <c r="P39" s="34">
         <f>SUM(P5:P38)</f>
         <v>3627989.66</v>
@@ -17539,26 +17557,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="621" t="s">
+      <c r="H52" s="626" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="622"/>
+      <c r="I52" s="627"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="623">
+      <c r="K52" s="628">
         <f>I50+L50</f>
         <v>217159.4</v>
       </c>
-      <c r="L52" s="650"/>
+      <c r="L52" s="655"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="627" t="s">
+      <c r="D53" s="632" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="627"/>
+      <c r="E53" s="632"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
         <v>1453241.94</v>
@@ -17567,22 +17585,22 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="651" t="s">
+      <c r="D54" s="656" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="651"/>
+      <c r="E54" s="656"/>
       <c r="F54" s="111">
         <v>-1360260.32</v>
       </c>
-      <c r="I54" s="628" t="s">
+      <c r="I54" s="633" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="629"/>
-      <c r="K54" s="630">
+      <c r="J54" s="634"/>
+      <c r="K54" s="635">
         <f>F56+F57+F58</f>
         <v>1797288.1999999997</v>
       </c>
-      <c r="L54" s="630"/>
+      <c r="L54" s="635"/>
       <c r="M54" s="404"/>
       <c r="N54" s="404"/>
       <c r="O54" s="404"/>
@@ -17623,11 +17641,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="632">
+      <c r="K56" s="637">
         <f>-C4</f>
         <v>-1266568.45</v>
       </c>
-      <c r="L56" s="633"/>
+      <c r="L56" s="638"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -17644,22 +17662,22 @@
       <c r="C58" s="112">
         <v>44647</v>
       </c>
-      <c r="D58" s="610" t="s">
+      <c r="D58" s="615" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="611"/>
+      <c r="E58" s="616"/>
       <c r="F58" s="113">
         <v>1792817.68</v>
       </c>
-      <c r="I58" s="612" t="s">
+      <c r="I58" s="617" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="613"/>
-      <c r="K58" s="614">
+      <c r="J58" s="618"/>
+      <c r="K58" s="619">
         <f>K54+K56</f>
         <v>530719.74999999977</v>
       </c>
-      <c r="L58" s="614"/>
+      <c r="L58" s="619"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -20100,7 +20118,7 @@
       <c r="C80" s="214"/>
       <c r="D80" s="256"/>
       <c r="E80" s="3"/>
-      <c r="F80" s="661" t="s">
+      <c r="F80" s="666" t="s">
         <v>207</v>
       </c>
       <c r="K80" s="1"/>
@@ -20113,7 +20131,7 @@
       <c r="C81" s="1"/>
       <c r="D81" s="256"/>
       <c r="E81" s="3"/>
-      <c r="F81" s="662"/>
+      <c r="F81" s="667"/>
       <c r="K81" s="1"/>
       <c r="L81" s="97"/>
       <c r="M81" s="3"/>
@@ -20133,10 +20151,10 @@
     <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" s="456"/>
       <c r="B83" s="442"/>
-      <c r="I83" s="699" t="s">
+      <c r="I83" s="704" t="s">
         <v>594</v>
       </c>
-      <c r="J83" s="700"/>
+      <c r="J83" s="705"/>
     </row>
     <row r="84" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="516" t="s">
@@ -20145,8 +20163,8 @@
       <c r="B84" s="517"/>
       <c r="C84" s="518"/>
       <c r="D84" s="492"/>
-      <c r="I84" s="701"/>
-      <c r="J84" s="702"/>
+      <c r="I84" s="706"/>
+      <c r="J84" s="707"/>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" s="456"/>
@@ -20418,23 +20436,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="599"/>
-      <c r="C1" s="665" t="s">
+      <c r="B1" s="604"/>
+      <c r="C1" s="670" t="s">
         <v>620</v>
       </c>
-      <c r="D1" s="666"/>
-      <c r="E1" s="666"/>
-      <c r="F1" s="666"/>
-      <c r="G1" s="666"/>
-      <c r="H1" s="666"/>
-      <c r="I1" s="666"/>
-      <c r="J1" s="666"/>
-      <c r="K1" s="666"/>
-      <c r="L1" s="666"/>
-      <c r="M1" s="666"/>
+      <c r="D1" s="671"/>
+      <c r="E1" s="671"/>
+      <c r="F1" s="671"/>
+      <c r="G1" s="671"/>
+      <c r="H1" s="671"/>
+      <c r="I1" s="671"/>
+      <c r="J1" s="671"/>
+      <c r="K1" s="671"/>
+      <c r="L1" s="671"/>
+      <c r="M1" s="671"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="600"/>
+      <c r="B2" s="605"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -20444,24 +20462,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="603" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="604"/>
+      <c r="B3" s="608" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="609"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="605" t="s">
+      <c r="H3" s="610" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="605"/>
+      <c r="I3" s="610"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="642" t="s">
+      <c r="P3" s="647" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="663" t="s">
+      <c r="R3" s="668" t="s">
         <v>216</v>
       </c>
     </row>
@@ -20476,14 +20494,14 @@
       <c r="D4" s="18">
         <v>44647</v>
       </c>
-      <c r="E4" s="606" t="s">
+      <c r="E4" s="611" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="607"/>
-      <c r="H4" s="608" t="s">
+      <c r="F4" s="612"/>
+      <c r="H4" s="613" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="609"/>
+      <c r="I4" s="614"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -20493,15 +20511,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="643"/>
+      <c r="P4" s="648"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="664"/>
-      <c r="W4" s="652" t="s">
+      <c r="R4" s="669"/>
+      <c r="W4" s="657" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="652"/>
+      <c r="X4" s="657"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -20552,8 +20570,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="324"/>
-      <c r="W5" s="652"/>
-      <c r="X5" s="652"/>
+      <c r="W5" s="657"/>
+      <c r="X5" s="657"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -21312,7 +21330,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="656">
+      <c r="W19" s="661">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -21364,7 +21382,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="657"/>
+      <c r="W20" s="662"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -21413,8 +21431,8 @@
         <v>0</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="658"/>
-      <c r="X21" s="658"/>
+      <c r="W21" s="663"/>
+      <c r="X21" s="663"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -21511,8 +21529,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="659"/>
-      <c r="X23" s="659"/>
+      <c r="W23" s="664"/>
+      <c r="X23" s="664"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -21567,8 +21585,8 @@
         <v>642</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="659"/>
-      <c r="X24" s="659"/>
+      <c r="W24" s="664"/>
+      <c r="X24" s="664"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -21614,8 +21632,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="660"/>
-      <c r="X25" s="660"/>
+      <c r="W25" s="665"/>
+      <c r="X25" s="665"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -21666,8 +21684,8 @@
       <c r="R26" s="388">
         <v>73524.61</v>
       </c>
-      <c r="W26" s="660"/>
-      <c r="X26" s="660"/>
+      <c r="W26" s="665"/>
+      <c r="X26" s="665"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -21718,9 +21736,9 @@
       <c r="R27" s="319">
         <v>0</v>
       </c>
-      <c r="W27" s="653"/>
-      <c r="X27" s="654"/>
-      <c r="Y27" s="655"/>
+      <c r="W27" s="658"/>
+      <c r="X27" s="659"/>
+      <c r="Y27" s="660"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -21770,9 +21788,9 @@
       <c r="R28" s="319">
         <v>0</v>
       </c>
-      <c r="W28" s="654"/>
-      <c r="X28" s="654"/>
-      <c r="Y28" s="655"/>
+      <c r="W28" s="659"/>
+      <c r="X28" s="659"/>
+      <c r="Y28" s="660"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -22370,11 +22388,11 @@
       <c r="L41" s="61">
         <v>15798.5</v>
       </c>
-      <c r="M41" s="644">
+      <c r="M41" s="649">
         <f>SUM(M5:M40)</f>
         <v>2479367.6100000003</v>
       </c>
-      <c r="N41" s="644">
+      <c r="N41" s="649">
         <f>SUM(N5:N40)</f>
         <v>1195667</v>
       </c>
@@ -22382,7 +22400,7 @@
         <f>SUM(P5:P40)</f>
         <v>4355326.74</v>
       </c>
-      <c r="Q41" s="703">
+      <c r="Q41" s="708">
         <f>SUM(Q5:Q40)</f>
         <v>69878.629999999976</v>
       </c>
@@ -22406,10 +22424,10 @@
       <c r="L42" s="52">
         <v>15298.5</v>
       </c>
-      <c r="M42" s="645"/>
-      <c r="N42" s="645"/>
+      <c r="M42" s="650"/>
+      <c r="N42" s="650"/>
       <c r="P42" s="34"/>
-      <c r="Q42" s="704"/>
+      <c r="Q42" s="709"/>
     </row>
     <row r="43" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="23"/>
@@ -22479,11 +22497,11 @@
       <c r="L45" s="61">
         <v>18269.490000000002</v>
       </c>
-      <c r="M45" s="705">
+      <c r="M45" s="710">
         <f>M41+N41</f>
         <v>3675034.6100000003</v>
       </c>
-      <c r="N45" s="706"/>
+      <c r="N45" s="711"/>
       <c r="P45" s="34"/>
       <c r="Q45" s="13"/>
     </row>
@@ -22608,26 +22626,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="621" t="s">
+      <c r="H52" s="626" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="622"/>
+      <c r="I52" s="627"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="623">
+      <c r="K52" s="628">
         <f>I50+L50</f>
         <v>289121.83</v>
       </c>
-      <c r="L52" s="650"/>
+      <c r="L52" s="655"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="627" t="s">
+      <c r="D53" s="632" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="627"/>
+      <c r="E53" s="632"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
         <v>3402894.67</v>
@@ -22636,22 +22654,22 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="651" t="s">
+      <c r="D54" s="656" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="651"/>
+      <c r="E54" s="656"/>
       <c r="F54" s="111">
         <v>-1884975.46</v>
       </c>
-      <c r="I54" s="628" t="s">
+      <c r="I54" s="633" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="629"/>
-      <c r="K54" s="630">
+      <c r="J54" s="634"/>
+      <c r="K54" s="635">
         <f>F56+F57+F58</f>
         <v>3549636.8899999997</v>
       </c>
-      <c r="L54" s="630"/>
+      <c r="L54" s="635"/>
       <c r="M54" s="404"/>
       <c r="N54" s="404"/>
       <c r="O54" s="404"/>
@@ -22692,11 +22710,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="632">
+      <c r="K56" s="637">
         <f>-C4</f>
         <v>-1792817.68</v>
       </c>
-      <c r="L56" s="633"/>
+      <c r="L56" s="638"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -22713,22 +22731,22 @@
       <c r="C58" s="112">
         <v>44682</v>
       </c>
-      <c r="D58" s="610" t="s">
+      <c r="D58" s="615" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="611"/>
+      <c r="E58" s="616"/>
       <c r="F58" s="113">
         <v>2112071.92</v>
       </c>
-      <c r="I58" s="612" t="s">
+      <c r="I58" s="617" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="613"/>
-      <c r="K58" s="614">
+      <c r="J58" s="618"/>
+      <c r="K58" s="619">
         <f>K54+K56</f>
         <v>1756819.2099999997</v>
       </c>
-      <c r="L58" s="614"/>
+      <c r="L58" s="619"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -22918,7 +22936,7 @@
   <dimension ref="A1:N130"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
@@ -25544,7 +25562,7 @@
       <c r="C90" s="214"/>
       <c r="D90" s="256"/>
       <c r="E90" s="3"/>
-      <c r="F90" s="661" t="s">
+      <c r="F90" s="666" t="s">
         <v>207</v>
       </c>
       <c r="K90" s="1"/>
@@ -25557,7 +25575,7 @@
       <c r="C91" s="1"/>
       <c r="D91" s="256"/>
       <c r="E91" s="3"/>
-      <c r="F91" s="662"/>
+      <c r="F91" s="667"/>
       <c r="K91" s="1"/>
       <c r="L91" s="97"/>
       <c r="M91" s="3"/>
@@ -25576,10 +25594,10 @@
     <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93" s="456"/>
       <c r="B93" s="442"/>
-      <c r="I93" s="699" t="s">
+      <c r="I93" s="704" t="s">
         <v>594</v>
       </c>
-      <c r="J93" s="700"/>
+      <c r="J93" s="705"/>
     </row>
     <row r="94" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="456"/>
@@ -25589,8 +25607,8 @@
       <c r="C94" s="520"/>
       <c r="D94" s="521"/>
       <c r="E94" s="522"/>
-      <c r="I94" s="701"/>
-      <c r="J94" s="702"/>
+      <c r="I94" s="706"/>
+      <c r="J94" s="707"/>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" s="456"/>
@@ -26011,11 +26029,11 @@
     </row>
     <row r="130" spans="2:5" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B130" s="455"/>
-      <c r="C130" s="707">
+      <c r="C130" s="712">
         <f>SUM(D106:D129)</f>
         <v>759581.99999999988</v>
       </c>
-      <c r="D130" s="708"/>
+      <c r="D130" s="713"/>
       <c r="E130" s="257"/>
     </row>
   </sheetData>
@@ -26037,7 +26055,7 @@
   <dimension ref="B1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26051,21 +26069,21 @@
   <sheetData>
     <row r="1" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F2" s="713" t="s">
+      <c r="F2" s="718" t="s">
         <v>752</v>
       </c>
-      <c r="G2" s="714"/>
-      <c r="H2" s="715"/>
+      <c r="G2" s="719"/>
+      <c r="H2" s="720"/>
     </row>
     <row r="3" spans="2:8" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="710" t="s">
+      <c r="B3" s="715" t="s">
         <v>748</v>
       </c>
-      <c r="C3" s="711"/>
-      <c r="D3" s="712"/>
-      <c r="F3" s="716"/>
-      <c r="G3" s="717"/>
-      <c r="H3" s="718"/>
+      <c r="C3" s="716"/>
+      <c r="D3" s="717"/>
+      <c r="F3" s="721"/>
+      <c r="G3" s="722"/>
+      <c r="H3" s="723"/>
     </row>
     <row r="4" spans="2:8" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="528" t="s">
@@ -26210,11 +26228,11 @@
         <f>SUM(D5:D10)</f>
         <v>264460</v>
       </c>
-      <c r="G11" s="719">
+      <c r="G11" s="724">
         <f>SUM(H5:H10)</f>
         <v>334337</v>
       </c>
-      <c r="H11" s="720"/>
+      <c r="H11" s="725"/>
     </row>
     <row r="13" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B13" s="534" t="s">
@@ -26231,23 +26249,23 @@
       <c r="C14" s="534"/>
     </row>
     <row r="15" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="723" t="s">
+      <c r="C15" s="728" t="s">
         <v>750</v>
       </c>
-      <c r="D15" s="721">
+      <c r="D15" s="726">
         <f>D11-D13</f>
         <v>-69877</v>
       </c>
     </row>
     <row r="16" spans="2:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="724"/>
-      <c r="D16" s="722"/>
+      <c r="C16" s="729"/>
+      <c r="D16" s="727"/>
     </row>
     <row r="17" spans="3:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C17" s="709" t="s">
+      <c r="C17" s="714" t="s">
         <v>753</v>
       </c>
-      <c r="D17" s="709"/>
+      <c r="D17" s="714"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -26272,10 +26290,10 @@
   <dimension ref="A1:Z80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="D17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="F27" sqref="F27"/>
+      <selection pane="bottomRight" activeCell="N30" sqref="N30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -26305,23 +26323,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="599"/>
-      <c r="C1" s="665" t="s">
+      <c r="B1" s="604"/>
+      <c r="C1" s="670" t="s">
         <v>754</v>
       </c>
-      <c r="D1" s="666"/>
-      <c r="E1" s="666"/>
-      <c r="F1" s="666"/>
-      <c r="G1" s="666"/>
-      <c r="H1" s="666"/>
-      <c r="I1" s="666"/>
-      <c r="J1" s="666"/>
-      <c r="K1" s="666"/>
-      <c r="L1" s="666"/>
-      <c r="M1" s="666"/>
+      <c r="D1" s="671"/>
+      <c r="E1" s="671"/>
+      <c r="F1" s="671"/>
+      <c r="G1" s="671"/>
+      <c r="H1" s="671"/>
+      <c r="I1" s="671"/>
+      <c r="J1" s="671"/>
+      <c r="K1" s="671"/>
+      <c r="L1" s="671"/>
+      <c r="M1" s="671"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="600"/>
+      <c r="B2" s="605"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -26331,24 +26349,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="603" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="604"/>
+      <c r="B3" s="608" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="609"/>
       <c r="D3" s="10"/>
       <c r="E3" s="562"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="605" t="s">
+      <c r="H3" s="610" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="605"/>
+      <c r="I3" s="610"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="642" t="s">
+      <c r="P3" s="647" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="663" t="s">
+      <c r="R3" s="668" t="s">
         <v>216</v>
       </c>
       <c r="U3" s="34"/>
@@ -26367,14 +26385,14 @@
       <c r="D4" s="18">
         <v>44682</v>
       </c>
-      <c r="E4" s="606" t="s">
+      <c r="E4" s="611" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="607"/>
-      <c r="H4" s="608" t="s">
+      <c r="F4" s="612"/>
+      <c r="H4" s="613" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="609"/>
+      <c r="I4" s="614"/>
       <c r="J4" s="565"/>
       <c r="K4" s="571"/>
       <c r="L4" s="572"/>
@@ -26384,15 +26402,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="643"/>
+      <c r="P4" s="648"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="664"/>
+      <c r="R4" s="669"/>
       <c r="U4" s="34"/>
       <c r="V4" s="128"/>
-      <c r="W4" s="725"/>
-      <c r="X4" s="725"/>
+      <c r="W4" s="730"/>
+      <c r="X4" s="730"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -26446,8 +26464,8 @@
       <c r="S5" s="324"/>
       <c r="U5" s="34"/>
       <c r="V5" s="128"/>
-      <c r="W5" s="725"/>
-      <c r="X5" s="725"/>
+      <c r="W5" s="730"/>
+      <c r="X5" s="730"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -27213,7 +27231,7 @@
       <c r="S19" s="147"/>
       <c r="U19" s="34"/>
       <c r="V19" s="128"/>
-      <c r="W19" s="726"/>
+      <c r="W19" s="731"/>
       <c r="X19" s="546"/>
       <c r="Y19" s="233"/>
     </row>
@@ -27267,7 +27285,7 @@
       <c r="S20" s="147"/>
       <c r="U20" s="34"/>
       <c r="V20" s="128"/>
-      <c r="W20" s="726"/>
+      <c r="W20" s="731"/>
       <c r="X20" s="34"/>
       <c r="Y20" s="233"/>
     </row>
@@ -27322,8 +27340,8 @@
       <c r="S21" s="147"/>
       <c r="U21" s="34"/>
       <c r="V21" s="128"/>
-      <c r="W21" s="658"/>
-      <c r="X21" s="658"/>
+      <c r="W21" s="663"/>
+      <c r="X21" s="663"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -27434,8 +27452,8 @@
       <c r="S23" s="147"/>
       <c r="U23" s="34"/>
       <c r="V23" s="128"/>
-      <c r="W23" s="659"/>
-      <c r="X23" s="659"/>
+      <c r="W23" s="664"/>
+      <c r="X23" s="664"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -27496,8 +27514,8 @@
       <c r="S24" s="147"/>
       <c r="U24" s="34"/>
       <c r="V24" s="128"/>
-      <c r="W24" s="659"/>
-      <c r="X24" s="659"/>
+      <c r="W24" s="664"/>
+      <c r="X24" s="664"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -27550,8 +27568,8 @@
       </c>
       <c r="U25" s="34"/>
       <c r="V25" s="128"/>
-      <c r="W25" s="660"/>
-      <c r="X25" s="660"/>
+      <c r="W25" s="665"/>
+      <c r="X25" s="665"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -27588,7 +27606,9 @@
       <c r="N26" s="33">
         <v>69110</v>
       </c>
-      <c r="O26" s="736"/>
+      <c r="O26" s="601" t="s">
+        <v>766</v>
+      </c>
       <c r="P26" s="284">
         <f t="shared" si="1"/>
         <v>136742</v>
@@ -27604,8 +27624,8 @@
       <c r="T26" s="128"/>
       <c r="U26" s="34"/>
       <c r="V26" s="128"/>
-      <c r="W26" s="660"/>
-      <c r="X26" s="660"/>
+      <c r="W26" s="665"/>
+      <c r="X26" s="665"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -27614,30 +27634,40 @@
       <c r="B27" s="24">
         <v>44705</v>
       </c>
-      <c r="C27" s="25"/>
-      <c r="D27" s="42"/>
+      <c r="C27" s="25">
+        <v>19926</v>
+      </c>
+      <c r="D27" s="42" t="s">
+        <v>813</v>
+      </c>
       <c r="E27" s="27">
         <v>44705</v>
       </c>
-      <c r="F27" s="28"/>
+      <c r="F27" s="28">
+        <v>94656</v>
+      </c>
       <c r="G27" s="582"/>
       <c r="H27" s="29">
         <v>44705</v>
       </c>
-      <c r="I27" s="30"/>
+      <c r="I27" s="30">
+        <v>1960</v>
+      </c>
       <c r="J27" s="55"/>
       <c r="K27" s="174"/>
       <c r="L27" s="54"/>
       <c r="M27" s="32">
-        <v>0</v>
+        <v>48179</v>
       </c>
       <c r="N27" s="33">
-        <v>0</v>
-      </c>
-      <c r="O27" s="737"/>
+        <v>24591</v>
+      </c>
+      <c r="O27" s="601" t="s">
+        <v>766</v>
+      </c>
       <c r="P27" s="39">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>94656</v>
       </c>
       <c r="Q27" s="325">
         <f t="shared" si="0"/>
@@ -27650,9 +27680,9 @@
       <c r="T27" s="128"/>
       <c r="U27" s="34"/>
       <c r="V27" s="128"/>
-      <c r="W27" s="653"/>
-      <c r="X27" s="654"/>
-      <c r="Y27" s="655"/>
+      <c r="W27" s="658"/>
+      <c r="X27" s="659"/>
+      <c r="Y27" s="660"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -27660,30 +27690,40 @@
       <c r="B28" s="24">
         <v>44706</v>
       </c>
-      <c r="C28" s="25"/>
-      <c r="D28" s="42"/>
+      <c r="C28" s="25">
+        <v>15696</v>
+      </c>
+      <c r="D28" s="42" t="s">
+        <v>330</v>
+      </c>
       <c r="E28" s="27">
         <v>44706</v>
       </c>
-      <c r="F28" s="28"/>
+      <c r="F28" s="28">
+        <v>102814</v>
+      </c>
       <c r="G28" s="582"/>
       <c r="H28" s="29">
         <v>44706</v>
       </c>
-      <c r="I28" s="30"/>
+      <c r="I28" s="30">
+        <v>2682</v>
+      </c>
       <c r="J28" s="56"/>
       <c r="K28" s="57"/>
       <c r="L28" s="54"/>
       <c r="M28" s="32">
-        <v>0</v>
+        <v>41272</v>
       </c>
       <c r="N28" s="33">
-        <v>0</v>
-      </c>
-      <c r="O28" s="737"/>
+        <v>43164</v>
+      </c>
+      <c r="O28" s="601" t="s">
+        <v>766</v>
+      </c>
       <c r="P28" s="34">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>102814</v>
       </c>
       <c r="Q28" s="325">
         <f t="shared" si="0"/>
@@ -27696,9 +27736,9 @@
       <c r="T28" s="128"/>
       <c r="U28" s="34"/>
       <c r="V28" s="128"/>
-      <c r="W28" s="654"/>
-      <c r="X28" s="654"/>
-      <c r="Y28" s="655"/>
+      <c r="W28" s="659"/>
+      <c r="X28" s="659"/>
+      <c r="Y28" s="660"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -27706,30 +27746,40 @@
       <c r="B29" s="24">
         <v>44707</v>
       </c>
-      <c r="C29" s="25"/>
-      <c r="D29" s="58"/>
+      <c r="C29" s="25">
+        <v>15924</v>
+      </c>
+      <c r="D29" s="58" t="s">
+        <v>815</v>
+      </c>
       <c r="E29" s="27">
         <v>44707</v>
       </c>
-      <c r="F29" s="28"/>
+      <c r="F29" s="28">
+        <v>110431</v>
+      </c>
       <c r="G29" s="582"/>
       <c r="H29" s="29">
         <v>44707</v>
       </c>
-      <c r="I29" s="30"/>
+      <c r="I29" s="30">
+        <v>4395</v>
+      </c>
       <c r="J29" s="59"/>
       <c r="K29" s="175"/>
       <c r="L29" s="54"/>
       <c r="M29" s="32">
-        <v>0</v>
+        <v>65213</v>
       </c>
       <c r="N29" s="33">
-        <v>0</v>
-      </c>
-      <c r="O29" s="737"/>
+        <v>24899</v>
+      </c>
+      <c r="O29" s="601" t="s">
+        <v>766</v>
+      </c>
       <c r="P29" s="34">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>110431</v>
       </c>
       <c r="Q29" s="325">
         <f t="shared" si="0"/>
@@ -27752,34 +27802,43 @@
       <c r="B30" s="24">
         <v>44708</v>
       </c>
-      <c r="C30" s="25"/>
-      <c r="D30" s="58"/>
+      <c r="C30" s="25">
+        <v>7493</v>
+      </c>
+      <c r="D30" s="58" t="s">
+        <v>816</v>
+      </c>
       <c r="E30" s="27">
         <v>44708</v>
       </c>
-      <c r="F30" s="28"/>
+      <c r="F30" s="28">
+        <v>104016</v>
+      </c>
       <c r="G30" s="582"/>
       <c r="H30" s="29">
         <v>44708</v>
       </c>
-      <c r="I30" s="30"/>
+      <c r="I30" s="30">
+        <v>5365</v>
+      </c>
       <c r="J30" s="56"/>
       <c r="K30" s="38"/>
       <c r="L30" s="39"/>
       <c r="M30" s="32">
-        <v>0</v>
+        <f>48108+8000+641</f>
+        <v>56749</v>
       </c>
       <c r="N30" s="33">
         <v>0</v>
       </c>
-      <c r="O30" s="737"/>
+      <c r="O30" s="601"/>
       <c r="P30" s="34">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>69607</v>
       </c>
       <c r="Q30" s="325">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-34409</v>
       </c>
       <c r="R30" s="547">
         <v>0</v>
@@ -27817,7 +27876,7 @@
       <c r="N31" s="33">
         <v>0</v>
       </c>
-      <c r="O31" s="737"/>
+      <c r="O31" s="601"/>
       <c r="P31" s="34">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -27861,7 +27920,7 @@
       <c r="N32" s="33">
         <v>0</v>
       </c>
-      <c r="O32" s="738"/>
+      <c r="O32" s="602"/>
       <c r="P32" s="34">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -27899,7 +27958,7 @@
       <c r="N33" s="33">
         <v>0</v>
       </c>
-      <c r="O33" s="738"/>
+      <c r="O33" s="602"/>
       <c r="P33" s="34">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -27937,7 +27996,7 @@
       <c r="N34" s="33">
         <v>0</v>
       </c>
-      <c r="O34" s="585"/>
+      <c r="O34" s="603"/>
       <c r="P34" s="34">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -28196,21 +28255,21 @@
       <c r="J41" s="56"/>
       <c r="K41" s="38"/>
       <c r="L41" s="39"/>
-      <c r="M41" s="644">
+      <c r="M41" s="649">
         <f>SUM(M5:M40)</f>
-        <v>1157804.5</v>
-      </c>
-      <c r="N41" s="644">
+        <v>1369217.5</v>
+      </c>
+      <c r="N41" s="649">
         <f>SUM(N5:N40)</f>
-        <v>801766</v>
+        <v>894420</v>
       </c>
       <c r="P41" s="508">
         <f>SUM(P5:P40)</f>
-        <v>2515082.3600000003</v>
-      </c>
-      <c r="Q41" s="703">
+        <v>2892590.3600000003</v>
+      </c>
+      <c r="Q41" s="708">
         <f>SUM(Q5:Q40)</f>
-        <v>34796.36</v>
+        <v>387.36000000000058</v>
       </c>
     </row>
     <row r="42" spans="1:24" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -28226,10 +28285,10 @@
       <c r="J42" s="51"/>
       <c r="K42" s="173"/>
       <c r="L42" s="52"/>
-      <c r="M42" s="645"/>
-      <c r="N42" s="645"/>
+      <c r="M42" s="650"/>
+      <c r="N42" s="650"/>
       <c r="P42" s="34"/>
-      <c r="Q42" s="704"/>
+      <c r="Q42" s="709"/>
     </row>
     <row r="43" spans="1:24" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="23"/>
@@ -28280,11 +28339,11 @@
       <c r="J45" s="56"/>
       <c r="K45" s="38"/>
       <c r="L45" s="39"/>
-      <c r="M45" s="705">
+      <c r="M45" s="710">
         <f>M41+N41</f>
-        <v>1959570.5</v>
-      </c>
-      <c r="N45" s="706"/>
+        <v>2263637.5</v>
+      </c>
+      <c r="N45" s="711"/>
       <c r="P45" s="34"/>
       <c r="Q45" s="13"/>
     </row>
@@ -28367,7 +28426,7 @@
       </c>
       <c r="C50" s="87">
         <f>SUM(C5:C49)</f>
-        <v>389784</v>
+        <v>448823</v>
       </c>
       <c r="D50" s="88"/>
       <c r="E50" s="91" t="s">
@@ -28375,7 +28434,7 @@
       </c>
       <c r="F50" s="90">
         <f>SUM(F5:F49)</f>
-        <v>2407403</v>
+        <v>2819320</v>
       </c>
       <c r="G50" s="583"/>
       <c r="H50" s="91" t="s">
@@ -28383,7 +28442,7 @@
       </c>
       <c r="I50" s="92">
         <f>SUM(I5:I49)</f>
-        <v>59381</v>
+        <v>73783</v>
       </c>
       <c r="J50" s="93"/>
       <c r="K50" s="94" t="s">
@@ -28409,50 +28468,50 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="621" t="s">
+      <c r="H52" s="626" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="622"/>
+      <c r="I52" s="627"/>
       <c r="J52" s="568"/>
-      <c r="K52" s="728">
+      <c r="K52" s="733">
         <f>I50+L50</f>
-        <v>165727.85999999999</v>
-      </c>
-      <c r="L52" s="729"/>
+        <v>180129.86</v>
+      </c>
+      <c r="L52" s="734"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="627" t="s">
+      <c r="D53" s="632" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="627"/>
+      <c r="E53" s="632"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
-        <v>1851891.1400000001</v>
+        <v>2190367.14</v>
       </c>
       <c r="I53" s="102"/>
       <c r="J53" s="569"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="651" t="s">
+      <c r="D54" s="656" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="651"/>
+      <c r="E54" s="656"/>
       <c r="F54" s="111">
         <v>0</v>
       </c>
-      <c r="I54" s="628" t="s">
+      <c r="I54" s="633" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="629"/>
-      <c r="K54" s="630">
+      <c r="J54" s="634"/>
+      <c r="K54" s="635">
         <f>F56+F57+F58</f>
-        <v>1851891.1400000001</v>
-      </c>
-      <c r="L54" s="630"/>
+        <v>2190367.14</v>
+      </c>
+      <c r="L54" s="635"/>
       <c r="M54" s="404"/>
       <c r="N54" s="404"/>
       <c r="O54" s="589"/>
@@ -28486,18 +28545,18 @@
       </c>
       <c r="F56" s="96">
         <f>SUM(F53:F55)</f>
-        <v>1851891.1400000001</v>
+        <v>2190367.14</v>
       </c>
       <c r="H56" s="564"/>
       <c r="I56" s="108" t="s">
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="727">
+      <c r="K56" s="732">
         <f>-C4</f>
         <v>-2112071.92</v>
       </c>
-      <c r="L56" s="630"/>
+      <c r="L56" s="635"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -28512,22 +28571,22 @@
     </row>
     <row r="58" spans="1:17" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C58" s="112"/>
-      <c r="D58" s="610" t="s">
+      <c r="D58" s="615" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="611"/>
+      <c r="E58" s="616"/>
       <c r="F58" s="113">
         <v>0</v>
       </c>
-      <c r="I58" s="612" t="s">
+      <c r="I58" s="617" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="613"/>
-      <c r="K58" s="614">
+      <c r="J58" s="618"/>
+      <c r="K58" s="619">
         <f>K54+K56</f>
-        <v>-260180.7799999998</v>
-      </c>
-      <c r="L58" s="614"/>
+        <v>78295.220000000205</v>
+      </c>
+      <c r="L58" s="619"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -28716,8 +28775,8 @@
   </sheetPr>
   <dimension ref="A1:N125"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29392,6 +29451,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="G25" s="600" t="s">
+        <v>814</v>
+      </c>
+      <c r="H25" s="600"/>
       <c r="I25" s="245"/>
       <c r="J25" s="57"/>
       <c r="K25" s="111"/>
@@ -29422,6 +29485,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="G26" s="600" t="s">
+        <v>814</v>
+      </c>
+      <c r="H26" s="600"/>
       <c r="I26" s="245"/>
       <c r="J26" s="57"/>
       <c r="K26" s="111"/>
@@ -29452,6 +29519,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="G27" s="600" t="s">
+        <v>814</v>
+      </c>
+      <c r="H27" s="600"/>
       <c r="I27" s="245"/>
       <c r="J27" s="57"/>
       <c r="K27" s="111"/>
@@ -29482,6 +29553,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="G28" s="600" t="s">
+        <v>814</v>
+      </c>
+      <c r="H28" s="600"/>
       <c r="I28" s="245"/>
       <c r="J28" s="57"/>
       <c r="K28" s="111"/>
@@ -29512,6 +29587,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="G29" s="600" t="s">
+        <v>814</v>
+      </c>
+      <c r="H29" s="600"/>
       <c r="I29" s="245"/>
       <c r="J29" s="57"/>
       <c r="K29" s="111"/>
@@ -29522,7 +29601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="591">
         <v>44706</v>
       </c>
@@ -29542,7 +29621,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G30" s="138"/>
+      <c r="G30" s="600" t="s">
+        <v>814</v>
+      </c>
+      <c r="H30" s="600"/>
       <c r="I30" s="245"/>
       <c r="J30" s="57"/>
       <c r="K30" s="111"/>
@@ -30696,7 +30778,7 @@
       <c r="C90" s="214"/>
       <c r="D90" s="256"/>
       <c r="E90" s="3"/>
-      <c r="F90" s="661" t="s">
+      <c r="F90" s="666" t="s">
         <v>207</v>
       </c>
       <c r="K90" s="1"/>
@@ -30709,7 +30791,7 @@
       <c r="C91" s="1"/>
       <c r="D91" s="256"/>
       <c r="E91" s="3"/>
-      <c r="F91" s="662"/>
+      <c r="F91" s="667"/>
       <c r="K91" s="1"/>
       <c r="L91" s="97"/>
       <c r="M91" s="3"/>
@@ -30728,10 +30810,10 @@
     <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93" s="456"/>
       <c r="B93" s="442"/>
-      <c r="I93" s="699" t="s">
+      <c r="I93" s="704" t="s">
         <v>594</v>
       </c>
-      <c r="J93" s="700"/>
+      <c r="J93" s="705"/>
     </row>
     <row r="94" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="456"/>
@@ -30739,8 +30821,8 @@
       <c r="C94" s="520"/>
       <c r="D94" s="521"/>
       <c r="E94" s="522"/>
-      <c r="I94" s="701"/>
-      <c r="J94" s="702"/>
+      <c r="I94" s="706"/>
+      <c r="J94" s="707"/>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" s="456"/>
@@ -30982,117 +31064,117 @@
   <sheetPr>
     <tabColor rgb="FFFF00FF"/>
   </sheetPr>
-  <dimension ref="B2:F12"/>
+  <dimension ref="F2:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="26.5703125" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" style="3"/>
+    <col min="8" max="8" width="26.5703125" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="454"/>
-      <c r="C2" s="246"/>
-      <c r="D2" s="111"/>
-    </row>
-    <row r="3" spans="2:4" ht="21" x14ac:dyDescent="0.25">
-      <c r="B3" s="732" t="s">
+    <row r="2" spans="6:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F2" s="454"/>
+      <c r="G2" s="246"/>
+      <c r="H2" s="111"/>
+    </row>
+    <row r="3" spans="6:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="F3" s="737" t="s">
         <v>806</v>
       </c>
-      <c r="C3" s="733"/>
-      <c r="D3" s="733"/>
-    </row>
-    <row r="4" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B4" s="454"/>
-      <c r="C4" s="734" t="s">
+      <c r="G3" s="738"/>
+      <c r="H3" s="738"/>
+    </row>
+    <row r="4" spans="6:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F4" s="454"/>
+      <c r="G4" s="739" t="s">
         <v>807</v>
       </c>
-      <c r="D4" s="735"/>
-    </row>
-    <row r="5" spans="2:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="454">
+      <c r="H4" s="740"/>
+    </row>
+    <row r="5" spans="6:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F5" s="454">
         <v>44699</v>
       </c>
-      <c r="C5" s="246" t="s">
+      <c r="G5" s="246" t="s">
         <v>796</v>
       </c>
-      <c r="D5" s="111">
+      <c r="H5" s="599">
         <v>73144.72</v>
       </c>
     </row>
-    <row r="6" spans="2:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="454">
+    <row r="6" spans="6:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F6" s="454">
         <v>44700</v>
       </c>
-      <c r="C6" s="590" t="s">
+      <c r="G6" s="590" t="s">
         <v>805</v>
       </c>
-      <c r="D6" s="111">
+      <c r="H6" s="599">
         <v>54053.32</v>
       </c>
     </row>
-    <row r="7" spans="2:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="454">
+    <row r="7" spans="6:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F7" s="454">
         <v>44701</v>
       </c>
-      <c r="C7" s="246" t="s">
+      <c r="G7" s="246" t="s">
         <v>801</v>
       </c>
-      <c r="D7" s="111">
+      <c r="H7" s="599">
         <v>101400.66</v>
       </c>
     </row>
-    <row r="8" spans="2:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="454">
+    <row r="8" spans="6:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F8" s="454">
         <v>44702</v>
       </c>
-      <c r="C8" s="246" t="s">
+      <c r="G8" s="246" t="s">
         <v>802</v>
       </c>
-      <c r="D8" s="111">
+      <c r="H8" s="599">
         <v>185753.4</v>
       </c>
     </row>
-    <row r="9" spans="2:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="454">
+    <row r="9" spans="6:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F9" s="454">
         <v>44705</v>
       </c>
-      <c r="C9" s="246" t="s">
+      <c r="G9" s="246" t="s">
         <v>803</v>
       </c>
-      <c r="D9" s="111">
+      <c r="H9" s="599">
         <v>72323.33</v>
       </c>
     </row>
-    <row r="10" spans="2:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="454">
+    <row r="10" spans="6:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F10" s="454">
         <v>44706</v>
       </c>
-      <c r="C10" s="246" t="s">
+      <c r="G10" s="246" t="s">
         <v>804</v>
       </c>
-      <c r="D10" s="111">
+      <c r="H10" s="599">
         <v>138449.44</v>
       </c>
     </row>
-    <row r="11" spans="2:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D11" s="730">
-        <f t="shared" ref="D11" si="0">SUM(D5:D10)</f>
+    <row r="11" spans="6:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H11" s="735">
+        <f t="shared" ref="H11" si="0">SUM(H5:H10)</f>
         <v>625124.87</v>
       </c>
     </row>
-    <row r="12" spans="2:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D12" s="731"/>
+    <row r="12" spans="6:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H12" s="736"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="G4:H4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -32443,7 +32525,7 @@
       <c r="A41" s="140">
         <v>44507</v>
       </c>
-      <c r="B41" s="634" t="s">
+      <c r="B41" s="639" t="s">
         <v>92</v>
       </c>
       <c r="C41" s="190">
@@ -32475,7 +32557,7 @@
       <c r="A42" s="140" t="s">
         <v>93</v>
       </c>
-      <c r="B42" s="635"/>
+      <c r="B42" s="640"/>
       <c r="C42" s="143">
         <v>0</v>
       </c>
@@ -34083,23 +34165,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="599"/>
-      <c r="C1" s="601" t="s">
+      <c r="B1" s="604"/>
+      <c r="C1" s="606" t="s">
         <v>208</v>
       </c>
-      <c r="D1" s="602"/>
-      <c r="E1" s="602"/>
-      <c r="F1" s="602"/>
-      <c r="G1" s="602"/>
-      <c r="H1" s="602"/>
-      <c r="I1" s="602"/>
-      <c r="J1" s="602"/>
-      <c r="K1" s="602"/>
-      <c r="L1" s="602"/>
-      <c r="M1" s="602"/>
+      <c r="D1" s="607"/>
+      <c r="E1" s="607"/>
+      <c r="F1" s="607"/>
+      <c r="G1" s="607"/>
+      <c r="H1" s="607"/>
+      <c r="I1" s="607"/>
+      <c r="J1" s="607"/>
+      <c r="K1" s="607"/>
+      <c r="L1" s="607"/>
+      <c r="M1" s="607"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="600"/>
+      <c r="B2" s="605"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -34109,21 +34191,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="603" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="604"/>
+      <c r="B3" s="608" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="609"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="605" t="s">
+      <c r="H3" s="610" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="605"/>
+      <c r="I3" s="610"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="642" t="s">
+      <c r="P3" s="647" t="s">
         <v>6</v>
       </c>
     </row>
@@ -34138,14 +34220,14 @@
       <c r="D4" s="18">
         <v>44507</v>
       </c>
-      <c r="E4" s="606" t="s">
+      <c r="E4" s="611" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="607"/>
-      <c r="H4" s="608" t="s">
+      <c r="F4" s="612"/>
+      <c r="H4" s="613" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="609"/>
+      <c r="I4" s="614"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -34155,14 +34237,14 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="643"/>
+      <c r="P4" s="648"/>
       <c r="Q4" s="286" t="s">
         <v>209</v>
       </c>
-      <c r="W4" s="652" t="s">
+      <c r="W4" s="657" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="652"/>
+      <c r="X4" s="657"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -34213,8 +34295,8 @@
         <f>20000+7936</f>
         <v>27936</v>
       </c>
-      <c r="W5" s="652"/>
-      <c r="X5" s="652"/>
+      <c r="W5" s="657"/>
+      <c r="X5" s="657"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -34985,7 +35067,7 @@
         <v>26370</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="656">
+      <c r="W19" s="661">
         <f>SUM(W6:W18)</f>
         <v>935136</v>
       </c>
@@ -35037,7 +35119,7 @@
         <v>16395.830000000002</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="657"/>
+      <c r="W20" s="662"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -35086,8 +35168,8 @@
         <v>19188.82</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="658"/>
-      <c r="X21" s="658"/>
+      <c r="W21" s="663"/>
+      <c r="X21" s="663"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -35188,8 +35270,8 @@
         <v>45217.29</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="659"/>
-      <c r="X23" s="659"/>
+      <c r="W23" s="664"/>
+      <c r="X23" s="664"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -35243,8 +35325,8 @@
         <v>23159.17</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="659"/>
-      <c r="X24" s="659"/>
+      <c r="W24" s="664"/>
+      <c r="X24" s="664"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -35290,8 +35372,8 @@
       <c r="R25" s="285">
         <v>28952</v>
       </c>
-      <c r="W25" s="660"/>
-      <c r="X25" s="660"/>
+      <c r="W25" s="665"/>
+      <c r="X25" s="665"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -35342,8 +35424,8 @@
       <c r="R26" s="285">
         <v>21771.5</v>
       </c>
-      <c r="W26" s="660"/>
-      <c r="X26" s="660"/>
+      <c r="W26" s="665"/>
+      <c r="X26" s="665"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -35391,9 +35473,9 @@
       <c r="R27" s="285">
         <v>14637</v>
       </c>
-      <c r="W27" s="653"/>
-      <c r="X27" s="654"/>
-      <c r="Y27" s="655"/>
+      <c r="W27" s="658"/>
+      <c r="X27" s="659"/>
+      <c r="Y27" s="660"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -35443,9 +35525,9 @@
       <c r="R28" s="285">
         <v>0</v>
       </c>
-      <c r="W28" s="654"/>
-      <c r="X28" s="654"/>
-      <c r="Y28" s="655"/>
+      <c r="W28" s="659"/>
+      <c r="X28" s="659"/>
+      <c r="Y28" s="660"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -35780,11 +35862,11 @@
       <c r="L36" s="44">
         <v>5940</v>
       </c>
-      <c r="M36" s="644">
+      <c r="M36" s="649">
         <f>SUM(M5:M35)</f>
         <v>321168.83</v>
       </c>
-      <c r="N36" s="646">
+      <c r="N36" s="651">
         <f>SUM(N5:N35)</f>
         <v>467016</v>
       </c>
@@ -35792,7 +35874,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="648">
+      <c r="Q36" s="653">
         <f>SUM(Q5:Q35)</f>
         <v>-637069.14000000013</v>
       </c>
@@ -35827,13 +35909,13 @@
       <c r="L37" s="61">
         <v>7929.62</v>
       </c>
-      <c r="M37" s="645"/>
-      <c r="N37" s="647"/>
+      <c r="M37" s="650"/>
+      <c r="N37" s="652"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="649"/>
+      <c r="Q37" s="654"/>
     </row>
     <row r="38" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="23"/>
@@ -36123,26 +36205,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="621" t="s">
+      <c r="H52" s="626" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="622"/>
+      <c r="I52" s="627"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="623">
+      <c r="K52" s="628">
         <f>I50+L50</f>
         <v>71911.59</v>
       </c>
-      <c r="L52" s="650"/>
+      <c r="L52" s="655"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D53" s="627" t="s">
+      <c r="D53" s="632" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="627"/>
+      <c r="E53" s="632"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
         <v>-25952.549999999814</v>
@@ -36151,29 +36233,29 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="651" t="s">
+      <c r="D54" s="656" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="651"/>
+      <c r="E54" s="656"/>
       <c r="F54" s="111">
         <v>-706888.38</v>
       </c>
-      <c r="I54" s="628" t="s">
+      <c r="I54" s="633" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="629"/>
-      <c r="K54" s="630">
+      <c r="J54" s="634"/>
+      <c r="K54" s="635">
         <f>F56+F57+F58</f>
         <v>1308778.3500000003</v>
       </c>
-      <c r="L54" s="630"/>
-      <c r="M54" s="636" t="s">
+      <c r="L54" s="635"/>
+      <c r="M54" s="641" t="s">
         <v>211</v>
       </c>
-      <c r="N54" s="637"/>
-      <c r="O54" s="637"/>
-      <c r="P54" s="637"/>
-      <c r="Q54" s="638"/>
+      <c r="N54" s="642"/>
+      <c r="O54" s="642"/>
+      <c r="P54" s="642"/>
+      <c r="Q54" s="643"/>
     </row>
     <row r="55" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D55" s="313" t="s">
@@ -36187,11 +36269,11 @@
       <c r="J55" s="106"/>
       <c r="K55" s="178"/>
       <c r="L55" s="107"/>
-      <c r="M55" s="639"/>
-      <c r="N55" s="640"/>
-      <c r="O55" s="640"/>
-      <c r="P55" s="640"/>
-      <c r="Q55" s="641"/>
+      <c r="M55" s="644"/>
+      <c r="N55" s="645"/>
+      <c r="O55" s="645"/>
+      <c r="P55" s="645"/>
+      <c r="Q55" s="646"/>
     </row>
     <row r="56" spans="1:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C56" s="4" t="s">
@@ -36209,11 +36291,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="632">
+      <c r="K56" s="637">
         <f>-C4</f>
         <v>-567389.35</v>
       </c>
-      <c r="L56" s="633"/>
+      <c r="L56" s="638"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -36230,22 +36312,22 @@
       <c r="C58" s="112">
         <v>44535</v>
       </c>
-      <c r="D58" s="610" t="s">
+      <c r="D58" s="615" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="611"/>
+      <c r="E58" s="616"/>
       <c r="F58" s="113">
         <v>2142307.62</v>
       </c>
-      <c r="I58" s="612" t="s">
+      <c r="I58" s="617" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="613"/>
-      <c r="K58" s="614">
+      <c r="J58" s="618"/>
+      <c r="K58" s="619">
         <f>K54+K56</f>
         <v>741389.00000000035</v>
       </c>
-      <c r="L58" s="614"/>
+      <c r="L58" s="619"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -38835,7 +38917,7 @@
       <c r="C87" s="214"/>
       <c r="D87" s="97"/>
       <c r="E87" s="3"/>
-      <c r="F87" s="661" t="s">
+      <c r="F87" s="666" t="s">
         <v>207</v>
       </c>
       <c r="K87" s="1"/>
@@ -38848,7 +38930,7 @@
       <c r="C88" s="1"/>
       <c r="D88" s="97"/>
       <c r="E88" s="3"/>
-      <c r="F88" s="662"/>
+      <c r="F88" s="667"/>
       <c r="K88" s="1"/>
       <c r="L88" s="256"/>
       <c r="M88" s="3"/>
@@ -39160,23 +39242,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="599"/>
-      <c r="C1" s="601" t="s">
+      <c r="B1" s="604"/>
+      <c r="C1" s="606" t="s">
         <v>208</v>
       </c>
-      <c r="D1" s="602"/>
-      <c r="E1" s="602"/>
-      <c r="F1" s="602"/>
-      <c r="G1" s="602"/>
-      <c r="H1" s="602"/>
-      <c r="I1" s="602"/>
-      <c r="J1" s="602"/>
-      <c r="K1" s="602"/>
-      <c r="L1" s="602"/>
-      <c r="M1" s="602"/>
+      <c r="D1" s="607"/>
+      <c r="E1" s="607"/>
+      <c r="F1" s="607"/>
+      <c r="G1" s="607"/>
+      <c r="H1" s="607"/>
+      <c r="I1" s="607"/>
+      <c r="J1" s="607"/>
+      <c r="K1" s="607"/>
+      <c r="L1" s="607"/>
+      <c r="M1" s="607"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="600"/>
+      <c r="B2" s="605"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -39186,24 +39268,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="603" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="604"/>
+      <c r="B3" s="608" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="609"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="605" t="s">
+      <c r="H3" s="610" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="605"/>
+      <c r="I3" s="610"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="642" t="s">
+      <c r="P3" s="647" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="663" t="s">
+      <c r="R3" s="668" t="s">
         <v>216</v>
       </c>
     </row>
@@ -39218,14 +39300,14 @@
       <c r="D4" s="18">
         <v>44507</v>
       </c>
-      <c r="E4" s="606" t="s">
+      <c r="E4" s="611" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="607"/>
-      <c r="H4" s="608" t="s">
+      <c r="F4" s="612"/>
+      <c r="H4" s="613" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="609"/>
+      <c r="I4" s="614"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -39235,15 +39317,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="643"/>
+      <c r="P4" s="648"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="664"/>
-      <c r="W4" s="652" t="s">
+      <c r="R4" s="669"/>
+      <c r="W4" s="657" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="652"/>
+      <c r="X4" s="657"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -39304,8 +39386,8 @@
       <c r="S5" s="324" t="s">
         <v>213</v>
       </c>
-      <c r="W5" s="652"/>
-      <c r="X5" s="652"/>
+      <c r="W5" s="657"/>
+      <c r="X5" s="657"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -40062,7 +40144,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="656">
+      <c r="W19" s="661">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -40114,7 +40196,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="657"/>
+      <c r="W20" s="662"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -40163,8 +40245,8 @@
         <v>0</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="658"/>
-      <c r="X21" s="658"/>
+      <c r="W21" s="663"/>
+      <c r="X21" s="663"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -40265,8 +40347,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="659"/>
-      <c r="X23" s="659"/>
+      <c r="W23" s="664"/>
+      <c r="X23" s="664"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -40317,8 +40399,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="659"/>
-      <c r="X24" s="659"/>
+      <c r="W24" s="664"/>
+      <c r="X24" s="664"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -40364,8 +40446,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="660"/>
-      <c r="X25" s="660"/>
+      <c r="W25" s="665"/>
+      <c r="X25" s="665"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -40413,8 +40495,8 @@
       <c r="R26" s="319">
         <v>0</v>
       </c>
-      <c r="W26" s="660"/>
-      <c r="X26" s="660"/>
+      <c r="W26" s="665"/>
+      <c r="X26" s="665"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -40474,9 +40556,9 @@
       <c r="V27" t="s">
         <v>240</v>
       </c>
-      <c r="W27" s="653"/>
-      <c r="X27" s="654"/>
-      <c r="Y27" s="655"/>
+      <c r="W27" s="658"/>
+      <c r="X27" s="659"/>
+      <c r="Y27" s="660"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -40530,9 +40612,9 @@
       <c r="V28" t="s">
         <v>240</v>
       </c>
-      <c r="W28" s="654"/>
-      <c r="X28" s="654"/>
-      <c r="Y28" s="655"/>
+      <c r="W28" s="659"/>
+      <c r="X28" s="659"/>
+      <c r="Y28" s="660"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -40848,11 +40930,11 @@
       <c r="J36" s="266"/>
       <c r="K36" s="250"/>
       <c r="L36" s="44"/>
-      <c r="M36" s="644">
+      <c r="M36" s="649">
         <f>SUM(M5:M35)</f>
         <v>1077791.3</v>
       </c>
-      <c r="N36" s="646">
+      <c r="N36" s="651">
         <f>SUM(N5:N35)</f>
         <v>936398</v>
       </c>
@@ -40860,7 +40942,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="648">
+      <c r="Q36" s="653">
         <f>SUM(Q5:Q35)</f>
         <v>-14262.940000000002</v>
       </c>
@@ -40879,13 +40961,13 @@
       <c r="J37" s="60"/>
       <c r="K37" s="41"/>
       <c r="L37" s="61"/>
-      <c r="M37" s="645"/>
-      <c r="N37" s="647"/>
+      <c r="M37" s="650"/>
+      <c r="N37" s="652"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="649"/>
+      <c r="Q37" s="654"/>
     </row>
     <row r="38" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="23"/>
@@ -41159,26 +41241,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="621" t="s">
+      <c r="H52" s="626" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="622"/>
+      <c r="I52" s="627"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="623">
+      <c r="K52" s="628">
         <f>I50+L50</f>
         <v>90750.75</v>
       </c>
-      <c r="L52" s="650"/>
+      <c r="L52" s="655"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D53" s="627" t="s">
+      <c r="D53" s="632" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="627"/>
+      <c r="E53" s="632"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
         <v>1739855.03</v>
@@ -41187,29 +41269,29 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="651" t="s">
+      <c r="D54" s="656" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="651"/>
+      <c r="E54" s="656"/>
       <c r="F54" s="111">
         <v>-1567070.66</v>
       </c>
-      <c r="I54" s="628" t="s">
+      <c r="I54" s="633" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="629"/>
-      <c r="K54" s="630">
+      <c r="J54" s="634"/>
+      <c r="K54" s="635">
         <f>F56+F57+F58</f>
         <v>703192.8600000001</v>
       </c>
-      <c r="L54" s="630"/>
-      <c r="M54" s="636" t="s">
+      <c r="L54" s="635"/>
+      <c r="M54" s="641" t="s">
         <v>211</v>
       </c>
-      <c r="N54" s="637"/>
-      <c r="O54" s="637"/>
-      <c r="P54" s="637"/>
-      <c r="Q54" s="638"/>
+      <c r="N54" s="642"/>
+      <c r="O54" s="642"/>
+      <c r="P54" s="642"/>
+      <c r="Q54" s="643"/>
     </row>
     <row r="55" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D55" s="313" t="s">
@@ -41223,11 +41305,11 @@
       <c r="J55" s="106"/>
       <c r="K55" s="178"/>
       <c r="L55" s="107"/>
-      <c r="M55" s="639"/>
-      <c r="N55" s="640"/>
-      <c r="O55" s="640"/>
-      <c r="P55" s="640"/>
-      <c r="Q55" s="641"/>
+      <c r="M55" s="644"/>
+      <c r="N55" s="645"/>
+      <c r="O55" s="645"/>
+      <c r="P55" s="645"/>
+      <c r="Q55" s="646"/>
     </row>
     <row r="56" spans="1:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C56" s="4" t="s">
@@ -41245,11 +41327,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="632">
+      <c r="K56" s="637">
         <f>-C4</f>
         <v>-567389.35</v>
       </c>
-      <c r="L56" s="633"/>
+      <c r="L56" s="638"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -41266,22 +41348,22 @@
       <c r="C58" s="112">
         <v>44563</v>
       </c>
-      <c r="D58" s="610" t="s">
+      <c r="D58" s="615" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="611"/>
+      <c r="E58" s="616"/>
       <c r="F58" s="113">
         <v>754143.23</v>
       </c>
-      <c r="I58" s="612" t="s">
+      <c r="I58" s="617" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="613"/>
-      <c r="K58" s="614">
+      <c r="J58" s="618"/>
+      <c r="K58" s="619">
         <f>K54+K56</f>
         <v>135803.51000000013</v>
       </c>
-      <c r="L58" s="614"/>
+      <c r="L58" s="619"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -43844,7 +43926,7 @@
       <c r="C75" s="214"/>
       <c r="D75" s="256"/>
       <c r="E75" s="3"/>
-      <c r="F75" s="661" t="s">
+      <c r="F75" s="666" t="s">
         <v>207</v>
       </c>
       <c r="K75" s="1"/>
@@ -43857,7 +43939,7 @@
       <c r="C76" s="1"/>
       <c r="D76" s="256"/>
       <c r="E76" s="3"/>
-      <c r="F76" s="662"/>
+      <c r="F76" s="667"/>
       <c r="K76" s="1"/>
       <c r="L76" s="256"/>
       <c r="M76" s="3"/>
@@ -44149,23 +44231,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="599"/>
-      <c r="C1" s="665" t="s">
+      <c r="B1" s="604"/>
+      <c r="C1" s="670" t="s">
         <v>316</v>
       </c>
-      <c r="D1" s="666"/>
-      <c r="E1" s="666"/>
-      <c r="F1" s="666"/>
-      <c r="G1" s="666"/>
-      <c r="H1" s="666"/>
-      <c r="I1" s="666"/>
-      <c r="J1" s="666"/>
-      <c r="K1" s="666"/>
-      <c r="L1" s="666"/>
-      <c r="M1" s="666"/>
+      <c r="D1" s="671"/>
+      <c r="E1" s="671"/>
+      <c r="F1" s="671"/>
+      <c r="G1" s="671"/>
+      <c r="H1" s="671"/>
+      <c r="I1" s="671"/>
+      <c r="J1" s="671"/>
+      <c r="K1" s="671"/>
+      <c r="L1" s="671"/>
+      <c r="M1" s="671"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="600"/>
+      <c r="B2" s="605"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -44175,24 +44257,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="603" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="604"/>
+      <c r="B3" s="608" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="609"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="605" t="s">
+      <c r="H3" s="610" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="605"/>
+      <c r="I3" s="610"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="642" t="s">
+      <c r="P3" s="647" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="663" t="s">
+      <c r="R3" s="668" t="s">
         <v>216</v>
       </c>
     </row>
@@ -44207,14 +44289,14 @@
       <c r="D4" s="18">
         <v>44563</v>
       </c>
-      <c r="E4" s="606" t="s">
+      <c r="E4" s="611" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="607"/>
-      <c r="H4" s="608" t="s">
+      <c r="F4" s="612"/>
+      <c r="H4" s="613" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="609"/>
+      <c r="I4" s="614"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -44224,15 +44306,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="643"/>
+      <c r="P4" s="648"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="664"/>
-      <c r="W4" s="652" t="s">
+      <c r="R4" s="669"/>
+      <c r="W4" s="657" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="652"/>
+      <c r="X4" s="657"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -44283,8 +44365,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="324"/>
-      <c r="W5" s="652"/>
-      <c r="X5" s="652"/>
+      <c r="W5" s="657"/>
+      <c r="X5" s="657"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -45048,7 +45130,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="656">
+      <c r="W19" s="661">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -45101,7 +45183,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="657"/>
+      <c r="W20" s="662"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -45150,8 +45232,8 @@
         <v>377273.87</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="658"/>
-      <c r="X21" s="658"/>
+      <c r="W21" s="663"/>
+      <c r="X21" s="663"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -45251,8 +45333,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="659"/>
-      <c r="X23" s="659"/>
+      <c r="W23" s="664"/>
+      <c r="X23" s="664"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -45307,8 +45389,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="659"/>
-      <c r="X24" s="659"/>
+      <c r="W24" s="664"/>
+      <c r="X24" s="664"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -45353,8 +45435,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="660"/>
-      <c r="X25" s="660"/>
+      <c r="W25" s="665"/>
+      <c r="X25" s="665"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -45402,8 +45484,8 @@
       <c r="R26" s="319">
         <v>0</v>
       </c>
-      <c r="W26" s="660"/>
-      <c r="X26" s="660"/>
+      <c r="W26" s="665"/>
+      <c r="X26" s="665"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -45457,9 +45539,9 @@
       <c r="V27" t="s">
         <v>240</v>
       </c>
-      <c r="W27" s="653"/>
-      <c r="X27" s="654"/>
-      <c r="Y27" s="655"/>
+      <c r="W27" s="658"/>
+      <c r="X27" s="659"/>
+      <c r="Y27" s="660"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -45513,9 +45595,9 @@
       <c r="V28" t="s">
         <v>240</v>
       </c>
-      <c r="W28" s="654"/>
-      <c r="X28" s="654"/>
-      <c r="Y28" s="655"/>
+      <c r="W28" s="659"/>
+      <c r="X28" s="659"/>
+      <c r="Y28" s="660"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -45826,11 +45908,11 @@
       <c r="L36" s="44">
         <v>13275.84</v>
       </c>
-      <c r="M36" s="644">
+      <c r="M36" s="649">
         <f>SUM(M5:M35)</f>
         <v>1818445.73</v>
       </c>
-      <c r="N36" s="646">
+      <c r="N36" s="651">
         <f>SUM(N5:N35)</f>
         <v>739014</v>
       </c>
@@ -45838,7 +45920,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="648">
+      <c r="Q36" s="653">
         <f>SUM(Q5:Q35)</f>
         <v>-7.2800000000133878</v>
       </c>
@@ -45863,13 +45945,13 @@
       <c r="L37" s="61">
         <v>15060.32</v>
       </c>
-      <c r="M37" s="645"/>
-      <c r="N37" s="647"/>
+      <c r="M37" s="650"/>
+      <c r="N37" s="652"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="649"/>
+      <c r="Q37" s="654"/>
       <c r="R37" s="227" t="s">
         <v>7</v>
       </c>
@@ -46162,26 +46244,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="621" t="s">
+      <c r="H52" s="626" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="622"/>
+      <c r="I52" s="627"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="623">
+      <c r="K52" s="628">
         <f>I50+L50</f>
         <v>158798.12</v>
       </c>
-      <c r="L52" s="650"/>
+      <c r="L52" s="655"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="627" t="s">
+      <c r="D53" s="632" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="627"/>
+      <c r="E53" s="632"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
         <v>2078470.75</v>
@@ -46190,22 +46272,22 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="651" t="s">
+      <c r="D54" s="656" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="651"/>
+      <c r="E54" s="656"/>
       <c r="F54" s="111">
         <v>-1448401.2</v>
       </c>
-      <c r="I54" s="628" t="s">
+      <c r="I54" s="633" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="629"/>
-      <c r="K54" s="630">
+      <c r="J54" s="634"/>
+      <c r="K54" s="635">
         <f>F56+F57+F58</f>
         <v>1025960.7</v>
       </c>
-      <c r="L54" s="630"/>
+      <c r="L54" s="635"/>
       <c r="M54" s="404"/>
       <c r="N54" s="404"/>
       <c r="O54" s="404"/>
@@ -46246,11 +46328,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="632">
+      <c r="K56" s="637">
         <f>-C4</f>
         <v>-754143.23</v>
       </c>
-      <c r="L56" s="633"/>
+      <c r="L56" s="638"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -46267,22 +46349,22 @@
       <c r="C58" s="112">
         <v>44591</v>
       </c>
-      <c r="D58" s="610" t="s">
+      <c r="D58" s="615" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="611"/>
+      <c r="E58" s="616"/>
       <c r="F58" s="113">
         <v>1149740.4099999999</v>
       </c>
-      <c r="I58" s="612" t="s">
+      <c r="I58" s="617" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="613"/>
-      <c r="K58" s="614">
+      <c r="J58" s="618"/>
+      <c r="K58" s="619">
         <f>K54+K56</f>
         <v>271817.46999999997</v>
       </c>
-      <c r="L58" s="614"/>
+      <c r="L58" s="619"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -48151,12 +48233,12 @@
     </row>
     <row r="43" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="245"/>
-      <c r="B43" s="667" t="s">
+      <c r="B43" s="672" t="s">
         <v>413</v>
       </c>
-      <c r="C43" s="668"/>
-      <c r="D43" s="668"/>
-      <c r="E43" s="669"/>
+      <c r="C43" s="673"/>
+      <c r="D43" s="673"/>
+      <c r="E43" s="674"/>
       <c r="F43" s="392">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -48184,10 +48266,10 @@
     </row>
     <row r="44" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="245"/>
-      <c r="B44" s="670"/>
-      <c r="C44" s="671"/>
-      <c r="D44" s="671"/>
-      <c r="E44" s="672"/>
+      <c r="B44" s="675"/>
+      <c r="C44" s="676"/>
+      <c r="D44" s="676"/>
+      <c r="E44" s="677"/>
       <c r="F44" s="392">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -48215,10 +48297,10 @@
     </row>
     <row r="45" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="245"/>
-      <c r="B45" s="673"/>
-      <c r="C45" s="674"/>
-      <c r="D45" s="674"/>
-      <c r="E45" s="675"/>
+      <c r="B45" s="678"/>
+      <c r="C45" s="679"/>
+      <c r="D45" s="679"/>
+      <c r="E45" s="680"/>
       <c r="F45" s="392">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -48261,10 +48343,10 @@
     </row>
     <row r="47" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="245"/>
-      <c r="B47" s="682" t="s">
+      <c r="B47" s="687" t="s">
         <v>593</v>
       </c>
-      <c r="C47" s="683"/>
+      <c r="C47" s="688"/>
       <c r="D47" s="253"/>
       <c r="E47" s="69"/>
       <c r="F47" s="137">
@@ -48286,8 +48368,8 @@
     </row>
     <row r="48" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="245"/>
-      <c r="B48" s="684"/>
-      <c r="C48" s="685"/>
+      <c r="B48" s="689"/>
+      <c r="C48" s="690"/>
       <c r="D48" s="253"/>
       <c r="E48" s="69"/>
       <c r="F48" s="137">
@@ -48295,11 +48377,11 @@
         <v>0</v>
       </c>
       <c r="I48" s="348"/>
-      <c r="J48" s="676" t="s">
+      <c r="J48" s="681" t="s">
         <v>414</v>
       </c>
-      <c r="K48" s="677"/>
-      <c r="L48" s="678"/>
+      <c r="K48" s="682"/>
+      <c r="L48" s="683"/>
       <c r="M48" s="206"/>
       <c r="N48" s="137">
         <f>N47+K48-M48</f>
@@ -48317,9 +48399,9 @@
         <v>0</v>
       </c>
       <c r="I49" s="348"/>
-      <c r="J49" s="679"/>
-      <c r="K49" s="680"/>
-      <c r="L49" s="681"/>
+      <c r="J49" s="684"/>
+      <c r="K49" s="685"/>
+      <c r="L49" s="686"/>
       <c r="M49" s="206"/>
       <c r="N49" s="137">
         <f t="shared" si="1"/>
@@ -48336,10 +48418,10 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I50" s="686" t="s">
+      <c r="I50" s="691" t="s">
         <v>594</v>
       </c>
-      <c r="J50" s="687"/>
+      <c r="J50" s="692"/>
       <c r="K50" s="215">
         <v>0</v>
       </c>
@@ -48360,8 +48442,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I51" s="686"/>
-      <c r="J51" s="687"/>
+      <c r="I51" s="691"/>
+      <c r="J51" s="692"/>
       <c r="K51" s="69"/>
       <c r="L51" s="253"/>
       <c r="M51" s="69"/>
@@ -48380,8 +48462,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I52" s="686"/>
-      <c r="J52" s="687"/>
+      <c r="I52" s="691"/>
+      <c r="J52" s="692"/>
       <c r="K52" s="69"/>
       <c r="L52" s="253"/>
       <c r="M52" s="69"/>
@@ -48400,8 +48482,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I53" s="686"/>
-      <c r="J53" s="687"/>
+      <c r="I53" s="691"/>
+      <c r="J53" s="692"/>
       <c r="K53" s="69"/>
       <c r="L53" s="253"/>
       <c r="M53" s="69"/>
@@ -48420,8 +48502,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I54" s="686"/>
-      <c r="J54" s="687"/>
+      <c r="I54" s="691"/>
+      <c r="J54" s="692"/>
       <c r="K54" s="69"/>
       <c r="L54" s="253"/>
       <c r="M54" s="69"/>
@@ -48440,8 +48522,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I55" s="686"/>
-      <c r="J55" s="687"/>
+      <c r="I55" s="691"/>
+      <c r="J55" s="692"/>
       <c r="K55" s="69"/>
       <c r="L55" s="253"/>
       <c r="M55" s="69"/>
@@ -48460,8 +48542,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I56" s="686"/>
-      <c r="J56" s="687"/>
+      <c r="I56" s="691"/>
+      <c r="J56" s="692"/>
       <c r="K56" s="69"/>
       <c r="L56" s="253"/>
       <c r="M56" s="69"/>
@@ -48480,8 +48562,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I57" s="686"/>
-      <c r="J57" s="687"/>
+      <c r="I57" s="691"/>
+      <c r="J57" s="692"/>
       <c r="K57" s="69"/>
       <c r="L57" s="253"/>
       <c r="M57" s="69"/>
@@ -48500,8 +48582,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I58" s="686"/>
-      <c r="J58" s="687"/>
+      <c r="I58" s="691"/>
+      <c r="J58" s="692"/>
       <c r="K58" s="69"/>
       <c r="L58" s="253"/>
       <c r="M58" s="69"/>
@@ -48520,8 +48602,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I59" s="686"/>
-      <c r="J59" s="687"/>
+      <c r="I59" s="691"/>
+      <c r="J59" s="692"/>
       <c r="K59" s="69"/>
       <c r="L59" s="253"/>
       <c r="M59" s="69"/>
@@ -48540,8 +48622,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I60" s="686"/>
-      <c r="J60" s="687"/>
+      <c r="I60" s="691"/>
+      <c r="J60" s="692"/>
       <c r="K60" s="69"/>
       <c r="L60" s="253"/>
       <c r="M60" s="69"/>
@@ -48560,8 +48642,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I61" s="686"/>
-      <c r="J61" s="687"/>
+      <c r="I61" s="691"/>
+      <c r="J61" s="692"/>
       <c r="K61" s="69"/>
       <c r="L61" s="253"/>
       <c r="M61" s="69"/>
@@ -48580,8 +48662,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I62" s="686"/>
-      <c r="J62" s="687"/>
+      <c r="I62" s="691"/>
+      <c r="J62" s="692"/>
       <c r="K62" s="34"/>
       <c r="L62" s="118"/>
       <c r="M62" s="34"/>
@@ -48600,8 +48682,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I63" s="686"/>
-      <c r="J63" s="687"/>
+      <c r="I63" s="691"/>
+      <c r="J63" s="692"/>
       <c r="K63" s="34"/>
       <c r="L63" s="118"/>
       <c r="M63" s="34"/>
@@ -48620,8 +48702,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I64" s="686"/>
-      <c r="J64" s="687"/>
+      <c r="I64" s="691"/>
+      <c r="J64" s="692"/>
       <c r="K64" s="34"/>
       <c r="L64" s="118"/>
       <c r="M64" s="34"/>
@@ -48640,8 +48722,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I65" s="686"/>
-      <c r="J65" s="687"/>
+      <c r="I65" s="691"/>
+      <c r="J65" s="692"/>
       <c r="K65" s="34"/>
       <c r="L65" s="118"/>
       <c r="M65" s="34"/>
@@ -48660,8 +48742,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I66" s="686"/>
-      <c r="J66" s="687"/>
+      <c r="I66" s="691"/>
+      <c r="J66" s="692"/>
       <c r="K66" s="34"/>
       <c r="L66" s="118"/>
       <c r="M66" s="34"/>
@@ -48680,8 +48762,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I67" s="686"/>
-      <c r="J67" s="687"/>
+      <c r="I67" s="691"/>
+      <c r="J67" s="692"/>
       <c r="K67" s="34"/>
       <c r="L67" s="118"/>
       <c r="M67" s="34"/>
@@ -48700,8 +48782,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I68" s="686"/>
-      <c r="J68" s="687"/>
+      <c r="I68" s="691"/>
+      <c r="J68" s="692"/>
       <c r="K68" s="69"/>
       <c r="L68" s="254"/>
       <c r="M68" s="69"/>
@@ -48720,8 +48802,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I69" s="686"/>
-      <c r="J69" s="687"/>
+      <c r="I69" s="691"/>
+      <c r="J69" s="692"/>
       <c r="K69" s="69"/>
       <c r="L69" s="254"/>
       <c r="M69" s="69"/>
@@ -48740,8 +48822,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I70" s="686"/>
-      <c r="J70" s="687"/>
+      <c r="I70" s="691"/>
+      <c r="J70" s="692"/>
       <c r="K70" s="69"/>
       <c r="L70" s="254"/>
       <c r="M70" s="69"/>
@@ -48760,8 +48842,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I71" s="686"/>
-      <c r="J71" s="687"/>
+      <c r="I71" s="691"/>
+      <c r="J71" s="692"/>
       <c r="K71" s="69"/>
       <c r="L71" s="254"/>
       <c r="M71" s="69"/>
@@ -48780,8 +48862,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I72" s="686"/>
-      <c r="J72" s="687"/>
+      <c r="I72" s="691"/>
+      <c r="J72" s="692"/>
       <c r="K72" s="69"/>
       <c r="L72" s="254"/>
       <c r="M72" s="69"/>
@@ -48800,8 +48882,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I73" s="686"/>
-      <c r="J73" s="687"/>
+      <c r="I73" s="691"/>
+      <c r="J73" s="692"/>
       <c r="K73" s="69"/>
       <c r="L73" s="254"/>
       <c r="M73" s="69"/>
@@ -48820,8 +48902,8 @@
         <f>F73+C74-E74</f>
         <v>0</v>
       </c>
-      <c r="I74" s="686"/>
-      <c r="J74" s="687"/>
+      <c r="I74" s="691"/>
+      <c r="J74" s="692"/>
       <c r="K74" s="69"/>
       <c r="L74" s="254"/>
       <c r="M74" s="69"/>
@@ -48840,8 +48922,8 @@
         <f>F74+C75-E75</f>
         <v>0</v>
       </c>
-      <c r="I75" s="686"/>
-      <c r="J75" s="687"/>
+      <c r="I75" s="691"/>
+      <c r="J75" s="692"/>
       <c r="K75" s="69"/>
       <c r="L75" s="254"/>
       <c r="M75" s="69"/>
@@ -48860,8 +48942,8 @@
         <f>F75+C76-E76</f>
         <v>0</v>
       </c>
-      <c r="I76" s="686"/>
-      <c r="J76" s="687"/>
+      <c r="I76" s="691"/>
+      <c r="J76" s="692"/>
       <c r="K76" s="69"/>
       <c r="L76" s="254"/>
       <c r="M76" s="69"/>
@@ -48880,8 +48962,8 @@
         <f>F76+C77-E77</f>
         <v>0</v>
       </c>
-      <c r="I77" s="686"/>
-      <c r="J77" s="687"/>
+      <c r="I77" s="691"/>
+      <c r="J77" s="692"/>
       <c r="K77" s="69"/>
       <c r="L77" s="254"/>
       <c r="M77" s="69"/>
@@ -48902,8 +48984,8 @@
         <f>F77+C78-E78</f>
         <v>0</v>
       </c>
-      <c r="I78" s="688"/>
-      <c r="J78" s="689"/>
+      <c r="I78" s="693"/>
+      <c r="J78" s="694"/>
       <c r="K78" s="151">
         <v>0</v>
       </c>
@@ -48948,7 +49030,7 @@
       <c r="C80" s="214"/>
       <c r="D80" s="256"/>
       <c r="E80" s="3"/>
-      <c r="F80" s="661" t="s">
+      <c r="F80" s="666" t="s">
         <v>207</v>
       </c>
       <c r="K80" s="1"/>
@@ -48960,7 +49042,7 @@
       <c r="C81" s="1"/>
       <c r="D81" s="256"/>
       <c r="E81" s="3"/>
-      <c r="F81" s="662"/>
+      <c r="F81" s="667"/>
       <c r="K81" s="1"/>
       <c r="M81" s="3"/>
       <c r="N81" s="1"/>
@@ -49248,23 +49330,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="599"/>
-      <c r="C1" s="665" t="s">
+      <c r="B1" s="604"/>
+      <c r="C1" s="670" t="s">
         <v>646</v>
       </c>
-      <c r="D1" s="666"/>
-      <c r="E1" s="666"/>
-      <c r="F1" s="666"/>
-      <c r="G1" s="666"/>
-      <c r="H1" s="666"/>
-      <c r="I1" s="666"/>
-      <c r="J1" s="666"/>
-      <c r="K1" s="666"/>
-      <c r="L1" s="666"/>
-      <c r="M1" s="666"/>
+      <c r="D1" s="671"/>
+      <c r="E1" s="671"/>
+      <c r="F1" s="671"/>
+      <c r="G1" s="671"/>
+      <c r="H1" s="671"/>
+      <c r="I1" s="671"/>
+      <c r="J1" s="671"/>
+      <c r="K1" s="671"/>
+      <c r="L1" s="671"/>
+      <c r="M1" s="671"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="600"/>
+      <c r="B2" s="605"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -49274,24 +49356,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="603" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="604"/>
+      <c r="B3" s="608" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="609"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="605" t="s">
+      <c r="H3" s="610" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="605"/>
+      <c r="I3" s="610"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="642" t="s">
+      <c r="P3" s="647" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="663" t="s">
+      <c r="R3" s="668" t="s">
         <v>216</v>
       </c>
     </row>
@@ -49306,14 +49388,14 @@
       <c r="D4" s="18">
         <v>44591</v>
       </c>
-      <c r="E4" s="606" t="s">
+      <c r="E4" s="611" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="607"/>
-      <c r="H4" s="608" t="s">
+      <c r="F4" s="612"/>
+      <c r="H4" s="613" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="609"/>
+      <c r="I4" s="614"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -49323,15 +49405,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="643"/>
+      <c r="P4" s="648"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="664"/>
-      <c r="W4" s="652" t="s">
+      <c r="R4" s="669"/>
+      <c r="W4" s="657" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="652"/>
+      <c r="X4" s="657"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -49382,8 +49464,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="324"/>
-      <c r="W5" s="652"/>
-      <c r="X5" s="652"/>
+      <c r="W5" s="657"/>
+      <c r="X5" s="657"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -50144,7 +50226,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="656">
+      <c r="W19" s="661">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -50196,7 +50278,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="657"/>
+      <c r="W20" s="662"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -50245,8 +50327,8 @@
         <v>18072</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="658"/>
-      <c r="X21" s="658"/>
+      <c r="W21" s="663"/>
+      <c r="X21" s="663"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -50345,8 +50427,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="659"/>
-      <c r="X23" s="659"/>
+      <c r="W23" s="664"/>
+      <c r="X23" s="664"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -50401,8 +50483,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="659"/>
-      <c r="X24" s="659"/>
+      <c r="W24" s="664"/>
+      <c r="X24" s="664"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -50450,8 +50532,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="660"/>
-      <c r="X25" s="660"/>
+      <c r="W25" s="665"/>
+      <c r="X25" s="665"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -50499,8 +50581,8 @@
       <c r="R26" s="319">
         <v>0</v>
       </c>
-      <c r="W26" s="660"/>
-      <c r="X26" s="660"/>
+      <c r="W26" s="665"/>
+      <c r="X26" s="665"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -50548,9 +50630,9 @@
       <c r="R27" s="319">
         <v>0</v>
       </c>
-      <c r="W27" s="653"/>
-      <c r="X27" s="654"/>
-      <c r="Y27" s="655"/>
+      <c r="W27" s="658"/>
+      <c r="X27" s="659"/>
+      <c r="Y27" s="660"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -50598,9 +50680,9 @@
       <c r="R28" s="319">
         <v>0</v>
       </c>
-      <c r="W28" s="654"/>
-      <c r="X28" s="654"/>
-      <c r="Y28" s="655"/>
+      <c r="W28" s="659"/>
+      <c r="X28" s="659"/>
+      <c r="Y28" s="660"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -50941,11 +51023,11 @@
       <c r="J36" s="266"/>
       <c r="K36" s="250"/>
       <c r="L36" s="44"/>
-      <c r="M36" s="644">
+      <c r="M36" s="649">
         <f>SUM(M5:M35)</f>
         <v>2143864.4900000002</v>
       </c>
-      <c r="N36" s="646">
+      <c r="N36" s="651">
         <f>SUM(N5:N35)</f>
         <v>791108</v>
       </c>
@@ -50953,7 +51035,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="690">
+      <c r="Q36" s="695">
         <f>SUM(Q5:Q35)</f>
         <v>111.43999999999505</v>
       </c>
@@ -50978,13 +51060,13 @@
       <c r="L37" s="61">
         <v>16518.78</v>
       </c>
-      <c r="M37" s="645"/>
-      <c r="N37" s="647"/>
+      <c r="M37" s="650"/>
+      <c r="N37" s="652"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="691"/>
+      <c r="Q37" s="696"/>
       <c r="R37" s="227" t="s">
         <v>7</v>
       </c>
@@ -51034,11 +51116,11 @@
       <c r="L39" s="61">
         <v>14981.03</v>
       </c>
-      <c r="M39" s="692">
+      <c r="M39" s="697">
         <f>M36+N36</f>
         <v>2934972.49</v>
       </c>
-      <c r="N39" s="693"/>
+      <c r="N39" s="698"/>
       <c r="P39" s="34">
         <f>SUM(P5:P38)</f>
         <v>3450079.65</v>
@@ -51286,26 +51368,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="621" t="s">
+      <c r="H52" s="626" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="622"/>
+      <c r="I52" s="627"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="623">
+      <c r="K52" s="628">
         <f>I50+L50</f>
         <v>197471.8</v>
       </c>
-      <c r="L52" s="650"/>
+      <c r="L52" s="655"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="627" t="s">
+      <c r="D53" s="632" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="627"/>
+      <c r="E53" s="632"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
         <v>2057786.11</v>
@@ -51314,22 +51396,22 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="651" t="s">
+      <c r="D54" s="656" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="651"/>
+      <c r="E54" s="656"/>
       <c r="F54" s="111">
         <v>-1702928.14</v>
       </c>
-      <c r="I54" s="628" t="s">
+      <c r="I54" s="633" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="629"/>
-      <c r="K54" s="630">
+      <c r="J54" s="634"/>
+      <c r="K54" s="635">
         <f>F56+F57+F58</f>
         <v>1147965.3400000003</v>
       </c>
-      <c r="L54" s="630"/>
+      <c r="L54" s="635"/>
       <c r="M54" s="404"/>
       <c r="N54" s="404"/>
       <c r="O54" s="404"/>
@@ -51370,11 +51452,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="632">
+      <c r="K56" s="637">
         <f>-C4</f>
         <v>-1149740.4099999999</v>
       </c>
-      <c r="L56" s="633"/>
+      <c r="L56" s="638"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -51391,22 +51473,22 @@
       <c r="C58" s="112">
         <v>44619</v>
       </c>
-      <c r="D58" s="610" t="s">
+      <c r="D58" s="615" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="611"/>
+      <c r="E58" s="616"/>
       <c r="F58" s="113">
         <v>1266568.45</v>
       </c>
-      <c r="I58" s="612" t="s">
+      <c r="I58" s="617" t="s">
         <v>97</v>
       </c>
-      <c r="J58" s="613"/>
-      <c r="K58" s="614">
+      <c r="J58" s="618"/>
+      <c r="K58" s="619">
         <f>K54+K56</f>
         <v>-1775.0699999995995</v>
       </c>
-      <c r="L58" s="614"/>
+      <c r="L58" s="619"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #05  MAYO  2022/BALANCE    ZAVALETA   MAYO    2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #05  MAYO  2022/BALANCE    ZAVALETA   MAYO    2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3690" yWindow="0" windowWidth="16605" windowHeight="10920" firstSheet="12" activeTab="12"/>
+    <workbookView xWindow="3690" yWindow="0" windowWidth="16605" windowHeight="10920" firstSheet="14" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="OCTUBRE      2 0 2 1     " sheetId="1" r:id="rId1"/>
@@ -6608,39 +6608,6 @@
     <xf numFmtId="44" fontId="48" fillId="0" borderId="88" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="33" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -6713,10 +6680,76 @@
     <xf numFmtId="44" fontId="12" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="1" fontId="43" fillId="6" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="43" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="33" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="33" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="14" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="14" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="33" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="13" fillId="0" borderId="57" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6760,39 +6793,6 @@
     </xf>
     <xf numFmtId="44" fontId="41" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="33" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="33" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="14" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="14" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="33" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="3" fillId="3" borderId="74" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -6986,20 +6986,20 @@
     <xf numFmtId="165" fontId="11" fillId="0" borderId="96" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="44" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="11" fillId="3" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -10968,23 +10968,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="648"/>
-      <c r="C1" s="650" t="s">
+      <c r="B1" s="672"/>
+      <c r="C1" s="674" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="651"/>
-      <c r="E1" s="651"/>
-      <c r="F1" s="651"/>
-      <c r="G1" s="651"/>
-      <c r="H1" s="651"/>
-      <c r="I1" s="651"/>
-      <c r="J1" s="651"/>
-      <c r="K1" s="651"/>
-      <c r="L1" s="651"/>
-      <c r="M1" s="651"/>
+      <c r="D1" s="675"/>
+      <c r="E1" s="675"/>
+      <c r="F1" s="675"/>
+      <c r="G1" s="675"/>
+      <c r="H1" s="675"/>
+      <c r="I1" s="675"/>
+      <c r="J1" s="675"/>
+      <c r="K1" s="675"/>
+      <c r="L1" s="675"/>
+      <c r="M1" s="675"/>
     </row>
     <row r="2" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="649"/>
+      <c r="B2" s="673"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -10994,17 +10994,17 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:19" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="652" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="653"/>
+      <c r="B3" s="676" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="677"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="654" t="s">
+      <c r="H3" s="678" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="654"/>
+      <c r="I3" s="678"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
@@ -11018,14 +11018,14 @@
         <v>0</v>
       </c>
       <c r="D4" s="18"/>
-      <c r="E4" s="655" t="s">
+      <c r="E4" s="679" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="656"/>
-      <c r="H4" s="657" t="s">
+      <c r="F4" s="680"/>
+      <c r="H4" s="681" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="658"/>
+      <c r="I4" s="682"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -11035,10 +11035,10 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="664" t="s">
+      <c r="P4" s="653" t="s">
         <v>6</v>
       </c>
-      <c r="Q4" s="665"/>
+      <c r="Q4" s="654"/>
     </row>
     <row r="5" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -12479,11 +12479,11 @@
       <c r="J39" s="60"/>
       <c r="K39" s="177"/>
       <c r="L39" s="61"/>
-      <c r="M39" s="666">
+      <c r="M39" s="655">
         <f>SUM(M5:M38)</f>
         <v>247061</v>
       </c>
-      <c r="N39" s="668">
+      <c r="N39" s="657">
         <f>SUM(N5:N38)</f>
         <v>172863</v>
       </c>
@@ -12509,8 +12509,8 @@
       <c r="J40" s="60"/>
       <c r="K40" s="41"/>
       <c r="L40" s="61"/>
-      <c r="M40" s="667"/>
-      <c r="N40" s="669"/>
+      <c r="M40" s="656"/>
+      <c r="N40" s="658"/>
       <c r="P40" s="34"/>
       <c r="Q40" s="9"/>
     </row>
@@ -12725,29 +12725,29 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="670" t="s">
+      <c r="H52" s="659" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="671"/>
+      <c r="I52" s="660"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="672">
+      <c r="K52" s="661">
         <f>I50+L50</f>
         <v>53873.49</v>
       </c>
-      <c r="L52" s="673"/>
-      <c r="M52" s="674">
+      <c r="L52" s="662"/>
+      <c r="M52" s="663">
         <f>N39+M39</f>
         <v>419924</v>
       </c>
-      <c r="N52" s="675"/>
+      <c r="N52" s="664"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D53" s="676" t="s">
+      <c r="D53" s="665" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="676"/>
+      <c r="E53" s="665"/>
       <c r="F53" s="101">
         <f>F50-K52-C50</f>
         <v>471038.61</v>
@@ -12758,22 +12758,22 @@
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="676" t="s">
+      <c r="D54" s="665" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="676"/>
+      <c r="E54" s="665"/>
       <c r="F54" s="96">
         <v>-549976.4</v>
       </c>
-      <c r="I54" s="677" t="s">
+      <c r="I54" s="666" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="678"/>
-      <c r="K54" s="679">
+      <c r="J54" s="667"/>
+      <c r="K54" s="668">
         <f>F56+F57+F58</f>
         <v>-24577.400000000023</v>
       </c>
-      <c r="L54" s="680"/>
+      <c r="L54" s="669"/>
       <c r="P54" s="34"/>
       <c r="Q54" s="9"/>
     </row>
@@ -12806,11 +12806,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="681">
+      <c r="K56" s="670">
         <f>-C4</f>
         <v>0</v>
       </c>
-      <c r="L56" s="682"/>
+      <c r="L56" s="671"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -12827,22 +12827,22 @@
       <c r="C58" s="112">
         <v>44507</v>
       </c>
-      <c r="D58" s="659" t="s">
+      <c r="D58" s="648" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="660"/>
+      <c r="E58" s="649"/>
       <c r="F58" s="113">
         <v>567389.35</v>
       </c>
-      <c r="I58" s="661" t="s">
+      <c r="I58" s="650" t="s">
         <v>97</v>
       </c>
-      <c r="J58" s="662"/>
-      <c r="K58" s="663">
+      <c r="J58" s="651"/>
+      <c r="K58" s="652">
         <f>K54+K56</f>
         <v>-24577.400000000023</v>
       </c>
-      <c r="L58" s="663"/>
+      <c r="L58" s="652"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -12986,6 +12986,12 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
     <mergeCell ref="D58:E58"/>
     <mergeCell ref="I58:J58"/>
     <mergeCell ref="K58:L58"/>
@@ -13000,12 +13006,6 @@
     <mergeCell ref="I54:J54"/>
     <mergeCell ref="K54:L54"/>
     <mergeCell ref="K56:L56"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.15748031496062992" top="0.35433070866141736" bottom="0.31496062992125984" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="75" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -15864,7 +15864,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="648"/>
+      <c r="B1" s="672"/>
       <c r="C1" s="714" t="s">
         <v>451</v>
       </c>
@@ -15880,7 +15880,7 @@
       <c r="M1" s="715"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="649"/>
+      <c r="B2" s="673"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -15890,21 +15890,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="652" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="653"/>
+      <c r="B3" s="676" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="677"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="654" t="s">
+      <c r="H3" s="678" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="654"/>
+      <c r="I3" s="678"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="691" t="s">
+      <c r="P3" s="702" t="s">
         <v>6</v>
       </c>
       <c r="R3" s="712" t="s">
@@ -15922,14 +15922,14 @@
       <c r="D4" s="18">
         <v>44619</v>
       </c>
-      <c r="E4" s="655" t="s">
+      <c r="E4" s="679" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="656"/>
-      <c r="H4" s="657" t="s">
+      <c r="F4" s="680"/>
+      <c r="H4" s="681" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="658"/>
+      <c r="I4" s="682"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -15939,15 +15939,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="692"/>
+      <c r="P4" s="703"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
       <c r="R4" s="713"/>
-      <c r="W4" s="701" t="s">
+      <c r="W4" s="685" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="701"/>
+      <c r="X4" s="685"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -15998,8 +15998,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="324"/>
-      <c r="W5" s="701"/>
-      <c r="X5" s="701"/>
+      <c r="W5" s="685"/>
+      <c r="X5" s="685"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -16762,7 +16762,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="705">
+      <c r="W19" s="689">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -16814,7 +16814,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="706"/>
+      <c r="W20" s="690"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -16863,8 +16863,8 @@
         <v>0</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="707"/>
-      <c r="X21" s="707"/>
+      <c r="W21" s="691"/>
+      <c r="X21" s="691"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -16964,8 +16964,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="708"/>
-      <c r="X23" s="708"/>
+      <c r="W23" s="692"/>
+      <c r="X23" s="692"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -17020,8 +17020,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="708"/>
-      <c r="X24" s="708"/>
+      <c r="W24" s="692"/>
+      <c r="X24" s="692"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -17069,8 +17069,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="709"/>
-      <c r="X25" s="709"/>
+      <c r="W25" s="693"/>
+      <c r="X25" s="693"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -17119,8 +17119,8 @@
       <c r="R26" s="319">
         <v>0</v>
       </c>
-      <c r="W26" s="709"/>
-      <c r="X26" s="709"/>
+      <c r="W26" s="693"/>
+      <c r="X26" s="693"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -17168,9 +17168,9 @@
       <c r="R27" s="388">
         <v>170</v>
       </c>
-      <c r="W27" s="702"/>
-      <c r="X27" s="703"/>
-      <c r="Y27" s="704"/>
+      <c r="W27" s="686"/>
+      <c r="X27" s="687"/>
+      <c r="Y27" s="688"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -17218,9 +17218,9 @@
       <c r="R28" s="388">
         <v>37374.36</v>
       </c>
-      <c r="W28" s="703"/>
-      <c r="X28" s="703"/>
-      <c r="Y28" s="704"/>
+      <c r="W28" s="687"/>
+      <c r="X28" s="687"/>
+      <c r="Y28" s="688"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -17552,11 +17552,11 @@
       <c r="J36" s="266"/>
       <c r="K36" s="250"/>
       <c r="L36" s="44"/>
-      <c r="M36" s="693">
+      <c r="M36" s="704">
         <f>SUM(M5:M35)</f>
         <v>2220612.02</v>
       </c>
-      <c r="N36" s="695">
+      <c r="N36" s="706">
         <f>SUM(N5:N35)</f>
         <v>833865</v>
       </c>
@@ -17589,8 +17589,8 @@
       <c r="J37" s="60"/>
       <c r="K37" s="41"/>
       <c r="L37" s="61"/>
-      <c r="M37" s="694"/>
-      <c r="N37" s="696"/>
+      <c r="M37" s="705"/>
+      <c r="N37" s="707"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
@@ -18277,26 +18277,26 @@
       <c r="A68" s="98"/>
       <c r="B68" s="99"/>
       <c r="C68" s="1"/>
-      <c r="H68" s="670" t="s">
+      <c r="H68" s="659" t="s">
         <v>11</v>
       </c>
-      <c r="I68" s="671"/>
+      <c r="I68" s="660"/>
       <c r="J68" s="100"/>
-      <c r="K68" s="672">
+      <c r="K68" s="661">
         <f>I66+L66</f>
         <v>314868.39999999997</v>
       </c>
-      <c r="L68" s="699"/>
+      <c r="L68" s="694"/>
       <c r="M68" s="272"/>
       <c r="N68" s="272"/>
       <c r="P68" s="34"/>
       <c r="Q68" s="13"/>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D69" s="676" t="s">
+      <c r="D69" s="665" t="s">
         <v>12</v>
       </c>
-      <c r="E69" s="676"/>
+      <c r="E69" s="665"/>
       <c r="F69" s="312">
         <f>F66-K68-C66</f>
         <v>1594593.8500000003</v>
@@ -18305,22 +18305,22 @@
       <c r="J69" s="103"/>
     </row>
     <row r="70" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D70" s="700" t="s">
+      <c r="D70" s="695" t="s">
         <v>95</v>
       </c>
-      <c r="E70" s="700"/>
+      <c r="E70" s="695"/>
       <c r="F70" s="111">
         <v>-1360260.32</v>
       </c>
-      <c r="I70" s="677" t="s">
+      <c r="I70" s="666" t="s">
         <v>13</v>
       </c>
-      <c r="J70" s="678"/>
-      <c r="K70" s="679">
+      <c r="J70" s="667"/>
+      <c r="K70" s="668">
         <f>F72+F73+F74</f>
         <v>1938640.11</v>
       </c>
-      <c r="L70" s="679"/>
+      <c r="L70" s="668"/>
       <c r="M70" s="404"/>
       <c r="N70" s="404"/>
       <c r="O70" s="404"/>
@@ -18361,11 +18361,11 @@
         <v>15</v>
       </c>
       <c r="J72" s="109"/>
-      <c r="K72" s="681">
+      <c r="K72" s="670">
         <f>-C4</f>
         <v>-1266568.45</v>
       </c>
-      <c r="L72" s="682"/>
+      <c r="L72" s="671"/>
     </row>
     <row r="73" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D73" s="110" t="s">
@@ -18382,22 +18382,22 @@
       <c r="C74" s="112">
         <v>44647</v>
       </c>
-      <c r="D74" s="659" t="s">
+      <c r="D74" s="648" t="s">
         <v>18</v>
       </c>
-      <c r="E74" s="660"/>
+      <c r="E74" s="649"/>
       <c r="F74" s="113">
         <v>1792817.68</v>
       </c>
-      <c r="I74" s="661" t="s">
+      <c r="I74" s="650" t="s">
         <v>198</v>
       </c>
-      <c r="J74" s="662"/>
-      <c r="K74" s="663">
+      <c r="J74" s="651"/>
+      <c r="K74" s="652">
         <f>K70+K72</f>
         <v>672071.66000000015</v>
       </c>
-      <c r="L74" s="663"/>
+      <c r="L74" s="652"/>
     </row>
     <row r="75" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C75" s="114"/>
@@ -18544,6 +18544,21 @@
     <sortCondition ref="B34:B42"/>
   </sortState>
   <mergeCells count="30">
+    <mergeCell ref="D74:E74"/>
+    <mergeCell ref="I74:J74"/>
+    <mergeCell ref="K74:L74"/>
+    <mergeCell ref="H68:I68"/>
+    <mergeCell ref="K68:L68"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="I70:J70"/>
+    <mergeCell ref="K70:L70"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="Q36:Q37"/>
+    <mergeCell ref="K72:L72"/>
+    <mergeCell ref="M39:N39"/>
     <mergeCell ref="W26:X26"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="W27:X28"/>
@@ -18559,21 +18574,6 @@
     <mergeCell ref="W21:X21"/>
     <mergeCell ref="W23:X24"/>
     <mergeCell ref="W25:X25"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="N36:N37"/>
-    <mergeCell ref="Q36:Q37"/>
-    <mergeCell ref="K72:L72"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="D74:E74"/>
-    <mergeCell ref="I74:J74"/>
-    <mergeCell ref="K74:L74"/>
-    <mergeCell ref="H68:I68"/>
-    <mergeCell ref="K68:L68"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="I70:J70"/>
-    <mergeCell ref="K70:L70"/>
   </mergeCells>
   <pageMargins left="0.27559055118110237" right="0.15748031496062992" top="0.39370078740157483" bottom="0.27559055118110237" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="80" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -21129,7 +21129,7 @@
   </sheetPr>
   <dimension ref="A1:Z98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+    <sheetView topLeftCell="A52" workbookViewId="0">
       <selection activeCell="I77" sqref="I77"/>
     </sheetView>
   </sheetViews>
@@ -21159,7 +21159,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="648"/>
+      <c r="B1" s="672"/>
       <c r="C1" s="714" t="s">
         <v>620</v>
       </c>
@@ -21175,7 +21175,7 @@
       <c r="M1" s="715"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="649"/>
+      <c r="B2" s="673"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -21185,21 +21185,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="652" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="653"/>
+      <c r="B3" s="676" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="677"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="654" t="s">
+      <c r="H3" s="678" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="654"/>
+      <c r="I3" s="678"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="691" t="s">
+      <c r="P3" s="702" t="s">
         <v>6</v>
       </c>
       <c r="R3" s="712" t="s">
@@ -21217,14 +21217,14 @@
       <c r="D4" s="18">
         <v>44647</v>
       </c>
-      <c r="E4" s="655" t="s">
+      <c r="E4" s="679" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="656"/>
-      <c r="H4" s="657" t="s">
+      <c r="F4" s="680"/>
+      <c r="H4" s="681" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="658"/>
+      <c r="I4" s="682"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -21234,15 +21234,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="692"/>
+      <c r="P4" s="703"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
       <c r="R4" s="713"/>
-      <c r="W4" s="701" t="s">
+      <c r="W4" s="685" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="701"/>
+      <c r="X4" s="685"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -21293,8 +21293,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="324"/>
-      <c r="W5" s="701"/>
-      <c r="X5" s="701"/>
+      <c r="W5" s="685"/>
+      <c r="X5" s="685"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -22053,7 +22053,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="705">
+      <c r="W19" s="689">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -22105,7 +22105,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="706"/>
+      <c r="W20" s="690"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -22154,8 +22154,8 @@
         <v>0</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="707"/>
-      <c r="X21" s="707"/>
+      <c r="W21" s="691"/>
+      <c r="X21" s="691"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -22252,8 +22252,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="708"/>
-      <c r="X23" s="708"/>
+      <c r="W23" s="692"/>
+      <c r="X23" s="692"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -22308,8 +22308,8 @@
         <v>642</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="708"/>
-      <c r="X24" s="708"/>
+      <c r="W24" s="692"/>
+      <c r="X24" s="692"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -22355,8 +22355,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="709"/>
-      <c r="X25" s="709"/>
+      <c r="W25" s="693"/>
+      <c r="X25" s="693"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -22407,8 +22407,8 @@
       <c r="R26" s="388">
         <v>73524.61</v>
       </c>
-      <c r="W26" s="709"/>
-      <c r="X26" s="709"/>
+      <c r="W26" s="693"/>
+      <c r="X26" s="693"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -22459,9 +22459,9 @@
       <c r="R27" s="319">
         <v>0</v>
       </c>
-      <c r="W27" s="702"/>
-      <c r="X27" s="703"/>
-      <c r="Y27" s="704"/>
+      <c r="W27" s="686"/>
+      <c r="X27" s="687"/>
+      <c r="Y27" s="688"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -22511,9 +22511,9 @@
       <c r="R28" s="319">
         <v>0</v>
       </c>
-      <c r="W28" s="703"/>
-      <c r="X28" s="703"/>
-      <c r="Y28" s="704"/>
+      <c r="W28" s="687"/>
+      <c r="X28" s="687"/>
+      <c r="Y28" s="688"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -23117,11 +23117,11 @@
       <c r="L41" s="627">
         <v>15798.5</v>
       </c>
-      <c r="M41" s="693">
+      <c r="M41" s="704">
         <f>SUM(M5:M40)</f>
         <v>2479367.6100000003</v>
       </c>
-      <c r="N41" s="693">
+      <c r="N41" s="704">
         <f>SUM(N5:N40)</f>
         <v>1195667</v>
       </c>
@@ -23159,8 +23159,8 @@
       <c r="L42" s="630">
         <v>15298.5</v>
       </c>
-      <c r="M42" s="694"/>
-      <c r="N42" s="694"/>
+      <c r="M42" s="705"/>
+      <c r="N42" s="705"/>
       <c r="P42" s="34"/>
       <c r="Q42" s="753"/>
     </row>
@@ -23847,26 +23847,26 @@
       <c r="A70" s="98"/>
       <c r="B70" s="99"/>
       <c r="C70" s="1"/>
-      <c r="H70" s="670" t="s">
+      <c r="H70" s="659" t="s">
         <v>11</v>
       </c>
-      <c r="I70" s="671"/>
+      <c r="I70" s="660"/>
       <c r="J70" s="100"/>
-      <c r="K70" s="672">
+      <c r="K70" s="661">
         <f>I68+L68</f>
         <v>428155.54000000004</v>
       </c>
-      <c r="L70" s="699"/>
+      <c r="L70" s="694"/>
       <c r="M70" s="272"/>
       <c r="N70" s="272"/>
       <c r="P70" s="34"/>
       <c r="Q70" s="13"/>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D71" s="676" t="s">
+      <c r="D71" s="665" t="s">
         <v>12</v>
       </c>
-      <c r="E71" s="676"/>
+      <c r="E71" s="665"/>
       <c r="F71" s="312">
         <f>F68-K70-C68</f>
         <v>1631087.67</v>
@@ -23876,22 +23876,22 @@
       <c r="P71" s="34"/>
     </row>
     <row r="72" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D72" s="700" t="s">
+      <c r="D72" s="695" t="s">
         <v>95</v>
       </c>
-      <c r="E72" s="700"/>
+      <c r="E72" s="695"/>
       <c r="F72" s="111">
         <v>-1884975.46</v>
       </c>
-      <c r="I72" s="677" t="s">
+      <c r="I72" s="666" t="s">
         <v>13</v>
       </c>
-      <c r="J72" s="678"/>
-      <c r="K72" s="679">
+      <c r="J72" s="667"/>
+      <c r="K72" s="668">
         <f>F74+F75+F76</f>
         <v>1777829.89</v>
       </c>
-      <c r="L72" s="679"/>
+      <c r="L72" s="668"/>
       <c r="M72" s="404"/>
       <c r="N72" s="404"/>
       <c r="O72" s="404"/>
@@ -23932,11 +23932,11 @@
         <v>15</v>
       </c>
       <c r="J74" s="109"/>
-      <c r="K74" s="681">
+      <c r="K74" s="670">
         <f>-C4</f>
         <v>-1792817.68</v>
       </c>
-      <c r="L74" s="682"/>
+      <c r="L74" s="671"/>
       <c r="P74" s="34"/>
     </row>
     <row r="75" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -23955,22 +23955,22 @@
       <c r="C76" s="112">
         <v>44682</v>
       </c>
-      <c r="D76" s="659" t="s">
+      <c r="D76" s="648" t="s">
         <v>18</v>
       </c>
-      <c r="E76" s="660"/>
+      <c r="E76" s="649"/>
       <c r="F76" s="113">
         <v>2112071.92</v>
       </c>
-      <c r="I76" s="661" t="s">
+      <c r="I76" s="650" t="s">
         <v>854</v>
       </c>
-      <c r="J76" s="662"/>
-      <c r="K76" s="663">
+      <c r="J76" s="651"/>
+      <c r="K76" s="652">
         <f>K72+K74</f>
         <v>-14987.790000000037</v>
       </c>
-      <c r="L76" s="663"/>
+      <c r="L76" s="652"/>
       <c r="P76" s="34"/>
     </row>
     <row r="77" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
@@ -24130,6 +24130,21 @@
     <sortCondition ref="J47:J67"/>
   </sortState>
   <mergeCells count="30">
+    <mergeCell ref="D76:E76"/>
+    <mergeCell ref="I76:J76"/>
+    <mergeCell ref="K76:L76"/>
+    <mergeCell ref="H70:I70"/>
+    <mergeCell ref="K70:L70"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="D72:E72"/>
+    <mergeCell ref="I72:J72"/>
+    <mergeCell ref="K72:L72"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="M41:M42"/>
+    <mergeCell ref="N41:N42"/>
+    <mergeCell ref="Q41:Q42"/>
+    <mergeCell ref="K74:L74"/>
+    <mergeCell ref="M45:N45"/>
     <mergeCell ref="W26:X26"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="W27:X28"/>
@@ -24145,21 +24160,6 @@
     <mergeCell ref="W21:X21"/>
     <mergeCell ref="W23:X24"/>
     <mergeCell ref="W25:X25"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="M41:M42"/>
-    <mergeCell ref="N41:N42"/>
-    <mergeCell ref="Q41:Q42"/>
-    <mergeCell ref="K74:L74"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="D76:E76"/>
-    <mergeCell ref="I76:J76"/>
-    <mergeCell ref="K76:L76"/>
-    <mergeCell ref="H70:I70"/>
-    <mergeCell ref="K70:L70"/>
-    <mergeCell ref="D71:E71"/>
-    <mergeCell ref="D72:E72"/>
-    <mergeCell ref="I72:J72"/>
-    <mergeCell ref="K72:L72"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.39370078740157483" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="85" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -24175,8 +24175,8 @@
   </sheetPr>
   <dimension ref="A1:N130"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="M37" sqref="M37"/>
     </sheetView>
   </sheetViews>
@@ -27370,7 +27370,7 @@
   <dimension ref="A1:Z91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B47" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B50" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
       <selection pane="bottomRight" activeCell="F57" sqref="F57"/>
@@ -27403,7 +27403,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="648"/>
+      <c r="B1" s="672"/>
       <c r="C1" s="714" t="s">
         <v>754</v>
       </c>
@@ -27419,7 +27419,7 @@
       <c r="M1" s="715"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="649"/>
+      <c r="B2" s="673"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -27429,21 +27429,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="652" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="653"/>
+      <c r="B3" s="676" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="677"/>
       <c r="D3" s="10"/>
       <c r="E3" s="556"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="654" t="s">
+      <c r="H3" s="678" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="654"/>
+      <c r="I3" s="678"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="691" t="s">
+      <c r="P3" s="702" t="s">
         <v>6</v>
       </c>
       <c r="R3" s="712" t="s">
@@ -27465,14 +27465,14 @@
       <c r="D4" s="18">
         <v>44682</v>
       </c>
-      <c r="E4" s="655" t="s">
+      <c r="E4" s="679" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="656"/>
-      <c r="H4" s="657" t="s">
+      <c r="F4" s="680"/>
+      <c r="H4" s="681" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="658"/>
+      <c r="I4" s="682"/>
       <c r="J4" s="559"/>
       <c r="K4" s="565"/>
       <c r="L4" s="566"/>
@@ -27482,15 +27482,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="692"/>
+      <c r="P4" s="703"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
       <c r="R4" s="713"/>
       <c r="U4" s="34"/>
       <c r="V4" s="128"/>
-      <c r="W4" s="774"/>
-      <c r="X4" s="774"/>
+      <c r="W4" s="777"/>
+      <c r="X4" s="777"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -27544,8 +27544,8 @@
       <c r="S5" s="324"/>
       <c r="U5" s="34"/>
       <c r="V5" s="128"/>
-      <c r="W5" s="774"/>
-      <c r="X5" s="774"/>
+      <c r="W5" s="777"/>
+      <c r="X5" s="777"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -28311,7 +28311,7 @@
       <c r="S19" s="147"/>
       <c r="U19" s="34"/>
       <c r="V19" s="128"/>
-      <c r="W19" s="775"/>
+      <c r="W19" s="778"/>
       <c r="X19" s="544"/>
       <c r="Y19" s="233"/>
     </row>
@@ -28365,7 +28365,7 @@
       <c r="S20" s="147"/>
       <c r="U20" s="34"/>
       <c r="V20" s="128"/>
-      <c r="W20" s="775"/>
+      <c r="W20" s="778"/>
       <c r="X20" s="34"/>
       <c r="Y20" s="233"/>
     </row>
@@ -28420,8 +28420,8 @@
       <c r="S21" s="147"/>
       <c r="U21" s="34"/>
       <c r="V21" s="128"/>
-      <c r="W21" s="707"/>
-      <c r="X21" s="707"/>
+      <c r="W21" s="691"/>
+      <c r="X21" s="691"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -28532,8 +28532,8 @@
       <c r="S23" s="147"/>
       <c r="U23" s="34"/>
       <c r="V23" s="128"/>
-      <c r="W23" s="708"/>
-      <c r="X23" s="708"/>
+      <c r="W23" s="692"/>
+      <c r="X23" s="692"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -28594,8 +28594,8 @@
       <c r="S24" s="147"/>
       <c r="U24" s="34"/>
       <c r="V24" s="128"/>
-      <c r="W24" s="708"/>
-      <c r="X24" s="708"/>
+      <c r="W24" s="692"/>
+      <c r="X24" s="692"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -28648,8 +28648,8 @@
       </c>
       <c r="U25" s="34"/>
       <c r="V25" s="128"/>
-      <c r="W25" s="709"/>
-      <c r="X25" s="709"/>
+      <c r="W25" s="693"/>
+      <c r="X25" s="693"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -28704,8 +28704,8 @@
       <c r="T26" s="128"/>
       <c r="U26" s="34"/>
       <c r="V26" s="128"/>
-      <c r="W26" s="709"/>
-      <c r="X26" s="709"/>
+      <c r="W26" s="693"/>
+      <c r="X26" s="693"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -28760,9 +28760,9 @@
       <c r="T27" s="128"/>
       <c r="U27" s="34"/>
       <c r="V27" s="128"/>
-      <c r="W27" s="702"/>
-      <c r="X27" s="703"/>
-      <c r="Y27" s="704"/>
+      <c r="W27" s="686"/>
+      <c r="X27" s="687"/>
+      <c r="Y27" s="688"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -28816,9 +28816,9 @@
       <c r="T28" s="128"/>
       <c r="U28" s="34"/>
       <c r="V28" s="128"/>
-      <c r="W28" s="703"/>
-      <c r="X28" s="703"/>
-      <c r="Y28" s="704"/>
+      <c r="W28" s="687"/>
+      <c r="X28" s="687"/>
+      <c r="Y28" s="688"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -29409,11 +29409,11 @@
       <c r="J41" s="56"/>
       <c r="K41" s="38"/>
       <c r="L41" s="39"/>
-      <c r="M41" s="693">
+      <c r="M41" s="704">
         <f>SUM(M5:M40)</f>
         <v>1509924.1</v>
       </c>
-      <c r="N41" s="693">
+      <c r="N41" s="704">
         <f>SUM(N5:N40)</f>
         <v>1012291</v>
       </c>
@@ -29445,8 +29445,8 @@
       <c r="L42" s="641">
         <v>3095.88</v>
       </c>
-      <c r="M42" s="694"/>
-      <c r="N42" s="694"/>
+      <c r="M42" s="705"/>
+      <c r="N42" s="705"/>
       <c r="P42" s="34"/>
       <c r="Q42" s="753"/>
     </row>
@@ -29937,26 +29937,26 @@
       <c r="A63" s="98"/>
       <c r="B63" s="99"/>
       <c r="C63" s="1"/>
-      <c r="H63" s="670" t="s">
+      <c r="H63" s="659" t="s">
         <v>11</v>
       </c>
-      <c r="I63" s="671"/>
+      <c r="I63" s="660"/>
       <c r="J63" s="562"/>
-      <c r="K63" s="777">
+      <c r="K63" s="774">
         <f>I61+L61</f>
         <v>340912.75</v>
       </c>
-      <c r="L63" s="778"/>
+      <c r="L63" s="775"/>
       <c r="M63" s="272"/>
       <c r="N63" s="272"/>
       <c r="P63" s="34"/>
       <c r="Q63" s="13"/>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D64" s="676" t="s">
+      <c r="D64" s="665" t="s">
         <v>12</v>
       </c>
-      <c r="E64" s="676"/>
+      <c r="E64" s="665"/>
       <c r="F64" s="312">
         <f>F61-K63-C61</f>
         <v>1458827.53</v>
@@ -29965,22 +29965,22 @@
       <c r="J64" s="563"/>
     </row>
     <row r="65" spans="2:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D65" s="700" t="s">
+      <c r="D65" s="695" t="s">
         <v>95</v>
       </c>
-      <c r="E65" s="700"/>
+      <c r="E65" s="695"/>
       <c r="F65" s="111">
         <v>-1572197.3</v>
       </c>
-      <c r="I65" s="677" t="s">
+      <c r="I65" s="666" t="s">
         <v>13</v>
       </c>
-      <c r="J65" s="678"/>
-      <c r="K65" s="679">
+      <c r="J65" s="667"/>
+      <c r="K65" s="668">
         <f>F67+F68+F69</f>
         <v>2392765.5300000003</v>
       </c>
-      <c r="L65" s="679"/>
+      <c r="L65" s="668"/>
       <c r="M65" s="404"/>
       <c r="N65" s="404"/>
       <c r="O65" s="582"/>
@@ -30025,7 +30025,7 @@
         <f>-C4</f>
         <v>-2112071.92</v>
       </c>
-      <c r="L67" s="679"/>
+      <c r="L67" s="668"/>
     </row>
     <row r="68" spans="2:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D68" s="110" t="s">
@@ -30042,22 +30042,22 @@
       <c r="C69" s="112">
         <v>44710</v>
       </c>
-      <c r="D69" s="659" t="s">
+      <c r="D69" s="648" t="s">
         <v>18</v>
       </c>
-      <c r="E69" s="660"/>
+      <c r="E69" s="649"/>
       <c r="F69" s="113">
         <v>2546982.16</v>
       </c>
-      <c r="I69" s="661" t="s">
+      <c r="I69" s="650" t="s">
         <v>198</v>
       </c>
-      <c r="J69" s="662"/>
-      <c r="K69" s="663">
+      <c r="J69" s="651"/>
+      <c r="K69" s="652">
         <f>K65+K67</f>
         <v>280693.61000000034</v>
       </c>
-      <c r="L69" s="663"/>
+      <c r="L69" s="652"/>
     </row>
     <row r="70" spans="2:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C70" s="114"/>
@@ -30204,21 +30204,6 @@
     <sortCondition ref="J42:J56"/>
   </sortState>
   <mergeCells count="30">
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="I69:J69"/>
-    <mergeCell ref="K69:L69"/>
-    <mergeCell ref="H63:I63"/>
-    <mergeCell ref="K63:L63"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="I65:J65"/>
-    <mergeCell ref="K65:L65"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="M41:M42"/>
-    <mergeCell ref="N41:N42"/>
-    <mergeCell ref="Q41:Q42"/>
-    <mergeCell ref="K67:L67"/>
-    <mergeCell ref="M45:N45"/>
     <mergeCell ref="W26:X26"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="W27:X28"/>
@@ -30234,6 +30219,21 @@
     <mergeCell ref="W21:X21"/>
     <mergeCell ref="W23:X24"/>
     <mergeCell ref="W25:X25"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="M41:M42"/>
+    <mergeCell ref="N41:N42"/>
+    <mergeCell ref="Q41:Q42"/>
+    <mergeCell ref="K67:L67"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="I69:J69"/>
+    <mergeCell ref="K69:L69"/>
+    <mergeCell ref="H63:I63"/>
+    <mergeCell ref="K63:L63"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="I65:J65"/>
+    <mergeCell ref="K65:L65"/>
   </mergeCells>
   <pageMargins left="0.28000000000000003" right="0.19" top="0.33" bottom="0.33" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -30249,8 +30249,8 @@
   </sheetPr>
   <dimension ref="A1:N106"/>
   <sheetViews>
-    <sheetView topLeftCell="D22" workbookViewId="0">
-      <selection activeCell="O78" sqref="O78"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32191,42 +32191,65 @@
     <row r="75" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="456"/>
       <c r="B75" s="517"/>
-      <c r="C75" s="518"/>
+      <c r="C75" s="111">
+        <v>49325.599999999999</v>
+      </c>
       <c r="D75" s="519"/>
       <c r="E75" s="520"/>
+      <c r="F75" s="111">
+        <v>2520</v>
+      </c>
       <c r="I75" s="750"/>
       <c r="J75" s="751"/>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76" s="456"/>
       <c r="B76" s="442"/>
-      <c r="F76"/>
+      <c r="C76" s="111">
+        <v>1128</v>
+      </c>
+      <c r="F76" s="111">
+        <v>8158.8</v>
+      </c>
       <c r="I76"/>
       <c r="J76" s="194"/>
       <c r="N76"/>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A77" s="456"/>
       <c r="B77" s="442"/>
-      <c r="F77"/>
+      <c r="C77" s="111">
+        <v>3087.2</v>
+      </c>
+      <c r="F77" s="111">
+        <v>9299</v>
+      </c>
       <c r="I77"/>
       <c r="J77" s="194"/>
       <c r="N77"/>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A78" s="510"/>
       <c r="B78" s="511"/>
-      <c r="C78" s="129"/>
-      <c r="F78"/>
+      <c r="C78" s="111">
+        <v>73300.850000000006</v>
+      </c>
+      <c r="F78" s="111">
+        <v>10924.4</v>
+      </c>
       <c r="I78"/>
       <c r="J78" s="194"/>
       <c r="N78"/>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A79" s="510"/>
       <c r="B79" s="511"/>
-      <c r="C79" s="129"/>
-      <c r="F79"/>
+      <c r="C79" s="111">
+        <v>77730.7</v>
+      </c>
+      <c r="F79" s="111">
+        <v>48105.599999999999</v>
+      </c>
       <c r="I79"/>
       <c r="J79" s="194"/>
       <c r="N79"/>
@@ -32234,8 +32257,12 @@
     <row r="80" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A80" s="512"/>
       <c r="B80" s="513"/>
-      <c r="C80" s="233"/>
-      <c r="F80"/>
+      <c r="C80" s="111">
+        <v>13778.94</v>
+      </c>
+      <c r="F80" s="111">
+        <v>8408.4</v>
+      </c>
       <c r="I80"/>
       <c r="J80" s="194"/>
       <c r="N80"/>
@@ -32243,8 +32270,13 @@
     <row r="81" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81" s="512"/>
       <c r="B81" s="513"/>
-      <c r="C81" s="233"/>
-      <c r="F81"/>
+      <c r="C81" s="111">
+        <v>768</v>
+      </c>
+      <c r="F81" s="457">
+        <f>SUM(F75:F80)</f>
+        <v>87416.199999999983</v>
+      </c>
       <c r="I81"/>
       <c r="J81" s="194"/>
       <c r="N81"/>
@@ -32252,7 +32284,9 @@
     <row r="82" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A82" s="512"/>
       <c r="B82" s="513"/>
-      <c r="C82" s="233"/>
+      <c r="C82" s="111">
+        <v>85663.7</v>
+      </c>
       <c r="F82"/>
       <c r="I82"/>
       <c r="J82" s="194"/>
@@ -32261,7 +32295,10 @@
     <row r="83" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A83" s="512"/>
       <c r="B83" s="513"/>
-      <c r="C83" s="233"/>
+      <c r="C83" s="233">
+        <f>SUM(C75:C82)</f>
+        <v>304782.99</v>
+      </c>
       <c r="F83"/>
       <c r="I83"/>
       <c r="J83" s="194"/>
@@ -35538,23 +35575,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="648"/>
-      <c r="C1" s="650" t="s">
+      <c r="B1" s="672"/>
+      <c r="C1" s="674" t="s">
         <v>208</v>
       </c>
-      <c r="D1" s="651"/>
-      <c r="E1" s="651"/>
-      <c r="F1" s="651"/>
-      <c r="G1" s="651"/>
-      <c r="H1" s="651"/>
-      <c r="I1" s="651"/>
-      <c r="J1" s="651"/>
-      <c r="K1" s="651"/>
-      <c r="L1" s="651"/>
-      <c r="M1" s="651"/>
+      <c r="D1" s="675"/>
+      <c r="E1" s="675"/>
+      <c r="F1" s="675"/>
+      <c r="G1" s="675"/>
+      <c r="H1" s="675"/>
+      <c r="I1" s="675"/>
+      <c r="J1" s="675"/>
+      <c r="K1" s="675"/>
+      <c r="L1" s="675"/>
+      <c r="M1" s="675"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="649"/>
+      <c r="B2" s="673"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -35564,21 +35601,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="652" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="653"/>
+      <c r="B3" s="676" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="677"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="654" t="s">
+      <c r="H3" s="678" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="654"/>
+      <c r="I3" s="678"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="691" t="s">
+      <c r="P3" s="702" t="s">
         <v>6</v>
       </c>
     </row>
@@ -35593,14 +35630,14 @@
       <c r="D4" s="18">
         <v>44507</v>
       </c>
-      <c r="E4" s="655" t="s">
+      <c r="E4" s="679" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="656"/>
-      <c r="H4" s="657" t="s">
+      <c r="F4" s="680"/>
+      <c r="H4" s="681" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="658"/>
+      <c r="I4" s="682"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -35610,14 +35647,14 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="692"/>
+      <c r="P4" s="703"/>
       <c r="Q4" s="286" t="s">
         <v>209</v>
       </c>
-      <c r="W4" s="701" t="s">
+      <c r="W4" s="685" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="701"/>
+      <c r="X4" s="685"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -35668,8 +35705,8 @@
         <f>20000+7936</f>
         <v>27936</v>
       </c>
-      <c r="W5" s="701"/>
-      <c r="X5" s="701"/>
+      <c r="W5" s="685"/>
+      <c r="X5" s="685"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -36440,7 +36477,7 @@
         <v>26370</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="705">
+      <c r="W19" s="689">
         <f>SUM(W6:W18)</f>
         <v>935136</v>
       </c>
@@ -36492,7 +36529,7 @@
         <v>16395.830000000002</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="706"/>
+      <c r="W20" s="690"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -36541,8 +36578,8 @@
         <v>19188.82</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="707"/>
-      <c r="X21" s="707"/>
+      <c r="W21" s="691"/>
+      <c r="X21" s="691"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -36643,8 +36680,8 @@
         <v>45217.29</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="708"/>
-      <c r="X23" s="708"/>
+      <c r="W23" s="692"/>
+      <c r="X23" s="692"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -36698,8 +36735,8 @@
         <v>23159.17</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="708"/>
-      <c r="X24" s="708"/>
+      <c r="W24" s="692"/>
+      <c r="X24" s="692"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -36745,8 +36782,8 @@
       <c r="R25" s="285">
         <v>28952</v>
       </c>
-      <c r="W25" s="709"/>
-      <c r="X25" s="709"/>
+      <c r="W25" s="693"/>
+      <c r="X25" s="693"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -36797,8 +36834,8 @@
       <c r="R26" s="285">
         <v>21771.5</v>
       </c>
-      <c r="W26" s="709"/>
-      <c r="X26" s="709"/>
+      <c r="W26" s="693"/>
+      <c r="X26" s="693"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -36846,9 +36883,9 @@
       <c r="R27" s="285">
         <v>14637</v>
       </c>
-      <c r="W27" s="702"/>
-      <c r="X27" s="703"/>
-      <c r="Y27" s="704"/>
+      <c r="W27" s="686"/>
+      <c r="X27" s="687"/>
+      <c r="Y27" s="688"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -36898,9 +36935,9 @@
       <c r="R28" s="285">
         <v>0</v>
       </c>
-      <c r="W28" s="703"/>
-      <c r="X28" s="703"/>
-      <c r="Y28" s="704"/>
+      <c r="W28" s="687"/>
+      <c r="X28" s="687"/>
+      <c r="Y28" s="688"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -37235,11 +37272,11 @@
       <c r="L36" s="44">
         <v>5940</v>
       </c>
-      <c r="M36" s="693">
+      <c r="M36" s="704">
         <f>SUM(M5:M35)</f>
         <v>321168.83</v>
       </c>
-      <c r="N36" s="695">
+      <c r="N36" s="706">
         <f>SUM(N5:N35)</f>
         <v>467016</v>
       </c>
@@ -37247,7 +37284,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="697">
+      <c r="Q36" s="708">
         <f>SUM(Q5:Q35)</f>
         <v>-637069.14000000013</v>
       </c>
@@ -37282,13 +37319,13 @@
       <c r="L37" s="61">
         <v>7929.62</v>
       </c>
-      <c r="M37" s="694"/>
-      <c r="N37" s="696"/>
+      <c r="M37" s="705"/>
+      <c r="N37" s="707"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="698"/>
+      <c r="Q37" s="709"/>
     </row>
     <row r="38" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="23"/>
@@ -37578,26 +37615,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="670" t="s">
+      <c r="H52" s="659" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="671"/>
+      <c r="I52" s="660"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="672">
+      <c r="K52" s="661">
         <f>I50+L50</f>
         <v>71911.59</v>
       </c>
-      <c r="L52" s="699"/>
+      <c r="L52" s="694"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D53" s="676" t="s">
+      <c r="D53" s="665" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="676"/>
+      <c r="E53" s="665"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
         <v>-25952.549999999814</v>
@@ -37606,29 +37643,29 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="700" t="s">
+      <c r="D54" s="695" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="700"/>
+      <c r="E54" s="695"/>
       <c r="F54" s="111">
         <v>-706888.38</v>
       </c>
-      <c r="I54" s="677" t="s">
+      <c r="I54" s="666" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="678"/>
-      <c r="K54" s="679">
+      <c r="J54" s="667"/>
+      <c r="K54" s="668">
         <f>F56+F57+F58</f>
         <v>1308778.3500000003</v>
       </c>
-      <c r="L54" s="679"/>
-      <c r="M54" s="685" t="s">
+      <c r="L54" s="668"/>
+      <c r="M54" s="696" t="s">
         <v>211</v>
       </c>
-      <c r="N54" s="686"/>
-      <c r="O54" s="686"/>
-      <c r="P54" s="686"/>
-      <c r="Q54" s="687"/>
+      <c r="N54" s="697"/>
+      <c r="O54" s="697"/>
+      <c r="P54" s="697"/>
+      <c r="Q54" s="698"/>
     </row>
     <row r="55" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D55" s="313" t="s">
@@ -37642,11 +37679,11 @@
       <c r="J55" s="106"/>
       <c r="K55" s="178"/>
       <c r="L55" s="107"/>
-      <c r="M55" s="688"/>
-      <c r="N55" s="689"/>
-      <c r="O55" s="689"/>
-      <c r="P55" s="689"/>
-      <c r="Q55" s="690"/>
+      <c r="M55" s="699"/>
+      <c r="N55" s="700"/>
+      <c r="O55" s="700"/>
+      <c r="P55" s="700"/>
+      <c r="Q55" s="701"/>
     </row>
     <row r="56" spans="1:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C56" s="4" t="s">
@@ -37664,11 +37701,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="681">
+      <c r="K56" s="670">
         <f>-C4</f>
         <v>-567389.35</v>
       </c>
-      <c r="L56" s="682"/>
+      <c r="L56" s="671"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -37685,22 +37722,22 @@
       <c r="C58" s="112">
         <v>44535</v>
       </c>
-      <c r="D58" s="659" t="s">
+      <c r="D58" s="648" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="660"/>
+      <c r="E58" s="649"/>
       <c r="F58" s="113">
         <v>2142307.62</v>
       </c>
-      <c r="I58" s="661" t="s">
+      <c r="I58" s="650" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="662"/>
-      <c r="K58" s="663">
+      <c r="J58" s="651"/>
+      <c r="K58" s="652">
         <f>K54+K56</f>
         <v>741389.00000000035</v>
       </c>
-      <c r="L58" s="663"/>
+      <c r="L58" s="652"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -37844,14 +37881,17 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="W4:X5"/>
-    <mergeCell ref="W27:X28"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="W19:W20"/>
-    <mergeCell ref="W21:X21"/>
-    <mergeCell ref="W23:X24"/>
-    <mergeCell ref="W25:X25"/>
-    <mergeCell ref="W26:X26"/>
+    <mergeCell ref="M54:Q55"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="Q36:Q37"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
     <mergeCell ref="D58:E58"/>
     <mergeCell ref="I58:J58"/>
     <mergeCell ref="K58:L58"/>
@@ -37862,17 +37902,14 @@
     <mergeCell ref="I54:J54"/>
     <mergeCell ref="K54:L54"/>
     <mergeCell ref="K56:L56"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="M54:Q55"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="N36:N37"/>
-    <mergeCell ref="Q36:Q37"/>
+    <mergeCell ref="W4:X5"/>
+    <mergeCell ref="W27:X28"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="W19:W20"/>
+    <mergeCell ref="W21:X21"/>
+    <mergeCell ref="W23:X24"/>
+    <mergeCell ref="W25:X25"/>
+    <mergeCell ref="W26:X26"/>
   </mergeCells>
   <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.27559055118110237" bottom="0.27559055118110237" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="68" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -40615,23 +40652,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="648"/>
-      <c r="C1" s="650" t="s">
+      <c r="B1" s="672"/>
+      <c r="C1" s="674" t="s">
         <v>208</v>
       </c>
-      <c r="D1" s="651"/>
-      <c r="E1" s="651"/>
-      <c r="F1" s="651"/>
-      <c r="G1" s="651"/>
-      <c r="H1" s="651"/>
-      <c r="I1" s="651"/>
-      <c r="J1" s="651"/>
-      <c r="K1" s="651"/>
-      <c r="L1" s="651"/>
-      <c r="M1" s="651"/>
+      <c r="D1" s="675"/>
+      <c r="E1" s="675"/>
+      <c r="F1" s="675"/>
+      <c r="G1" s="675"/>
+      <c r="H1" s="675"/>
+      <c r="I1" s="675"/>
+      <c r="J1" s="675"/>
+      <c r="K1" s="675"/>
+      <c r="L1" s="675"/>
+      <c r="M1" s="675"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="649"/>
+      <c r="B2" s="673"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -40641,21 +40678,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="652" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="653"/>
+      <c r="B3" s="676" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="677"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="654" t="s">
+      <c r="H3" s="678" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="654"/>
+      <c r="I3" s="678"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="691" t="s">
+      <c r="P3" s="702" t="s">
         <v>6</v>
       </c>
       <c r="R3" s="712" t="s">
@@ -40673,14 +40710,14 @@
       <c r="D4" s="18">
         <v>44507</v>
       </c>
-      <c r="E4" s="655" t="s">
+      <c r="E4" s="679" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="656"/>
-      <c r="H4" s="657" t="s">
+      <c r="F4" s="680"/>
+      <c r="H4" s="681" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="658"/>
+      <c r="I4" s="682"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -40690,15 +40727,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="692"/>
+      <c r="P4" s="703"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
       <c r="R4" s="713"/>
-      <c r="W4" s="701" t="s">
+      <c r="W4" s="685" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="701"/>
+      <c r="X4" s="685"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -40759,8 +40796,8 @@
       <c r="S5" s="324" t="s">
         <v>213</v>
       </c>
-      <c r="W5" s="701"/>
-      <c r="X5" s="701"/>
+      <c r="W5" s="685"/>
+      <c r="X5" s="685"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -41517,7 +41554,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="705">
+      <c r="W19" s="689">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -41569,7 +41606,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="706"/>
+      <c r="W20" s="690"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -41618,8 +41655,8 @@
         <v>0</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="707"/>
-      <c r="X21" s="707"/>
+      <c r="W21" s="691"/>
+      <c r="X21" s="691"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -41720,8 +41757,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="708"/>
-      <c r="X23" s="708"/>
+      <c r="W23" s="692"/>
+      <c r="X23" s="692"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -41772,8 +41809,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="708"/>
-      <c r="X24" s="708"/>
+      <c r="W24" s="692"/>
+      <c r="X24" s="692"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -41819,8 +41856,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="709"/>
-      <c r="X25" s="709"/>
+      <c r="W25" s="693"/>
+      <c r="X25" s="693"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -41868,8 +41905,8 @@
       <c r="R26" s="319">
         <v>0</v>
       </c>
-      <c r="W26" s="709"/>
-      <c r="X26" s="709"/>
+      <c r="W26" s="693"/>
+      <c r="X26" s="693"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -41929,9 +41966,9 @@
       <c r="V27" t="s">
         <v>240</v>
       </c>
-      <c r="W27" s="702"/>
-      <c r="X27" s="703"/>
-      <c r="Y27" s="704"/>
+      <c r="W27" s="686"/>
+      <c r="X27" s="687"/>
+      <c r="Y27" s="688"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -41985,9 +42022,9 @@
       <c r="V28" t="s">
         <v>240</v>
       </c>
-      <c r="W28" s="703"/>
-      <c r="X28" s="703"/>
-      <c r="Y28" s="704"/>
+      <c r="W28" s="687"/>
+      <c r="X28" s="687"/>
+      <c r="Y28" s="688"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -42303,11 +42340,11 @@
       <c r="J36" s="266"/>
       <c r="K36" s="250"/>
       <c r="L36" s="44"/>
-      <c r="M36" s="693">
+      <c r="M36" s="704">
         <f>SUM(M5:M35)</f>
         <v>1077791.3</v>
       </c>
-      <c r="N36" s="695">
+      <c r="N36" s="706">
         <f>SUM(N5:N35)</f>
         <v>936398</v>
       </c>
@@ -42315,7 +42352,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="697">
+      <c r="Q36" s="708">
         <f>SUM(Q5:Q35)</f>
         <v>-14262.940000000002</v>
       </c>
@@ -42334,13 +42371,13 @@
       <c r="J37" s="60"/>
       <c r="K37" s="41"/>
       <c r="L37" s="61"/>
-      <c r="M37" s="694"/>
-      <c r="N37" s="696"/>
+      <c r="M37" s="705"/>
+      <c r="N37" s="707"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="698"/>
+      <c r="Q37" s="709"/>
     </row>
     <row r="38" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="23"/>
@@ -42614,26 +42651,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="670" t="s">
+      <c r="H52" s="659" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="671"/>
+      <c r="I52" s="660"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="672">
+      <c r="K52" s="661">
         <f>I50+L50</f>
         <v>90750.75</v>
       </c>
-      <c r="L52" s="699"/>
+      <c r="L52" s="694"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D53" s="676" t="s">
+      <c r="D53" s="665" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="676"/>
+      <c r="E53" s="665"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
         <v>1739855.03</v>
@@ -42642,29 +42679,29 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="700" t="s">
+      <c r="D54" s="695" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="700"/>
+      <c r="E54" s="695"/>
       <c r="F54" s="111">
         <v>-1567070.66</v>
       </c>
-      <c r="I54" s="677" t="s">
+      <c r="I54" s="666" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="678"/>
-      <c r="K54" s="679">
+      <c r="J54" s="667"/>
+      <c r="K54" s="668">
         <f>F56+F57+F58</f>
         <v>703192.8600000001</v>
       </c>
-      <c r="L54" s="679"/>
-      <c r="M54" s="685" t="s">
+      <c r="L54" s="668"/>
+      <c r="M54" s="696" t="s">
         <v>211</v>
       </c>
-      <c r="N54" s="686"/>
-      <c r="O54" s="686"/>
-      <c r="P54" s="686"/>
-      <c r="Q54" s="687"/>
+      <c r="N54" s="697"/>
+      <c r="O54" s="697"/>
+      <c r="P54" s="697"/>
+      <c r="Q54" s="698"/>
     </row>
     <row r="55" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D55" s="313" t="s">
@@ -42678,11 +42715,11 @@
       <c r="J55" s="106"/>
       <c r="K55" s="178"/>
       <c r="L55" s="107"/>
-      <c r="M55" s="688"/>
-      <c r="N55" s="689"/>
-      <c r="O55" s="689"/>
-      <c r="P55" s="689"/>
-      <c r="Q55" s="690"/>
+      <c r="M55" s="699"/>
+      <c r="N55" s="700"/>
+      <c r="O55" s="700"/>
+      <c r="P55" s="700"/>
+      <c r="Q55" s="701"/>
     </row>
     <row r="56" spans="1:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C56" s="4" t="s">
@@ -42700,11 +42737,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="681">
+      <c r="K56" s="670">
         <f>-C4</f>
         <v>-567389.35</v>
       </c>
-      <c r="L56" s="682"/>
+      <c r="L56" s="671"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -42721,22 +42758,22 @@
       <c r="C58" s="112">
         <v>44563</v>
       </c>
-      <c r="D58" s="659" t="s">
+      <c r="D58" s="648" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="660"/>
+      <c r="E58" s="649"/>
       <c r="F58" s="113">
         <v>754143.23</v>
       </c>
-      <c r="I58" s="661" t="s">
+      <c r="I58" s="650" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="662"/>
-      <c r="K58" s="663">
+      <c r="J58" s="651"/>
+      <c r="K58" s="652">
         <f>K54+K56</f>
         <v>135803.51000000013</v>
       </c>
-      <c r="L58" s="663"/>
+      <c r="L58" s="652"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -42880,20 +42917,13 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="K54:L54"/>
-    <mergeCell ref="M54:Q55"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="W27:X28"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="N36:N37"/>
-    <mergeCell ref="Q36:Q37"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
     <mergeCell ref="H52:I52"/>
     <mergeCell ref="K52:L52"/>
     <mergeCell ref="W4:X5"/>
@@ -42903,13 +42933,20 @@
     <mergeCell ref="W25:X25"/>
     <mergeCell ref="W26:X26"/>
     <mergeCell ref="R3:R4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="M54:Q55"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="W27:X28"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="Q36:Q37"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="K54:L54"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -45604,7 +45641,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="648"/>
+      <c r="B1" s="672"/>
       <c r="C1" s="714" t="s">
         <v>316</v>
       </c>
@@ -45620,7 +45657,7 @@
       <c r="M1" s="715"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="649"/>
+      <c r="B2" s="673"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -45630,21 +45667,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="652" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="653"/>
+      <c r="B3" s="676" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="677"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="654" t="s">
+      <c r="H3" s="678" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="654"/>
+      <c r="I3" s="678"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="691" t="s">
+      <c r="P3" s="702" t="s">
         <v>6</v>
       </c>
       <c r="R3" s="712" t="s">
@@ -45662,14 +45699,14 @@
       <c r="D4" s="18">
         <v>44563</v>
       </c>
-      <c r="E4" s="655" t="s">
+      <c r="E4" s="679" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="656"/>
-      <c r="H4" s="657" t="s">
+      <c r="F4" s="680"/>
+      <c r="H4" s="681" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="658"/>
+      <c r="I4" s="682"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -45679,15 +45716,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="692"/>
+      <c r="P4" s="703"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
       <c r="R4" s="713"/>
-      <c r="W4" s="701" t="s">
+      <c r="W4" s="685" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="701"/>
+      <c r="X4" s="685"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -45738,8 +45775,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="324"/>
-      <c r="W5" s="701"/>
-      <c r="X5" s="701"/>
+      <c r="W5" s="685"/>
+      <c r="X5" s="685"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -46503,7 +46540,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="705">
+      <c r="W19" s="689">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -46556,7 +46593,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="706"/>
+      <c r="W20" s="690"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -46605,8 +46642,8 @@
         <v>377273.87</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="707"/>
-      <c r="X21" s="707"/>
+      <c r="W21" s="691"/>
+      <c r="X21" s="691"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -46706,8 +46743,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="708"/>
-      <c r="X23" s="708"/>
+      <c r="W23" s="692"/>
+      <c r="X23" s="692"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -46762,8 +46799,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="708"/>
-      <c r="X24" s="708"/>
+      <c r="W24" s="692"/>
+      <c r="X24" s="692"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -46808,8 +46845,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="709"/>
-      <c r="X25" s="709"/>
+      <c r="W25" s="693"/>
+      <c r="X25" s="693"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -46857,8 +46894,8 @@
       <c r="R26" s="319">
         <v>0</v>
       </c>
-      <c r="W26" s="709"/>
-      <c r="X26" s="709"/>
+      <c r="W26" s="693"/>
+      <c r="X26" s="693"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -46912,9 +46949,9 @@
       <c r="V27" t="s">
         <v>240</v>
       </c>
-      <c r="W27" s="702"/>
-      <c r="X27" s="703"/>
-      <c r="Y27" s="704"/>
+      <c r="W27" s="686"/>
+      <c r="X27" s="687"/>
+      <c r="Y27" s="688"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -46968,9 +47005,9 @@
       <c r="V28" t="s">
         <v>240</v>
       </c>
-      <c r="W28" s="703"/>
-      <c r="X28" s="703"/>
-      <c r="Y28" s="704"/>
+      <c r="W28" s="687"/>
+      <c r="X28" s="687"/>
+      <c r="Y28" s="688"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -47281,11 +47318,11 @@
       <c r="L36" s="44">
         <v>13275.84</v>
       </c>
-      <c r="M36" s="693">
+      <c r="M36" s="704">
         <f>SUM(M5:M35)</f>
         <v>1818445.73</v>
       </c>
-      <c r="N36" s="695">
+      <c r="N36" s="706">
         <f>SUM(N5:N35)</f>
         <v>739014</v>
       </c>
@@ -47293,7 +47330,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="697">
+      <c r="Q36" s="708">
         <f>SUM(Q5:Q35)</f>
         <v>-7.2800000000133878</v>
       </c>
@@ -47318,13 +47355,13 @@
       <c r="L37" s="61">
         <v>15060.32</v>
       </c>
-      <c r="M37" s="694"/>
-      <c r="N37" s="696"/>
+      <c r="M37" s="705"/>
+      <c r="N37" s="707"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="698"/>
+      <c r="Q37" s="709"/>
       <c r="R37" s="227" t="s">
         <v>7</v>
       </c>
@@ -47617,26 +47654,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="670" t="s">
+      <c r="H52" s="659" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="671"/>
+      <c r="I52" s="660"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="672">
+      <c r="K52" s="661">
         <f>I50+L50</f>
         <v>158798.12</v>
       </c>
-      <c r="L52" s="699"/>
+      <c r="L52" s="694"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="676" t="s">
+      <c r="D53" s="665" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="676"/>
+      <c r="E53" s="665"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
         <v>2078470.75</v>
@@ -47645,22 +47682,22 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="700" t="s">
+      <c r="D54" s="695" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="700"/>
+      <c r="E54" s="695"/>
       <c r="F54" s="111">
         <v>-1448401.2</v>
       </c>
-      <c r="I54" s="677" t="s">
+      <c r="I54" s="666" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="678"/>
-      <c r="K54" s="679">
+      <c r="J54" s="667"/>
+      <c r="K54" s="668">
         <f>F56+F57+F58</f>
         <v>1025960.7</v>
       </c>
-      <c r="L54" s="679"/>
+      <c r="L54" s="668"/>
       <c r="M54" s="404"/>
       <c r="N54" s="404"/>
       <c r="O54" s="404"/>
@@ -47701,11 +47738,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="681">
+      <c r="K56" s="670">
         <f>-C4</f>
         <v>-754143.23</v>
       </c>
-      <c r="L56" s="682"/>
+      <c r="L56" s="671"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -47722,22 +47759,22 @@
       <c r="C58" s="112">
         <v>44591</v>
       </c>
-      <c r="D58" s="659" t="s">
+      <c r="D58" s="648" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="660"/>
+      <c r="E58" s="649"/>
       <c r="F58" s="113">
         <v>1149740.4099999999</v>
       </c>
-      <c r="I58" s="661" t="s">
+      <c r="I58" s="650" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="662"/>
-      <c r="K58" s="663">
+      <c r="J58" s="651"/>
+      <c r="K58" s="652">
         <f>K54+K56</f>
         <v>271817.46999999997</v>
       </c>
-      <c r="L58" s="663"/>
+      <c r="L58" s="652"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -47881,20 +47918,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="N36:N37"/>
-    <mergeCell ref="Q36:Q37"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="K54:L54"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="K52:L52"/>
     <mergeCell ref="W26:X26"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="W27:X28"/>
@@ -47910,6 +47933,20 @@
     <mergeCell ref="W21:X21"/>
     <mergeCell ref="W23:X24"/>
     <mergeCell ref="W25:X25"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="Q36:Q37"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="K52:L52"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -50703,7 +50740,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="648"/>
+      <c r="B1" s="672"/>
       <c r="C1" s="714" t="s">
         <v>646</v>
       </c>
@@ -50719,7 +50756,7 @@
       <c r="M1" s="715"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="649"/>
+      <c r="B2" s="673"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -50729,21 +50766,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="652" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="653"/>
+      <c r="B3" s="676" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="677"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="654" t="s">
+      <c r="H3" s="678" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="654"/>
+      <c r="I3" s="678"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="691" t="s">
+      <c r="P3" s="702" t="s">
         <v>6</v>
       </c>
       <c r="R3" s="712" t="s">
@@ -50761,14 +50798,14 @@
       <c r="D4" s="18">
         <v>44591</v>
       </c>
-      <c r="E4" s="655" t="s">
+      <c r="E4" s="679" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="656"/>
-      <c r="H4" s="657" t="s">
+      <c r="F4" s="680"/>
+      <c r="H4" s="681" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="658"/>
+      <c r="I4" s="682"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -50778,15 +50815,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="692"/>
+      <c r="P4" s="703"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
       <c r="R4" s="713"/>
-      <c r="W4" s="701" t="s">
+      <c r="W4" s="685" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="701"/>
+      <c r="X4" s="685"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -50837,8 +50874,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="324"/>
-      <c r="W5" s="701"/>
-      <c r="X5" s="701"/>
+      <c r="W5" s="685"/>
+      <c r="X5" s="685"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -51599,7 +51636,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="705">
+      <c r="W19" s="689">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -51651,7 +51688,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="706"/>
+      <c r="W20" s="690"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -51700,8 +51737,8 @@
         <v>18072</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="707"/>
-      <c r="X21" s="707"/>
+      <c r="W21" s="691"/>
+      <c r="X21" s="691"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -51800,8 +51837,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="708"/>
-      <c r="X23" s="708"/>
+      <c r="W23" s="692"/>
+      <c r="X23" s="692"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -51856,8 +51893,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="708"/>
-      <c r="X24" s="708"/>
+      <c r="W24" s="692"/>
+      <c r="X24" s="692"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -51905,8 +51942,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="709"/>
-      <c r="X25" s="709"/>
+      <c r="W25" s="693"/>
+      <c r="X25" s="693"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -51954,8 +51991,8 @@
       <c r="R26" s="319">
         <v>0</v>
       </c>
-      <c r="W26" s="709"/>
-      <c r="X26" s="709"/>
+      <c r="W26" s="693"/>
+      <c r="X26" s="693"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -52003,9 +52040,9 @@
       <c r="R27" s="319">
         <v>0</v>
       </c>
-      <c r="W27" s="702"/>
-      <c r="X27" s="703"/>
-      <c r="Y27" s="704"/>
+      <c r="W27" s="686"/>
+      <c r="X27" s="687"/>
+      <c r="Y27" s="688"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -52053,9 +52090,9 @@
       <c r="R28" s="319">
         <v>0</v>
       </c>
-      <c r="W28" s="703"/>
-      <c r="X28" s="703"/>
-      <c r="Y28" s="704"/>
+      <c r="W28" s="687"/>
+      <c r="X28" s="687"/>
+      <c r="Y28" s="688"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -52396,11 +52433,11 @@
       <c r="J36" s="266"/>
       <c r="K36" s="250"/>
       <c r="L36" s="44"/>
-      <c r="M36" s="693">
+      <c r="M36" s="704">
         <f>SUM(M5:M35)</f>
         <v>2143864.4900000002</v>
       </c>
-      <c r="N36" s="695">
+      <c r="N36" s="706">
         <f>SUM(N5:N35)</f>
         <v>791108</v>
       </c>
@@ -52433,8 +52470,8 @@
       <c r="L37" s="61">
         <v>16518.78</v>
       </c>
-      <c r="M37" s="694"/>
-      <c r="N37" s="696"/>
+      <c r="M37" s="705"/>
+      <c r="N37" s="707"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
@@ -52741,26 +52778,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="670" t="s">
+      <c r="H52" s="659" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="671"/>
+      <c r="I52" s="660"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="672">
+      <c r="K52" s="661">
         <f>I50+L50</f>
         <v>197471.8</v>
       </c>
-      <c r="L52" s="699"/>
+      <c r="L52" s="694"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="676" t="s">
+      <c r="D53" s="665" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="676"/>
+      <c r="E53" s="665"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
         <v>2057786.11</v>
@@ -52769,22 +52806,22 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="700" t="s">
+      <c r="D54" s="695" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="700"/>
+      <c r="E54" s="695"/>
       <c r="F54" s="111">
         <v>-1702928.14</v>
       </c>
-      <c r="I54" s="677" t="s">
+      <c r="I54" s="666" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="678"/>
-      <c r="K54" s="679">
+      <c r="J54" s="667"/>
+      <c r="K54" s="668">
         <f>F56+F57+F58</f>
         <v>1147965.3400000003</v>
       </c>
-      <c r="L54" s="679"/>
+      <c r="L54" s="668"/>
       <c r="M54" s="404"/>
       <c r="N54" s="404"/>
       <c r="O54" s="404"/>
@@ -52825,11 +52862,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="681">
+      <c r="K56" s="670">
         <f>-C4</f>
         <v>-1149740.4099999999</v>
       </c>
-      <c r="L56" s="682"/>
+      <c r="L56" s="671"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -52846,22 +52883,22 @@
       <c r="C58" s="112">
         <v>44619</v>
       </c>
-      <c r="D58" s="659" t="s">
+      <c r="D58" s="648" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="660"/>
+      <c r="E58" s="649"/>
       <c r="F58" s="113">
         <v>1266568.45</v>
       </c>
-      <c r="I58" s="661" t="s">
+      <c r="I58" s="650" t="s">
         <v>97</v>
       </c>
-      <c r="J58" s="662"/>
-      <c r="K58" s="663">
+      <c r="J58" s="651"/>
+      <c r="K58" s="652">
         <f>K54+K56</f>
         <v>-1775.0699999995995</v>
       </c>
-      <c r="L58" s="663"/>
+      <c r="L58" s="652"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -53005,6 +53042,20 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="W26:X26"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="W4:X5"/>
+    <mergeCell ref="W19:W20"/>
+    <mergeCell ref="W21:X21"/>
+    <mergeCell ref="W23:X24"/>
+    <mergeCell ref="W25:X25"/>
     <mergeCell ref="D58:E58"/>
     <mergeCell ref="I58:J58"/>
     <mergeCell ref="K58:L58"/>
@@ -53021,20 +53072,6 @@
     <mergeCell ref="K54:L54"/>
     <mergeCell ref="K56:L56"/>
     <mergeCell ref="M39:N39"/>
-    <mergeCell ref="W26:X26"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="W4:X5"/>
-    <mergeCell ref="W19:W20"/>
-    <mergeCell ref="W21:X21"/>
-    <mergeCell ref="W23:X24"/>
-    <mergeCell ref="W25:X25"/>
   </mergeCells>
   <pageMargins left="0.23" right="0.23" top="0.4" bottom="0.28000000000000003" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
